--- a/Excel LHDN Calculator Form (Blank Form).xlsx
+++ b/Excel LHDN Calculator Form (Blank Form).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbb5431a6b52bb8e/School Stuff/University Work/Year 3 Semester 1/Mathematical and Statistical Software/Assignment/Assignment 1/LHDN Tax Form (Case B)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harein\Documents\GitHub\MY_TaxRelief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="910" documentId="8_{DD8369C0-19B7-454F-A25B-840A94A103A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5796288B-D63D-4CBD-B8BB-D7D11F91615D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD8B373-C1F5-4E9B-ACBC-325388CE7E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="777" xr2:uid="{4EA980A6-4219-484D-BF26-8C30E1E17AF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="777" activeTab="2" xr2:uid="{4EA980A6-4219-484D-BF26-8C30E1E17AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Compute Income Tax (Part B)" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="512">
   <si>
     <t>TOTAL INCOME TAX ( B13a + B13b )</t>
   </si>
@@ -1638,16 +1649,7 @@
     <t>Next ringgit</t>
   </si>
   <si>
-    <t>Next 1,000,000</t>
-  </si>
-  <si>
-    <t>Next 400,000</t>
-  </si>
-  <si>
     <t>Next 200,000</t>
-  </si>
-  <si>
-    <t>Next 150,000</t>
   </si>
   <si>
     <t>Next 30,000</t>
@@ -2337,16 +2339,10 @@
     <t>Tax on the First 100,000</t>
   </si>
   <si>
-    <t>Tax on the First 250,000</t>
-  </si>
-  <si>
     <t>Tax on the First 400,000</t>
   </si>
   <si>
     <t>Tax on the First 600,000</t>
-  </si>
-  <si>
-    <t>Tax on the First 1,000,000</t>
   </si>
   <si>
     <t>Tax on the First 2,000,000</t>
@@ -2431,14 +2427,20 @@
 which the return form is furnished to LHDNM, for future reference and inspection if required.</t>
     </r>
   </si>
+  <si>
+    <t>Next 250,000</t>
+  </si>
+  <si>
+    <t>Next 1,400,000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -2562,7 +2564,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2590,12 +2592,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF95CBE9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDF4FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3210,11 +3206,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3425,135 +3421,15 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3623,28 +3499,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3672,18 +3548,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3698,12 +3568,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3733,20 +3597,47 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3757,208 +3648,184 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3982,26 +3849,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4010,7 +3934,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="46">
     <dxf>
       <fill>
         <patternFill>
@@ -4028,7 +3952,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4098,55 +4029,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
@@ -4189,7 +4071,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4245,14 +4148,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4287,7 +4183,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4308,7 +4204,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4674,10 +4570,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B44"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4707,84 +4603,86 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="163" t="s">
-        <v>504</v>
-      </c>
-      <c r="D3" s="163" t="s">
-        <v>481</v>
+      <c r="C3" s="122" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" s="122" t="s">
+        <v>478</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="187" t="s">
-        <v>405</v>
-      </c>
-      <c r="B5" s="182" t="s">
-        <v>407</v>
-      </c>
-      <c r="C5" s="183"/>
+      <c r="A5" s="152" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="143" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" s="155">
+        <v>5834</v>
+      </c>
       <c r="D5" s="46" t="s">
         <v>82</v>
       </c>
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="188"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="183"/>
+      <c r="A6" s="153"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="155"/>
       <c r="D6" s="24" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="188"/>
-      <c r="B7" s="182"/>
-      <c r="C7" s="183"/>
+      <c r="A7" s="153"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="155"/>
       <c r="D7" s="24" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="188"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="183"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="155"/>
       <c r="D8" s="24" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="188"/>
-      <c r="B9" s="182"/>
-      <c r="C9" s="183"/>
+      <c r="A9" s="153"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="155"/>
       <c r="D9" s="30" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="188"/>
-      <c r="B10" s="182"/>
-      <c r="C10" s="183"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="155"/>
       <c r="D10" s="30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="188"/>
-      <c r="B11" s="182"/>
-      <c r="C11" s="183"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="155"/>
       <c r="D11" s="24" t="s">
         <v>77</v>
       </c>
@@ -4793,9 +4691,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="188"/>
-      <c r="B12" s="182"/>
-      <c r="C12" s="183"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="155"/>
       <c r="D12" s="24" t="s">
         <v>75</v>
       </c>
@@ -4804,9 +4702,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="188"/>
-      <c r="B13" s="182"/>
-      <c r="C13" s="183"/>
+      <c r="A13" s="153"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="155"/>
       <c r="D13" s="24" t="s">
         <v>73</v>
       </c>
@@ -4815,9 +4713,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="188"/>
-      <c r="B14" s="182"/>
-      <c r="C14" s="183"/>
+      <c r="A14" s="153"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="155"/>
       <c r="D14" s="24" t="s">
         <v>71</v>
       </c>
@@ -4826,38 +4724,38 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="188"/>
-      <c r="B15" s="182"/>
-      <c r="C15" s="183"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="24"/>
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="188"/>
-      <c r="B16" s="182"/>
-      <c r="C16" s="183"/>
+      <c r="A16" s="153"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="24" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="188"/>
-      <c r="B17" s="182"/>
-      <c r="C17" s="183"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="155"/>
       <c r="D17" s="29" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="188"/>
-      <c r="B18" s="164" t="s">
-        <v>490</v>
+      <c r="A18" s="153"/>
+      <c r="B18" s="7" t="s">
+        <v>487</v>
       </c>
       <c r="C18" s="42">
         <f>IF(NOT(ISNUMBER(C5)),0,C5*12)</f>
-        <v>0</v>
+        <v>70008</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>68</v>
@@ -4865,47 +4763,47 @@
       <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="187" t="s">
-        <v>406</v>
-      </c>
-      <c r="B19" s="182" t="s">
+      <c r="A19" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="B19" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="184"/>
+      <c r="C19" s="139"/>
       <c r="D19" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="188"/>
-      <c r="B20" s="182"/>
-      <c r="C20" s="185"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="140"/>
       <c r="D20" s="30" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="188"/>
-      <c r="B21" s="182"/>
-      <c r="C21" s="185"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="140"/>
       <c r="D21" s="24"/>
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="188"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="185"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="140"/>
       <c r="D22" s="40" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="189"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="186"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="142"/>
       <c r="D23" s="29" t="s">
         <v>63</v>
       </c>
@@ -4918,232 +4816,232 @@
       <c r="B24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="144"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="34" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="187" t="s">
+      <c r="A25" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="192" t="s">
+      <c r="B25" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="184"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="188"/>
-      <c r="B26" s="193"/>
-      <c r="C26" s="185"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="140"/>
       <c r="D26" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="188"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="185"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="140"/>
       <c r="D27" s="37" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="188"/>
-      <c r="B28" s="193"/>
-      <c r="C28" s="185"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="140"/>
       <c r="D28" s="36" t="s">
         <v>54</v>
       </c>
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="188"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="185"/>
+      <c r="A29" s="153"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="140"/>
       <c r="D29" s="37" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="188"/>
-      <c r="B30" s="193"/>
-      <c r="C30" s="185"/>
+      <c r="A30" s="153"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="140"/>
       <c r="D30" s="36" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="188"/>
-      <c r="B31" s="194"/>
-      <c r="C31" s="185"/>
+      <c r="A31" s="153"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="140"/>
       <c r="D31" s="35" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="188"/>
+      <c r="A32" s="153"/>
       <c r="B32" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="185"/>
+      <c r="C32" s="140"/>
       <c r="D32" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="188"/>
-      <c r="B33" s="192" t="s">
+      <c r="A33" s="153"/>
+      <c r="B33" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="185"/>
+      <c r="C33" s="140"/>
       <c r="D33" s="33" t="s">
         <v>47</v>
       </c>
       <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="188"/>
-      <c r="B34" s="193"/>
-      <c r="C34" s="185"/>
+      <c r="A34" s="153"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="140"/>
       <c r="D34" s="24" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="188"/>
-      <c r="B35" s="193"/>
-      <c r="C35" s="185"/>
+      <c r="A35" s="153"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="140"/>
       <c r="D35" s="24" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="188"/>
-      <c r="B36" s="194"/>
-      <c r="C36" s="185"/>
+      <c r="A36" s="153"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="140"/>
       <c r="D36" s="32" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="188"/>
-      <c r="B37" s="195" t="s">
+      <c r="A37" s="153"/>
+      <c r="B37" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="185"/>
+      <c r="C37" s="140"/>
       <c r="D37" s="26" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="188"/>
-      <c r="B38" s="195"/>
-      <c r="C38" s="190"/>
+      <c r="A38" s="153"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="141"/>
       <c r="D38" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="188"/>
-      <c r="B39" s="195"/>
-      <c r="C39" s="185"/>
+      <c r="A39" s="153"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="140"/>
       <c r="D39" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="188"/>
+      <c r="A40" s="153"/>
       <c r="B40" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="185"/>
+      <c r="C40" s="140"/>
       <c r="D40" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="188"/>
+      <c r="A41" s="153"/>
       <c r="B41" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="185"/>
+      <c r="C41" s="140"/>
       <c r="D41" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="188"/>
+      <c r="A42" s="153"/>
       <c r="B42" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="185"/>
+      <c r="C42" s="140"/>
       <c r="D42" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="188"/>
-      <c r="B43" s="196" t="s">
+      <c r="A43" s="153"/>
+      <c r="B43" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="185"/>
+      <c r="C43" s="140"/>
       <c r="D43" s="26" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="188"/>
-      <c r="B44" s="197"/>
-      <c r="C44" s="185"/>
+      <c r="A44" s="153"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="140"/>
       <c r="D44" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="188"/>
-      <c r="B45" s="197"/>
-      <c r="C45" s="185"/>
+      <c r="A45" s="153"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="140"/>
       <c r="D45" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="188"/>
-      <c r="B46" s="197"/>
-      <c r="C46" s="185"/>
+      <c r="A46" s="153"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="140"/>
       <c r="D46" s="30" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="189"/>
-      <c r="B47" s="198"/>
-      <c r="C47" s="186"/>
+      <c r="A47" s="154"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="142"/>
       <c r="D47" s="29" t="s">
         <v>29</v>
       </c>
@@ -5158,86 +5056,88 @@
         <v>28</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C49" s="27">
         <f>IF(COUNTA(C5:C47)=1,0,IF(SUM(C18,C24:C47)-C19&lt;0,0,SUM(C18,C24:C47)-C19))</f>
-        <v>0</v>
+        <v>70008</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="191" t="s">
+      <c r="A51" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="182" t="s">
+      <c r="B51" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="184"/>
+      <c r="C51" s="139">
+        <v>8</v>
+      </c>
       <c r="D51" s="26" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="191"/>
-      <c r="B52" s="182"/>
-      <c r="C52" s="185"/>
+      <c r="A52" s="144"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="140"/>
       <c r="D52" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="191"/>
-      <c r="B53" s="182"/>
-      <c r="C53" s="185"/>
+      <c r="A53" s="144"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="140"/>
       <c r="D53" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="191"/>
-      <c r="B54" s="182"/>
-      <c r="C54" s="185"/>
+      <c r="A54" s="144"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="140"/>
       <c r="D54" s="24"/>
       <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="191"/>
-      <c r="B55" s="182"/>
-      <c r="C55" s="185"/>
+      <c r="A55" s="144"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="140"/>
       <c r="D55" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="191"/>
-      <c r="B56" s="182"/>
-      <c r="C56" s="185"/>
+      <c r="A56" s="144"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="140"/>
       <c r="D56" s="23" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="191"/>
-      <c r="B57" s="182"/>
-      <c r="C57" s="186"/>
+      <c r="A57" s="144"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="142"/>
       <c r="D57" s="21"/>
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="191"/>
+      <c r="A58" s="144"/>
       <c r="B58" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C58" s="13">
         <f>IF(COUNTA(C51)=0,0,IF(C51&gt;C49,C49,C51))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>20</v>
@@ -5253,7 +5153,7 @@
       </c>
       <c r="C60" s="13">
         <f>IF(NOT(AND(ISNUMBER(C49),ISNUMBER(C58))),0,IF(C49-C58&lt;0,0,C49-C58))</f>
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>14</v>
@@ -5265,14 +5165,14 @@
         <v>17</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C62" s="13">
         <f>'Donations, Gifts, Cont (Part E)'!D30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="151" t="s">
-        <v>482</v>
+      <c r="D62" s="111" t="s">
+        <v>479</v>
       </c>
       <c r="E62" s="4"/>
     </row>
@@ -5285,7 +5185,7 @@
       </c>
       <c r="C64" s="13">
         <f>IF(NOT(AND(ISNUMBER(C62),ISNUMBER(C60))),0,IF(C60-C62&lt;0,0,C60-C62))</f>
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>14</v>
@@ -5301,7 +5201,7 @@
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="14" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E66" s="4"/>
     </row>
@@ -5314,7 +5214,7 @@
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="14" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E68" s="4"/>
     </row>
@@ -5323,14 +5223,14 @@
         <v>9</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C70" s="6">
         <f>'Individual Relief Type (Part F)'!D211</f>
         <v>9000</v>
       </c>
-      <c r="D70" s="271" t="s">
-        <v>514</v>
+      <c r="D70" s="138" t="s">
+        <v>509</v>
       </c>
       <c r="E70" s="4"/>
     </row>
@@ -5343,10 +5243,10 @@
       </c>
       <c r="C72" s="11">
         <f>IF(NOT(AND(ISNUMBER(C64),ISNUMBER(C70))),0,IF(C64-C70&lt;0,0,C64-C70))</f>
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E72" s="4"/>
     </row>
@@ -5359,7 +5259,7 @@
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="114"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
@@ -5367,8 +5267,8 @@
         <v>4</v>
       </c>
       <c r="C75" s="9">
-        <f>IF(NOT(ISNUMBER(C72)),0,LOOKUP(C72,'Income Tax Rate'!A2:A25,'Income Tax Rate'!D2:D25))</f>
-        <v>0</v>
+        <f>IF(NOT(ISNUMBER(C72)),0,LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!D2:D21))</f>
+        <v>0.11</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4"/>
@@ -5378,15 +5278,15 @@
         <v>3</v>
       </c>
       <c r="B76" s="7" t="str">
-        <f>IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A25,'Income Tax Rate'!C2:C25),"")</f>
-        <v>Tax on the First 5,000</v>
-      </c>
-      <c r="C76" s="165">
-        <f>IF(NOT(ISNUMBER(C72)),0,IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A25,'Income Tax Rate'!E2:E25),0))</f>
-        <v>0</v>
+        <f>IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!C2:C21),"")</f>
+        <v>Tax on the First 50,000</v>
+      </c>
+      <c r="C76" s="123">
+        <f>IF(NOT(ISNUMBER(C72)),0,IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!E2:E21),0))</f>
+        <v>1500</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E76" s="4"/>
     </row>
@@ -5394,16 +5294,16 @@
       <c r="A77" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="161" t="str">
-        <f>_xlfn.CONCAT("Tax on the ", "Balance ", IF(C75 = 0, TEXT(C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A25,'Income Tax Rate'!A2:A25),0),"#,##0_ ;-#,##0 "),TEXT(C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A25,'Income Tax Rate'!A2:A25)-1,0),"#,##0_ ;-#,##0 ")))</f>
-        <v xml:space="preserve">Tax on the Balance 0 </v>
-      </c>
-      <c r="C77" s="165">
-        <f>IF(NOT(ISNUMBER(C72)),0,IF(C75=0,(C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A25,'Income Tax Rate'!A2:A25),0))*C75,C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A25,'Income Tax Rate'!A2:A25)-1,0))*C75)</f>
-        <v>0</v>
+      <c r="B77" s="7" t="str">
+        <f>_xlfn.CONCAT("Tax on the ", "Balance ", IF(C75 = 0, TEXT(C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!A2:A21),0),"#,##0_ ;-#,##0 "),TEXT(C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!A2:A21)-1,0),"#,##0_ ;-#,##0 ")))</f>
+        <v xml:space="preserve">Tax on the Balance 11,000 </v>
+      </c>
+      <c r="C77" s="123">
+        <f>IF(NOT(ISNUMBER(C72)),0,IF(C75=0,(C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!A2:A21),0))*C75,C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!A2:A21)-1,0))*C75)</f>
+        <v>1210</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E77" s="4"/>
     </row>
@@ -5420,24 +5320,30 @@
       <c r="B79" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="166">
+      <c r="C79" s="124">
         <f>IF(NOT(OR(ISNUMBER(C76),ISNUMBER(C77))),0,SUM(C76:C77))</f>
-        <v>0</v>
+        <v>2710</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="4"/>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D82" s="162"/>
+      <c r="D82" s="121"/>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D83" s="162"/>
+      <c r="D83" s="121"/>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D84" s="162"/>
+      <c r="D84" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="C5:C17"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="C25:C47"/>
     <mergeCell ref="B51:B57"/>
     <mergeCell ref="C51:C57"/>
@@ -5447,79 +5353,63 @@
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B43:B47"/>
     <mergeCell ref="A25:A47"/>
-    <mergeCell ref="B5:B17"/>
-    <mergeCell ref="C5:C17"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="49" priority="25">
+    <cfRule type="expression" dxfId="45" priority="25">
       <formula>NOT(ISNUMBER($C$5))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="47" priority="23">
+    <cfRule type="expression" dxfId="43" priority="23">
       <formula>COUNTA(C5:C47)=1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="24" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="45" priority="21">
+    <cfRule type="expression" dxfId="41" priority="21">
       <formula>COUNTA(C51)=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="22" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="cellIs" dxfId="43" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="20" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="cellIs" dxfId="42" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="C75:C77">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5599,6 +5489,19 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00000000-000E-0000-0000-000001000000}">
+            <xm:f>(COUNTA('Donations, Gifts, Cont (Part E)'!D5:D14,'Donations, Gifts, Cont (Part E)'!D16:D28)=0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="13" id="{00000000-000E-0000-0000-00000D000000}">
             <xm:f>COUNTA('Individual Relief Type (Part F)'!D5:D19,'Individual Relief Type (Part F)'!D32:D64,'Individual Relief Type (Part F)'!D66:D134,'Individual Relief Type (Part F)'!D158:D209)=0</xm:f>
             <x14:dxf>
@@ -5611,19 +5514,6 @@
           </x14:cfRule>
           <xm:sqref>C70</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00000000-000E-0000-0000-000001000000}">
-            <xm:f>(COUNTA('Donations, Gifts, Cont (Part E)'!D5:D14,'Donations, Gifts, Cont (Part E)'!D16:D28)=0)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C62</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -5635,7 +5525,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -5651,10 +5541,10 @@
         <v>90</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D1" s="72" t="s">
         <v>88</v>
@@ -5671,17 +5561,17 @@
       <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
-        <v>408</v>
-      </c>
-      <c r="B3" s="159" t="s">
-        <v>409</v>
-      </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="163" t="s">
-        <v>504</v>
-      </c>
-      <c r="E3" s="158"/>
+      <c r="A3" s="115" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" s="119" t="s">
+        <v>406</v>
+      </c>
+      <c r="C3" s="117"/>
+      <c r="D3" s="122" t="s">
+        <v>499</v>
+      </c>
+      <c r="E3" s="118"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="68"/>
@@ -5691,316 +5581,340 @@
       <c r="E4" s="67"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="115" t="s">
-        <v>410</v>
-      </c>
-      <c r="B5" s="118" t="s">
-        <v>411</v>
+      <c r="A5" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>408</v>
       </c>
       <c r="C5" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="132" t="s">
-        <v>464</v>
+      <c r="D5" s="105"/>
+      <c r="E5" s="92" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="187" t="s">
-        <v>413</v>
-      </c>
-      <c r="B6" s="192" t="s">
-        <v>412</v>
-      </c>
-      <c r="C6" s="187" t="str">
+      <c r="A6" s="152" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="145" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" s="152" t="str">
         <f>IF(NOT(ISNUMBER('Compute Income Tax (Part B)'!C49)), "SUM OF E2 IS MAXIMUM OF 10% Of B4 
 (Aggregate Income) Which is RM X", "10% Of B4 
 (Aggregate Income) Which is RM " &amp; TRUNC('Compute Income Tax (Part B)'!C49*0.1))</f>
         <v>10% Of B4 
-(Aggregate Income) Which is RM 0</v>
-      </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="133" t="s">
+(Aggregate Income) Which is RM 7000</v>
+      </c>
+      <c r="D6" s="156"/>
+      <c r="E6" s="93" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="154"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="82" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>413</v>
+      </c>
+      <c r="C8" s="153"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="94" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="189"/>
-      <c r="B7" s="194"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="122" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="117" t="s">
+      <c r="B9" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="C9" s="153"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="95" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="152" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10" s="149" t="s">
         <v>416</v>
       </c>
-      <c r="C8" s="188"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="134" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B9" s="114" t="s">
+      <c r="C10" s="153"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="93" t="s">
         <v>418</v>
       </c>
-      <c r="C9" s="188"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="135" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="187" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="153"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="96" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="153"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="97" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="153"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="96" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="154"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="82" t="s">
         <v>420</v>
       </c>
-      <c r="B10" s="196" t="s">
-        <v>419</v>
-      </c>
-      <c r="C10" s="188"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="133" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="188"/>
-      <c r="B11" s="197"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="136" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="188"/>
-      <c r="B12" s="197"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="137" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="188"/>
-      <c r="B13" s="197"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="136" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="189"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="122" t="s">
-        <v>423</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="116" t="s">
-        <v>452</v>
-      </c>
-      <c r="B15" s="171" t="s">
-        <v>507</v>
-      </c>
-      <c r="C15" s="168">
+      <c r="A15" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>502</v>
+      </c>
+      <c r="C15" s="126">
         <f>IF(NOT(ISNUMBER('Compute Income Tax (Part B)'!C49)), 0,'Compute Income Tax (Part B)'!C49*0.1)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="167">
+        <v>7000.8</v>
+      </c>
+      <c r="D15" s="125">
         <f>IF(NOT(OR(ISNUMBER(D6),ISNUMBER(D8),ISNUMBER(D9),ISNUMBER(D10))),0,IF(SUM(D6:D14)&gt;C15, C15, SUM(D6:D14)))</f>
         <v>0</v>
       </c>
-      <c r="E15" s="138" t="s">
-        <v>458</v>
+      <c r="E15" s="98" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="191" t="s">
+      <c r="A16" s="144" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16" s="143" t="s">
+        <v>422</v>
+      </c>
+      <c r="C16" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="155"/>
+      <c r="E16" s="99" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="144"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="82" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="144" t="s">
+        <v>428</v>
+      </c>
+      <c r="B18" s="143" t="s">
         <v>424</v>
       </c>
-      <c r="B16" s="182" t="s">
+      <c r="C18" s="159">
+        <v>20000</v>
+      </c>
+      <c r="D18" s="155"/>
+      <c r="E18" s="99" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="144"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="82" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="144" t="s">
         <v>425</v>
       </c>
-      <c r="C16" s="187" t="s">
+      <c r="B20" s="143" t="s">
+        <v>429</v>
+      </c>
+      <c r="C20" s="152" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="183"/>
-      <c r="E16" s="139" t="s">
+      <c r="D20" s="155"/>
+      <c r="E20" s="99" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="144"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="82" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="144" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22" s="143" t="s">
+        <v>431</v>
+      </c>
+      <c r="C22" s="159">
+        <v>20000</v>
+      </c>
+      <c r="D22" s="155"/>
+      <c r="E22" s="99" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="191"/>
-      <c r="B17" s="182"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="122" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="191" t="s">
-        <v>431</v>
-      </c>
-      <c r="B18" s="182" t="s">
-        <v>427</v>
-      </c>
-      <c r="C18" s="199">
-        <v>20000</v>
-      </c>
-      <c r="D18" s="183"/>
-      <c r="E18" s="139" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="144"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="82" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="144" t="s">
+        <v>433</v>
+      </c>
+      <c r="B24" s="143" t="s">
+        <v>434</v>
+      </c>
+      <c r="C24" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="155"/>
+      <c r="E24" s="93" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="144"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="82" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="144" t="s">
+        <v>437</v>
+      </c>
+      <c r="B26" s="143" t="s">
+        <v>438</v>
+      </c>
+      <c r="C26" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="160"/>
+      <c r="E26" s="99" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="191"/>
-      <c r="B19" s="182"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="122" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="191" t="s">
-        <v>428</v>
-      </c>
-      <c r="B20" s="182" t="s">
-        <v>432</v>
-      </c>
-      <c r="C20" s="187" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="183"/>
-      <c r="E20" s="139" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="144"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="100" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="191"/>
-      <c r="B21" s="182"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="122" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="191" t="s">
-        <v>430</v>
-      </c>
-      <c r="B22" s="182" t="s">
-        <v>434</v>
-      </c>
-      <c r="C22" s="199">
-        <v>20000</v>
-      </c>
-      <c r="D22" s="183"/>
-      <c r="E22" s="139" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="191"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="122" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="191" t="s">
-        <v>436</v>
-      </c>
-      <c r="B24" s="182" t="s">
-        <v>437</v>
-      </c>
-      <c r="C24" s="187" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="183"/>
-      <c r="E24" s="133" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="191"/>
-      <c r="B25" s="182"/>
-      <c r="C25" s="189"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="122" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="191" t="s">
-        <v>440</v>
-      </c>
-      <c r="B26" s="182" t="s">
-        <v>441</v>
-      </c>
-      <c r="C26" s="187" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="200"/>
-      <c r="E26" s="139" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="191"/>
-      <c r="B27" s="182"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="140" t="s">
-        <v>449</v>
-      </c>
-    </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="191"/>
-      <c r="B28" s="182"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="200"/>
-      <c r="E28" s="141" t="s">
-        <v>467</v>
+      <c r="A28" s="144"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="101" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="117" t="s">
-        <v>453</v>
-      </c>
-      <c r="B30" s="114" t="s">
-        <v>455</v>
+      <c r="A30" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="C30" s="74"/>
-      <c r="D30" s="120">
+      <c r="D30" s="13">
         <f>IF(COUNTA(D5:D14,D16:D28)=0,0, SUM(D5,D15:D28))</f>
         <v>0</v>
       </c>
-      <c r="E30" s="169" t="s">
-        <v>456</v>
+      <c r="E30" s="127" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
@@ -6008,47 +5922,23 @@
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C6:C14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>$C$15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="28" priority="5">
       <formula>NOT(OR(ISNUMBER(D6),ISNUMBER(D8),ISNUMBER(D9),ISNUMBER(D10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>COUNTA(D5:D14,D16:D28)=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6146,10 +6036,10 @@
   </sheetPr>
   <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B44"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6186,17 +6076,17 @@
       <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="115" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="163" t="s">
-        <v>504</v>
-      </c>
-      <c r="E3" s="158"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="122" t="s">
+        <v>499</v>
+      </c>
+      <c r="E3" s="118"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="68"/>
@@ -6206,16 +6096,16 @@
       <c r="E4" s="67"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="144" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="144" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="206">
+      <c r="C5" s="200">
         <v>9000</v>
       </c>
-      <c r="D5" s="217">
+      <c r="D5" s="205">
         <v>9000</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -6223,584 +6113,584 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="191"/>
-      <c r="B6" s="191"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="123" t="s">
+      <c r="A6" s="144"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="83" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="212" t="s">
+      <c r="A7" s="175" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="172" t="s">
         <v>332</v>
       </c>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="175" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="216"/>
+      <c r="D7" s="178"/>
       <c r="E7" s="24" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="212"/>
-      <c r="B8" s="214"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="216"/>
+      <c r="A8" s="175"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="178"/>
       <c r="E8" s="24" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="212"/>
-      <c r="B9" s="214"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="216"/>
+      <c r="A9" s="175"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="178"/>
       <c r="E9" s="24" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="212"/>
-      <c r="B10" s="214"/>
-      <c r="C10" s="212"/>
-      <c r="D10" s="216"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="178"/>
       <c r="E10" s="24" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="212"/>
-      <c r="B11" s="214"/>
-      <c r="C11" s="212"/>
-      <c r="D11" s="216"/>
+      <c r="A11" s="175"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="178"/>
       <c r="E11" s="30" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="212"/>
-      <c r="B12" s="214"/>
-      <c r="C12" s="212"/>
-      <c r="D12" s="216"/>
+      <c r="A12" s="175"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="178"/>
       <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="212"/>
-      <c r="B13" s="214"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="216"/>
+      <c r="A13" s="175"/>
+      <c r="B13" s="173"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="30" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="212"/>
-      <c r="B14" s="214"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="216"/>
+      <c r="A14" s="175"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="178"/>
       <c r="E14" s="24" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="212"/>
-      <c r="B15" s="214"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="216"/>
+      <c r="A15" s="175"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="178"/>
       <c r="E15" s="24" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="212"/>
-      <c r="B16" s="214"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="216"/>
+      <c r="A16" s="175"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="178"/>
       <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="212"/>
-      <c r="B17" s="214"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="216"/>
+      <c r="A17" s="175"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="178"/>
       <c r="E17" s="24" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="212"/>
-      <c r="B18" s="214"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="216"/>
+      <c r="A18" s="175"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="24" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="212"/>
-      <c r="B19" s="215"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="216"/>
-      <c r="E19" s="124" t="s">
+      <c r="A19" s="175"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="84" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="172" t="s">
+      <c r="A20" s="128" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="81" t="s">
         <v>171</v>
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="60"/>
-      <c r="E20" s="125" t="s">
+      <c r="E20" s="85" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="218" t="s">
+      <c r="A21" s="206" t="s">
         <v>319</v>
       </c>
-      <c r="B21" s="219" t="s">
-        <v>396</v>
-      </c>
-      <c r="C21" s="220" t="s">
-        <v>398</v>
-      </c>
-      <c r="D21" s="221"/>
-      <c r="E21" s="126" t="s">
+      <c r="B21" s="207" t="s">
+        <v>393</v>
+      </c>
+      <c r="C21" s="195" t="s">
+        <v>395</v>
+      </c>
+      <c r="D21" s="208"/>
+      <c r="E21" s="86" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="191"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="188"/>
-      <c r="D22" s="211"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="191"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="211"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="24" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="191"/>
-      <c r="B24" s="182"/>
-      <c r="C24" s="188"/>
-      <c r="D24" s="211"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="209"/>
       <c r="E24" s="30" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="191"/>
-      <c r="B25" s="182"/>
-      <c r="C25" s="189"/>
-      <c r="D25" s="208"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="210"/>
       <c r="E25" s="30" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="191"/>
-      <c r="B26" s="197" t="s">
-        <v>397</v>
-      </c>
-      <c r="C26" s="187" t="s">
-        <v>398</v>
-      </c>
-      <c r="D26" s="207"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="150" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" s="152" t="s">
+        <v>395</v>
+      </c>
+      <c r="D26" s="211"/>
       <c r="E26" s="30" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="191"/>
-      <c r="B27" s="197"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="211"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="209"/>
       <c r="E27" s="30" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="191"/>
-      <c r="B28" s="197"/>
-      <c r="C28" s="188"/>
-      <c r="D28" s="211"/>
+      <c r="A28" s="144"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="209"/>
       <c r="E28" s="30" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="191"/>
-      <c r="B29" s="197"/>
-      <c r="C29" s="188"/>
-      <c r="D29" s="211"/>
+      <c r="A29" s="144"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="209"/>
       <c r="E29" s="30" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="191"/>
-      <c r="B30" s="197"/>
-      <c r="C30" s="189"/>
-      <c r="D30" s="208"/>
-      <c r="E30" s="123" t="s">
+      <c r="A30" s="144"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="83" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="191"/>
+      <c r="A31" s="144"/>
       <c r="B31" s="74" t="s">
-        <v>399</v>
-      </c>
-      <c r="C31" s="117" t="s">
+        <v>396</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D31" s="119">
+      <c r="D31" s="6">
         <f>IF(NOT(OR(ISNUMBER(D21),ISNUMBER(D26))),0,SUM(D21:D30))</f>
         <v>0</v>
       </c>
-      <c r="E31" s="128" t="s">
-        <v>505</v>
+      <c r="E31" s="88" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="191" t="s">
+      <c r="A32" s="144" t="s">
         <v>308</v>
       </c>
-      <c r="B32" s="182" t="s">
+      <c r="B32" s="143" t="s">
         <v>307</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="144" t="s">
         <v>263</v>
       </c>
-      <c r="D32" s="209"/>
+      <c r="D32" s="196"/>
       <c r="E32" s="26" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="191"/>
-      <c r="B33" s="182"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="209"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="196"/>
       <c r="E33" s="24" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="191"/>
-      <c r="B34" s="182"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="209"/>
+      <c r="A34" s="144"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="196"/>
       <c r="E34" s="30" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="191"/>
-      <c r="B35" s="182"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="209"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="196"/>
       <c r="E35" s="24" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="191"/>
-      <c r="B36" s="182"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="209"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="196"/>
       <c r="E36" s="24" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="191"/>
-      <c r="B37" s="182"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="209"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="196"/>
       <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="191"/>
-      <c r="B38" s="182"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="209"/>
+      <c r="A38" s="144"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="196"/>
       <c r="E38" s="30" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="191"/>
-      <c r="B39" s="182"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="209"/>
+      <c r="A39" s="144"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="196"/>
       <c r="E39" s="30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="191"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="209"/>
-      <c r="E40" s="123" t="s">
+      <c r="A40" s="144"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="83" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="191" t="s">
+      <c r="A41" s="144" t="s">
         <v>298</v>
       </c>
-      <c r="B41" s="182" t="s">
+      <c r="B41" s="143" t="s">
         <v>297</v>
       </c>
-      <c r="C41" s="206">
+      <c r="C41" s="200">
         <v>6000</v>
       </c>
-      <c r="D41" s="209"/>
+      <c r="D41" s="196"/>
       <c r="E41" s="46" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="191"/>
-      <c r="B42" s="182"/>
-      <c r="C42" s="206"/>
-      <c r="D42" s="209"/>
+      <c r="A42" s="144"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="200"/>
+      <c r="D42" s="196"/>
       <c r="E42" s="30" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="191"/>
-      <c r="B43" s="182"/>
-      <c r="C43" s="206"/>
-      <c r="D43" s="209"/>
-      <c r="E43" s="123" t="s">
+      <c r="A43" s="144"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="200"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="83" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="191" t="s">
+      <c r="A44" s="144" t="s">
         <v>293</v>
       </c>
-      <c r="B44" s="182" t="s">
+      <c r="B44" s="143" t="s">
         <v>292</v>
       </c>
-      <c r="C44" s="191" t="s">
+      <c r="C44" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="209"/>
+      <c r="D44" s="196"/>
       <c r="E44" s="26" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="191"/>
-      <c r="B45" s="182"/>
-      <c r="C45" s="191"/>
-      <c r="D45" s="209"/>
+      <c r="A45" s="144"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="196"/>
       <c r="E45" s="24" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="191"/>
-      <c r="B46" s="182"/>
-      <c r="C46" s="191"/>
-      <c r="D46" s="209"/>
+      <c r="A46" s="144"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="196"/>
       <c r="E46" s="30" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="191"/>
-      <c r="B47" s="182"/>
-      <c r="C47" s="191"/>
-      <c r="D47" s="209"/>
+      <c r="A47" s="144"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="196"/>
       <c r="E47" s="24" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="191"/>
-      <c r="B48" s="182"/>
-      <c r="C48" s="191"/>
-      <c r="D48" s="209"/>
+      <c r="A48" s="144"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="196"/>
       <c r="E48" s="24"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="191"/>
-      <c r="B49" s="182"/>
-      <c r="C49" s="191"/>
-      <c r="D49" s="209"/>
+      <c r="A49" s="144"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="196"/>
       <c r="E49" s="24" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="191"/>
-      <c r="B50" s="182"/>
-      <c r="C50" s="191"/>
-      <c r="D50" s="209"/>
-      <c r="E50" s="127" t="s">
+      <c r="A50" s="144"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="87" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="191" t="s">
+      <c r="A51" s="144" t="s">
         <v>285</v>
       </c>
-      <c r="B51" s="182" t="s">
+      <c r="B51" s="143" t="s">
         <v>284</v>
       </c>
-      <c r="C51" s="191" t="s">
+      <c r="C51" s="144" t="s">
         <v>283</v>
       </c>
-      <c r="D51" s="209"/>
+      <c r="D51" s="196"/>
       <c r="E51" s="26" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="191"/>
-      <c r="B52" s="182"/>
-      <c r="C52" s="191"/>
-      <c r="D52" s="209"/>
+      <c r="A52" s="144"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="196"/>
       <c r="E52" s="30" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="191"/>
-      <c r="B53" s="182"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="209"/>
+      <c r="A53" s="144"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="196"/>
       <c r="E53" s="30" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="191"/>
-      <c r="B54" s="182"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="209"/>
-      <c r="E54" s="123" t="s">
+      <c r="A54" s="144"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="196"/>
+      <c r="E54" s="83" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="191" t="s">
+      <c r="A55" s="144" t="s">
         <v>279</v>
       </c>
-      <c r="B55" s="182" t="s">
+      <c r="B55" s="143" t="s">
         <v>278</v>
       </c>
-      <c r="C55" s="191" t="s">
+      <c r="C55" s="144" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="209"/>
+      <c r="D55" s="196"/>
       <c r="E55" s="26" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="191"/>
-      <c r="B56" s="182"/>
-      <c r="C56" s="191"/>
-      <c r="D56" s="209"/>
+      <c r="A56" s="144"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="196"/>
       <c r="E56" s="30" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="191"/>
-      <c r="B57" s="182"/>
-      <c r="C57" s="191"/>
-      <c r="D57" s="209"/>
+      <c r="A57" s="144"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="196"/>
       <c r="E57" s="24" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="191"/>
-      <c r="B58" s="182"/>
-      <c r="C58" s="191"/>
-      <c r="D58" s="209"/>
+      <c r="A58" s="144"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="196"/>
       <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="191"/>
-      <c r="B59" s="182"/>
-      <c r="C59" s="191"/>
-      <c r="D59" s="209"/>
+      <c r="A59" s="144"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="196"/>
       <c r="E59" s="30" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="191"/>
-      <c r="B60" s="182"/>
-      <c r="C60" s="191"/>
-      <c r="D60" s="209"/>
+      <c r="A60" s="144"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="196"/>
       <c r="E60" s="30" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="191"/>
-      <c r="B61" s="182"/>
-      <c r="C61" s="191"/>
-      <c r="D61" s="209"/>
+      <c r="A61" s="144"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="196"/>
       <c r="E61" s="30" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="191"/>
-      <c r="B62" s="182"/>
-      <c r="C62" s="191"/>
-      <c r="D62" s="209"/>
-      <c r="E62" s="123" t="s">
+      <c r="A62" s="144"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="196"/>
+      <c r="E62" s="83" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="191" t="s">
+      <c r="A63" s="144" t="s">
         <v>270</v>
       </c>
-      <c r="B63" s="182" t="s">
+      <c r="B63" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="C63" s="191" t="s">
+      <c r="C63" s="144" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="209"/>
+      <c r="D63" s="196"/>
       <c r="E63" s="26" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="191"/>
-      <c r="B64" s="182"/>
-      <c r="C64" s="191"/>
-      <c r="D64" s="209"/>
-      <c r="E64" s="123" t="s">
+      <c r="A64" s="144"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="196"/>
+      <c r="E64" s="83" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6818,8 +6708,8 @@
         <f>IF(COUNTA(D51:D64)=0,0,IF(SUM(D51:D64) &gt; 6000, 6000, SUM(D51:D64)))</f>
         <v>0</v>
       </c>
-      <c r="E65" s="128" t="s">
-        <v>400</v>
+      <c r="E65" s="88" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6829,663 +6719,663 @@
       <c r="B66" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="C66" s="187" t="s">
+      <c r="C66" s="152" t="s">
         <v>260</v>
       </c>
-      <c r="D66" s="211"/>
-      <c r="E66" s="123" t="s">
-        <v>461</v>
+      <c r="D66" s="209"/>
+      <c r="E66" s="83" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="191" t="s">
+      <c r="A67" s="144" t="s">
         <v>259</v>
       </c>
-      <c r="B67" s="210" t="s">
+      <c r="B67" s="212" t="s">
         <v>258</v>
       </c>
-      <c r="C67" s="188"/>
-      <c r="D67" s="211"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="209"/>
       <c r="E67" s="26" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="144"/>
+      <c r="B68" s="212"/>
+      <c r="C68" s="153"/>
+      <c r="D68" s="209"/>
+      <c r="E68" s="83" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="144" t="s">
+        <v>256</v>
+      </c>
+      <c r="B69" s="212" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="153"/>
+      <c r="D69" s="209"/>
+      <c r="E69" s="26" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="144"/>
+      <c r="B70" s="212"/>
+      <c r="C70" s="153"/>
+      <c r="D70" s="209"/>
+      <c r="E70" s="83" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="144" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71" s="212" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" s="153"/>
+      <c r="D71" s="209"/>
+      <c r="E71" s="26" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="191"/>
-      <c r="B68" s="210"/>
-      <c r="C68" s="188"/>
-      <c r="D68" s="211"/>
-      <c r="E68" s="123" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="191" t="s">
-        <v>256</v>
-      </c>
-      <c r="B69" s="210" t="s">
-        <v>255</v>
-      </c>
-      <c r="C69" s="188"/>
-      <c r="D69" s="211"/>
-      <c r="E69" s="26" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="191"/>
-      <c r="B70" s="210"/>
-      <c r="C70" s="188"/>
-      <c r="D70" s="211"/>
-      <c r="E70" s="123" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="191" t="s">
-        <v>253</v>
-      </c>
-      <c r="B71" s="210" t="s">
-        <v>252</v>
-      </c>
-      <c r="C71" s="188"/>
-      <c r="D71" s="211"/>
-      <c r="E71" s="26" t="s">
-        <v>462</v>
-      </c>
-    </row>
     <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="191"/>
-      <c r="B72" s="210"/>
-      <c r="C72" s="188"/>
-      <c r="D72" s="211"/>
+      <c r="A72" s="144"/>
+      <c r="B72" s="212"/>
+      <c r="C72" s="153"/>
+      <c r="D72" s="209"/>
       <c r="E72" s="30" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="191"/>
-      <c r="B73" s="210"/>
-      <c r="C73" s="188"/>
-      <c r="D73" s="211"/>
+      <c r="A73" s="144"/>
+      <c r="B73" s="212"/>
+      <c r="C73" s="153"/>
+      <c r="D73" s="209"/>
       <c r="E73" s="24" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="191"/>
-      <c r="B74" s="210"/>
-      <c r="C74" s="188"/>
-      <c r="D74" s="211"/>
-      <c r="E74" s="123" t="s">
+      <c r="A74" s="144"/>
+      <c r="B74" s="212"/>
+      <c r="C74" s="153"/>
+      <c r="D74" s="209"/>
+      <c r="E74" s="83" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="191" t="s">
+      <c r="A75" s="144" t="s">
         <v>248</v>
       </c>
-      <c r="B75" s="182" t="s">
+      <c r="B75" s="143" t="s">
         <v>247</v>
       </c>
-      <c r="C75" s="188"/>
-      <c r="D75" s="211"/>
+      <c r="C75" s="153"/>
+      <c r="D75" s="209"/>
       <c r="E75" s="26" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="191"/>
-      <c r="B76" s="182"/>
-      <c r="C76" s="189"/>
-      <c r="D76" s="211"/>
-      <c r="E76" s="123" t="s">
+      <c r="A76" s="144"/>
+      <c r="B76" s="143"/>
+      <c r="C76" s="154"/>
+      <c r="D76" s="209"/>
+      <c r="E76" s="83" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="191" t="s">
+      <c r="A77" s="144" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="182" t="s">
+      <c r="B77" s="143" t="s">
         <v>244</v>
       </c>
-      <c r="C77" s="191" t="s">
+      <c r="C77" s="144" t="s">
         <v>243</v>
       </c>
-      <c r="D77" s="226"/>
+      <c r="D77" s="201"/>
       <c r="E77" s="26" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="191"/>
-      <c r="B78" s="182"/>
-      <c r="C78" s="191"/>
-      <c r="D78" s="227"/>
+      <c r="A78" s="144"/>
+      <c r="B78" s="143"/>
+      <c r="C78" s="144"/>
+      <c r="D78" s="202"/>
       <c r="E78" s="30" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="191"/>
-      <c r="B79" s="182"/>
-      <c r="C79" s="191"/>
-      <c r="D79" s="227"/>
+      <c r="A79" s="144"/>
+      <c r="B79" s="143"/>
+      <c r="C79" s="144"/>
+      <c r="D79" s="202"/>
       <c r="E79" s="24" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="191"/>
-      <c r="B80" s="182"/>
-      <c r="C80" s="191"/>
-      <c r="D80" s="227"/>
+      <c r="A80" s="144"/>
+      <c r="B80" s="143"/>
+      <c r="C80" s="144"/>
+      <c r="D80" s="202"/>
       <c r="E80" s="30" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="191"/>
-      <c r="B81" s="182"/>
-      <c r="C81" s="191"/>
-      <c r="D81" s="227"/>
+      <c r="A81" s="144"/>
+      <c r="B81" s="143"/>
+      <c r="C81" s="144"/>
+      <c r="D81" s="202"/>
       <c r="E81" s="30" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="187"/>
-      <c r="B82" s="196"/>
-      <c r="C82" s="187"/>
-      <c r="D82" s="228"/>
-      <c r="E82" s="123" t="s">
+      <c r="A82" s="152"/>
+      <c r="B82" s="149"/>
+      <c r="C82" s="152"/>
+      <c r="D82" s="203"/>
+      <c r="E82" s="83" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="191" t="s">
+      <c r="A83" s="144" t="s">
         <v>237</v>
       </c>
-      <c r="B83" s="182" t="s">
+      <c r="B83" s="143" t="s">
         <v>236</v>
       </c>
-      <c r="C83" s="191" t="s">
+      <c r="C83" s="144" t="s">
         <v>97</v>
       </c>
-      <c r="D83" s="209"/>
+      <c r="D83" s="196"/>
       <c r="E83" s="46" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="191"/>
-      <c r="B84" s="182"/>
-      <c r="C84" s="191"/>
-      <c r="D84" s="209"/>
+      <c r="A84" s="144"/>
+      <c r="B84" s="143"/>
+      <c r="C84" s="144"/>
+      <c r="D84" s="196"/>
       <c r="E84" s="24" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="191"/>
-      <c r="B85" s="182"/>
-      <c r="C85" s="191"/>
-      <c r="D85" s="209"/>
+      <c r="A85" s="144"/>
+      <c r="B85" s="143"/>
+      <c r="C85" s="144"/>
+      <c r="D85" s="196"/>
       <c r="E85" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="191"/>
-      <c r="B86" s="182"/>
-      <c r="C86" s="191"/>
-      <c r="D86" s="209"/>
+      <c r="A86" s="144"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="144"/>
+      <c r="D86" s="196"/>
       <c r="E86" s="24" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="191"/>
-      <c r="B87" s="182"/>
-      <c r="C87" s="191"/>
-      <c r="D87" s="209"/>
+      <c r="A87" s="144"/>
+      <c r="B87" s="143"/>
+      <c r="C87" s="144"/>
+      <c r="D87" s="196"/>
       <c r="E87" s="24"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="191"/>
-      <c r="B88" s="182"/>
-      <c r="C88" s="191"/>
-      <c r="D88" s="209"/>
+      <c r="A88" s="144"/>
+      <c r="B88" s="143"/>
+      <c r="C88" s="144"/>
+      <c r="D88" s="196"/>
       <c r="E88" s="24" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="191"/>
-      <c r="B89" s="182"/>
-      <c r="C89" s="191"/>
-      <c r="D89" s="209"/>
+      <c r="A89" s="144"/>
+      <c r="B89" s="143"/>
+      <c r="C89" s="144"/>
+      <c r="D89" s="196"/>
       <c r="E89" s="24" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="191"/>
-      <c r="B90" s="182"/>
-      <c r="C90" s="191"/>
-      <c r="D90" s="209"/>
+      <c r="A90" s="144"/>
+      <c r="B90" s="143"/>
+      <c r="C90" s="144"/>
+      <c r="D90" s="196"/>
       <c r="E90" s="24" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="191"/>
-      <c r="B91" s="182"/>
-      <c r="C91" s="191"/>
-      <c r="D91" s="209"/>
+      <c r="A91" s="144"/>
+      <c r="B91" s="143"/>
+      <c r="C91" s="144"/>
+      <c r="D91" s="196"/>
       <c r="E91" s="24" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="191"/>
-      <c r="B92" s="182"/>
-      <c r="C92" s="191"/>
-      <c r="D92" s="209"/>
+      <c r="A92" s="144"/>
+      <c r="B92" s="143"/>
+      <c r="C92" s="144"/>
+      <c r="D92" s="196"/>
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="191"/>
-      <c r="B93" s="182"/>
-      <c r="C93" s="191"/>
-      <c r="D93" s="209"/>
+      <c r="A93" s="144"/>
+      <c r="B93" s="143"/>
+      <c r="C93" s="144"/>
+      <c r="D93" s="196"/>
       <c r="E93" s="24" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="191"/>
-      <c r="B94" s="182"/>
-      <c r="C94" s="191"/>
-      <c r="D94" s="209"/>
+      <c r="A94" s="144"/>
+      <c r="B94" s="143"/>
+      <c r="C94" s="144"/>
+      <c r="D94" s="196"/>
       <c r="E94" s="24" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="191"/>
-      <c r="B95" s="182"/>
-      <c r="C95" s="191"/>
-      <c r="D95" s="209"/>
+      <c r="A95" s="144"/>
+      <c r="B95" s="143"/>
+      <c r="C95" s="144"/>
+      <c r="D95" s="196"/>
       <c r="E95" s="30" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="191"/>
-      <c r="B96" s="182"/>
-      <c r="C96" s="191"/>
-      <c r="D96" s="209"/>
-      <c r="E96" s="123" t="s">
+      <c r="A96" s="144"/>
+      <c r="B96" s="143"/>
+      <c r="C96" s="144"/>
+      <c r="D96" s="196"/>
+      <c r="E96" s="83" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="191" t="s">
+      <c r="A97" s="144" t="s">
         <v>224</v>
       </c>
-      <c r="B97" s="182" t="s">
+      <c r="B97" s="143" t="s">
         <v>223</v>
       </c>
-      <c r="C97" s="191" t="s">
+      <c r="C97" s="144" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="209"/>
+      <c r="D97" s="196"/>
       <c r="E97" s="46" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="191"/>
-      <c r="B98" s="182"/>
-      <c r="C98" s="191"/>
-      <c r="D98" s="209"/>
+      <c r="A98" s="144"/>
+      <c r="B98" s="143"/>
+      <c r="C98" s="144"/>
+      <c r="D98" s="196"/>
       <c r="E98" s="30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="191"/>
-      <c r="B99" s="182"/>
-      <c r="C99" s="191"/>
-      <c r="D99" s="209"/>
+      <c r="A99" s="144"/>
+      <c r="B99" s="143"/>
+      <c r="C99" s="144"/>
+      <c r="D99" s="196"/>
       <c r="E99" s="24" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="191"/>
-      <c r="B100" s="182"/>
-      <c r="C100" s="191"/>
-      <c r="D100" s="209"/>
+      <c r="A100" s="144"/>
+      <c r="B100" s="143"/>
+      <c r="C100" s="144"/>
+      <c r="D100" s="196"/>
       <c r="E100" s="24"/>
     </row>
     <row r="101" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="191"/>
-      <c r="B101" s="182"/>
-      <c r="C101" s="191"/>
-      <c r="D101" s="209"/>
+      <c r="A101" s="144"/>
+      <c r="B101" s="143"/>
+      <c r="C101" s="144"/>
+      <c r="D101" s="196"/>
       <c r="E101" s="30" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="191"/>
-      <c r="B102" s="182"/>
-      <c r="C102" s="191"/>
-      <c r="D102" s="209"/>
+      <c r="A102" s="144"/>
+      <c r="B102" s="143"/>
+      <c r="C102" s="144"/>
+      <c r="D102" s="196"/>
       <c r="E102" s="30" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="191"/>
-      <c r="B103" s="182"/>
-      <c r="C103" s="191"/>
-      <c r="D103" s="209"/>
+      <c r="A103" s="144"/>
+      <c r="B103" s="143"/>
+      <c r="C103" s="144"/>
+      <c r="D103" s="196"/>
       <c r="E103" s="30" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="191"/>
-      <c r="B104" s="182"/>
-      <c r="C104" s="191"/>
-      <c r="D104" s="209"/>
+      <c r="A104" s="144"/>
+      <c r="B104" s="143"/>
+      <c r="C104" s="144"/>
+      <c r="D104" s="196"/>
       <c r="E104" s="24"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="191"/>
-      <c r="B105" s="182"/>
-      <c r="C105" s="191"/>
-      <c r="D105" s="209"/>
+      <c r="A105" s="144"/>
+      <c r="B105" s="143"/>
+      <c r="C105" s="144"/>
+      <c r="D105" s="196"/>
       <c r="E105" s="24" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="191"/>
-      <c r="B106" s="182"/>
-      <c r="C106" s="191"/>
-      <c r="D106" s="209"/>
+      <c r="A106" s="144"/>
+      <c r="B106" s="143"/>
+      <c r="C106" s="144"/>
+      <c r="D106" s="196"/>
       <c r="E106" s="24" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="191"/>
-      <c r="B107" s="182"/>
-      <c r="C107" s="191"/>
-      <c r="D107" s="209"/>
+      <c r="A107" s="144"/>
+      <c r="B107" s="143"/>
+      <c r="C107" s="144"/>
+      <c r="D107" s="196"/>
       <c r="E107" s="24" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="191"/>
-      <c r="B108" s="182"/>
-      <c r="C108" s="191"/>
-      <c r="D108" s="209"/>
-      <c r="E108" s="123" t="s">
+      <c r="A108" s="144"/>
+      <c r="B108" s="143"/>
+      <c r="C108" s="144"/>
+      <c r="D108" s="196"/>
+      <c r="E108" s="83" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="191" t="s">
+      <c r="A109" s="144" t="s">
         <v>212</v>
       </c>
-      <c r="B109" s="182" t="s">
+      <c r="B109" s="143" t="s">
         <v>211</v>
       </c>
-      <c r="C109" s="191" t="s">
+      <c r="C109" s="144" t="s">
         <v>210</v>
       </c>
-      <c r="D109" s="209"/>
+      <c r="D109" s="196"/>
       <c r="E109" s="46" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="191"/>
-      <c r="B110" s="182"/>
-      <c r="C110" s="191"/>
-      <c r="D110" s="209"/>
+      <c r="A110" s="144"/>
+      <c r="B110" s="143"/>
+      <c r="C110" s="144"/>
+      <c r="D110" s="196"/>
       <c r="E110" s="30" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="191"/>
-      <c r="B111" s="182"/>
-      <c r="C111" s="191"/>
-      <c r="D111" s="209"/>
-      <c r="E111" s="178" t="s">
-        <v>508</v>
+      <c r="A111" s="144"/>
+      <c r="B111" s="143"/>
+      <c r="C111" s="144"/>
+      <c r="D111" s="196"/>
+      <c r="E111" s="134" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="191"/>
-      <c r="B112" s="182"/>
-      <c r="C112" s="191"/>
-      <c r="D112" s="209"/>
+      <c r="A112" s="144"/>
+      <c r="B112" s="143"/>
+      <c r="C112" s="144"/>
+      <c r="D112" s="196"/>
       <c r="E112" s="24" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="191"/>
-      <c r="B113" s="182"/>
-      <c r="C113" s="191"/>
-      <c r="D113" s="209"/>
+      <c r="A113" s="144"/>
+      <c r="B113" s="143"/>
+      <c r="C113" s="144"/>
+      <c r="D113" s="196"/>
       <c r="E113" s="24" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="191"/>
-      <c r="B114" s="182"/>
-      <c r="C114" s="191"/>
-      <c r="D114" s="209"/>
+      <c r="A114" s="144"/>
+      <c r="B114" s="143"/>
+      <c r="C114" s="144"/>
+      <c r="D114" s="196"/>
       <c r="E114" s="24" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="191"/>
-      <c r="B115" s="182"/>
-      <c r="C115" s="191"/>
-      <c r="D115" s="209"/>
+      <c r="A115" s="144"/>
+      <c r="B115" s="143"/>
+      <c r="C115" s="144"/>
+      <c r="D115" s="196"/>
       <c r="E115" s="24" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="191"/>
-      <c r="B116" s="182"/>
-      <c r="C116" s="191"/>
-      <c r="D116" s="209"/>
+      <c r="A116" s="144"/>
+      <c r="B116" s="143"/>
+      <c r="C116" s="144"/>
+      <c r="D116" s="196"/>
       <c r="E116" s="24" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="191"/>
-      <c r="B117" s="182"/>
-      <c r="C117" s="191"/>
-      <c r="D117" s="209"/>
+      <c r="A117" s="144"/>
+      <c r="B117" s="143"/>
+      <c r="C117" s="144"/>
+      <c r="D117" s="196"/>
       <c r="E117" s="24" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="191"/>
-      <c r="B118" s="182"/>
-      <c r="C118" s="191"/>
-      <c r="D118" s="209"/>
+      <c r="A118" s="144"/>
+      <c r="B118" s="143"/>
+      <c r="C118" s="144"/>
+      <c r="D118" s="196"/>
       <c r="E118" s="24" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="191"/>
-      <c r="B119" s="182"/>
-      <c r="C119" s="191"/>
-      <c r="D119" s="209"/>
-      <c r="E119" s="123" t="s">
+      <c r="A119" s="144"/>
+      <c r="B119" s="143"/>
+      <c r="C119" s="144"/>
+      <c r="D119" s="196"/>
+      <c r="E119" s="83" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="191" t="s">
+      <c r="A120" s="144" t="s">
         <v>199</v>
       </c>
-      <c r="B120" s="182" t="s">
+      <c r="B120" s="143" t="s">
         <v>198</v>
       </c>
-      <c r="C120" s="191" t="s">
+      <c r="C120" s="144" t="s">
         <v>197</v>
       </c>
-      <c r="D120" s="204"/>
+      <c r="D120" s="213"/>
       <c r="E120" s="26" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="191"/>
-      <c r="B121" s="182"/>
-      <c r="C121" s="191"/>
-      <c r="D121" s="205"/>
-      <c r="E121" s="129" t="s">
+      <c r="A121" s="144"/>
+      <c r="B121" s="143"/>
+      <c r="C121" s="144"/>
+      <c r="D121" s="214"/>
+      <c r="E121" s="89" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="191"/>
-      <c r="B122" s="182"/>
-      <c r="C122" s="191"/>
-      <c r="D122" s="205"/>
+      <c r="A122" s="144"/>
+      <c r="B122" s="143"/>
+      <c r="C122" s="144"/>
+      <c r="D122" s="214"/>
       <c r="E122" s="30" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="191"/>
-      <c r="B123" s="182"/>
-      <c r="C123" s="191"/>
-      <c r="D123" s="205"/>
-      <c r="E123" s="129" t="s">
+      <c r="A123" s="144"/>
+      <c r="B123" s="143"/>
+      <c r="C123" s="144"/>
+      <c r="D123" s="214"/>
+      <c r="E123" s="89" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="191"/>
-      <c r="B124" s="182"/>
-      <c r="C124" s="191"/>
-      <c r="D124" s="205"/>
+      <c r="A124" s="144"/>
+      <c r="B124" s="143"/>
+      <c r="C124" s="144"/>
+      <c r="D124" s="214"/>
       <c r="E124" s="24"/>
     </row>
     <row r="125" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="191"/>
-      <c r="B125" s="182"/>
-      <c r="C125" s="191"/>
-      <c r="D125" s="205"/>
+      <c r="A125" s="144"/>
+      <c r="B125" s="143"/>
+      <c r="C125" s="144"/>
+      <c r="D125" s="214"/>
       <c r="E125" s="30" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="191"/>
-      <c r="B126" s="182"/>
-      <c r="C126" s="191"/>
-      <c r="D126" s="205"/>
-      <c r="E126" s="129" t="s">
+      <c r="A126" s="144"/>
+      <c r="B126" s="143"/>
+      <c r="C126" s="144"/>
+      <c r="D126" s="214"/>
+      <c r="E126" s="89" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="191"/>
-      <c r="B127" s="182"/>
-      <c r="C127" s="191"/>
-      <c r="D127" s="205"/>
+      <c r="A127" s="144"/>
+      <c r="B127" s="143"/>
+      <c r="C127" s="144"/>
+      <c r="D127" s="214"/>
       <c r="E127" s="30" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="191"/>
-      <c r="B128" s="182"/>
-      <c r="C128" s="191"/>
-      <c r="D128" s="205"/>
-      <c r="E128" s="129" t="s">
+      <c r="A128" s="144"/>
+      <c r="B128" s="143"/>
+      <c r="C128" s="144"/>
+      <c r="D128" s="214"/>
+      <c r="E128" s="89" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="191"/>
-      <c r="B129" s="182"/>
-      <c r="C129" s="191"/>
-      <c r="D129" s="205"/>
+      <c r="A129" s="144"/>
+      <c r="B129" s="143"/>
+      <c r="C129" s="144"/>
+      <c r="D129" s="214"/>
       <c r="E129" s="24"/>
     </row>
     <row r="130" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A130" s="191"/>
-      <c r="B130" s="182"/>
-      <c r="C130" s="191"/>
-      <c r="D130" s="205"/>
+      <c r="A130" s="144"/>
+      <c r="B130" s="143"/>
+      <c r="C130" s="144"/>
+      <c r="D130" s="214"/>
       <c r="E130" s="30" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="191"/>
-      <c r="B131" s="182"/>
-      <c r="C131" s="191"/>
-      <c r="D131" s="205"/>
+      <c r="A131" s="144"/>
+      <c r="B131" s="143"/>
+      <c r="C131" s="144"/>
+      <c r="D131" s="214"/>
       <c r="E131" s="30" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="187"/>
-      <c r="B132" s="196"/>
-      <c r="C132" s="187"/>
-      <c r="D132" s="205"/>
-      <c r="E132" s="123" t="s">
+      <c r="A132" s="152"/>
+      <c r="B132" s="149"/>
+      <c r="C132" s="152"/>
+      <c r="D132" s="214"/>
+      <c r="E132" s="83" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="191" t="s">
+      <c r="A133" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="B133" s="182" t="s">
+      <c r="B133" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="C133" s="206">
+      <c r="C133" s="200">
         <v>3500</v>
       </c>
-      <c r="D133" s="207"/>
+      <c r="D133" s="211"/>
       <c r="E133" s="46" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="191"/>
-      <c r="B134" s="182"/>
-      <c r="C134" s="206"/>
-      <c r="D134" s="208"/>
-      <c r="E134" s="123" t="s">
+      <c r="A134" s="144"/>
+      <c r="B134" s="143"/>
+      <c r="C134" s="200"/>
+      <c r="D134" s="210"/>
+      <c r="E134" s="83" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7493,8 +7383,8 @@
       <c r="A135" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B135" s="170" t="s">
-        <v>506</v>
+      <c r="B135" s="7" t="s">
+        <v>501</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>180</v>
@@ -7503,7 +7393,7 @@
       <c r="E135" s="26"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="223" t="s">
+      <c r="A136" s="197" t="s">
         <v>179</v>
       </c>
       <c r="B136" s="7" t="s">
@@ -7512,18 +7402,18 @@
       <c r="C136" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D136" s="147"/>
+      <c r="D136" s="107"/>
       <c r="E136" s="5"/>
     </row>
     <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="224"/>
-      <c r="B137" s="182" t="s">
+      <c r="A137" s="198"/>
+      <c r="B137" s="143" t="s">
         <v>177</v>
       </c>
-      <c r="C137" s="174">
+      <c r="C137" s="130">
         <v>2000</v>
       </c>
-      <c r="D137" s="222">
+      <c r="D137" s="188">
         <f>IF(NOT(ISNUMBER(D136)),0,D136*C137)</f>
         <v>0</v>
       </c>
@@ -7532,19 +7422,19 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="225"/>
-      <c r="B138" s="182"/>
-      <c r="C138" s="177" t="s">
-        <v>510</v>
-      </c>
-      <c r="D138" s="222"/>
-      <c r="E138" s="123" t="s">
+      <c r="A138" s="199"/>
+      <c r="B138" s="143"/>
+      <c r="C138" s="133" t="s">
+        <v>505</v>
+      </c>
+      <c r="D138" s="188"/>
+      <c r="E138" s="83" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="238" t="s">
-        <v>401</v>
+      <c r="A139" s="190" t="s">
+        <v>398</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>170</v>
@@ -7552,18 +7442,18 @@
       <c r="C139" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D139" s="148"/>
-      <c r="E139" s="129"/>
+      <c r="D139" s="108"/>
+      <c r="E139" s="89"/>
     </row>
     <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="239"/>
-      <c r="B140" s="192" t="s">
+      <c r="A140" s="191"/>
+      <c r="B140" s="145" t="s">
         <v>174</v>
       </c>
-      <c r="C140" s="174">
+      <c r="C140" s="130">
         <v>2000</v>
       </c>
-      <c r="D140" s="222">
+      <c r="D140" s="188">
         <f>IF(NOT(ISNUMBER(D139)),0,D139*C140)</f>
         <v>0</v>
       </c>
@@ -7572,18 +7462,18 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="239"/>
-      <c r="B141" s="236"/>
-      <c r="C141" s="177" t="s">
-        <v>510</v>
-      </c>
-      <c r="D141" s="237"/>
-      <c r="E141" s="124" t="s">
+      <c r="A141" s="191"/>
+      <c r="B141" s="187"/>
+      <c r="C141" s="133" t="s">
+        <v>505</v>
+      </c>
+      <c r="D141" s="189"/>
+      <c r="E141" s="84" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="173" t="s">
+      <c r="A142" s="129" t="s">
         <v>171</v>
       </c>
       <c r="B142" s="61" t="s">
@@ -7591,30 +7481,30 @@
       </c>
       <c r="C142" s="61"/>
       <c r="D142" s="60"/>
-      <c r="E142" s="125" t="s">
+      <c r="E142" s="85" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="240" t="s">
-        <v>402</v>
+      <c r="A143" s="192" t="s">
+        <v>399</v>
       </c>
       <c r="B143" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="C143" s="181" t="s">
+      <c r="C143" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="D143" s="149"/>
-      <c r="E143" s="130"/>
+      <c r="D143" s="109"/>
+      <c r="E143" s="90"/>
     </row>
     <row r="144" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="239"/>
-      <c r="B144" s="231" t="s">
+      <c r="A144" s="191"/>
+      <c r="B144" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="C144" s="174"/>
-      <c r="D144" s="229">
+      <c r="C144" s="130"/>
+      <c r="D144" s="180">
         <f>IF(NOT(ISNUMBER(D143)),0,D143*C145)</f>
         <v>0</v>
       </c>
@@ -7623,48 +7513,48 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="239"/>
-      <c r="B145" s="231"/>
-      <c r="C145" s="176">
+      <c r="A145" s="191"/>
+      <c r="B145" s="182"/>
+      <c r="C145" s="132">
         <v>8000</v>
       </c>
-      <c r="D145" s="229"/>
+      <c r="D145" s="180"/>
       <c r="E145" s="30" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="239"/>
-      <c r="B146" s="231"/>
-      <c r="C146" s="176" t="s">
-        <v>510</v>
-      </c>
-      <c r="D146" s="229"/>
+      <c r="A146" s="191"/>
+      <c r="B146" s="182"/>
+      <c r="C146" s="132" t="s">
+        <v>505</v>
+      </c>
+      <c r="D146" s="180"/>
       <c r="E146" s="30" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="239"/>
-      <c r="B147" s="231"/>
-      <c r="C147" s="179"/>
-      <c r="D147" s="229"/>
+      <c r="A147" s="191"/>
+      <c r="B147" s="182"/>
+      <c r="C147" s="135"/>
+      <c r="D147" s="180"/>
       <c r="E147" s="30" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="241"/>
-      <c r="B148" s="231"/>
-      <c r="C148" s="180"/>
-      <c r="D148" s="229"/>
-      <c r="E148" s="123" t="s">
+      <c r="A148" s="193"/>
+      <c r="B148" s="182"/>
+      <c r="C148" s="136"/>
+      <c r="D148" s="180"/>
+      <c r="E148" s="83" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="238" t="s">
-        <v>403</v>
+      <c r="A149" s="190" t="s">
+        <v>400</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>164</v>
@@ -7672,11 +7562,11 @@
       <c r="C149" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D149" s="147"/>
-      <c r="E149" s="129"/>
+      <c r="D149" s="107"/>
+      <c r="E149" s="89"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="242"/>
+      <c r="A150" s="194"/>
       <c r="B150" s="58" t="s">
         <v>163</v>
       </c>
@@ -7687,33 +7577,33 @@
         <f>IF(NOT(ISNUMBER(D149)),0,D149*C150)</f>
         <v>0</v>
       </c>
-      <c r="E150" s="131" t="s">
+      <c r="E150" s="91" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="220" t="s">
-        <v>404</v>
+      <c r="A151" s="195" t="s">
+        <v>401</v>
       </c>
       <c r="B151" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="C151" s="175" t="str">
+      <c r="C151" s="131" t="str">
         <f>IF(D149="", "Maximum of X", "Maximum of " &amp; D149)</f>
         <v>Maximum of X</v>
       </c>
-      <c r="D151" s="150"/>
+      <c r="D151" s="110"/>
       <c r="E151" s="32" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="188"/>
-      <c r="B152" s="230" t="s">
+      <c r="A152" s="153"/>
+      <c r="B152" s="181" t="s">
         <v>159</v>
       </c>
-      <c r="C152" s="174"/>
-      <c r="D152" s="233">
+      <c r="C152" s="130"/>
+      <c r="D152" s="184">
         <f>IF(OR(NOT(OR(ISNUMBER(D151),ISNUMBER(D149))),D149=0),0,D151*C153)</f>
         <v>0</v>
       </c>
@@ -7722,539 +7612,539 @@
       </c>
     </row>
     <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="188"/>
-      <c r="B153" s="231"/>
-      <c r="C153" s="176">
+      <c r="A153" s="153"/>
+      <c r="B153" s="182"/>
+      <c r="C153" s="132">
         <v>8000</v>
       </c>
-      <c r="D153" s="233"/>
+      <c r="D153" s="184"/>
       <c r="E153" s="30" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="188"/>
-      <c r="B154" s="231"/>
-      <c r="C154" s="176" t="s">
-        <v>510</v>
-      </c>
-      <c r="D154" s="233"/>
+      <c r="A154" s="153"/>
+      <c r="B154" s="182"/>
+      <c r="C154" s="132" t="s">
+        <v>505</v>
+      </c>
+      <c r="D154" s="184"/>
       <c r="E154" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="188"/>
-      <c r="B155" s="231"/>
-      <c r="C155" s="179"/>
-      <c r="D155" s="233"/>
+      <c r="A155" s="153"/>
+      <c r="B155" s="182"/>
+      <c r="C155" s="135"/>
+      <c r="D155" s="184"/>
       <c r="E155" s="30" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="188"/>
-      <c r="B156" s="231"/>
-      <c r="C156" s="179"/>
-      <c r="D156" s="234"/>
+      <c r="A156" s="153"/>
+      <c r="B156" s="182"/>
+      <c r="C156" s="135"/>
+      <c r="D156" s="185"/>
       <c r="E156" s="24" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="189"/>
-      <c r="B157" s="232"/>
-      <c r="C157" s="180"/>
-      <c r="D157" s="235"/>
-      <c r="E157" s="123" t="s">
+      <c r="A157" s="154"/>
+      <c r="B157" s="183"/>
+      <c r="C157" s="136"/>
+      <c r="D157" s="186"/>
+      <c r="E157" s="83" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="191" t="s">
+      <c r="A158" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="B158" s="182" t="s">
+      <c r="B158" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="C158" s="191" t="s">
+      <c r="C158" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="D158" s="183"/>
+      <c r="D158" s="155"/>
       <c r="E158" s="26" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="191"/>
-      <c r="B159" s="182"/>
-      <c r="C159" s="191"/>
-      <c r="D159" s="183"/>
+      <c r="A159" s="144"/>
+      <c r="B159" s="143"/>
+      <c r="C159" s="144"/>
+      <c r="D159" s="155"/>
       <c r="E159" s="24" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="191"/>
-      <c r="B160" s="182"/>
-      <c r="C160" s="191"/>
-      <c r="D160" s="183"/>
+      <c r="A160" s="144"/>
+      <c r="B160" s="143"/>
+      <c r="C160" s="144"/>
+      <c r="D160" s="155"/>
       <c r="E160" s="24"/>
     </row>
     <row r="161" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="191"/>
-      <c r="B161" s="182"/>
-      <c r="C161" s="191"/>
-      <c r="D161" s="183"/>
+      <c r="A161" s="144"/>
+      <c r="B161" s="143"/>
+      <c r="C161" s="144"/>
+      <c r="D161" s="155"/>
       <c r="E161" s="30" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="191"/>
-      <c r="B162" s="182"/>
-      <c r="C162" s="191"/>
-      <c r="D162" s="183"/>
+      <c r="A162" s="144"/>
+      <c r="B162" s="143"/>
+      <c r="C162" s="144"/>
+      <c r="D162" s="155"/>
       <c r="E162" s="24"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="191"/>
-      <c r="B163" s="182"/>
-      <c r="C163" s="191"/>
-      <c r="D163" s="183"/>
+      <c r="A163" s="144"/>
+      <c r="B163" s="143"/>
+      <c r="C163" s="144"/>
+      <c r="D163" s="155"/>
       <c r="E163" s="24" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="191"/>
-      <c r="B164" s="182"/>
-      <c r="C164" s="191"/>
-      <c r="D164" s="183"/>
+      <c r="A164" s="144"/>
+      <c r="B164" s="143"/>
+      <c r="C164" s="144"/>
+      <c r="D164" s="155"/>
       <c r="E164" s="24" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="191"/>
-      <c r="B165" s="182"/>
-      <c r="C165" s="191"/>
-      <c r="D165" s="183"/>
+      <c r="A165" s="144"/>
+      <c r="B165" s="143"/>
+      <c r="C165" s="144"/>
+      <c r="D165" s="155"/>
       <c r="E165" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="191"/>
-      <c r="B166" s="182"/>
-      <c r="C166" s="191"/>
-      <c r="D166" s="183"/>
+      <c r="A166" s="144"/>
+      <c r="B166" s="143"/>
+      <c r="C166" s="144"/>
+      <c r="D166" s="155"/>
       <c r="E166" s="24" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="191"/>
-      <c r="B167" s="182"/>
-      <c r="C167" s="191"/>
-      <c r="D167" s="183"/>
+      <c r="A167" s="144"/>
+      <c r="B167" s="143"/>
+      <c r="C167" s="144"/>
+      <c r="D167" s="155"/>
       <c r="E167" s="30" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A168" s="191"/>
-      <c r="B168" s="182"/>
-      <c r="C168" s="191"/>
-      <c r="D168" s="183"/>
+      <c r="A168" s="144"/>
+      <c r="B168" s="143"/>
+      <c r="C168" s="144"/>
+      <c r="D168" s="155"/>
       <c r="E168" s="30" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="191"/>
-      <c r="B169" s="182"/>
-      <c r="C169" s="191"/>
-      <c r="D169" s="183"/>
+      <c r="A169" s="144"/>
+      <c r="B169" s="143"/>
+      <c r="C169" s="144"/>
+      <c r="D169" s="155"/>
       <c r="E169" s="24"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="191"/>
-      <c r="B170" s="182"/>
-      <c r="C170" s="191"/>
-      <c r="D170" s="183"/>
+      <c r="A170" s="144"/>
+      <c r="B170" s="143"/>
+      <c r="C170" s="144"/>
+      <c r="D170" s="155"/>
       <c r="E170" s="24" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="191"/>
-      <c r="B171" s="182"/>
-      <c r="C171" s="191"/>
-      <c r="D171" s="183"/>
+      <c r="A171" s="144"/>
+      <c r="B171" s="143"/>
+      <c r="C171" s="144"/>
+      <c r="D171" s="155"/>
       <c r="E171" s="24" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="191"/>
-      <c r="B172" s="182"/>
-      <c r="C172" s="191"/>
-      <c r="D172" s="183"/>
+      <c r="A172" s="144"/>
+      <c r="B172" s="143"/>
+      <c r="C172" s="144"/>
+      <c r="D172" s="155"/>
       <c r="E172" s="32" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="254" t="s">
+      <c r="A173" s="174" t="s">
         <v>137</v>
       </c>
-      <c r="B173" s="213" t="s">
+      <c r="B173" s="172" t="s">
         <v>136</v>
       </c>
-      <c r="C173" s="251" t="s">
+      <c r="C173" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="D173" s="184"/>
+      <c r="D173" s="139"/>
       <c r="E173" s="46" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="212"/>
-      <c r="B174" s="214"/>
-      <c r="C174" s="252"/>
-      <c r="D174" s="185"/>
+      <c r="A174" s="175"/>
+      <c r="B174" s="173"/>
+      <c r="C174" s="170"/>
+      <c r="D174" s="140"/>
       <c r="E174" s="30" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="212"/>
-      <c r="B175" s="214"/>
-      <c r="C175" s="252"/>
-      <c r="D175" s="185"/>
+      <c r="A175" s="175"/>
+      <c r="B175" s="173"/>
+      <c r="C175" s="170"/>
+      <c r="D175" s="140"/>
       <c r="E175" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="212"/>
-      <c r="B176" s="214"/>
-      <c r="C176" s="252"/>
-      <c r="D176" s="185"/>
-      <c r="E176" s="129" t="s">
+      <c r="A176" s="175"/>
+      <c r="B176" s="173"/>
+      <c r="C176" s="170"/>
+      <c r="D176" s="140"/>
+      <c r="E176" s="89" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="212"/>
-      <c r="B177" s="214"/>
-      <c r="C177" s="252"/>
-      <c r="D177" s="185"/>
-      <c r="E177" s="129" t="s">
+      <c r="A177" s="175"/>
+      <c r="B177" s="173"/>
+      <c r="C177" s="170"/>
+      <c r="D177" s="140"/>
+      <c r="E177" s="89" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="255"/>
-      <c r="B178" s="246"/>
-      <c r="C178" s="253"/>
-      <c r="D178" s="186"/>
-      <c r="E178" s="123" t="s">
+      <c r="A178" s="176"/>
+      <c r="B178" s="164"/>
+      <c r="C178" s="171"/>
+      <c r="D178" s="142"/>
+      <c r="E178" s="83" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="247" t="s">
+      <c r="A179" s="165" t="s">
         <v>129</v>
       </c>
-      <c r="B179" s="245" t="s">
+      <c r="B179" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="C179" s="247" t="s">
+      <c r="C179" s="165" t="s">
         <v>127</v>
       </c>
-      <c r="D179" s="256"/>
+      <c r="D179" s="177"/>
       <c r="E179" s="26" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="212"/>
-      <c r="B180" s="214"/>
-      <c r="C180" s="212"/>
-      <c r="D180" s="216"/>
+      <c r="A180" s="175"/>
+      <c r="B180" s="173"/>
+      <c r="C180" s="175"/>
+      <c r="D180" s="178"/>
       <c r="E180" s="24"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="212"/>
-      <c r="B181" s="214"/>
-      <c r="C181" s="212"/>
-      <c r="D181" s="216"/>
+      <c r="A181" s="175"/>
+      <c r="B181" s="173"/>
+      <c r="C181" s="175"/>
+      <c r="D181" s="178"/>
       <c r="E181" s="24" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="212"/>
-      <c r="B182" s="214"/>
-      <c r="C182" s="212"/>
-      <c r="D182" s="216"/>
+      <c r="A182" s="175"/>
+      <c r="B182" s="173"/>
+      <c r="C182" s="175"/>
+      <c r="D182" s="178"/>
       <c r="E182" s="24" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="212"/>
-      <c r="B183" s="214"/>
-      <c r="C183" s="212"/>
-      <c r="D183" s="216"/>
+      <c r="A183" s="175"/>
+      <c r="B183" s="173"/>
+      <c r="C183" s="175"/>
+      <c r="D183" s="178"/>
       <c r="E183" s="24" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="212"/>
-      <c r="B184" s="214"/>
-      <c r="C184" s="212"/>
-      <c r="D184" s="216"/>
+      <c r="A184" s="175"/>
+      <c r="B184" s="173"/>
+      <c r="C184" s="175"/>
+      <c r="D184" s="178"/>
       <c r="E184" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="212"/>
-      <c r="B185" s="214"/>
-      <c r="C185" s="212"/>
-      <c r="D185" s="216"/>
+      <c r="A185" s="175"/>
+      <c r="B185" s="173"/>
+      <c r="C185" s="175"/>
+      <c r="D185" s="178"/>
       <c r="E185" s="24" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="212"/>
-      <c r="B186" s="214"/>
-      <c r="C186" s="212"/>
-      <c r="D186" s="216"/>
+      <c r="A186" s="175"/>
+      <c r="B186" s="173"/>
+      <c r="C186" s="175"/>
+      <c r="D186" s="178"/>
       <c r="E186" s="24" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="212"/>
-      <c r="B187" s="214"/>
-      <c r="C187" s="212"/>
-      <c r="D187" s="216"/>
+      <c r="A187" s="175"/>
+      <c r="B187" s="173"/>
+      <c r="C187" s="175"/>
+      <c r="D187" s="178"/>
       <c r="E187" s="24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="212"/>
-      <c r="B188" s="214"/>
-      <c r="C188" s="212"/>
-      <c r="D188" s="216"/>
+      <c r="A188" s="175"/>
+      <c r="B188" s="173"/>
+      <c r="C188" s="175"/>
+      <c r="D188" s="178"/>
       <c r="E188" s="30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="212"/>
-      <c r="B189" s="214"/>
-      <c r="C189" s="212"/>
-      <c r="D189" s="216"/>
+      <c r="A189" s="175"/>
+      <c r="B189" s="173"/>
+      <c r="C189" s="175"/>
+      <c r="D189" s="178"/>
       <c r="E189" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A190" s="212"/>
-      <c r="B190" s="214"/>
-      <c r="C190" s="212"/>
-      <c r="D190" s="216"/>
+      <c r="A190" s="175"/>
+      <c r="B190" s="173"/>
+      <c r="C190" s="175"/>
+      <c r="D190" s="178"/>
       <c r="E190" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="212"/>
-      <c r="B191" s="214"/>
-      <c r="C191" s="212"/>
-      <c r="D191" s="216"/>
+      <c r="A191" s="175"/>
+      <c r="B191" s="173"/>
+      <c r="C191" s="175"/>
+      <c r="D191" s="178"/>
       <c r="E191" s="30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="212"/>
-      <c r="B192" s="214"/>
-      <c r="C192" s="212"/>
-      <c r="D192" s="216"/>
+      <c r="A192" s="175"/>
+      <c r="B192" s="173"/>
+      <c r="C192" s="175"/>
+      <c r="D192" s="178"/>
       <c r="E192" s="24"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="212"/>
-      <c r="B193" s="214"/>
-      <c r="C193" s="212"/>
-      <c r="D193" s="216"/>
+      <c r="A193" s="175"/>
+      <c r="B193" s="173"/>
+      <c r="C193" s="175"/>
+      <c r="D193" s="178"/>
       <c r="E193" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="212"/>
-      <c r="B194" s="214"/>
-      <c r="C194" s="212"/>
-      <c r="D194" s="216"/>
+      <c r="A194" s="175"/>
+      <c r="B194" s="173"/>
+      <c r="C194" s="175"/>
+      <c r="D194" s="178"/>
       <c r="E194" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="212"/>
-      <c r="B195" s="214"/>
-      <c r="C195" s="212"/>
-      <c r="D195" s="216"/>
+      <c r="A195" s="175"/>
+      <c r="B195" s="173"/>
+      <c r="C195" s="175"/>
+      <c r="D195" s="178"/>
       <c r="E195" s="24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A196" s="212"/>
-      <c r="B196" s="214"/>
-      <c r="C196" s="212"/>
-      <c r="D196" s="216"/>
+      <c r="A196" s="175"/>
+      <c r="B196" s="173"/>
+      <c r="C196" s="175"/>
+      <c r="D196" s="178"/>
       <c r="E196" s="30" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="212"/>
-      <c r="B197" s="214"/>
-      <c r="C197" s="212"/>
-      <c r="D197" s="216"/>
+      <c r="A197" s="175"/>
+      <c r="B197" s="173"/>
+      <c r="C197" s="175"/>
+      <c r="D197" s="178"/>
       <c r="E197" s="30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A198" s="212"/>
-      <c r="B198" s="214"/>
-      <c r="C198" s="212"/>
-      <c r="D198" s="216"/>
+      <c r="A198" s="175"/>
+      <c r="B198" s="173"/>
+      <c r="C198" s="175"/>
+      <c r="D198" s="178"/>
       <c r="E198" s="30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A199" s="212"/>
-      <c r="B199" s="214"/>
-      <c r="C199" s="212"/>
-      <c r="D199" s="216"/>
+      <c r="A199" s="175"/>
+      <c r="B199" s="173"/>
+      <c r="C199" s="175"/>
+      <c r="D199" s="178"/>
       <c r="E199" s="30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="212"/>
-      <c r="B200" s="214"/>
-      <c r="C200" s="212"/>
-      <c r="D200" s="216"/>
+      <c r="A200" s="175"/>
+      <c r="B200" s="173"/>
+      <c r="C200" s="175"/>
+      <c r="D200" s="178"/>
       <c r="E200" s="24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="212"/>
-      <c r="B201" s="214"/>
-      <c r="C201" s="212"/>
-      <c r="D201" s="216"/>
+      <c r="A201" s="175"/>
+      <c r="B201" s="173"/>
+      <c r="C201" s="175"/>
+      <c r="D201" s="178"/>
       <c r="E201" s="24"/>
     </row>
     <row r="202" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A202" s="212"/>
-      <c r="B202" s="214"/>
-      <c r="C202" s="212"/>
-      <c r="D202" s="216"/>
+      <c r="A202" s="175"/>
+      <c r="B202" s="173"/>
+      <c r="C202" s="175"/>
+      <c r="D202" s="178"/>
       <c r="E202" s="30" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="255"/>
-      <c r="B203" s="246"/>
-      <c r="C203" s="255"/>
-      <c r="D203" s="257"/>
-      <c r="E203" s="123" t="s">
+      <c r="A203" s="176"/>
+      <c r="B203" s="164"/>
+      <c r="C203" s="176"/>
+      <c r="D203" s="179"/>
+      <c r="E203" s="83" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A204" s="247" t="s">
+      <c r="A204" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="B204" s="245" t="s">
+      <c r="B204" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="C204" s="249" t="s">
+      <c r="C204" s="167" t="s">
         <v>102</v>
       </c>
-      <c r="D204" s="183"/>
+      <c r="D204" s="155"/>
       <c r="E204" s="26" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="248"/>
-      <c r="B205" s="246"/>
-      <c r="C205" s="250"/>
-      <c r="D205" s="183"/>
-      <c r="E205" s="123" t="s">
+      <c r="A205" s="166"/>
+      <c r="B205" s="164"/>
+      <c r="C205" s="168"/>
+      <c r="D205" s="155"/>
+      <c r="E205" s="83" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="191" t="s">
+      <c r="A206" s="144" t="s">
         <v>99</v>
       </c>
-      <c r="B206" s="243" t="s">
+      <c r="B206" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="C206" s="191" t="s">
+      <c r="C206" s="144" t="s">
         <v>97</v>
       </c>
-      <c r="D206" s="183"/>
+      <c r="D206" s="155"/>
       <c r="E206" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="191"/>
-      <c r="B207" s="244"/>
-      <c r="C207" s="191"/>
-      <c r="D207" s="183"/>
+      <c r="A207" s="144"/>
+      <c r="B207" s="162"/>
+      <c r="C207" s="144"/>
+      <c r="D207" s="155"/>
       <c r="E207" s="30" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="191"/>
-      <c r="B208" s="244"/>
-      <c r="C208" s="191"/>
-      <c r="D208" s="183"/>
+      <c r="A208" s="144"/>
+      <c r="B208" s="162"/>
+      <c r="C208" s="144"/>
+      <c r="D208" s="155"/>
       <c r="E208" s="30" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A209" s="191"/>
+      <c r="A209" s="144"/>
       <c r="B209" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C209" s="191"/>
-      <c r="D209" s="183"/>
-      <c r="E209" s="123" t="s">
+      <c r="C209" s="144"/>
+      <c r="D209" s="155"/>
+      <c r="E209" s="83" t="s">
         <v>92</v>
       </c>
     </row>
@@ -8266,7 +8156,7 @@
         <v>91</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C211" s="53"/>
       <c r="D211" s="52">
@@ -8274,7 +8164,7 @@
         <v>9000</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -8282,36 +8172,58 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="B206:B208"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="D206:D209"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D173:D178"/>
-    <mergeCell ref="C173:C178"/>
-    <mergeCell ref="B173:B178"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="C179:C203"/>
-    <mergeCell ref="B179:B203"/>
-    <mergeCell ref="A179:A203"/>
-    <mergeCell ref="D179:D203"/>
-    <mergeCell ref="A158:A172"/>
-    <mergeCell ref="D158:D172"/>
-    <mergeCell ref="D144:D148"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="D152:D157"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="C158:C172"/>
-    <mergeCell ref="B158:B172"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A151:A157"/>
+    <mergeCell ref="A120:A132"/>
+    <mergeCell ref="D120:D132"/>
+    <mergeCell ref="A97:A108"/>
+    <mergeCell ref="C97:C108"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="C109:C119"/>
+    <mergeCell ref="B109:B119"/>
+    <mergeCell ref="A109:A119"/>
+    <mergeCell ref="D109:D119"/>
+    <mergeCell ref="D97:D108"/>
+    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="D44:D50"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="C66:C76"/>
+    <mergeCell ref="D66:D76"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="A7:A19"/>
+    <mergeCell ref="B7:B19"/>
+    <mergeCell ref="C7:C19"/>
+    <mergeCell ref="D7:D19"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="D26:D30"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="B63:B64"/>
@@ -8336,166 +8248,138 @@
     <mergeCell ref="B97:B108"/>
     <mergeCell ref="C120:C132"/>
     <mergeCell ref="B120:B132"/>
-    <mergeCell ref="A7:A19"/>
-    <mergeCell ref="B7:B19"/>
-    <mergeCell ref="C7:C19"/>
-    <mergeCell ref="D7:D19"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="D44:D50"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="C66:C76"/>
-    <mergeCell ref="D66:D76"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="A120:A132"/>
-    <mergeCell ref="D120:D132"/>
-    <mergeCell ref="A97:A108"/>
-    <mergeCell ref="C97:C108"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="C109:C119"/>
-    <mergeCell ref="B109:B119"/>
-    <mergeCell ref="A109:A119"/>
-    <mergeCell ref="D109:D119"/>
-    <mergeCell ref="D97:D108"/>
+    <mergeCell ref="A158:A172"/>
+    <mergeCell ref="D158:D172"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="D152:D157"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="C158:C172"/>
+    <mergeCell ref="B158:B172"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A151:A157"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="B206:B208"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="D206:D209"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D173:D178"/>
+    <mergeCell ref="C173:C178"/>
+    <mergeCell ref="B173:B178"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="C179:C203"/>
+    <mergeCell ref="B179:B203"/>
+    <mergeCell ref="A179:A203"/>
+    <mergeCell ref="D179:D203"/>
   </mergeCells>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>AND(OR($D$21&gt;0,$D$26&gt;0), $D$7="")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>AND($D$7&gt;0,AND($D$21="",OR($D$26="",$D$26=0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>AND(OR($D$21&gt;0,$D$26&gt;0), $D$7="")</formula>
+  <conditionalFormatting sqref="D26:D30">
+    <cfRule type="expression" dxfId="22" priority="4">
+      <formula>AND($D$7&gt;0,AND(OR($D$21="",$D$21=0),$D$26=""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>$D$7&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>NOT(OR(ISNUMBER(D21),ISNUMBER(D26)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThanOrEqual">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="24" priority="23">
+    <cfRule type="expression" dxfId="18" priority="23">
       <formula>COUNTA(D51:D64)=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="between">
       <formula>0</formula>
       <formula>5999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D137:D138">
-    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="21" stopIfTrue="1">
       <formula>NOT(ISNUMBER(D136))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="14" priority="22">
       <formula>ISNUMBER($D$137)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D139">
-    <cfRule type="expression" dxfId="19" priority="20">
+  <conditionalFormatting sqref="D139:D141">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>AND($D$143&gt;0,$D$139="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D140:D141">
-    <cfRule type="expression" dxfId="18" priority="15">
-      <formula>AND($D$143&gt;0,$D$139="")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>NOT(ISNUMBER(D139))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D143">
-    <cfRule type="expression" dxfId="15" priority="18">
+  <conditionalFormatting sqref="D143:D148">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>AND($D$139&gt;0,$D$143="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D144:D148">
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>AND($D$139&gt;0,$D$143="")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>NOT(ISNUMBER(D143))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>NOT(ISNUMBER(D149))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D151">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND($D$149&lt;1,$D$151="")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D152:D157">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND($D$149&lt;1,$D$152=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>NOT(ISNUMBER(D151))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D211">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>COUNTA(D5:D19,D21:D30,D32:D64,D66:D134,D136,D139,D143,D149,D151,D158:D209)=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D151">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>AND($D$149&lt;1,$D$151="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D30">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND($D$7&gt;0,AND(OR($D$21="",$D$21=0),$D$26=""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$D$7&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>NOT(OR(ISNUMBER(D21),ISNUMBER(D26)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8665,396 +8549,396 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="152" t="s">
-        <v>484</v>
-      </c>
-      <c r="B3" s="160" t="s">
-        <v>486</v>
-      </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
+      <c r="A3" s="112" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" s="120" t="s">
+        <v>483</v>
+      </c>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="261" t="s">
+      <c r="A5" s="218" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="260" t="s">
+      <c r="B5" s="217" t="s">
         <v>380</v>
       </c>
       <c r="C5" s="75" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="258" t="s">
+      <c r="D5" s="215" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="239"/>
-      <c r="B6" s="197"/>
+      <c r="A6" s="191"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="D6" s="259"/>
+      <c r="D6" s="216"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="239"/>
-      <c r="B7" s="197"/>
+      <c r="A7" s="191"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="D7" s="259"/>
+      <c r="D7" s="216"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="239"/>
-      <c r="B8" s="197"/>
+      <c r="A8" s="191"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="D8" s="259"/>
+      <c r="D8" s="216"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="239"/>
-      <c r="B9" s="197"/>
+      <c r="A9" s="191"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="D9" s="259"/>
+      <c r="D9" s="216"/>
     </row>
     <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="239"/>
-      <c r="B10" s="197"/>
+      <c r="A10" s="191"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="D10" s="259"/>
+      <c r="D10" s="216"/>
     </row>
     <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="239"/>
-      <c r="B11" s="197"/>
+      <c r="A11" s="191"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="D11" s="259"/>
+      <c r="D11" s="216"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="239"/>
-      <c r="B12" s="197"/>
+      <c r="A12" s="191"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="259"/>
+      <c r="D12" s="216"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="239"/>
-      <c r="B13" s="197"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="D13" s="259"/>
+      <c r="D13" s="216"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="239"/>
-      <c r="B14" s="197"/>
+      <c r="A14" s="191"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="D14" s="259"/>
+      <c r="D14" s="216"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="239"/>
-      <c r="B15" s="197"/>
+      <c r="A15" s="191"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="259"/>
+      <c r="D15" s="216"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="239"/>
-      <c r="B16" s="197"/>
+      <c r="A16" s="191"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="D16" s="259"/>
+      <c r="D16" s="216"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="239"/>
-      <c r="B17" s="197"/>
+      <c r="A17" s="191"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="D17" s="259"/>
+      <c r="D17" s="216"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="239"/>
-      <c r="B18" s="197"/>
+      <c r="A18" s="191"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="259"/>
+      <c r="D18" s="216"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="239"/>
-      <c r="B19" s="197"/>
+      <c r="A19" s="191"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="D19" s="259"/>
+      <c r="D19" s="216"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="239"/>
-      <c r="B20" s="197"/>
+      <c r="A20" s="191"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="D20" s="259"/>
+      <c r="D20" s="216"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="239"/>
-      <c r="B21" s="197"/>
+      <c r="A21" s="191"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="259"/>
+      <c r="D21" s="216"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="239"/>
-      <c r="B22" s="197"/>
+      <c r="A22" s="191"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="D22" s="259"/>
+      <c r="D22" s="216"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="239"/>
-      <c r="B23" s="197"/>
+      <c r="A23" s="191"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="D23" s="259"/>
+      <c r="D23" s="216"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="239"/>
-      <c r="B24" s="197"/>
+      <c r="A24" s="191"/>
+      <c r="B24" s="150"/>
       <c r="C24" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="D24" s="259"/>
+      <c r="D24" s="216"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="239"/>
-      <c r="B25" s="197"/>
+      <c r="A25" s="191"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="D25" s="259"/>
+      <c r="D25" s="216"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="239"/>
-      <c r="B26" s="197"/>
+      <c r="A26" s="191"/>
+      <c r="B26" s="150"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="259"/>
+      <c r="D26" s="216"/>
     </row>
     <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="239"/>
-      <c r="B27" s="197"/>
+      <c r="A27" s="191"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="76" t="s">
         <v>362</v>
       </c>
-      <c r="D27" s="259"/>
+      <c r="D27" s="216"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="239"/>
-      <c r="B28" s="197"/>
+      <c r="A28" s="191"/>
+      <c r="B28" s="150"/>
       <c r="C28" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="D28" s="258" t="s">
+      <c r="D28" s="215" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="239"/>
-      <c r="B29" s="197"/>
+      <c r="A29" s="191"/>
+      <c r="B29" s="150"/>
       <c r="C29" s="76" t="s">
         <v>359</v>
       </c>
-      <c r="D29" s="259"/>
+      <c r="D29" s="216"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="239"/>
-      <c r="B30" s="197"/>
+      <c r="A30" s="191"/>
+      <c r="B30" s="150"/>
       <c r="C30" s="75" t="s">
         <v>358</v>
       </c>
-      <c r="D30" s="259"/>
+      <c r="D30" s="216"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="239"/>
-      <c r="B31" s="197"/>
+      <c r="A31" s="191"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="76" t="s">
         <v>357</v>
       </c>
-      <c r="D31" s="259"/>
+      <c r="D31" s="216"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="239"/>
-      <c r="B32" s="197"/>
+      <c r="A32" s="191"/>
+      <c r="B32" s="150"/>
       <c r="C32" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="D32" s="259"/>
+      <c r="D32" s="216"/>
     </row>
     <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="239"/>
-      <c r="B33" s="197"/>
+      <c r="A33" s="191"/>
+      <c r="B33" s="150"/>
       <c r="C33" s="76" t="s">
         <v>355</v>
       </c>
-      <c r="D33" s="259"/>
+      <c r="D33" s="216"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="239"/>
-      <c r="B34" s="197"/>
+      <c r="A34" s="191"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="D34" s="259"/>
+      <c r="D34" s="216"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="239"/>
-      <c r="B35" s="197"/>
+      <c r="A35" s="191"/>
+      <c r="B35" s="150"/>
       <c r="C35" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="D35" s="259"/>
+      <c r="D35" s="216"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="239"/>
-      <c r="B36" s="197"/>
+      <c r="A36" s="191"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="259"/>
+      <c r="D36" s="216"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="239"/>
-      <c r="B37" s="197"/>
+      <c r="A37" s="191"/>
+      <c r="B37" s="150"/>
       <c r="C37" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="D37" s="259"/>
+      <c r="D37" s="216"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="239"/>
-      <c r="B38" s="197"/>
+      <c r="A38" s="191"/>
+      <c r="B38" s="150"/>
       <c r="C38" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="D38" s="259"/>
+      <c r="D38" s="216"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="239"/>
-      <c r="B39" s="197"/>
+      <c r="A39" s="191"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="D39" s="259"/>
+      <c r="D39" s="216"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="239"/>
-      <c r="B40" s="197"/>
+      <c r="A40" s="191"/>
+      <c r="B40" s="150"/>
       <c r="C40" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="D40" s="259"/>
+      <c r="D40" s="216"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="239"/>
-      <c r="B41" s="197"/>
+      <c r="A41" s="191"/>
+      <c r="B41" s="150"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="259"/>
+      <c r="D41" s="216"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="239"/>
-      <c r="B42" s="197"/>
+      <c r="A42" s="191"/>
+      <c r="B42" s="150"/>
       <c r="C42" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="D42" s="259"/>
+      <c r="D42" s="216"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="239"/>
-      <c r="B43" s="197"/>
+      <c r="A43" s="191"/>
+      <c r="B43" s="150"/>
       <c r="C43" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="D43" s="259"/>
+      <c r="D43" s="216"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="239"/>
-      <c r="B44" s="197"/>
+      <c r="A44" s="191"/>
+      <c r="B44" s="150"/>
       <c r="C44" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="D44" s="259"/>
+      <c r="D44" s="216"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="239"/>
-      <c r="B45" s="197"/>
+      <c r="A45" s="191"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="D45" s="259"/>
+      <c r="D45" s="216"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="239"/>
-      <c r="B46" s="197"/>
+      <c r="A46" s="191"/>
+      <c r="B46" s="150"/>
       <c r="C46" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="D46" s="259"/>
+      <c r="D46" s="216"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="241"/>
-      <c r="B47" s="198"/>
+      <c r="A47" s="193"/>
+      <c r="B47" s="151"/>
       <c r="C47" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="D47" s="259"/>
+      <c r="D47" s="216"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="187" t="s">
+      <c r="A49" s="152" t="s">
+        <v>472</v>
+      </c>
+      <c r="B49" s="190" t="s">
+        <v>477</v>
+      </c>
+      <c r="C49" s="102" t="s">
+        <v>476</v>
+      </c>
+      <c r="D49" s="219"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="153"/>
+      <c r="B50" s="191"/>
+      <c r="C50" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="D50" s="220"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="153"/>
+      <c r="B51" s="191"/>
+      <c r="C51" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="D51" s="220"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="153"/>
+      <c r="B52" s="191"/>
+      <c r="C52" s="114" t="s">
         <v>475</v>
       </c>
-      <c r="B49" s="238" t="s">
-        <v>480</v>
-      </c>
-      <c r="C49" s="142" t="s">
-        <v>479</v>
-      </c>
-      <c r="D49" s="262"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="188"/>
-      <c r="B50" s="239"/>
-      <c r="C50" s="45" t="s">
-        <v>476</v>
-      </c>
-      <c r="D50" s="263"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="188"/>
-      <c r="B51" s="239"/>
-      <c r="C51" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="D51" s="263"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="188"/>
-      <c r="B52" s="239"/>
-      <c r="C52" s="154" t="s">
-        <v>478</v>
-      </c>
-      <c r="D52" s="263"/>
+      <c r="D52" s="220"/>
     </row>
     <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="189"/>
-      <c r="B53" s="241"/>
-      <c r="C53" s="143" t="s">
-        <v>485</v>
-      </c>
-      <c r="D53" s="264"/>
+      <c r="A53" s="154"/>
+      <c r="B53" s="193"/>
+      <c r="C53" s="103" t="s">
+        <v>482</v>
+      </c>
+      <c r="D53" s="221"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9079,12 +8963,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFB0E93-B56A-4B31-83E0-3E7B6DF007FD}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B44"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9096,367 +8980,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="269" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="113" t="s">
-        <v>394</v>
-      </c>
-      <c r="D1" s="113" t="s">
-        <v>393</v>
-      </c>
-      <c r="E1" s="112" t="s">
+      <c r="A1" s="222" t="s">
         <v>392</v>
       </c>
+      <c r="B1" s="223"/>
+      <c r="C1" s="224" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1" s="224" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" s="225" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="107">
+      <c r="A2" s="226">
         <v>0</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="227"/>
+      <c r="C2" s="228" t="s">
+        <v>490</v>
+      </c>
+      <c r="D2" s="229">
+        <v>0</v>
+      </c>
+      <c r="E2" s="245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="230"/>
+      <c r="B3" s="231">
+        <v>5000</v>
+      </c>
+      <c r="C3" s="232" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" s="233"/>
+      <c r="E3" s="246"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="234">
+        <v>5001</v>
+      </c>
+      <c r="B4" s="235"/>
+      <c r="C4" s="236" t="s">
+        <v>490</v>
+      </c>
+      <c r="D4" s="229">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="232"/>
+      <c r="B5" s="237">
+        <v>20000</v>
+      </c>
+      <c r="C5" s="232" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" s="233"/>
+      <c r="E5" s="246">
+        <f>D4*(B5-A4+1)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="226">
+        <v>20001</v>
+      </c>
+      <c r="B6" s="227"/>
+      <c r="C6" s="228" t="s">
+        <v>491</v>
+      </c>
+      <c r="D6" s="229">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="245">
+        <f>SUM(E4:E5)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="230"/>
+      <c r="B7" s="231">
+        <v>35000</v>
+      </c>
+      <c r="C7" s="232" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" s="233"/>
+      <c r="E7" s="246">
+        <f>D6*(B7-A6+1)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="238">
+        <v>35001</v>
+      </c>
+      <c r="B8" s="227"/>
+      <c r="C8" s="228" t="s">
+        <v>492</v>
+      </c>
+      <c r="D8" s="229">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="245">
+        <f t="shared" ref="E8" si="0">SUM(E6:E7)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="231"/>
+      <c r="B9" s="230">
+        <v>50000</v>
+      </c>
+      <c r="C9" s="232" t="s">
+        <v>388</v>
+      </c>
+      <c r="D9" s="233"/>
+      <c r="E9" s="246">
+        <f t="shared" ref="E9" si="1">D8*(B9-A8+1)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="238">
+        <v>50001</v>
+      </c>
+      <c r="B10" s="227"/>
+      <c r="C10" s="228" t="s">
         <v>493</v>
       </c>
-      <c r="D2" s="267">
-        <v>0</v>
-      </c>
-      <c r="E2" s="106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="84"/>
-      <c r="B3" s="96">
-        <v>5000</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>487</v>
-      </c>
-      <c r="D3" s="268"/>
-      <c r="E3" s="78"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="102">
-        <v>5001</v>
-      </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="110" t="s">
-        <v>493</v>
-      </c>
-      <c r="D4" s="265">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
-      <c r="B5" s="101">
-        <v>20000</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="D5" s="266"/>
-      <c r="E5" s="108">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="107">
-        <v>20001</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="81" t="s">
+      <c r="D10" s="229">
+        <v>0.11</v>
+      </c>
+      <c r="E10" s="245">
+        <f t="shared" ref="E10" si="2">SUM(E8:E9)</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="240"/>
+      <c r="B11" s="230">
+        <v>70000</v>
+      </c>
+      <c r="C11" s="232" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="233"/>
+      <c r="E11" s="246">
+        <f t="shared" ref="E11" si="3">D10*(B11-A10+1)</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="241">
+        <v>70001</v>
+      </c>
+      <c r="B12" s="242"/>
+      <c r="C12" s="228" t="s">
         <v>494</v>
       </c>
-      <c r="D6" s="267">
-        <v>0.03</v>
-      </c>
-      <c r="E6" s="106">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
-      <c r="B7" s="96">
-        <v>35000</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>391</v>
-      </c>
-      <c r="D7" s="268"/>
-      <c r="E7" s="78">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="95">
-        <v>35001</v>
-      </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="93" t="s">
+      <c r="D12" s="229">
+        <v>0.19</v>
+      </c>
+      <c r="E12" s="245">
+        <f t="shared" ref="E12" si="4">SUM(E10:E11)</f>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="234"/>
+      <c r="B13" s="237">
+        <v>100000</v>
+      </c>
+      <c r="C13" s="232" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13" s="233"/>
+      <c r="E13" s="246">
+        <f t="shared" ref="E13" si="5">D12*(B13-A12+1)</f>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="243">
+        <v>100001</v>
+      </c>
+      <c r="B14" s="242"/>
+      <c r="C14" s="228" t="s">
         <v>495</v>
       </c>
-      <c r="D8" s="265">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="105">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
-      <c r="B9" s="90">
-        <v>50000</v>
-      </c>
-      <c r="C9" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="D9" s="266"/>
-      <c r="E9" s="88">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="87">
-        <v>50001</v>
-      </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="81" t="s">
+      <c r="D14" s="229">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="245">
+        <f t="shared" ref="E14" si="6">SUM(E12:E13)</f>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="244"/>
+      <c r="B15" s="237">
+        <v>400000</v>
+      </c>
+      <c r="C15" s="232" t="s">
+        <v>510</v>
+      </c>
+      <c r="D15" s="233"/>
+      <c r="E15" s="246">
+        <f t="shared" ref="E15" si="7">D14*(B15-A14+1)</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="238">
+        <v>400001</v>
+      </c>
+      <c r="B16" s="227"/>
+      <c r="C16" s="228" t="s">
         <v>496</v>
       </c>
-      <c r="D10" s="267">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E10" s="80">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
-      <c r="B11" s="84">
-        <v>70000</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>390</v>
-      </c>
-      <c r="D11" s="268"/>
-      <c r="E11" s="83">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="104">
-        <v>70001</v>
-      </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="93" t="s">
+      <c r="D16" s="229">
+        <v>0.26</v>
+      </c>
+      <c r="E16" s="245">
+        <f t="shared" ref="E16" si="8">SUM(E14:E15)</f>
+        <v>84400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="231"/>
+      <c r="B17" s="230">
+        <v>600000</v>
+      </c>
+      <c r="C17" s="232" t="s">
+        <v>385</v>
+      </c>
+      <c r="D17" s="233"/>
+      <c r="E17" s="246">
+        <f t="shared" ref="E17" si="9">D16*(B17-A16+1)</f>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="238">
+        <v>600001</v>
+      </c>
+      <c r="B18" s="227"/>
+      <c r="C18" s="228" t="s">
         <v>497</v>
       </c>
-      <c r="D12" s="265">
-        <v>0.21</v>
-      </c>
-      <c r="E12" s="92">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="102"/>
-      <c r="B13" s="101">
-        <v>100000</v>
-      </c>
-      <c r="C13" s="89" t="s">
-        <v>389</v>
-      </c>
-      <c r="D13" s="266"/>
-      <c r="E13" s="88">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="100">
-        <v>100001</v>
-      </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="81" t="s">
+      <c r="D18" s="229">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E18" s="245">
+        <f t="shared" ref="E18:E20" si="10">SUM(E16:E17)</f>
+        <v>136400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="231"/>
+      <c r="B19" s="230">
+        <v>2000000</v>
+      </c>
+      <c r="C19" s="232" t="s">
+        <v>511</v>
+      </c>
+      <c r="D19" s="233"/>
+      <c r="E19" s="246">
+        <f t="shared" ref="E19" si="11">D18*(B19-A18+1)</f>
+        <v>392000.00000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="238">
+        <v>2000001</v>
+      </c>
+      <c r="B20" s="227"/>
+      <c r="C20" s="228" t="s">
         <v>498</v>
       </c>
-      <c r="D14" s="267">
-        <v>0.24</v>
-      </c>
-      <c r="E14" s="80">
-        <v>10900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
-      <c r="B15" s="98">
-        <v>250000</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>388</v>
-      </c>
-      <c r="D15" s="268"/>
-      <c r="E15" s="83">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="97">
-        <v>250001</v>
-      </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="93" t="s">
-        <v>499</v>
-      </c>
-      <c r="D16" s="265">
-        <v>0.245</v>
-      </c>
-      <c r="E16" s="92">
-        <v>46900</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="90"/>
-      <c r="B17" s="91">
-        <v>400000</v>
-      </c>
-      <c r="C17" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="D17" s="266"/>
-      <c r="E17" s="88">
-        <v>36750</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="87">
-        <v>400001</v>
-      </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="81" t="s">
-        <v>500</v>
-      </c>
-      <c r="D18" s="267">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="80">
-        <v>83650</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="96"/>
-      <c r="B19" s="84">
-        <v>600000</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>387</v>
-      </c>
-      <c r="D19" s="268"/>
-      <c r="E19" s="83">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="95">
-        <v>600001</v>
-      </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="93" t="s">
-        <v>501</v>
-      </c>
-      <c r="D20" s="265">
-        <v>0.26</v>
-      </c>
-      <c r="E20" s="92">
-        <v>133650</v>
+      <c r="D20" s="229">
+        <v>0.3</v>
+      </c>
+      <c r="E20" s="245">
+        <f t="shared" si="10"/>
+        <v>528400</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="91"/>
-      <c r="B21" s="90">
-        <v>1000000</v>
-      </c>
-      <c r="C21" s="89" t="s">
-        <v>386</v>
-      </c>
-      <c r="D21" s="266"/>
-      <c r="E21" s="88">
-        <v>104000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="87">
-        <v>1000001</v>
-      </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="81" t="s">
-        <v>502</v>
-      </c>
-      <c r="D22" s="267">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E22" s="80">
-        <v>237650</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="85"/>
-      <c r="B23" s="84">
-        <v>2000000</v>
-      </c>
-      <c r="C23" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="D23" s="268"/>
-      <c r="E23" s="83">
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="95">
-        <v>2000001</v>
-      </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="93" t="s">
-        <v>503</v>
-      </c>
-      <c r="D24" s="265">
-        <v>0.3</v>
-      </c>
-      <c r="E24" s="92">
-        <v>517650</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="91"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="89" t="s">
+      <c r="A21" s="231"/>
+      <c r="B21" s="230"/>
+      <c r="C21" s="232" t="s">
         <v>384</v>
       </c>
-      <c r="D25" s="266"/>
-      <c r="E25" s="88" t="s">
+      <c r="D21" s="233"/>
+      <c r="E21" s="239" t="s">
         <v>383</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
+  <mergeCells count="11">
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D24:D25"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel LHDN Calculator Form (Blank Form).xlsx
+++ b/Excel LHDN Calculator Form (Blank Form).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harein\Documents\GitHub\MY_TaxRelief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD8B373-C1F5-4E9B-ACBC-325388CE7E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9049B2FE-F06F-49B8-AEF5-192F18DD2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="777" activeTab="2" xr2:uid="{4EA980A6-4219-484D-BF26-8C30E1E17AF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="777" xr2:uid="{4EA980A6-4219-484D-BF26-8C30E1E17AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Compute Income Tax (Part B)" sheetId="1" r:id="rId1"/>
@@ -3600,21 +3600,99 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3639,16 +3717,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3660,11 +3732,122 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3700,15 +3883,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3717,117 +3891,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3849,82 +3915,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4570,10 +4570,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B44"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4618,60 +4618,58 @@
       <c r="E3" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="166" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="161" t="s">
         <v>404</v>
       </c>
-      <c r="C5" s="155">
-        <v>5834</v>
-      </c>
+      <c r="C5" s="162"/>
       <c r="D5" s="46" t="s">
         <v>82</v>
       </c>
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="153"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="155"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="162"/>
       <c r="D6" s="24" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="153"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="155"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="162"/>
       <c r="D7" s="24" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="153"/>
-      <c r="B8" s="143"/>
-      <c r="C8" s="155"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="162"/>
       <c r="D8" s="24" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="153"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="155"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="162"/>
       <c r="D9" s="30" t="s">
         <v>470</v>
       </c>
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="153"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="155"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="162"/>
       <c r="D10" s="30" t="s">
         <v>469</v>
       </c>
@@ -4680,9 +4678,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="153"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="155"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="162"/>
       <c r="D11" s="24" t="s">
         <v>77</v>
       </c>
@@ -4691,9 +4689,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="153"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="155"/>
+      <c r="A12" s="167"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="162"/>
       <c r="D12" s="24" t="s">
         <v>75</v>
       </c>
@@ -4702,9 +4700,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="153"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="155"/>
+      <c r="A13" s="167"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="162"/>
       <c r="D13" s="24" t="s">
         <v>73</v>
       </c>
@@ -4713,9 +4711,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="153"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="155"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="162"/>
       <c r="D14" s="24" t="s">
         <v>71</v>
       </c>
@@ -4724,38 +4722,38 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="153"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="155"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="162"/>
       <c r="D15" s="24"/>
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="153"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="155"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="162"/>
       <c r="D16" s="24" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="153"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="155"/>
+      <c r="A17" s="167"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="162"/>
       <c r="D17" s="29" t="s">
         <v>468</v>
       </c>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="153"/>
+      <c r="A18" s="167"/>
       <c r="B18" s="7" t="s">
         <v>487</v>
       </c>
       <c r="C18" s="42">
         <f>IF(NOT(ISNUMBER(C5)),0,C5*12)</f>
-        <v>70008</v>
+        <v>0</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>68</v>
@@ -4763,47 +4761,47 @@
       <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="166" t="s">
         <v>403</v>
       </c>
-      <c r="B19" s="143" t="s">
+      <c r="B19" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="139"/>
+      <c r="C19" s="163"/>
       <c r="D19" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="153"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="140"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="164"/>
       <c r="D20" s="30" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="153"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="140"/>
+      <c r="A21" s="167"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="164"/>
       <c r="D21" s="24"/>
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="153"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="140"/>
+      <c r="A22" s="167"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="164"/>
       <c r="D22" s="40" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="154"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="142"/>
+      <c r="A23" s="168"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="165"/>
       <c r="D23" s="29" t="s">
         <v>63</v>
       </c>
@@ -4823,225 +4821,225 @@
       <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="152" t="s">
+      <c r="A25" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="139"/>
+      <c r="C25" s="163"/>
       <c r="D25" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="153"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="140"/>
+      <c r="A26" s="167"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="164"/>
       <c r="D26" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="153"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="140"/>
+      <c r="A27" s="167"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="164"/>
       <c r="D27" s="37" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="153"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="140"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="164"/>
       <c r="D28" s="36" t="s">
         <v>54</v>
       </c>
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="153"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="140"/>
+      <c r="A29" s="167"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="164"/>
       <c r="D29" s="37" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="153"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="140"/>
+      <c r="A30" s="167"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="164"/>
       <c r="D30" s="36" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="153"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="140"/>
+      <c r="A31" s="167"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="164"/>
       <c r="D31" s="35" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="153"/>
+      <c r="A32" s="167"/>
       <c r="B32" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="140"/>
+      <c r="C32" s="164"/>
       <c r="D32" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="153"/>
-      <c r="B33" s="145" t="s">
+      <c r="A33" s="167"/>
+      <c r="B33" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="140"/>
+      <c r="C33" s="164"/>
       <c r="D33" s="33" t="s">
         <v>47</v>
       </c>
       <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="153"/>
-      <c r="B34" s="146"/>
-      <c r="C34" s="140"/>
+      <c r="A34" s="167"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="164"/>
       <c r="D34" s="24" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="153"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="140"/>
+      <c r="A35" s="167"/>
+      <c r="B35" s="172"/>
+      <c r="C35" s="164"/>
       <c r="D35" s="24" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="153"/>
-      <c r="B36" s="147"/>
-      <c r="C36" s="140"/>
+      <c r="A36" s="167"/>
+      <c r="B36" s="173"/>
+      <c r="C36" s="164"/>
       <c r="D36" s="32" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="153"/>
-      <c r="B37" s="148" t="s">
+      <c r="A37" s="167"/>
+      <c r="B37" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="140"/>
+      <c r="C37" s="164"/>
       <c r="D37" s="26" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="153"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="141"/>
+      <c r="A38" s="167"/>
+      <c r="B38" s="174"/>
+      <c r="C38" s="169"/>
       <c r="D38" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="153"/>
-      <c r="B39" s="148"/>
-      <c r="C39" s="140"/>
+      <c r="A39" s="167"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="164"/>
       <c r="D39" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="153"/>
+      <c r="A40" s="167"/>
       <c r="B40" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="140"/>
+      <c r="C40" s="164"/>
       <c r="D40" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="153"/>
+      <c r="A41" s="167"/>
       <c r="B41" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="140"/>
+      <c r="C41" s="164"/>
       <c r="D41" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="153"/>
+      <c r="A42" s="167"/>
       <c r="B42" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="140"/>
+      <c r="C42" s="164"/>
       <c r="D42" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="153"/>
-      <c r="B43" s="149" t="s">
+      <c r="A43" s="167"/>
+      <c r="B43" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="140"/>
+      <c r="C43" s="164"/>
       <c r="D43" s="26" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="153"/>
-      <c r="B44" s="150"/>
-      <c r="C44" s="140"/>
+      <c r="A44" s="167"/>
+      <c r="B44" s="176"/>
+      <c r="C44" s="164"/>
       <c r="D44" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="153"/>
-      <c r="B45" s="150"/>
-      <c r="C45" s="140"/>
+      <c r="A45" s="167"/>
+      <c r="B45" s="176"/>
+      <c r="C45" s="164"/>
       <c r="D45" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="153"/>
-      <c r="B46" s="150"/>
-      <c r="C46" s="140"/>
+      <c r="A46" s="167"/>
+      <c r="B46" s="176"/>
+      <c r="C46" s="164"/>
       <c r="D46" s="30" t="s">
         <v>467</v>
       </c>
       <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="154"/>
-      <c r="B47" s="151"/>
-      <c r="C47" s="142"/>
+      <c r="A47" s="168"/>
+      <c r="B47" s="177"/>
+      <c r="C47" s="165"/>
       <c r="D47" s="29" t="s">
         <v>29</v>
       </c>
@@ -5060,84 +5058,82 @@
       </c>
       <c r="C49" s="27">
         <f>IF(COUNTA(C5:C47)=1,0,IF(SUM(C18,C24:C47)-C19&lt;0,0,SUM(C18,C24:C47)-C19))</f>
-        <v>70008</v>
+        <v>0</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="144" t="s">
+      <c r="A51" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="143" t="s">
+      <c r="B51" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="139">
-        <v>8</v>
-      </c>
+      <c r="C51" s="163"/>
       <c r="D51" s="26" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="144"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="140"/>
+      <c r="A52" s="170"/>
+      <c r="B52" s="161"/>
+      <c r="C52" s="164"/>
       <c r="D52" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="144"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="140"/>
+      <c r="A53" s="170"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="164"/>
       <c r="D53" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="144"/>
-      <c r="B54" s="143"/>
-      <c r="C54" s="140"/>
+      <c r="A54" s="170"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="164"/>
       <c r="D54" s="24"/>
       <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="144"/>
-      <c r="B55" s="143"/>
-      <c r="C55" s="140"/>
+      <c r="A55" s="170"/>
+      <c r="B55" s="161"/>
+      <c r="C55" s="164"/>
       <c r="D55" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="144"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="140"/>
+      <c r="A56" s="170"/>
+      <c r="B56" s="161"/>
+      <c r="C56" s="164"/>
       <c r="D56" s="23" t="s">
         <v>466</v>
       </c>
       <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="144"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="142"/>
+      <c r="A57" s="170"/>
+      <c r="B57" s="161"/>
+      <c r="C57" s="165"/>
       <c r="D57" s="21"/>
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="144"/>
+      <c r="A58" s="170"/>
       <c r="B58" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C58" s="13">
         <f>IF(COUNTA(C51)=0,0,IF(C51&gt;C49,C49,C51))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>20</v>
@@ -5153,7 +5149,7 @@
       </c>
       <c r="C60" s="13">
         <f>IF(NOT(AND(ISNUMBER(C49),ISNUMBER(C58))),0,IF(C49-C58&lt;0,0,C49-C58))</f>
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>14</v>
@@ -5185,7 +5181,7 @@
       </c>
       <c r="C64" s="13">
         <f>IF(NOT(AND(ISNUMBER(C62),ISNUMBER(C60))),0,IF(C60-C62&lt;0,0,C60-C62))</f>
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>14</v>
@@ -5243,7 +5239,7 @@
       </c>
       <c r="C72" s="11">
         <f>IF(NOT(AND(ISNUMBER(C64),ISNUMBER(C70))),0,IF(C64-C70&lt;0,0,C64-C70))</f>
-        <v>61000</v>
+        <v>0</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>489</v>
@@ -5268,7 +5264,7 @@
       </c>
       <c r="C75" s="9">
         <f>IF(NOT(ISNUMBER(C72)),0,LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!D2:D21))</f>
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4"/>
@@ -5279,11 +5275,11 @@
       </c>
       <c r="B76" s="7" t="str">
         <f>IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!C2:C21),"")</f>
-        <v>Tax on the First 50,000</v>
+        <v>Tax on the First 5,000</v>
       </c>
       <c r="C76" s="123">
         <f>IF(NOT(ISNUMBER(C72)),0,IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!E2:E21),0))</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>485</v>
@@ -5296,11 +5292,11 @@
       </c>
       <c r="B77" s="7" t="str">
         <f>_xlfn.CONCAT("Tax on the ", "Balance ", IF(C75 = 0, TEXT(C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!A2:A21),0),"#,##0_ ;-#,##0 "),TEXT(C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!A2:A21)-1,0),"#,##0_ ;-#,##0 ")))</f>
-        <v xml:space="preserve">Tax on the Balance 11,000 </v>
+        <v xml:space="preserve">Tax on the Balance 0 </v>
       </c>
       <c r="C77" s="123">
         <f>IF(NOT(ISNUMBER(C72)),0,IF(C75=0,(C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!A2:A21),0))*C75,C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!A2:A21)-1,0))*C75)</f>
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>486</v>
@@ -5322,7 +5318,7 @@
       </c>
       <c r="C79" s="124">
         <f>IF(NOT(OR(ISNUMBER(C76),ISNUMBER(C77))),0,SUM(C76:C77))</f>
-        <v>2710</v>
+        <v>0</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="4"/>
@@ -5338,12 +5334,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B5:B17"/>
-    <mergeCell ref="C5:C17"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="A19:A23"/>
     <mergeCell ref="C25:C47"/>
     <mergeCell ref="B51:B57"/>
     <mergeCell ref="C51:C57"/>
@@ -5353,6 +5343,12 @@
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B43:B47"/>
     <mergeCell ref="A25:A47"/>
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="C5:C17"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="45" priority="25">
@@ -5596,29 +5592,29 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="166" t="s">
         <v>410</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="171" t="s">
         <v>409</v>
       </c>
-      <c r="C6" s="152" t="str">
+      <c r="C6" s="166" t="str">
         <f>IF(NOT(ISNUMBER('Compute Income Tax (Part B)'!C49)), "SUM OF E2 IS MAXIMUM OF 10% Of B4 
 (Aggregate Income) Which is RM X", "10% Of B4 
 (Aggregate Income) Which is RM " &amp; TRUNC('Compute Income Tax (Part B)'!C49*0.1))</f>
         <v>10% Of B4 
-(Aggregate Income) Which is RM 7000</v>
-      </c>
-      <c r="D6" s="156"/>
+(Aggregate Income) Which is RM 0</v>
+      </c>
+      <c r="D6" s="180"/>
       <c r="E6" s="93" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="154"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="157"/>
+      <c r="A7" s="168"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="82" t="s">
         <v>461</v>
       </c>
@@ -5630,7 +5626,7 @@
       <c r="B8" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="C8" s="153"/>
+      <c r="C8" s="167"/>
       <c r="D8" s="106"/>
       <c r="E8" s="94" t="s">
         <v>462</v>
@@ -5643,57 +5639,57 @@
       <c r="B9" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C9" s="153"/>
+      <c r="C9" s="167"/>
       <c r="D9" s="104"/>
       <c r="E9" s="95" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="166" t="s">
         <v>417</v>
       </c>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="175" t="s">
         <v>416</v>
       </c>
-      <c r="C10" s="153"/>
-      <c r="D10" s="156"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="180"/>
       <c r="E10" s="93" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="153"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="158"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="182"/>
       <c r="E11" s="96" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="153"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="158"/>
+      <c r="A12" s="167"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="182"/>
       <c r="E12" s="97" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="153"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="158"/>
+      <c r="A13" s="167"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="182"/>
       <c r="E13" s="96" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="154"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="157"/>
+      <c r="A14" s="168"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="181"/>
       <c r="E14" s="82" t="s">
         <v>420</v>
       </c>
@@ -5707,7 +5703,7 @@
       </c>
       <c r="C15" s="126">
         <f>IF(NOT(ISNUMBER('Compute Income Tax (Part B)'!C49)), 0,'Compute Income Tax (Part B)'!C49*0.1)</f>
-        <v>7000.8</v>
+        <v>0</v>
       </c>
       <c r="D15" s="125">
         <f>IF(NOT(OR(ISNUMBER(D6),ISNUMBER(D8),ISNUMBER(D9),ISNUMBER(D10))),0,IF(SUM(D6:D14)&gt;C15, C15, SUM(D6:D14)))</f>
@@ -5718,154 +5714,154 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="170" t="s">
         <v>421</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="161" t="s">
         <v>422</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="166" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="162"/>
       <c r="E16" s="99" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="144"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="162"/>
       <c r="E17" s="82" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="144" t="s">
+      <c r="A18" s="170" t="s">
         <v>428</v>
       </c>
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="161" t="s">
         <v>424</v>
       </c>
-      <c r="C18" s="159">
+      <c r="C18" s="178">
         <v>20000</v>
       </c>
-      <c r="D18" s="155"/>
+      <c r="D18" s="162"/>
       <c r="E18" s="99" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="144"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
+      <c r="A19" s="170"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="162"/>
       <c r="E19" s="82" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="144" t="s">
+      <c r="A20" s="170" t="s">
         <v>425</v>
       </c>
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="161" t="s">
         <v>429</v>
       </c>
-      <c r="C20" s="152" t="s">
+      <c r="C20" s="166" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="155"/>
+      <c r="D20" s="162"/>
       <c r="E20" s="99" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="144"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="155"/>
+      <c r="A21" s="170"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="162"/>
       <c r="E21" s="82" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="144" t="s">
+      <c r="A22" s="170" t="s">
         <v>427</v>
       </c>
-      <c r="B22" s="143" t="s">
+      <c r="B22" s="161" t="s">
         <v>431</v>
       </c>
-      <c r="C22" s="159">
+      <c r="C22" s="178">
         <v>20000</v>
       </c>
-      <c r="D22" s="155"/>
+      <c r="D22" s="162"/>
       <c r="E22" s="99" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="144"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="155"/>
+      <c r="A23" s="170"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="82" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="144" t="s">
+      <c r="A24" s="170" t="s">
         <v>433</v>
       </c>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="161" t="s">
         <v>434</v>
       </c>
-      <c r="C24" s="152" t="s">
+      <c r="C24" s="166" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="155"/>
+      <c r="D24" s="162"/>
       <c r="E24" s="93" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="144"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="155"/>
+      <c r="A25" s="170"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="162"/>
       <c r="E25" s="82" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="144" t="s">
+      <c r="A26" s="170" t="s">
         <v>437</v>
       </c>
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="161" t="s">
         <v>438</v>
       </c>
-      <c r="C26" s="152" t="s">
+      <c r="C26" s="166" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="160"/>
+      <c r="D26" s="179"/>
       <c r="E26" s="99" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="144"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="160"/>
+      <c r="A27" s="170"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="179"/>
       <c r="E27" s="100" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="144"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="160"/>
+      <c r="A28" s="170"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="179"/>
       <c r="E28" s="101" t="s">
         <v>464</v>
       </c>
@@ -5891,30 +5887,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
@@ -5922,6 +5894,30 @@
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C6:C14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
@@ -6036,8 +6032,8 @@
   </sheetPr>
   <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B44"/>
       <selection pane="bottomLeft" activeCell="D44" sqref="D44:D50"/>
     </sheetView>
@@ -6096,16 +6092,16 @@
       <c r="E4" s="67"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="170" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="170" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="200">
+      <c r="C5" s="185">
         <v>9000</v>
       </c>
-      <c r="D5" s="205">
+      <c r="D5" s="196">
         <v>9000</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -6113,129 +6109,129 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="144"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="205"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="196"/>
       <c r="E6" s="83" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="175" t="s">
+      <c r="A7" s="191" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="192" t="s">
         <v>332</v>
       </c>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="191" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="178"/>
+      <c r="D7" s="195"/>
       <c r="E7" s="24" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="175"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="178"/>
+      <c r="A8" s="191"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="195"/>
       <c r="E8" s="24" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="175"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="178"/>
+      <c r="A9" s="191"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="195"/>
       <c r="E9" s="24" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="175"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="178"/>
+      <c r="A10" s="191"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="195"/>
       <c r="E10" s="24" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="175"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="178"/>
+      <c r="A11" s="191"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="195"/>
       <c r="E11" s="30" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="175"/>
-      <c r="B12" s="173"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="178"/>
+      <c r="A12" s="191"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="195"/>
       <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="175"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="178"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="195"/>
       <c r="E13" s="30" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="175"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="178"/>
+      <c r="A14" s="191"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="195"/>
       <c r="E14" s="24" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="175"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="178"/>
+      <c r="A15" s="191"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="195"/>
       <c r="E15" s="24" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="175"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="178"/>
+      <c r="A16" s="191"/>
+      <c r="B16" s="193"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="195"/>
       <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="175"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="178"/>
+      <c r="A17" s="191"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="195"/>
       <c r="E17" s="24" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="175"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="178"/>
+      <c r="A18" s="191"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="195"/>
       <c r="E18" s="24" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="175"/>
-      <c r="B19" s="204"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="178"/>
+      <c r="A19" s="191"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="195"/>
       <c r="E19" s="84" t="s">
         <v>320</v>
       </c>
@@ -6254,105 +6250,105 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="206" t="s">
+      <c r="A21" s="197" t="s">
         <v>319</v>
       </c>
-      <c r="B21" s="207" t="s">
+      <c r="B21" s="198" t="s">
         <v>393</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="199" t="s">
         <v>395</v>
       </c>
-      <c r="D21" s="208"/>
+      <c r="D21" s="200"/>
       <c r="E21" s="86" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="144"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="209"/>
+      <c r="A22" s="170"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="190"/>
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="144"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="209"/>
+      <c r="A23" s="170"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="190"/>
       <c r="E23" s="24" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="144"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="209"/>
+      <c r="A24" s="170"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="190"/>
       <c r="E24" s="30" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="144"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="210"/>
+      <c r="A25" s="170"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="187"/>
       <c r="E25" s="30" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="144"/>
-      <c r="B26" s="150" t="s">
+      <c r="A26" s="170"/>
+      <c r="B26" s="176" t="s">
         <v>394</v>
       </c>
-      <c r="C26" s="152" t="s">
+      <c r="C26" s="166" t="s">
         <v>395</v>
       </c>
-      <c r="D26" s="211"/>
+      <c r="D26" s="186"/>
       <c r="E26" s="30" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="144"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="209"/>
+      <c r="A27" s="170"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="190"/>
       <c r="E27" s="30" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="144"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="209"/>
+      <c r="A28" s="170"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="190"/>
       <c r="E28" s="30" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="144"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="209"/>
+      <c r="A29" s="170"/>
+      <c r="B29" s="176"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="190"/>
       <c r="E29" s="30" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="144"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="210"/>
+      <c r="A30" s="170"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="187"/>
       <c r="E30" s="83" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="144"/>
+      <c r="A31" s="170"/>
       <c r="B31" s="74" t="s">
         <v>396</v>
       </c>
@@ -6368,328 +6364,328 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="144" t="s">
+      <c r="A32" s="170" t="s">
         <v>308</v>
       </c>
-      <c r="B32" s="143" t="s">
+      <c r="B32" s="161" t="s">
         <v>307</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="170" t="s">
         <v>263</v>
       </c>
-      <c r="D32" s="196"/>
+      <c r="D32" s="188"/>
       <c r="E32" s="26" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="144"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="196"/>
+      <c r="A33" s="170"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="188"/>
       <c r="E33" s="24" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="144"/>
-      <c r="B34" s="143"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="196"/>
+      <c r="A34" s="170"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="188"/>
       <c r="E34" s="30" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="144"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="196"/>
+      <c r="A35" s="170"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="188"/>
       <c r="E35" s="24" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="144"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="196"/>
+      <c r="A36" s="170"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="188"/>
       <c r="E36" s="24" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="144"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="196"/>
+      <c r="A37" s="170"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="188"/>
       <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="144"/>
-      <c r="B38" s="143"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="196"/>
+      <c r="A38" s="170"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="188"/>
       <c r="E38" s="30" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="144"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="196"/>
+      <c r="A39" s="170"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="188"/>
       <c r="E39" s="30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="144"/>
-      <c r="B40" s="143"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="196"/>
+      <c r="A40" s="170"/>
+      <c r="B40" s="161"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="188"/>
       <c r="E40" s="83" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="144" t="s">
+      <c r="A41" s="170" t="s">
         <v>298</v>
       </c>
-      <c r="B41" s="143" t="s">
+      <c r="B41" s="161" t="s">
         <v>297</v>
       </c>
-      <c r="C41" s="200">
+      <c r="C41" s="185">
         <v>6000</v>
       </c>
-      <c r="D41" s="196"/>
+      <c r="D41" s="188"/>
       <c r="E41" s="46" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="144"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="200"/>
-      <c r="D42" s="196"/>
+      <c r="A42" s="170"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="185"/>
+      <c r="D42" s="188"/>
       <c r="E42" s="30" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="144"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="200"/>
-      <c r="D43" s="196"/>
+      <c r="A43" s="170"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="188"/>
       <c r="E43" s="83" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="144" t="s">
+      <c r="A44" s="170" t="s">
         <v>293</v>
       </c>
-      <c r="B44" s="143" t="s">
+      <c r="B44" s="161" t="s">
         <v>292</v>
       </c>
-      <c r="C44" s="144" t="s">
+      <c r="C44" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="196"/>
+      <c r="D44" s="188"/>
       <c r="E44" s="26" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="144"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="196"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="161"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="188"/>
       <c r="E45" s="24" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="144"/>
-      <c r="B46" s="143"/>
-      <c r="C46" s="144"/>
-      <c r="D46" s="196"/>
+      <c r="A46" s="170"/>
+      <c r="B46" s="161"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="188"/>
       <c r="E46" s="30" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="144"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="144"/>
-      <c r="D47" s="196"/>
+      <c r="A47" s="170"/>
+      <c r="B47" s="161"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="188"/>
       <c r="E47" s="24" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="144"/>
-      <c r="B48" s="143"/>
-      <c r="C48" s="144"/>
-      <c r="D48" s="196"/>
+      <c r="A48" s="170"/>
+      <c r="B48" s="161"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="188"/>
       <c r="E48" s="24"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="144"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="144"/>
-      <c r="D49" s="196"/>
+      <c r="A49" s="170"/>
+      <c r="B49" s="161"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="188"/>
       <c r="E49" s="24" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="144"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="144"/>
-      <c r="D50" s="196"/>
+      <c r="A50" s="170"/>
+      <c r="B50" s="161"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="188"/>
       <c r="E50" s="87" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="144" t="s">
+      <c r="A51" s="170" t="s">
         <v>285</v>
       </c>
-      <c r="B51" s="143" t="s">
+      <c r="B51" s="161" t="s">
         <v>284</v>
       </c>
-      <c r="C51" s="144" t="s">
+      <c r="C51" s="170" t="s">
         <v>283</v>
       </c>
-      <c r="D51" s="196"/>
+      <c r="D51" s="188"/>
       <c r="E51" s="26" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="144"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="144"/>
-      <c r="D52" s="196"/>
+      <c r="A52" s="170"/>
+      <c r="B52" s="161"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="188"/>
       <c r="E52" s="30" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="144"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="196"/>
+      <c r="A53" s="170"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="188"/>
       <c r="E53" s="30" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="144"/>
-      <c r="B54" s="143"/>
-      <c r="C54" s="144"/>
-      <c r="D54" s="196"/>
+      <c r="A54" s="170"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="188"/>
       <c r="E54" s="83" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="144" t="s">
+      <c r="A55" s="170" t="s">
         <v>279</v>
       </c>
-      <c r="B55" s="143" t="s">
+      <c r="B55" s="161" t="s">
         <v>278</v>
       </c>
-      <c r="C55" s="144" t="s">
+      <c r="C55" s="170" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="196"/>
+      <c r="D55" s="188"/>
       <c r="E55" s="26" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="144"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="144"/>
-      <c r="D56" s="196"/>
+      <c r="A56" s="170"/>
+      <c r="B56" s="161"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="188"/>
       <c r="E56" s="30" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="144"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="144"/>
-      <c r="D57" s="196"/>
+      <c r="A57" s="170"/>
+      <c r="B57" s="161"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="188"/>
       <c r="E57" s="24" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="144"/>
-      <c r="B58" s="143"/>
-      <c r="C58" s="144"/>
-      <c r="D58" s="196"/>
+      <c r="A58" s="170"/>
+      <c r="B58" s="161"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="188"/>
       <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="144"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="144"/>
-      <c r="D59" s="196"/>
+      <c r="A59" s="170"/>
+      <c r="B59" s="161"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="188"/>
       <c r="E59" s="30" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="144"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="144"/>
-      <c r="D60" s="196"/>
+      <c r="A60" s="170"/>
+      <c r="B60" s="161"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="188"/>
       <c r="E60" s="30" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="144"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="144"/>
-      <c r="D61" s="196"/>
+      <c r="A61" s="170"/>
+      <c r="B61" s="161"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="188"/>
       <c r="E61" s="30" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="144"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="196"/>
+      <c r="A62" s="170"/>
+      <c r="B62" s="161"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="188"/>
       <c r="E62" s="83" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="144" t="s">
+      <c r="A63" s="170" t="s">
         <v>270</v>
       </c>
-      <c r="B63" s="143" t="s">
+      <c r="B63" s="161" t="s">
         <v>269</v>
       </c>
-      <c r="C63" s="144" t="s">
+      <c r="C63" s="170" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="196"/>
+      <c r="D63" s="188"/>
       <c r="E63" s="26" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="144"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="196"/>
+      <c r="A64" s="170"/>
+      <c r="B64" s="161"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="188"/>
       <c r="E64" s="83" t="s">
         <v>266</v>
       </c>
@@ -6719,662 +6715,662 @@
       <c r="B66" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="C66" s="152" t="s">
+      <c r="C66" s="166" t="s">
         <v>260</v>
       </c>
-      <c r="D66" s="209"/>
+      <c r="D66" s="190"/>
       <c r="E66" s="83" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="144" t="s">
+      <c r="A67" s="170" t="s">
         <v>259</v>
       </c>
-      <c r="B67" s="212" t="s">
+      <c r="B67" s="189" t="s">
         <v>258</v>
       </c>
-      <c r="C67" s="153"/>
-      <c r="D67" s="209"/>
+      <c r="C67" s="167"/>
+      <c r="D67" s="190"/>
       <c r="E67" s="26" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="144"/>
-      <c r="B68" s="212"/>
-      <c r="C68" s="153"/>
-      <c r="D68" s="209"/>
+      <c r="A68" s="170"/>
+      <c r="B68" s="189"/>
+      <c r="C68" s="167"/>
+      <c r="D68" s="190"/>
       <c r="E68" s="83" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="144" t="s">
+      <c r="A69" s="170" t="s">
         <v>256</v>
       </c>
-      <c r="B69" s="212" t="s">
+      <c r="B69" s="189" t="s">
         <v>255</v>
       </c>
-      <c r="C69" s="153"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="167"/>
+      <c r="D69" s="190"/>
       <c r="E69" s="26" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="144"/>
-      <c r="B70" s="212"/>
-      <c r="C70" s="153"/>
-      <c r="D70" s="209"/>
+      <c r="A70" s="170"/>
+      <c r="B70" s="189"/>
+      <c r="C70" s="167"/>
+      <c r="D70" s="190"/>
       <c r="E70" s="83" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="144" t="s">
+      <c r="A71" s="170" t="s">
         <v>253</v>
       </c>
-      <c r="B71" s="212" t="s">
+      <c r="B71" s="189" t="s">
         <v>252</v>
       </c>
-      <c r="C71" s="153"/>
-      <c r="D71" s="209"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="190"/>
       <c r="E71" s="26" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="144"/>
-      <c r="B72" s="212"/>
-      <c r="C72" s="153"/>
-      <c r="D72" s="209"/>
+      <c r="A72" s="170"/>
+      <c r="B72" s="189"/>
+      <c r="C72" s="167"/>
+      <c r="D72" s="190"/>
       <c r="E72" s="30" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="144"/>
-      <c r="B73" s="212"/>
-      <c r="C73" s="153"/>
-      <c r="D73" s="209"/>
+      <c r="A73" s="170"/>
+      <c r="B73" s="189"/>
+      <c r="C73" s="167"/>
+      <c r="D73" s="190"/>
       <c r="E73" s="24" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="144"/>
-      <c r="B74" s="212"/>
-      <c r="C74" s="153"/>
-      <c r="D74" s="209"/>
+      <c r="A74" s="170"/>
+      <c r="B74" s="189"/>
+      <c r="C74" s="167"/>
+      <c r="D74" s="190"/>
       <c r="E74" s="83" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="144" t="s">
+      <c r="A75" s="170" t="s">
         <v>248</v>
       </c>
-      <c r="B75" s="143" t="s">
+      <c r="B75" s="161" t="s">
         <v>247</v>
       </c>
-      <c r="C75" s="153"/>
-      <c r="D75" s="209"/>
+      <c r="C75" s="167"/>
+      <c r="D75" s="190"/>
       <c r="E75" s="26" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="144"/>
-      <c r="B76" s="143"/>
-      <c r="C76" s="154"/>
-      <c r="D76" s="209"/>
+      <c r="A76" s="170"/>
+      <c r="B76" s="161"/>
+      <c r="C76" s="168"/>
+      <c r="D76" s="190"/>
       <c r="E76" s="83" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="144" t="s">
+      <c r="A77" s="170" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="143" t="s">
+      <c r="B77" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="C77" s="144" t="s">
+      <c r="C77" s="170" t="s">
         <v>243</v>
       </c>
-      <c r="D77" s="201"/>
+      <c r="D77" s="205"/>
       <c r="E77" s="26" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="144"/>
-      <c r="B78" s="143"/>
-      <c r="C78" s="144"/>
-      <c r="D78" s="202"/>
+      <c r="A78" s="170"/>
+      <c r="B78" s="161"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="206"/>
       <c r="E78" s="30" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="144"/>
-      <c r="B79" s="143"/>
-      <c r="C79" s="144"/>
-      <c r="D79" s="202"/>
+      <c r="A79" s="170"/>
+      <c r="B79" s="161"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="206"/>
       <c r="E79" s="24" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="144"/>
-      <c r="B80" s="143"/>
-      <c r="C80" s="144"/>
-      <c r="D80" s="202"/>
+      <c r="A80" s="170"/>
+      <c r="B80" s="161"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="206"/>
       <c r="E80" s="30" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="144"/>
-      <c r="B81" s="143"/>
-      <c r="C81" s="144"/>
-      <c r="D81" s="202"/>
+      <c r="A81" s="170"/>
+      <c r="B81" s="161"/>
+      <c r="C81" s="170"/>
+      <c r="D81" s="206"/>
       <c r="E81" s="30" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="152"/>
-      <c r="B82" s="149"/>
-      <c r="C82" s="152"/>
-      <c r="D82" s="203"/>
+      <c r="A82" s="166"/>
+      <c r="B82" s="175"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="207"/>
       <c r="E82" s="83" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="144" t="s">
+      <c r="A83" s="170" t="s">
         <v>237</v>
       </c>
-      <c r="B83" s="143" t="s">
+      <c r="B83" s="161" t="s">
         <v>236</v>
       </c>
-      <c r="C83" s="144" t="s">
+      <c r="C83" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="D83" s="196"/>
+      <c r="D83" s="188"/>
       <c r="E83" s="46" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="144"/>
-      <c r="B84" s="143"/>
-      <c r="C84" s="144"/>
-      <c r="D84" s="196"/>
+      <c r="A84" s="170"/>
+      <c r="B84" s="161"/>
+      <c r="C84" s="170"/>
+      <c r="D84" s="188"/>
       <c r="E84" s="24" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="144"/>
-      <c r="B85" s="143"/>
-      <c r="C85" s="144"/>
-      <c r="D85" s="196"/>
+      <c r="A85" s="170"/>
+      <c r="B85" s="161"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="188"/>
       <c r="E85" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="144"/>
-      <c r="B86" s="143"/>
-      <c r="C86" s="144"/>
-      <c r="D86" s="196"/>
+      <c r="A86" s="170"/>
+      <c r="B86" s="161"/>
+      <c r="C86" s="170"/>
+      <c r="D86" s="188"/>
       <c r="E86" s="24" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="144"/>
-      <c r="B87" s="143"/>
-      <c r="C87" s="144"/>
-      <c r="D87" s="196"/>
+      <c r="A87" s="170"/>
+      <c r="B87" s="161"/>
+      <c r="C87" s="170"/>
+      <c r="D87" s="188"/>
       <c r="E87" s="24"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="144"/>
-      <c r="B88" s="143"/>
-      <c r="C88" s="144"/>
-      <c r="D88" s="196"/>
+      <c r="A88" s="170"/>
+      <c r="B88" s="161"/>
+      <c r="C88" s="170"/>
+      <c r="D88" s="188"/>
       <c r="E88" s="24" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="144"/>
-      <c r="B89" s="143"/>
-      <c r="C89" s="144"/>
-      <c r="D89" s="196"/>
+      <c r="A89" s="170"/>
+      <c r="B89" s="161"/>
+      <c r="C89" s="170"/>
+      <c r="D89" s="188"/>
       <c r="E89" s="24" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="144"/>
-      <c r="B90" s="143"/>
-      <c r="C90" s="144"/>
-      <c r="D90" s="196"/>
+      <c r="A90" s="170"/>
+      <c r="B90" s="161"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="188"/>
       <c r="E90" s="24" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="144"/>
-      <c r="B91" s="143"/>
-      <c r="C91" s="144"/>
-      <c r="D91" s="196"/>
+      <c r="A91" s="170"/>
+      <c r="B91" s="161"/>
+      <c r="C91" s="170"/>
+      <c r="D91" s="188"/>
       <c r="E91" s="24" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="144"/>
-      <c r="B92" s="143"/>
-      <c r="C92" s="144"/>
-      <c r="D92" s="196"/>
+      <c r="A92" s="170"/>
+      <c r="B92" s="161"/>
+      <c r="C92" s="170"/>
+      <c r="D92" s="188"/>
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="144"/>
-      <c r="B93" s="143"/>
-      <c r="C93" s="144"/>
-      <c r="D93" s="196"/>
+      <c r="A93" s="170"/>
+      <c r="B93" s="161"/>
+      <c r="C93" s="170"/>
+      <c r="D93" s="188"/>
       <c r="E93" s="24" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="144"/>
-      <c r="B94" s="143"/>
-      <c r="C94" s="144"/>
-      <c r="D94" s="196"/>
+      <c r="A94" s="170"/>
+      <c r="B94" s="161"/>
+      <c r="C94" s="170"/>
+      <c r="D94" s="188"/>
       <c r="E94" s="24" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="144"/>
-      <c r="B95" s="143"/>
-      <c r="C95" s="144"/>
-      <c r="D95" s="196"/>
+      <c r="A95" s="170"/>
+      <c r="B95" s="161"/>
+      <c r="C95" s="170"/>
+      <c r="D95" s="188"/>
       <c r="E95" s="30" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="144"/>
-      <c r="B96" s="143"/>
-      <c r="C96" s="144"/>
-      <c r="D96" s="196"/>
+      <c r="A96" s="170"/>
+      <c r="B96" s="161"/>
+      <c r="C96" s="170"/>
+      <c r="D96" s="188"/>
       <c r="E96" s="83" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="144" t="s">
+      <c r="A97" s="170" t="s">
         <v>224</v>
       </c>
-      <c r="B97" s="143" t="s">
+      <c r="B97" s="161" t="s">
         <v>223</v>
       </c>
-      <c r="C97" s="144" t="s">
+      <c r="C97" s="170" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="196"/>
+      <c r="D97" s="188"/>
       <c r="E97" s="46" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="144"/>
-      <c r="B98" s="143"/>
-      <c r="C98" s="144"/>
-      <c r="D98" s="196"/>
+      <c r="A98" s="170"/>
+      <c r="B98" s="161"/>
+      <c r="C98" s="170"/>
+      <c r="D98" s="188"/>
       <c r="E98" s="30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="144"/>
-      <c r="B99" s="143"/>
-      <c r="C99" s="144"/>
-      <c r="D99" s="196"/>
+      <c r="A99" s="170"/>
+      <c r="B99" s="161"/>
+      <c r="C99" s="170"/>
+      <c r="D99" s="188"/>
       <c r="E99" s="24" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="144"/>
-      <c r="B100" s="143"/>
-      <c r="C100" s="144"/>
-      <c r="D100" s="196"/>
+      <c r="A100" s="170"/>
+      <c r="B100" s="161"/>
+      <c r="C100" s="170"/>
+      <c r="D100" s="188"/>
       <c r="E100" s="24"/>
     </row>
     <row r="101" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="144"/>
-      <c r="B101" s="143"/>
-      <c r="C101" s="144"/>
-      <c r="D101" s="196"/>
+      <c r="A101" s="170"/>
+      <c r="B101" s="161"/>
+      <c r="C101" s="170"/>
+      <c r="D101" s="188"/>
       <c r="E101" s="30" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="144"/>
-      <c r="B102" s="143"/>
-      <c r="C102" s="144"/>
-      <c r="D102" s="196"/>
+      <c r="A102" s="170"/>
+      <c r="B102" s="161"/>
+      <c r="C102" s="170"/>
+      <c r="D102" s="188"/>
       <c r="E102" s="30" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="144"/>
-      <c r="B103" s="143"/>
-      <c r="C103" s="144"/>
-      <c r="D103" s="196"/>
+      <c r="A103" s="170"/>
+      <c r="B103" s="161"/>
+      <c r="C103" s="170"/>
+      <c r="D103" s="188"/>
       <c r="E103" s="30" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="144"/>
-      <c r="B104" s="143"/>
-      <c r="C104" s="144"/>
-      <c r="D104" s="196"/>
+      <c r="A104" s="170"/>
+      <c r="B104" s="161"/>
+      <c r="C104" s="170"/>
+      <c r="D104" s="188"/>
       <c r="E104" s="24"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="144"/>
-      <c r="B105" s="143"/>
-      <c r="C105" s="144"/>
-      <c r="D105" s="196"/>
+      <c r="A105" s="170"/>
+      <c r="B105" s="161"/>
+      <c r="C105" s="170"/>
+      <c r="D105" s="188"/>
       <c r="E105" s="24" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="144"/>
-      <c r="B106" s="143"/>
-      <c r="C106" s="144"/>
-      <c r="D106" s="196"/>
+      <c r="A106" s="170"/>
+      <c r="B106" s="161"/>
+      <c r="C106" s="170"/>
+      <c r="D106" s="188"/>
       <c r="E106" s="24" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="144"/>
-      <c r="B107" s="143"/>
-      <c r="C107" s="144"/>
-      <c r="D107" s="196"/>
+      <c r="A107" s="170"/>
+      <c r="B107" s="161"/>
+      <c r="C107" s="170"/>
+      <c r="D107" s="188"/>
       <c r="E107" s="24" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="144"/>
-      <c r="B108" s="143"/>
-      <c r="C108" s="144"/>
-      <c r="D108" s="196"/>
+      <c r="A108" s="170"/>
+      <c r="B108" s="161"/>
+      <c r="C108" s="170"/>
+      <c r="D108" s="188"/>
       <c r="E108" s="83" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="144" t="s">
+      <c r="A109" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="B109" s="143" t="s">
+      <c r="B109" s="161" t="s">
         <v>211</v>
       </c>
-      <c r="C109" s="144" t="s">
+      <c r="C109" s="170" t="s">
         <v>210</v>
       </c>
-      <c r="D109" s="196"/>
+      <c r="D109" s="188"/>
       <c r="E109" s="46" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="144"/>
-      <c r="B110" s="143"/>
-      <c r="C110" s="144"/>
-      <c r="D110" s="196"/>
+      <c r="A110" s="170"/>
+      <c r="B110" s="161"/>
+      <c r="C110" s="170"/>
+      <c r="D110" s="188"/>
       <c r="E110" s="30" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="144"/>
-      <c r="B111" s="143"/>
-      <c r="C111" s="144"/>
-      <c r="D111" s="196"/>
+      <c r="A111" s="170"/>
+      <c r="B111" s="161"/>
+      <c r="C111" s="170"/>
+      <c r="D111" s="188"/>
       <c r="E111" s="134" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="144"/>
-      <c r="B112" s="143"/>
-      <c r="C112" s="144"/>
-      <c r="D112" s="196"/>
+      <c r="A112" s="170"/>
+      <c r="B112" s="161"/>
+      <c r="C112" s="170"/>
+      <c r="D112" s="188"/>
       <c r="E112" s="24" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="144"/>
-      <c r="B113" s="143"/>
-      <c r="C113" s="144"/>
-      <c r="D113" s="196"/>
+      <c r="A113" s="170"/>
+      <c r="B113" s="161"/>
+      <c r="C113" s="170"/>
+      <c r="D113" s="188"/>
       <c r="E113" s="24" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="144"/>
-      <c r="B114" s="143"/>
-      <c r="C114" s="144"/>
-      <c r="D114" s="196"/>
+      <c r="A114" s="170"/>
+      <c r="B114" s="161"/>
+      <c r="C114" s="170"/>
+      <c r="D114" s="188"/>
       <c r="E114" s="24" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="144"/>
-      <c r="B115" s="143"/>
-      <c r="C115" s="144"/>
-      <c r="D115" s="196"/>
+      <c r="A115" s="170"/>
+      <c r="B115" s="161"/>
+      <c r="C115" s="170"/>
+      <c r="D115" s="188"/>
       <c r="E115" s="24" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="144"/>
-      <c r="B116" s="143"/>
-      <c r="C116" s="144"/>
-      <c r="D116" s="196"/>
+      <c r="A116" s="170"/>
+      <c r="B116" s="161"/>
+      <c r="C116" s="170"/>
+      <c r="D116" s="188"/>
       <c r="E116" s="24" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="144"/>
-      <c r="B117" s="143"/>
-      <c r="C117" s="144"/>
-      <c r="D117" s="196"/>
+      <c r="A117" s="170"/>
+      <c r="B117" s="161"/>
+      <c r="C117" s="170"/>
+      <c r="D117" s="188"/>
       <c r="E117" s="24" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="144"/>
-      <c r="B118" s="143"/>
-      <c r="C118" s="144"/>
-      <c r="D118" s="196"/>
+      <c r="A118" s="170"/>
+      <c r="B118" s="161"/>
+      <c r="C118" s="170"/>
+      <c r="D118" s="188"/>
       <c r="E118" s="24" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="144"/>
-      <c r="B119" s="143"/>
-      <c r="C119" s="144"/>
-      <c r="D119" s="196"/>
+      <c r="A119" s="170"/>
+      <c r="B119" s="161"/>
+      <c r="C119" s="170"/>
+      <c r="D119" s="188"/>
       <c r="E119" s="83" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="144" t="s">
+      <c r="A120" s="170" t="s">
         <v>199</v>
       </c>
-      <c r="B120" s="143" t="s">
+      <c r="B120" s="161" t="s">
         <v>198</v>
       </c>
-      <c r="C120" s="144" t="s">
+      <c r="C120" s="170" t="s">
         <v>197</v>
       </c>
-      <c r="D120" s="213"/>
+      <c r="D120" s="183"/>
       <c r="E120" s="26" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="144"/>
-      <c r="B121" s="143"/>
-      <c r="C121" s="144"/>
-      <c r="D121" s="214"/>
+      <c r="A121" s="170"/>
+      <c r="B121" s="161"/>
+      <c r="C121" s="170"/>
+      <c r="D121" s="184"/>
       <c r="E121" s="89" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="144"/>
-      <c r="B122" s="143"/>
-      <c r="C122" s="144"/>
-      <c r="D122" s="214"/>
+      <c r="A122" s="170"/>
+      <c r="B122" s="161"/>
+      <c r="C122" s="170"/>
+      <c r="D122" s="184"/>
       <c r="E122" s="30" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="144"/>
-      <c r="B123" s="143"/>
-      <c r="C123" s="144"/>
-      <c r="D123" s="214"/>
+      <c r="A123" s="170"/>
+      <c r="B123" s="161"/>
+      <c r="C123" s="170"/>
+      <c r="D123" s="184"/>
       <c r="E123" s="89" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="144"/>
-      <c r="B124" s="143"/>
-      <c r="C124" s="144"/>
-      <c r="D124" s="214"/>
+      <c r="A124" s="170"/>
+      <c r="B124" s="161"/>
+      <c r="C124" s="170"/>
+      <c r="D124" s="184"/>
       <c r="E124" s="24"/>
     </row>
     <row r="125" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="144"/>
-      <c r="B125" s="143"/>
-      <c r="C125" s="144"/>
-      <c r="D125" s="214"/>
+      <c r="A125" s="170"/>
+      <c r="B125" s="161"/>
+      <c r="C125" s="170"/>
+      <c r="D125" s="184"/>
       <c r="E125" s="30" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="144"/>
-      <c r="B126" s="143"/>
-      <c r="C126" s="144"/>
-      <c r="D126" s="214"/>
+      <c r="A126" s="170"/>
+      <c r="B126" s="161"/>
+      <c r="C126" s="170"/>
+      <c r="D126" s="184"/>
       <c r="E126" s="89" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="144"/>
-      <c r="B127" s="143"/>
-      <c r="C127" s="144"/>
-      <c r="D127" s="214"/>
+      <c r="A127" s="170"/>
+      <c r="B127" s="161"/>
+      <c r="C127" s="170"/>
+      <c r="D127" s="184"/>
       <c r="E127" s="30" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="144"/>
-      <c r="B128" s="143"/>
-      <c r="C128" s="144"/>
-      <c r="D128" s="214"/>
+      <c r="A128" s="170"/>
+      <c r="B128" s="161"/>
+      <c r="C128" s="170"/>
+      <c r="D128" s="184"/>
       <c r="E128" s="89" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="144"/>
-      <c r="B129" s="143"/>
-      <c r="C129" s="144"/>
-      <c r="D129" s="214"/>
+      <c r="A129" s="170"/>
+      <c r="B129" s="161"/>
+      <c r="C129" s="170"/>
+      <c r="D129" s="184"/>
       <c r="E129" s="24"/>
     </row>
     <row r="130" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A130" s="144"/>
-      <c r="B130" s="143"/>
-      <c r="C130" s="144"/>
-      <c r="D130" s="214"/>
+      <c r="A130" s="170"/>
+      <c r="B130" s="161"/>
+      <c r="C130" s="170"/>
+      <c r="D130" s="184"/>
       <c r="E130" s="30" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="144"/>
-      <c r="B131" s="143"/>
-      <c r="C131" s="144"/>
-      <c r="D131" s="214"/>
+      <c r="A131" s="170"/>
+      <c r="B131" s="161"/>
+      <c r="C131" s="170"/>
+      <c r="D131" s="184"/>
       <c r="E131" s="30" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="152"/>
-      <c r="B132" s="149"/>
-      <c r="C132" s="152"/>
-      <c r="D132" s="214"/>
+      <c r="A132" s="166"/>
+      <c r="B132" s="175"/>
+      <c r="C132" s="166"/>
+      <c r="D132" s="184"/>
       <c r="E132" s="83" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="144" t="s">
+      <c r="A133" s="170" t="s">
         <v>185</v>
       </c>
-      <c r="B133" s="143" t="s">
+      <c r="B133" s="161" t="s">
         <v>184</v>
       </c>
-      <c r="C133" s="200">
+      <c r="C133" s="185">
         <v>3500</v>
       </c>
-      <c r="D133" s="211"/>
+      <c r="D133" s="186"/>
       <c r="E133" s="46" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="144"/>
-      <c r="B134" s="143"/>
-      <c r="C134" s="200"/>
-      <c r="D134" s="210"/>
+      <c r="A134" s="170"/>
+      <c r="B134" s="161"/>
+      <c r="C134" s="185"/>
+      <c r="D134" s="187"/>
       <c r="E134" s="83" t="s">
         <v>182</v>
       </c>
@@ -7393,7 +7389,7 @@
       <c r="E135" s="26"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="197" t="s">
+      <c r="A136" s="202" t="s">
         <v>179</v>
       </c>
       <c r="B136" s="7" t="s">
@@ -7406,14 +7402,14 @@
       <c r="E136" s="5"/>
     </row>
     <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="198"/>
-      <c r="B137" s="143" t="s">
+      <c r="A137" s="203"/>
+      <c r="B137" s="161" t="s">
         <v>177</v>
       </c>
       <c r="C137" s="130">
         <v>2000</v>
       </c>
-      <c r="D137" s="188">
+      <c r="D137" s="201">
         <f>IF(NOT(ISNUMBER(D136)),0,D136*C137)</f>
         <v>0</v>
       </c>
@@ -7422,18 +7418,18 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="199"/>
-      <c r="B138" s="143"/>
+      <c r="A138" s="204"/>
+      <c r="B138" s="161"/>
       <c r="C138" s="133" t="s">
         <v>505</v>
       </c>
-      <c r="D138" s="188"/>
+      <c r="D138" s="201"/>
       <c r="E138" s="83" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="190" t="s">
+      <c r="A139" s="217" t="s">
         <v>398</v>
       </c>
       <c r="B139" s="7" t="s">
@@ -7446,14 +7442,14 @@
       <c r="E139" s="89"/>
     </row>
     <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="191"/>
-      <c r="B140" s="145" t="s">
+      <c r="A140" s="218"/>
+      <c r="B140" s="171" t="s">
         <v>174</v>
       </c>
       <c r="C140" s="130">
         <v>2000</v>
       </c>
-      <c r="D140" s="188">
+      <c r="D140" s="201">
         <f>IF(NOT(ISNUMBER(D139)),0,D139*C140)</f>
         <v>0</v>
       </c>
@@ -7462,12 +7458,12 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="191"/>
-      <c r="B141" s="187"/>
+      <c r="A141" s="218"/>
+      <c r="B141" s="215"/>
       <c r="C141" s="133" t="s">
         <v>505</v>
       </c>
-      <c r="D141" s="189"/>
+      <c r="D141" s="216"/>
       <c r="E141" s="84" t="s">
         <v>172</v>
       </c>
@@ -7486,7 +7482,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="192" t="s">
+      <c r="A143" s="219" t="s">
         <v>399</v>
       </c>
       <c r="B143" s="59" t="s">
@@ -7499,12 +7495,12 @@
       <c r="E143" s="90"/>
     </row>
     <row r="144" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="191"/>
-      <c r="B144" s="182" t="s">
+      <c r="A144" s="218"/>
+      <c r="B144" s="210" t="s">
         <v>169</v>
       </c>
       <c r="C144" s="130"/>
-      <c r="D144" s="180">
+      <c r="D144" s="208">
         <f>IF(NOT(ISNUMBER(D143)),0,D143*C145)</f>
         <v>0</v>
       </c>
@@ -7513,47 +7509,47 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="191"/>
-      <c r="B145" s="182"/>
+      <c r="A145" s="218"/>
+      <c r="B145" s="210"/>
       <c r="C145" s="132">
         <v>8000</v>
       </c>
-      <c r="D145" s="180"/>
+      <c r="D145" s="208"/>
       <c r="E145" s="30" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="191"/>
-      <c r="B146" s="182"/>
+      <c r="A146" s="218"/>
+      <c r="B146" s="210"/>
       <c r="C146" s="132" t="s">
         <v>505</v>
       </c>
-      <c r="D146" s="180"/>
+      <c r="D146" s="208"/>
       <c r="E146" s="30" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="191"/>
-      <c r="B147" s="182"/>
+      <c r="A147" s="218"/>
+      <c r="B147" s="210"/>
       <c r="C147" s="135"/>
-      <c r="D147" s="180"/>
+      <c r="D147" s="208"/>
       <c r="E147" s="30" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="193"/>
-      <c r="B148" s="182"/>
+      <c r="A148" s="220"/>
+      <c r="B148" s="210"/>
       <c r="C148" s="136"/>
-      <c r="D148" s="180"/>
+      <c r="D148" s="208"/>
       <c r="E148" s="83" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="190" t="s">
+      <c r="A149" s="217" t="s">
         <v>400</v>
       </c>
       <c r="B149" s="7" t="s">
@@ -7566,7 +7562,7 @@
       <c r="E149" s="89"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="194"/>
+      <c r="A150" s="221"/>
       <c r="B150" s="58" t="s">
         <v>163</v>
       </c>
@@ -7582,7 +7578,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="195" t="s">
+      <c r="A151" s="199" t="s">
         <v>401</v>
       </c>
       <c r="B151" s="55" t="s">
@@ -7598,12 +7594,12 @@
       </c>
     </row>
     <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="153"/>
-      <c r="B152" s="181" t="s">
+      <c r="A152" s="167"/>
+      <c r="B152" s="209" t="s">
         <v>159</v>
       </c>
       <c r="C152" s="130"/>
-      <c r="D152" s="184">
+      <c r="D152" s="212">
         <f>IF(OR(NOT(OR(ISNUMBER(D151),ISNUMBER(D149))),D149=0),0,D151*C153)</f>
         <v>0</v>
       </c>
@@ -7612,538 +7608,538 @@
       </c>
     </row>
     <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="153"/>
-      <c r="B153" s="182"/>
+      <c r="A153" s="167"/>
+      <c r="B153" s="210"/>
       <c r="C153" s="132">
         <v>8000</v>
       </c>
-      <c r="D153" s="184"/>
+      <c r="D153" s="212"/>
       <c r="E153" s="30" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="153"/>
-      <c r="B154" s="182"/>
+      <c r="A154" s="167"/>
+      <c r="B154" s="210"/>
       <c r="C154" s="132" t="s">
         <v>505</v>
       </c>
-      <c r="D154" s="184"/>
+      <c r="D154" s="212"/>
       <c r="E154" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="153"/>
-      <c r="B155" s="182"/>
+      <c r="A155" s="167"/>
+      <c r="B155" s="210"/>
       <c r="C155" s="135"/>
-      <c r="D155" s="184"/>
+      <c r="D155" s="212"/>
       <c r="E155" s="30" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="153"/>
-      <c r="B156" s="182"/>
+      <c r="A156" s="167"/>
+      <c r="B156" s="210"/>
       <c r="C156" s="135"/>
-      <c r="D156" s="185"/>
+      <c r="D156" s="213"/>
       <c r="E156" s="24" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="154"/>
-      <c r="B157" s="183"/>
+      <c r="A157" s="168"/>
+      <c r="B157" s="211"/>
       <c r="C157" s="136"/>
-      <c r="D157" s="186"/>
+      <c r="D157" s="214"/>
       <c r="E157" s="83" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="144" t="s">
+      <c r="A158" s="170" t="s">
         <v>152</v>
       </c>
-      <c r="B158" s="143" t="s">
+      <c r="B158" s="161" t="s">
         <v>151</v>
       </c>
-      <c r="C158" s="144" t="s">
+      <c r="C158" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="D158" s="155"/>
+      <c r="D158" s="162"/>
       <c r="E158" s="26" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="144"/>
-      <c r="B159" s="143"/>
-      <c r="C159" s="144"/>
-      <c r="D159" s="155"/>
+      <c r="A159" s="170"/>
+      <c r="B159" s="161"/>
+      <c r="C159" s="170"/>
+      <c r="D159" s="162"/>
       <c r="E159" s="24" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="144"/>
-      <c r="B160" s="143"/>
-      <c r="C160" s="144"/>
-      <c r="D160" s="155"/>
+      <c r="A160" s="170"/>
+      <c r="B160" s="161"/>
+      <c r="C160" s="170"/>
+      <c r="D160" s="162"/>
       <c r="E160" s="24"/>
     </row>
     <row r="161" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="144"/>
-      <c r="B161" s="143"/>
-      <c r="C161" s="144"/>
-      <c r="D161" s="155"/>
+      <c r="A161" s="170"/>
+      <c r="B161" s="161"/>
+      <c r="C161" s="170"/>
+      <c r="D161" s="162"/>
       <c r="E161" s="30" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="144"/>
-      <c r="B162" s="143"/>
-      <c r="C162" s="144"/>
-      <c r="D162" s="155"/>
+      <c r="A162" s="170"/>
+      <c r="B162" s="161"/>
+      <c r="C162" s="170"/>
+      <c r="D162" s="162"/>
       <c r="E162" s="24"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="144"/>
-      <c r="B163" s="143"/>
-      <c r="C163" s="144"/>
-      <c r="D163" s="155"/>
+      <c r="A163" s="170"/>
+      <c r="B163" s="161"/>
+      <c r="C163" s="170"/>
+      <c r="D163" s="162"/>
       <c r="E163" s="24" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="144"/>
-      <c r="B164" s="143"/>
-      <c r="C164" s="144"/>
-      <c r="D164" s="155"/>
+      <c r="A164" s="170"/>
+      <c r="B164" s="161"/>
+      <c r="C164" s="170"/>
+      <c r="D164" s="162"/>
       <c r="E164" s="24" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="144"/>
-      <c r="B165" s="143"/>
-      <c r="C165" s="144"/>
-      <c r="D165" s="155"/>
+      <c r="A165" s="170"/>
+      <c r="B165" s="161"/>
+      <c r="C165" s="170"/>
+      <c r="D165" s="162"/>
       <c r="E165" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="144"/>
-      <c r="B166" s="143"/>
-      <c r="C166" s="144"/>
-      <c r="D166" s="155"/>
+      <c r="A166" s="170"/>
+      <c r="B166" s="161"/>
+      <c r="C166" s="170"/>
+      <c r="D166" s="162"/>
       <c r="E166" s="24" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="144"/>
-      <c r="B167" s="143"/>
-      <c r="C167" s="144"/>
-      <c r="D167" s="155"/>
+      <c r="A167" s="170"/>
+      <c r="B167" s="161"/>
+      <c r="C167" s="170"/>
+      <c r="D167" s="162"/>
       <c r="E167" s="30" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A168" s="144"/>
-      <c r="B168" s="143"/>
-      <c r="C168" s="144"/>
-      <c r="D168" s="155"/>
+      <c r="A168" s="170"/>
+      <c r="B168" s="161"/>
+      <c r="C168" s="170"/>
+      <c r="D168" s="162"/>
       <c r="E168" s="30" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="144"/>
-      <c r="B169" s="143"/>
-      <c r="C169" s="144"/>
-      <c r="D169" s="155"/>
+      <c r="A169" s="170"/>
+      <c r="B169" s="161"/>
+      <c r="C169" s="170"/>
+      <c r="D169" s="162"/>
       <c r="E169" s="24"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="144"/>
-      <c r="B170" s="143"/>
-      <c r="C170" s="144"/>
-      <c r="D170" s="155"/>
+      <c r="A170" s="170"/>
+      <c r="B170" s="161"/>
+      <c r="C170" s="170"/>
+      <c r="D170" s="162"/>
       <c r="E170" s="24" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="144"/>
-      <c r="B171" s="143"/>
-      <c r="C171" s="144"/>
-      <c r="D171" s="155"/>
+      <c r="A171" s="170"/>
+      <c r="B171" s="161"/>
+      <c r="C171" s="170"/>
+      <c r="D171" s="162"/>
       <c r="E171" s="24" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="144"/>
-      <c r="B172" s="143"/>
-      <c r="C172" s="144"/>
-      <c r="D172" s="155"/>
+      <c r="A172" s="170"/>
+      <c r="B172" s="161"/>
+      <c r="C172" s="170"/>
+      <c r="D172" s="162"/>
       <c r="E172" s="32" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="174" t="s">
+      <c r="A173" s="233" t="s">
         <v>137</v>
       </c>
-      <c r="B173" s="172" t="s">
+      <c r="B173" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="C173" s="169" t="s">
+      <c r="C173" s="230" t="s">
         <v>127</v>
       </c>
-      <c r="D173" s="139"/>
+      <c r="D173" s="163"/>
       <c r="E173" s="46" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="175"/>
-      <c r="B174" s="173"/>
-      <c r="C174" s="170"/>
-      <c r="D174" s="140"/>
+      <c r="A174" s="191"/>
+      <c r="B174" s="193"/>
+      <c r="C174" s="231"/>
+      <c r="D174" s="164"/>
       <c r="E174" s="30" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="175"/>
-      <c r="B175" s="173"/>
-      <c r="C175" s="170"/>
-      <c r="D175" s="140"/>
+      <c r="A175" s="191"/>
+      <c r="B175" s="193"/>
+      <c r="C175" s="231"/>
+      <c r="D175" s="164"/>
       <c r="E175" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="175"/>
-      <c r="B176" s="173"/>
-      <c r="C176" s="170"/>
-      <c r="D176" s="140"/>
+      <c r="A176" s="191"/>
+      <c r="B176" s="193"/>
+      <c r="C176" s="231"/>
+      <c r="D176" s="164"/>
       <c r="E176" s="89" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="175"/>
-      <c r="B177" s="173"/>
-      <c r="C177" s="170"/>
-      <c r="D177" s="140"/>
+      <c r="A177" s="191"/>
+      <c r="B177" s="193"/>
+      <c r="C177" s="231"/>
+      <c r="D177" s="164"/>
       <c r="E177" s="89" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="176"/>
-      <c r="B178" s="164"/>
-      <c r="C178" s="171"/>
-      <c r="D178" s="142"/>
+      <c r="A178" s="234"/>
+      <c r="B178" s="225"/>
+      <c r="C178" s="232"/>
+      <c r="D178" s="165"/>
       <c r="E178" s="83" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="165" t="s">
+      <c r="A179" s="226" t="s">
         <v>129</v>
       </c>
-      <c r="B179" s="163" t="s">
+      <c r="B179" s="224" t="s">
         <v>128</v>
       </c>
-      <c r="C179" s="165" t="s">
+      <c r="C179" s="226" t="s">
         <v>127</v>
       </c>
-      <c r="D179" s="177"/>
+      <c r="D179" s="235"/>
       <c r="E179" s="26" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="175"/>
-      <c r="B180" s="173"/>
-      <c r="C180" s="175"/>
-      <c r="D180" s="178"/>
+      <c r="A180" s="191"/>
+      <c r="B180" s="193"/>
+      <c r="C180" s="191"/>
+      <c r="D180" s="195"/>
       <c r="E180" s="24"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="175"/>
-      <c r="B181" s="173"/>
-      <c r="C181" s="175"/>
-      <c r="D181" s="178"/>
+      <c r="A181" s="191"/>
+      <c r="B181" s="193"/>
+      <c r="C181" s="191"/>
+      <c r="D181" s="195"/>
       <c r="E181" s="24" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="175"/>
-      <c r="B182" s="173"/>
-      <c r="C182" s="175"/>
-      <c r="D182" s="178"/>
+      <c r="A182" s="191"/>
+      <c r="B182" s="193"/>
+      <c r="C182" s="191"/>
+      <c r="D182" s="195"/>
       <c r="E182" s="24" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="175"/>
-      <c r="B183" s="173"/>
-      <c r="C183" s="175"/>
-      <c r="D183" s="178"/>
+      <c r="A183" s="191"/>
+      <c r="B183" s="193"/>
+      <c r="C183" s="191"/>
+      <c r="D183" s="195"/>
       <c r="E183" s="24" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="175"/>
-      <c r="B184" s="173"/>
-      <c r="C184" s="175"/>
-      <c r="D184" s="178"/>
+      <c r="A184" s="191"/>
+      <c r="B184" s="193"/>
+      <c r="C184" s="191"/>
+      <c r="D184" s="195"/>
       <c r="E184" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="175"/>
-      <c r="B185" s="173"/>
-      <c r="C185" s="175"/>
-      <c r="D185" s="178"/>
+      <c r="A185" s="191"/>
+      <c r="B185" s="193"/>
+      <c r="C185" s="191"/>
+      <c r="D185" s="195"/>
       <c r="E185" s="24" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="175"/>
-      <c r="B186" s="173"/>
-      <c r="C186" s="175"/>
-      <c r="D186" s="178"/>
+      <c r="A186" s="191"/>
+      <c r="B186" s="193"/>
+      <c r="C186" s="191"/>
+      <c r="D186" s="195"/>
       <c r="E186" s="24" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="175"/>
-      <c r="B187" s="173"/>
-      <c r="C187" s="175"/>
-      <c r="D187" s="178"/>
+      <c r="A187" s="191"/>
+      <c r="B187" s="193"/>
+      <c r="C187" s="191"/>
+      <c r="D187" s="195"/>
       <c r="E187" s="24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="175"/>
-      <c r="B188" s="173"/>
-      <c r="C188" s="175"/>
-      <c r="D188" s="178"/>
+      <c r="A188" s="191"/>
+      <c r="B188" s="193"/>
+      <c r="C188" s="191"/>
+      <c r="D188" s="195"/>
       <c r="E188" s="30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="175"/>
-      <c r="B189" s="173"/>
-      <c r="C189" s="175"/>
-      <c r="D189" s="178"/>
+      <c r="A189" s="191"/>
+      <c r="B189" s="193"/>
+      <c r="C189" s="191"/>
+      <c r="D189" s="195"/>
       <c r="E189" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A190" s="175"/>
-      <c r="B190" s="173"/>
-      <c r="C190" s="175"/>
-      <c r="D190" s="178"/>
+      <c r="A190" s="191"/>
+      <c r="B190" s="193"/>
+      <c r="C190" s="191"/>
+      <c r="D190" s="195"/>
       <c r="E190" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="175"/>
-      <c r="B191" s="173"/>
-      <c r="C191" s="175"/>
-      <c r="D191" s="178"/>
+      <c r="A191" s="191"/>
+      <c r="B191" s="193"/>
+      <c r="C191" s="191"/>
+      <c r="D191" s="195"/>
       <c r="E191" s="30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="175"/>
-      <c r="B192" s="173"/>
-      <c r="C192" s="175"/>
-      <c r="D192" s="178"/>
+      <c r="A192" s="191"/>
+      <c r="B192" s="193"/>
+      <c r="C192" s="191"/>
+      <c r="D192" s="195"/>
       <c r="E192" s="24"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="175"/>
-      <c r="B193" s="173"/>
-      <c r="C193" s="175"/>
-      <c r="D193" s="178"/>
+      <c r="A193" s="191"/>
+      <c r="B193" s="193"/>
+      <c r="C193" s="191"/>
+      <c r="D193" s="195"/>
       <c r="E193" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="175"/>
-      <c r="B194" s="173"/>
-      <c r="C194" s="175"/>
-      <c r="D194" s="178"/>
+      <c r="A194" s="191"/>
+      <c r="B194" s="193"/>
+      <c r="C194" s="191"/>
+      <c r="D194" s="195"/>
       <c r="E194" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="175"/>
-      <c r="B195" s="173"/>
-      <c r="C195" s="175"/>
-      <c r="D195" s="178"/>
+      <c r="A195" s="191"/>
+      <c r="B195" s="193"/>
+      <c r="C195" s="191"/>
+      <c r="D195" s="195"/>
       <c r="E195" s="24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A196" s="175"/>
-      <c r="B196" s="173"/>
-      <c r="C196" s="175"/>
-      <c r="D196" s="178"/>
+      <c r="A196" s="191"/>
+      <c r="B196" s="193"/>
+      <c r="C196" s="191"/>
+      <c r="D196" s="195"/>
       <c r="E196" s="30" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="175"/>
-      <c r="B197" s="173"/>
-      <c r="C197" s="175"/>
-      <c r="D197" s="178"/>
+      <c r="A197" s="191"/>
+      <c r="B197" s="193"/>
+      <c r="C197" s="191"/>
+      <c r="D197" s="195"/>
       <c r="E197" s="30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A198" s="175"/>
-      <c r="B198" s="173"/>
-      <c r="C198" s="175"/>
-      <c r="D198" s="178"/>
+      <c r="A198" s="191"/>
+      <c r="B198" s="193"/>
+      <c r="C198" s="191"/>
+      <c r="D198" s="195"/>
       <c r="E198" s="30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A199" s="175"/>
-      <c r="B199" s="173"/>
-      <c r="C199" s="175"/>
-      <c r="D199" s="178"/>
+      <c r="A199" s="191"/>
+      <c r="B199" s="193"/>
+      <c r="C199" s="191"/>
+      <c r="D199" s="195"/>
       <c r="E199" s="30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="175"/>
-      <c r="B200" s="173"/>
-      <c r="C200" s="175"/>
-      <c r="D200" s="178"/>
+      <c r="A200" s="191"/>
+      <c r="B200" s="193"/>
+      <c r="C200" s="191"/>
+      <c r="D200" s="195"/>
       <c r="E200" s="24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="175"/>
-      <c r="B201" s="173"/>
-      <c r="C201" s="175"/>
-      <c r="D201" s="178"/>
+      <c r="A201" s="191"/>
+      <c r="B201" s="193"/>
+      <c r="C201" s="191"/>
+      <c r="D201" s="195"/>
       <c r="E201" s="24"/>
     </row>
     <row r="202" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A202" s="175"/>
-      <c r="B202" s="173"/>
-      <c r="C202" s="175"/>
-      <c r="D202" s="178"/>
+      <c r="A202" s="191"/>
+      <c r="B202" s="193"/>
+      <c r="C202" s="191"/>
+      <c r="D202" s="195"/>
       <c r="E202" s="30" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="176"/>
-      <c r="B203" s="164"/>
-      <c r="C203" s="176"/>
-      <c r="D203" s="179"/>
+      <c r="A203" s="234"/>
+      <c r="B203" s="225"/>
+      <c r="C203" s="234"/>
+      <c r="D203" s="236"/>
       <c r="E203" s="83" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A204" s="165" t="s">
+      <c r="A204" s="226" t="s">
         <v>104</v>
       </c>
-      <c r="B204" s="163" t="s">
+      <c r="B204" s="224" t="s">
         <v>103</v>
       </c>
-      <c r="C204" s="167" t="s">
+      <c r="C204" s="228" t="s">
         <v>102</v>
       </c>
-      <c r="D204" s="155"/>
+      <c r="D204" s="162"/>
       <c r="E204" s="26" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="166"/>
-      <c r="B205" s="164"/>
-      <c r="C205" s="168"/>
-      <c r="D205" s="155"/>
+      <c r="A205" s="227"/>
+      <c r="B205" s="225"/>
+      <c r="C205" s="229"/>
+      <c r="D205" s="162"/>
       <c r="E205" s="83" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="144" t="s">
+      <c r="A206" s="170" t="s">
         <v>99</v>
       </c>
-      <c r="B206" s="161" t="s">
+      <c r="B206" s="222" t="s">
         <v>98</v>
       </c>
-      <c r="C206" s="144" t="s">
+      <c r="C206" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="D206" s="155"/>
+      <c r="D206" s="162"/>
       <c r="E206" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="144"/>
-      <c r="B207" s="162"/>
-      <c r="C207" s="144"/>
-      <c r="D207" s="155"/>
+      <c r="A207" s="170"/>
+      <c r="B207" s="223"/>
+      <c r="C207" s="170"/>
+      <c r="D207" s="162"/>
       <c r="E207" s="30" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="144"/>
-      <c r="B208" s="162"/>
-      <c r="C208" s="144"/>
-      <c r="D208" s="155"/>
+      <c r="A208" s="170"/>
+      <c r="B208" s="223"/>
+      <c r="C208" s="170"/>
+      <c r="D208" s="162"/>
       <c r="E208" s="30" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A209" s="144"/>
+      <c r="A209" s="170"/>
       <c r="B209" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C209" s="144"/>
-      <c r="D209" s="155"/>
+      <c r="C209" s="170"/>
+      <c r="D209" s="162"/>
       <c r="E209" s="83" t="s">
         <v>92</v>
       </c>
@@ -8172,19 +8168,75 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A120:A132"/>
-    <mergeCell ref="D120:D132"/>
-    <mergeCell ref="A97:A108"/>
-    <mergeCell ref="C97:C108"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="C109:C119"/>
-    <mergeCell ref="B109:B119"/>
-    <mergeCell ref="A109:A119"/>
-    <mergeCell ref="D109:D119"/>
-    <mergeCell ref="D97:D108"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="B206:B208"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="D206:D209"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D173:D178"/>
+    <mergeCell ref="C173:C178"/>
+    <mergeCell ref="B173:B178"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="C179:C203"/>
+    <mergeCell ref="B179:B203"/>
+    <mergeCell ref="A179:A203"/>
+    <mergeCell ref="D179:D203"/>
+    <mergeCell ref="A158:A172"/>
+    <mergeCell ref="D158:D172"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="D152:D157"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="C158:C172"/>
+    <mergeCell ref="B158:B172"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A151:A157"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="D83:D96"/>
+    <mergeCell ref="A83:A96"/>
+    <mergeCell ref="B83:B96"/>
+    <mergeCell ref="C83:C96"/>
+    <mergeCell ref="B97:B108"/>
+    <mergeCell ref="C120:C132"/>
+    <mergeCell ref="B120:B132"/>
+    <mergeCell ref="A7:A19"/>
+    <mergeCell ref="B7:B19"/>
+    <mergeCell ref="C7:C19"/>
+    <mergeCell ref="D7:D19"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="D26:D30"/>
     <mergeCell ref="D32:D40"/>
     <mergeCell ref="A32:A40"/>
     <mergeCell ref="B32:B40"/>
@@ -8209,75 +8261,19 @@
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="B55:B62"/>
     <mergeCell ref="A55:A62"/>
-    <mergeCell ref="A7:A19"/>
-    <mergeCell ref="B7:B19"/>
-    <mergeCell ref="C7:C19"/>
-    <mergeCell ref="D7:D19"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="D83:D96"/>
-    <mergeCell ref="A83:A96"/>
-    <mergeCell ref="B83:B96"/>
-    <mergeCell ref="C83:C96"/>
-    <mergeCell ref="B97:B108"/>
-    <mergeCell ref="C120:C132"/>
-    <mergeCell ref="B120:B132"/>
-    <mergeCell ref="A158:A172"/>
-    <mergeCell ref="D158:D172"/>
-    <mergeCell ref="D144:D148"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="D152:D157"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="C158:C172"/>
-    <mergeCell ref="B158:B172"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A151:A157"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="B206:B208"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="D206:D209"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D173:D178"/>
-    <mergeCell ref="C173:C178"/>
-    <mergeCell ref="B173:B178"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="C179:C203"/>
-    <mergeCell ref="B179:B203"/>
-    <mergeCell ref="A179:A203"/>
-    <mergeCell ref="D179:D203"/>
+    <mergeCell ref="A120:A132"/>
+    <mergeCell ref="D120:D132"/>
+    <mergeCell ref="A97:A108"/>
+    <mergeCell ref="C97:C108"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="C109:C119"/>
+    <mergeCell ref="B109:B119"/>
+    <mergeCell ref="A109:A119"/>
+    <mergeCell ref="D109:D119"/>
+    <mergeCell ref="D97:D108"/>
   </mergeCells>
   <conditionalFormatting sqref="D7">
     <cfRule type="expression" dxfId="24" priority="26">
@@ -8559,386 +8555,386 @@
       <c r="D3" s="120"/>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="218" t="s">
+      <c r="A5" s="240" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="239" t="s">
         <v>380</v>
       </c>
       <c r="C5" s="75" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="215" t="s">
+      <c r="D5" s="237" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="191"/>
-      <c r="B6" s="150"/>
+      <c r="A6" s="218"/>
+      <c r="B6" s="176"/>
       <c r="C6" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="D6" s="216"/>
+      <c r="D6" s="238"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="191"/>
-      <c r="B7" s="150"/>
+      <c r="A7" s="218"/>
+      <c r="B7" s="176"/>
       <c r="C7" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="D7" s="216"/>
+      <c r="D7" s="238"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="191"/>
-      <c r="B8" s="150"/>
+      <c r="A8" s="218"/>
+      <c r="B8" s="176"/>
       <c r="C8" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="D8" s="216"/>
+      <c r="D8" s="238"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="191"/>
-      <c r="B9" s="150"/>
+      <c r="A9" s="218"/>
+      <c r="B9" s="176"/>
       <c r="C9" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="D9" s="216"/>
+      <c r="D9" s="238"/>
     </row>
     <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="191"/>
-      <c r="B10" s="150"/>
+      <c r="A10" s="218"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="D10" s="216"/>
+      <c r="D10" s="238"/>
     </row>
     <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="191"/>
-      <c r="B11" s="150"/>
+      <c r="A11" s="218"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="D11" s="216"/>
+      <c r="D11" s="238"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="191"/>
-      <c r="B12" s="150"/>
+      <c r="A12" s="218"/>
+      <c r="B12" s="176"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="216"/>
+      <c r="D12" s="238"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="191"/>
-      <c r="B13" s="150"/>
+      <c r="A13" s="218"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="D13" s="216"/>
+      <c r="D13" s="238"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="191"/>
-      <c r="B14" s="150"/>
+      <c r="A14" s="218"/>
+      <c r="B14" s="176"/>
       <c r="C14" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="D14" s="216"/>
+      <c r="D14" s="238"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="191"/>
-      <c r="B15" s="150"/>
+      <c r="A15" s="218"/>
+      <c r="B15" s="176"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="216"/>
+      <c r="D15" s="238"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="191"/>
-      <c r="B16" s="150"/>
+      <c r="A16" s="218"/>
+      <c r="B16" s="176"/>
       <c r="C16" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="D16" s="216"/>
+      <c r="D16" s="238"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="191"/>
-      <c r="B17" s="150"/>
+      <c r="A17" s="218"/>
+      <c r="B17" s="176"/>
       <c r="C17" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="D17" s="216"/>
+      <c r="D17" s="238"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="191"/>
-      <c r="B18" s="150"/>
+      <c r="A18" s="218"/>
+      <c r="B18" s="176"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="216"/>
+      <c r="D18" s="238"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="191"/>
-      <c r="B19" s="150"/>
+      <c r="A19" s="218"/>
+      <c r="B19" s="176"/>
       <c r="C19" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="D19" s="216"/>
+      <c r="D19" s="238"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="191"/>
-      <c r="B20" s="150"/>
+      <c r="A20" s="218"/>
+      <c r="B20" s="176"/>
       <c r="C20" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="D20" s="216"/>
+      <c r="D20" s="238"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="191"/>
-      <c r="B21" s="150"/>
+      <c r="A21" s="218"/>
+      <c r="B21" s="176"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="216"/>
+      <c r="D21" s="238"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="191"/>
-      <c r="B22" s="150"/>
+      <c r="A22" s="218"/>
+      <c r="B22" s="176"/>
       <c r="C22" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="D22" s="216"/>
+      <c r="D22" s="238"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="191"/>
-      <c r="B23" s="150"/>
+      <c r="A23" s="218"/>
+      <c r="B23" s="176"/>
       <c r="C23" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="D23" s="216"/>
+      <c r="D23" s="238"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="191"/>
-      <c r="B24" s="150"/>
+      <c r="A24" s="218"/>
+      <c r="B24" s="176"/>
       <c r="C24" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="D24" s="216"/>
+      <c r="D24" s="238"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="191"/>
-      <c r="B25" s="150"/>
+      <c r="A25" s="218"/>
+      <c r="B25" s="176"/>
       <c r="C25" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="D25" s="216"/>
+      <c r="D25" s="238"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="191"/>
-      <c r="B26" s="150"/>
+      <c r="A26" s="218"/>
+      <c r="B26" s="176"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="216"/>
+      <c r="D26" s="238"/>
     </row>
     <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="191"/>
-      <c r="B27" s="150"/>
+      <c r="A27" s="218"/>
+      <c r="B27" s="176"/>
       <c r="C27" s="76" t="s">
         <v>362</v>
       </c>
-      <c r="D27" s="216"/>
+      <c r="D27" s="238"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="191"/>
-      <c r="B28" s="150"/>
+      <c r="A28" s="218"/>
+      <c r="B28" s="176"/>
       <c r="C28" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="D28" s="215" t="s">
+      <c r="D28" s="237" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="191"/>
-      <c r="B29" s="150"/>
+      <c r="A29" s="218"/>
+      <c r="B29" s="176"/>
       <c r="C29" s="76" t="s">
         <v>359</v>
       </c>
-      <c r="D29" s="216"/>
+      <c r="D29" s="238"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="191"/>
-      <c r="B30" s="150"/>
+      <c r="A30" s="218"/>
+      <c r="B30" s="176"/>
       <c r="C30" s="75" t="s">
         <v>358</v>
       </c>
-      <c r="D30" s="216"/>
+      <c r="D30" s="238"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="191"/>
-      <c r="B31" s="150"/>
+      <c r="A31" s="218"/>
+      <c r="B31" s="176"/>
       <c r="C31" s="76" t="s">
         <v>357</v>
       </c>
-      <c r="D31" s="216"/>
+      <c r="D31" s="238"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="191"/>
-      <c r="B32" s="150"/>
+      <c r="A32" s="218"/>
+      <c r="B32" s="176"/>
       <c r="C32" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="D32" s="216"/>
+      <c r="D32" s="238"/>
     </row>
     <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="191"/>
-      <c r="B33" s="150"/>
+      <c r="A33" s="218"/>
+      <c r="B33" s="176"/>
       <c r="C33" s="76" t="s">
         <v>355</v>
       </c>
-      <c r="D33" s="216"/>
+      <c r="D33" s="238"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="191"/>
-      <c r="B34" s="150"/>
+      <c r="A34" s="218"/>
+      <c r="B34" s="176"/>
       <c r="C34" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="D34" s="216"/>
+      <c r="D34" s="238"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="191"/>
-      <c r="B35" s="150"/>
+      <c r="A35" s="218"/>
+      <c r="B35" s="176"/>
       <c r="C35" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="D35" s="216"/>
+      <c r="D35" s="238"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="191"/>
-      <c r="B36" s="150"/>
+      <c r="A36" s="218"/>
+      <c r="B36" s="176"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="216"/>
+      <c r="D36" s="238"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="191"/>
-      <c r="B37" s="150"/>
+      <c r="A37" s="218"/>
+      <c r="B37" s="176"/>
       <c r="C37" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="D37" s="216"/>
+      <c r="D37" s="238"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="191"/>
-      <c r="B38" s="150"/>
+      <c r="A38" s="218"/>
+      <c r="B38" s="176"/>
       <c r="C38" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="D38" s="216"/>
+      <c r="D38" s="238"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="191"/>
-      <c r="B39" s="150"/>
+      <c r="A39" s="218"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="D39" s="216"/>
+      <c r="D39" s="238"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="191"/>
-      <c r="B40" s="150"/>
+      <c r="A40" s="218"/>
+      <c r="B40" s="176"/>
       <c r="C40" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="D40" s="216"/>
+      <c r="D40" s="238"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="191"/>
-      <c r="B41" s="150"/>
+      <c r="A41" s="218"/>
+      <c r="B41" s="176"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="216"/>
+      <c r="D41" s="238"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="191"/>
-      <c r="B42" s="150"/>
+      <c r="A42" s="218"/>
+      <c r="B42" s="176"/>
       <c r="C42" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="D42" s="216"/>
+      <c r="D42" s="238"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="191"/>
-      <c r="B43" s="150"/>
+      <c r="A43" s="218"/>
+      <c r="B43" s="176"/>
       <c r="C43" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="D43" s="216"/>
+      <c r="D43" s="238"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="191"/>
-      <c r="B44" s="150"/>
+      <c r="A44" s="218"/>
+      <c r="B44" s="176"/>
       <c r="C44" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="D44" s="216"/>
+      <c r="D44" s="238"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="191"/>
-      <c r="B45" s="150"/>
+      <c r="A45" s="218"/>
+      <c r="B45" s="176"/>
       <c r="C45" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="D45" s="216"/>
+      <c r="D45" s="238"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="191"/>
-      <c r="B46" s="150"/>
+      <c r="A46" s="218"/>
+      <c r="B46" s="176"/>
       <c r="C46" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="D46" s="216"/>
+      <c r="D46" s="238"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="193"/>
-      <c r="B47" s="151"/>
+      <c r="A47" s="220"/>
+      <c r="B47" s="177"/>
       <c r="C47" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="D47" s="216"/>
+      <c r="D47" s="238"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="152" t="s">
+      <c r="A49" s="166" t="s">
         <v>472</v>
       </c>
-      <c r="B49" s="190" t="s">
+      <c r="B49" s="217" t="s">
         <v>477</v>
       </c>
       <c r="C49" s="102" t="s">
         <v>476</v>
       </c>
-      <c r="D49" s="219"/>
+      <c r="D49" s="241"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="153"/>
-      <c r="B50" s="191"/>
+      <c r="A50" s="167"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="45" t="s">
         <v>473</v>
       </c>
-      <c r="D50" s="220"/>
+      <c r="D50" s="242"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="153"/>
-      <c r="B51" s="191"/>
+      <c r="A51" s="167"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="D51" s="220"/>
+      <c r="D51" s="242"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="153"/>
-      <c r="B52" s="191"/>
+      <c r="A52" s="167"/>
+      <c r="B52" s="218"/>
       <c r="C52" s="114" t="s">
         <v>475</v>
       </c>
-      <c r="D52" s="220"/>
+      <c r="D52" s="242"/>
     </row>
     <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="154"/>
-      <c r="B53" s="193"/>
+      <c r="A53" s="168"/>
+      <c r="B53" s="220"/>
       <c r="C53" s="103" t="s">
         <v>482</v>
       </c>
-      <c r="D53" s="221"/>
+      <c r="D53" s="243"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8980,314 +8976,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="246" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="224" t="s">
+      <c r="B1" s="247"/>
+      <c r="C1" s="140" t="s">
         <v>391</v>
       </c>
-      <c r="D1" s="224" t="s">
+      <c r="D1" s="140" t="s">
         <v>390</v>
       </c>
-      <c r="E1" s="225" t="s">
+      <c r="E1" s="139" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="226">
+      <c r="A2" s="141">
         <v>0</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="228" t="s">
+      <c r="B2" s="142"/>
+      <c r="C2" s="143" t="s">
         <v>490</v>
       </c>
-      <c r="D2" s="229">
+      <c r="D2" s="244">
         <v>0</v>
       </c>
-      <c r="E2" s="245">
+      <c r="E2" s="158">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="230"/>
-      <c r="B3" s="231">
+      <c r="A3" s="144"/>
+      <c r="B3" s="145">
         <v>5000</v>
       </c>
-      <c r="C3" s="232" t="s">
+      <c r="C3" s="146" t="s">
         <v>484</v>
       </c>
-      <c r="D3" s="233"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="159"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="234">
+      <c r="A4" s="147">
         <v>5001</v>
       </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="236" t="s">
+      <c r="B4" s="148"/>
+      <c r="C4" s="149" t="s">
         <v>490</v>
       </c>
-      <c r="D4" s="229">
+      <c r="D4" s="244">
         <v>0.01</v>
       </c>
-      <c r="E4" s="247">
+      <c r="E4" s="160">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="232"/>
-      <c r="B5" s="237">
+      <c r="A5" s="146"/>
+      <c r="B5" s="150">
         <v>20000</v>
       </c>
-      <c r="C5" s="232" t="s">
+      <c r="C5" s="146" t="s">
         <v>388</v>
       </c>
-      <c r="D5" s="233"/>
-      <c r="E5" s="246">
+      <c r="D5" s="245"/>
+      <c r="E5" s="159">
         <f>D4*(B5-A4+1)</f>
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="226">
+      <c r="A6" s="141">
         <v>20001</v>
       </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="228" t="s">
+      <c r="B6" s="142"/>
+      <c r="C6" s="143" t="s">
         <v>491</v>
       </c>
-      <c r="D6" s="229">
+      <c r="D6" s="244">
         <v>0.03</v>
       </c>
-      <c r="E6" s="245">
+      <c r="E6" s="158">
         <f>SUM(E4:E5)</f>
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="230"/>
-      <c r="B7" s="231">
+      <c r="A7" s="144"/>
+      <c r="B7" s="145">
         <v>35000</v>
       </c>
-      <c r="C7" s="232" t="s">
+      <c r="C7" s="146" t="s">
         <v>388</v>
       </c>
-      <c r="D7" s="233"/>
-      <c r="E7" s="246">
+      <c r="D7" s="245"/>
+      <c r="E7" s="159">
         <f>D6*(B7-A6+1)</f>
         <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="238">
+      <c r="A8" s="151">
         <v>35001</v>
       </c>
-      <c r="B8" s="227"/>
-      <c r="C8" s="228" t="s">
+      <c r="B8" s="142"/>
+      <c r="C8" s="143" t="s">
         <v>492</v>
       </c>
-      <c r="D8" s="229">
+      <c r="D8" s="244">
         <v>0.06</v>
       </c>
-      <c r="E8" s="245">
+      <c r="E8" s="158">
         <f t="shared" ref="E8" si="0">SUM(E6:E7)</f>
         <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="231"/>
-      <c r="B9" s="230">
+      <c r="A9" s="145"/>
+      <c r="B9" s="144">
         <v>50000</v>
       </c>
-      <c r="C9" s="232" t="s">
+      <c r="C9" s="146" t="s">
         <v>388</v>
       </c>
-      <c r="D9" s="233"/>
-      <c r="E9" s="246">
+      <c r="D9" s="245"/>
+      <c r="E9" s="159">
         <f t="shared" ref="E9" si="1">D8*(B9-A8+1)</f>
         <v>900</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="238">
+      <c r="A10" s="151">
         <v>50001</v>
       </c>
-      <c r="B10" s="227"/>
-      <c r="C10" s="228" t="s">
+      <c r="B10" s="142"/>
+      <c r="C10" s="143" t="s">
         <v>493</v>
       </c>
-      <c r="D10" s="229">
+      <c r="D10" s="244">
         <v>0.11</v>
       </c>
-      <c r="E10" s="245">
+      <c r="E10" s="158">
         <f t="shared" ref="E10" si="2">SUM(E8:E9)</f>
         <v>1500</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="240"/>
-      <c r="B11" s="230">
+      <c r="A11" s="153"/>
+      <c r="B11" s="144">
         <v>70000</v>
       </c>
-      <c r="C11" s="232" t="s">
+      <c r="C11" s="146" t="s">
         <v>387</v>
       </c>
-      <c r="D11" s="233"/>
-      <c r="E11" s="246">
+      <c r="D11" s="245"/>
+      <c r="E11" s="159">
         <f t="shared" ref="E11" si="3">D10*(B11-A10+1)</f>
         <v>2200</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="241">
+      <c r="A12" s="154">
         <v>70001</v>
       </c>
-      <c r="B12" s="242"/>
-      <c r="C12" s="228" t="s">
+      <c r="B12" s="155"/>
+      <c r="C12" s="143" t="s">
         <v>494</v>
       </c>
-      <c r="D12" s="229">
+      <c r="D12" s="244">
         <v>0.19</v>
       </c>
-      <c r="E12" s="245">
+      <c r="E12" s="158">
         <f t="shared" ref="E12" si="4">SUM(E10:E11)</f>
         <v>3700</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="234"/>
-      <c r="B13" s="237">
+      <c r="A13" s="147"/>
+      <c r="B13" s="150">
         <v>100000</v>
       </c>
-      <c r="C13" s="232" t="s">
+      <c r="C13" s="146" t="s">
         <v>386</v>
       </c>
-      <c r="D13" s="233"/>
-      <c r="E13" s="246">
+      <c r="D13" s="245"/>
+      <c r="E13" s="159">
         <f t="shared" ref="E13" si="5">D12*(B13-A12+1)</f>
         <v>5700</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="243">
+      <c r="A14" s="156">
         <v>100001</v>
       </c>
-      <c r="B14" s="242"/>
-      <c r="C14" s="228" t="s">
+      <c r="B14" s="155"/>
+      <c r="C14" s="143" t="s">
         <v>495</v>
       </c>
-      <c r="D14" s="229">
+      <c r="D14" s="244">
         <v>0.25</v>
       </c>
-      <c r="E14" s="245">
+      <c r="E14" s="158">
         <f t="shared" ref="E14" si="6">SUM(E12:E13)</f>
         <v>9400</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="244"/>
-      <c r="B15" s="237">
+      <c r="A15" s="157"/>
+      <c r="B15" s="150">
         <v>400000</v>
       </c>
-      <c r="C15" s="232" t="s">
+      <c r="C15" s="146" t="s">
         <v>510</v>
       </c>
-      <c r="D15" s="233"/>
-      <c r="E15" s="246">
+      <c r="D15" s="245"/>
+      <c r="E15" s="159">
         <f t="shared" ref="E15" si="7">D14*(B15-A14+1)</f>
         <v>75000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="238">
+      <c r="A16" s="151">
         <v>400001</v>
       </c>
-      <c r="B16" s="227"/>
-      <c r="C16" s="228" t="s">
+      <c r="B16" s="142"/>
+      <c r="C16" s="143" t="s">
         <v>496</v>
       </c>
-      <c r="D16" s="229">
+      <c r="D16" s="244">
         <v>0.26</v>
       </c>
-      <c r="E16" s="245">
+      <c r="E16" s="158">
         <f t="shared" ref="E16" si="8">SUM(E14:E15)</f>
         <v>84400</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="231"/>
-      <c r="B17" s="230">
+      <c r="A17" s="145"/>
+      <c r="B17" s="144">
         <v>600000</v>
       </c>
-      <c r="C17" s="232" t="s">
+      <c r="C17" s="146" t="s">
         <v>385</v>
       </c>
-      <c r="D17" s="233"/>
-      <c r="E17" s="246">
+      <c r="D17" s="245"/>
+      <c r="E17" s="159">
         <f t="shared" ref="E17" si="9">D16*(B17-A16+1)</f>
         <v>52000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="238">
+      <c r="A18" s="151">
         <v>600001</v>
       </c>
-      <c r="B18" s="227"/>
-      <c r="C18" s="228" t="s">
+      <c r="B18" s="142"/>
+      <c r="C18" s="143" t="s">
         <v>497</v>
       </c>
-      <c r="D18" s="229">
+      <c r="D18" s="244">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E18" s="245">
+      <c r="E18" s="158">
         <f t="shared" ref="E18:E20" si="10">SUM(E16:E17)</f>
         <v>136400</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="231"/>
-      <c r="B19" s="230">
+      <c r="A19" s="145"/>
+      <c r="B19" s="144">
         <v>2000000</v>
       </c>
-      <c r="C19" s="232" t="s">
+      <c r="C19" s="146" t="s">
         <v>511</v>
       </c>
-      <c r="D19" s="233"/>
-      <c r="E19" s="246">
+      <c r="D19" s="245"/>
+      <c r="E19" s="159">
         <f t="shared" ref="E19" si="11">D18*(B19-A18+1)</f>
         <v>392000.00000000006</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="238">
+      <c r="A20" s="151">
         <v>2000001</v>
       </c>
-      <c r="B20" s="227"/>
-      <c r="C20" s="228" t="s">
+      <c r="B20" s="142"/>
+      <c r="C20" s="143" t="s">
         <v>498</v>
       </c>
-      <c r="D20" s="229">
+      <c r="D20" s="244">
         <v>0.3</v>
       </c>
-      <c r="E20" s="245">
+      <c r="E20" s="158">
         <f t="shared" si="10"/>
         <v>528400</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="231"/>
-      <c r="B21" s="230"/>
-      <c r="C21" s="232" t="s">
+      <c r="A21" s="145"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="146" t="s">
         <v>384</v>
       </c>
-      <c r="D21" s="233"/>
-      <c r="E21" s="239" t="s">
+      <c r="D21" s="245"/>
+      <c r="E21" s="152" t="s">
         <v>383</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
@@ -9296,9 +9295,6 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel LHDN Calculator Form (Blank Form).xlsx
+++ b/Excel LHDN Calculator Form (Blank Form).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harein\Documents\GitHub\MY_TaxRelief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9049B2FE-F06F-49B8-AEF5-192F18DD2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E5E704-4E12-4A17-B6E2-56933AF719B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="777" xr2:uid="{4EA980A6-4219-484D-BF26-8C30E1E17AF4}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="512">
   <si>
     <t>TOTAL INCOME TAX ( B13a + B13b )</t>
   </si>
@@ -400,9 +400,6 @@
   </si>
   <si>
     <t xml:space="preserve">A deduction not exceeding RM250 is allowed in respect of contribution to the Social Security Organization (SOCSO) made or suffered by the individual in the basis year. </t>
-  </si>
-  <si>
-    <t>250 (Restricted)</t>
   </si>
   <si>
     <t>Contribution to the Social Security Organization (SOCSO)</t>
@@ -588,9 +585,6 @@
     <t>7,000 (Restricted)</t>
   </si>
   <si>
-    <t>Life insurance and EPF INCLUDING not through salary deduction</t>
-  </si>
-  <si>
     <t>F15</t>
   </si>
   <si>
@@ -817,9 +811,6 @@
   </si>
   <si>
     <t>Paragraph 47(1)(b) and section 45A of ITA 1967.</t>
-  </si>
-  <si>
-    <t>A further deduction of RM3,500 is given in respect of a disabled husband / wife.</t>
   </si>
   <si>
     <t>Disabled husband / wife</t>
@@ -1170,61 +1161,10 @@
     <t>6,000 (Restricted)</t>
   </si>
   <si>
-    <t>F6a, F6b, F7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sub Total </t>
   </si>
   <si>
     <t>Paragraph 46(1)(h) of ITA 1967.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Complete medical examination refers to thorough examination as defined by the Malaysian Medical Council (MMC). 
-Amount expended on own self, spouse or child is allowable as a deduction up to a maximum of RM500. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Total deduction allowable for F6a, F6b and F7 is restricted to RM6,000.</t>
-    </r>
-  </si>
-  <si>
-    <t>500 (Restricted)</t>
-  </si>
-  <si>
-    <r>
-      <t>Complete medical examination for self, spouse, child (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Restricted to 500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>F7</t>
   </si>
   <si>
     <t>Paragraph 46(1)(g) of ITA 1967.</t>
@@ -1238,21 +1178,6 @@
 future reference and inspection, if required.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Deductions of up to RM6,000 are allowed on the amount expended or deemed to be expended on fertility treatment for yourself or your spouse. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Total deductions for F6a, F6b and F7 is restricted to RM6,000.</t>
-    </r>
-  </si>
-  <si>
     <t>(b) married individual.</t>
   </si>
   <si>
@@ -1271,22 +1196,6 @@
   <si>
     <t>Receipt of the treatment and a certification issued by a medical practitioner registered with the Malaysian Medical 
 Council (MMC) must be kept for future reference and inspection, if required.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Amount expended on own self, husband / wife or child is deductible up to a maximum of RM6,000. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Total deduction allowable for F6a, F6b and F7 is restricted to RM6,000.</t>
-    </r>
   </si>
   <si>
     <t>Medical expenses on serious diseases include the treatment of Acquired Immune Deficiency Syndrome (AIDS), 
@@ -1350,11 +1259,6 @@
     <t>A deduction up to RM7,000 can be claimed on fees expended for any of the following courses of study undertaken in any institution or professional body in Malaysia recognized by the Malaysian Government or approved by the Minister of Finance:</t>
   </si>
   <si>
-    <t>Education fees (Self)
-i. Other than a degree at masters or doctorate level - Course of study in law, accounting, islamic financing, technical, vocational, industrial, scientific or technology
-ii. Degree at masters or doctorate level - Any course of study</t>
-  </si>
-  <si>
     <t>F5</t>
   </si>
   <si>
@@ -1405,41 +1309,6 @@
     <t>F3</t>
   </si>
   <si>
-    <t>Paragraph 46(1)(o) of ITA 1967.</t>
-  </si>
-  <si>
-    <t>If more than one individual claims this deduction, Working Sheet HK-15 has to be completed and kept for future reference / inspection by LHDNM, when required.</t>
-  </si>
-  <si>
-    <t>(v) Each parent’s annual income (from all sources whether taxable or not) does NOT exceed RM24,000 for that year of 
-assessment.</t>
-  </si>
-  <si>
-    <t>(iv) The parents are residents in accordance with the provisions of section 7 of ITA 1967, and aged 60 years and above at any time in the basis year,</t>
-  </si>
-  <si>
-    <t>(iii) The allowable deduction is RM1,500 for only one mother and RM1,500 for only one father. If more than one individual claims this deduction, the amount of deduction has to be equally apportioned according to the number of individuals who claim in respect of the same parent.</t>
-  </si>
-  <si>
-    <t>(ii) The individual did NOT make a claim in item F2a for deduction on medical treatment, special needs and carer expenses expended for his parents for the same basis year.</t>
-  </si>
-  <si>
-    <t>(i) An individual who is QUALIFIED to claim this deduction is a legitimate child or legally adopted child. Claim for this 
-deduction is NOT allowed in respect of step-parents.</t>
-  </si>
-  <si>
-    <t>Conditions for claim:</t>
-  </si>
-  <si>
-    <t>This deduction is effective for the Years of Assessment 2016 to 2020.</t>
-  </si>
-  <si>
-    <t>3000 (Restricted)</t>
-  </si>
-  <si>
-    <t>F2b</t>
-  </si>
-  <si>
     <t>Paragraph 46(1)(c) of ITA 1967.</t>
   </si>
   <si>
@@ -1474,9 +1343,6 @@
     <t>Medical treatment, special needs and carer expenses incurred on parents is allowed as a deduction up to RM5,000.</t>
   </si>
   <si>
-    <t>5,000 (Restricted)</t>
-  </si>
-  <si>
     <t>Medical treatment, special needs and carer expenses for parents (Medical condition certified by medical practitioner)</t>
   </si>
   <si>
@@ -1489,13 +1355,7 @@
     <t>Relief of RM9,000 for an individual in respect of himself and his dependent relatives is granted automatically.</t>
   </si>
   <si>
-    <t>Individual and dependent relatives</t>
-  </si>
-  <si>
     <t>F1</t>
-  </si>
-  <si>
-    <t>COMPUTATION OF TAX RELIEVE</t>
   </si>
   <si>
     <t>PART F</t>
@@ -1671,21 +1531,6 @@
   </si>
   <si>
     <t>Chargeable Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent
-Restricted to 1,500 for only one mother
-</t>
-  </si>
-  <si>
-    <t>Parent
-Restricted to 1,500 for only one father</t>
-  </si>
-  <si>
-    <t>1500 (Restricted)</t>
-  </si>
-  <si>
-    <t>Total of Item F2b</t>
   </si>
   <si>
     <t xml:space="preserve"> Total deductions for F6a, F6b and F7 is restricted to RM6,000. Cell will be highlighted red when maximum is reached.</t>
@@ -2352,9 +2197,6 @@
 Orange Cells in this Column</t>
   </si>
   <si>
-    <t xml:space="preserve"> Total deductions for F2b is restricted to RM3,000.</t>
-  </si>
-  <si>
     <t>Child
 i) No. (Number Of Children)
 ii) 100% Eligibility
@@ -2432,6 +2274,175 @@
   </si>
   <si>
     <t>Next 1,400,000</t>
+  </si>
+  <si>
+    <t>COMPUTATION OF TAX RELIEF</t>
+  </si>
+  <si>
+    <t>SELF</t>
+  </si>
+  <si>
+    <t>F1a</t>
+  </si>
+  <si>
+    <t>SPOUSE</t>
+  </si>
+  <si>
+    <t>A further deduction of RM5,000 is given in respect of a disabled husband / wife.</t>
+  </si>
+  <si>
+    <t>F15a</t>
+  </si>
+  <si>
+    <t>Life insurance or voluntary contributions to EPF or for both</t>
+  </si>
+  <si>
+    <t>Voluntary or obligatory EPF contributions (individuals or public servants)</t>
+  </si>
+  <si>
+    <t>350 (Restricted)</t>
+  </si>
+  <si>
+    <t>10,000 (Restricted)</t>
+  </si>
+  <si>
+    <t>F7a</t>
+  </si>
+  <si>
+    <t>F7b</t>
+  </si>
+  <si>
+    <t>F7c</t>
+  </si>
+  <si>
+    <t>Amount expended on own self, husband / wife or child is deductible up to a maximum of RM6,000. 
+Total deduction allowable for F6a, F6b and F7a, F7b, F7c is restricted to RM10,000.</t>
+  </si>
+  <si>
+    <t>Complete medical examination refers to thorough examination as defined by the Malaysian Medical Council (MMC). 
+Amount expended on own self, spouse or child is allowable as a deduction up to a maximum of RM500. Total deduction allowable for F6a, F6b and F7a, F7b, F7c is restricted to RM10,000.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deductions of up to RM6,000 are allowed on the amount expended or deemed to be expended on fertility treatment for yourself or your spouse. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Total deductions for F6a, F6b and F7a, F7b, F7c is restricted to RM10,000.</t>
+    </r>
+  </si>
+  <si>
+    <t>1000 (Restricted)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vaccinations, COVID-19 dectection tests, and Mental Health Exams/ Consultations for self, spouse, or child </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Restricted to 1000)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Diagnostic assessment of learning disability or early intervention program or rehabilitation treatment for learning disability for a child below 18 years old (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Restricted to 4000)</t>
+    </r>
+  </si>
+  <si>
+    <t>4000 (Restricted)</t>
+  </si>
+  <si>
+    <r>
+      <t>Dental exampination or treatment by dental practioners with the Malaysian Dental Council for self spouse or child (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Restricted to 1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>F6a, F6b, F7a, F7b, F7c</t>
+  </si>
+  <si>
+    <r>
+      <t>Education fees (Self)
+i. Other than a degree at masters or doctorate level - Course of study in law, accounting, islamic financing, technical, vocational, industrial, scientific or technology
+ii. Degree at masters or doctorate level - Any course of study
+iii. Any upskilling and self enhancement course (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Restricted to 2000)</t>
+    </r>
+  </si>
+  <si>
+    <t>(iii) Any course of study undertaken for the purpose of upskilling and self enhancement, limited to RM 2,000</t>
+  </si>
+  <si>
+    <t>500 (Restricted)</t>
+  </si>
+  <si>
+    <t>F8c</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>Electric Vehicle Charging Facilities</t>
+  </si>
+  <si>
+    <t>2500 (Restricted)</t>
+  </si>
+  <si>
+    <t>Costs related to electric vehicle charging facilities, including installation, rental, hire purchase of equipment, or subcription fees</t>
   </si>
 </sst>
 </file>
@@ -2602,7 +2613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -2967,21 +2978,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -3091,19 +3087,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -3172,17 +3155,6 @@
     </border>
     <border>
       <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -3210,7 +3182,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3359,22 +3331,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3388,9 +3360,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3402,13 +3371,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3430,22 +3399,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3460,7 +3423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3569,10 +3532,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3633,7 +3593,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3648,7 +3608,7 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3765,7 +3725,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3774,28 +3734,19 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3810,7 +3761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3828,7 +3779,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3840,13 +3791,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3900,10 +3851,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3925,6 +3876,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3934,7 +3888,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill>
@@ -3946,6 +3900,13 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4085,48 +4046,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -4162,7 +4081,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4183,7 +4102,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4259,6 +4178,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4571,9 +4495,9 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B44"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4603,84 +4527,84 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="122" t="s">
-        <v>499</v>
-      </c>
-      <c r="D3" s="122" t="s">
-        <v>478</v>
+      <c r="C3" s="119" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>449</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="166" t="s">
-        <v>402</v>
-      </c>
-      <c r="B5" s="161" t="s">
-        <v>404</v>
-      </c>
-      <c r="C5" s="162"/>
+      <c r="A5" s="162" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" s="157" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="158"/>
       <c r="D5" s="46" t="s">
         <v>82</v>
       </c>
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="167"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="162"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="158"/>
       <c r="D6" s="24" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="167"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="162"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="158"/>
       <c r="D7" s="24" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="167"/>
-      <c r="B8" s="161"/>
-      <c r="C8" s="162"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="24" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="167"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="162"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="158"/>
       <c r="D9" s="30" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="167"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="162"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="158"/>
       <c r="D10" s="30" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="167"/>
-      <c r="B11" s="161"/>
-      <c r="C11" s="162"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="158"/>
       <c r="D11" s="24" t="s">
         <v>77</v>
       </c>
@@ -4689,9 +4613,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="167"/>
-      <c r="B12" s="161"/>
-      <c r="C12" s="162"/>
+      <c r="A12" s="163"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="24" t="s">
         <v>75</v>
       </c>
@@ -4700,9 +4624,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="167"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="162"/>
+      <c r="A13" s="163"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="158"/>
       <c r="D13" s="24" t="s">
         <v>73</v>
       </c>
@@ -4711,9 +4635,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="167"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="162"/>
+      <c r="A14" s="163"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="158"/>
       <c r="D14" s="24" t="s">
         <v>71</v>
       </c>
@@ -4722,34 +4646,34 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="167"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="162"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="158"/>
       <c r="D15" s="24"/>
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="167"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="162"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="158"/>
       <c r="D16" s="24" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="167"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="162"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="29" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="167"/>
+      <c r="A18" s="163"/>
       <c r="B18" s="7" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="C18" s="42">
         <f>IF(NOT(ISNUMBER(C5)),0,C5*12)</f>
@@ -4761,47 +4685,47 @@
       <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="166" t="s">
-        <v>403</v>
-      </c>
-      <c r="B19" s="161" t="s">
+      <c r="A19" s="162" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="163"/>
+      <c r="C19" s="159"/>
       <c r="D19" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="167"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="164"/>
+      <c r="A20" s="163"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="160"/>
       <c r="D20" s="30" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="167"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="164"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="160"/>
       <c r="D21" s="24"/>
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="167"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="164"/>
+      <c r="A22" s="163"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="160"/>
       <c r="D22" s="40" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="168"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="165"/>
+      <c r="A23" s="164"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="161"/>
       <c r="D23" s="29" t="s">
         <v>63</v>
       </c>
@@ -4814,232 +4738,232 @@
       <c r="B24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="34" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="166" t="s">
+      <c r="A25" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="171" t="s">
+      <c r="B25" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="163"/>
+      <c r="C25" s="159"/>
       <c r="D25" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="167"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="164"/>
+      <c r="A26" s="163"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="160"/>
       <c r="D26" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="167"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="164"/>
+      <c r="A27" s="163"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="160"/>
       <c r="D27" s="37" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="167"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="164"/>
+      <c r="A28" s="163"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="160"/>
       <c r="D28" s="36" t="s">
         <v>54</v>
       </c>
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="167"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="164"/>
+      <c r="A29" s="163"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="160"/>
       <c r="D29" s="37" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="167"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="164"/>
+      <c r="A30" s="163"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="160"/>
       <c r="D30" s="36" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="167"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="164"/>
+      <c r="A31" s="163"/>
+      <c r="B31" s="169"/>
+      <c r="C31" s="160"/>
       <c r="D31" s="35" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="167"/>
+      <c r="A32" s="163"/>
       <c r="B32" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="164"/>
+      <c r="C32" s="160"/>
       <c r="D32" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="167"/>
-      <c r="B33" s="171" t="s">
+      <c r="A33" s="163"/>
+      <c r="B33" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="164"/>
+      <c r="C33" s="160"/>
       <c r="D33" s="33" t="s">
         <v>47</v>
       </c>
       <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="167"/>
-      <c r="B34" s="172"/>
-      <c r="C34" s="164"/>
+      <c r="A34" s="163"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="160"/>
       <c r="D34" s="24" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="167"/>
-      <c r="B35" s="172"/>
-      <c r="C35" s="164"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="160"/>
       <c r="D35" s="24" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="167"/>
-      <c r="B36" s="173"/>
-      <c r="C36" s="164"/>
+      <c r="A36" s="163"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="160"/>
       <c r="D36" s="32" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="167"/>
-      <c r="B37" s="174" t="s">
+      <c r="A37" s="163"/>
+      <c r="B37" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="164"/>
+      <c r="C37" s="160"/>
       <c r="D37" s="26" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="167"/>
-      <c r="B38" s="174"/>
-      <c r="C38" s="169"/>
+      <c r="A38" s="163"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="165"/>
       <c r="D38" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="167"/>
-      <c r="B39" s="174"/>
-      <c r="C39" s="164"/>
+      <c r="A39" s="163"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="160"/>
       <c r="D39" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="167"/>
+      <c r="A40" s="163"/>
       <c r="B40" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="164"/>
+      <c r="C40" s="160"/>
       <c r="D40" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="167"/>
+      <c r="A41" s="163"/>
       <c r="B41" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="164"/>
+      <c r="C41" s="160"/>
       <c r="D41" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="167"/>
+      <c r="A42" s="163"/>
       <c r="B42" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="164"/>
+      <c r="C42" s="160"/>
       <c r="D42" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="167"/>
-      <c r="B43" s="175" t="s">
+      <c r="A43" s="163"/>
+      <c r="B43" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="164"/>
+      <c r="C43" s="160"/>
       <c r="D43" s="26" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="167"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="164"/>
+      <c r="A44" s="163"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="160"/>
       <c r="D44" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="167"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="164"/>
+      <c r="A45" s="163"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="160"/>
       <c r="D45" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="167"/>
-      <c r="B46" s="176"/>
-      <c r="C46" s="164"/>
+      <c r="A46" s="163"/>
+      <c r="B46" s="172"/>
+      <c r="C46" s="160"/>
       <c r="D46" s="30" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="168"/>
-      <c r="B47" s="177"/>
-      <c r="C47" s="165"/>
+      <c r="A47" s="164"/>
+      <c r="B47" s="173"/>
+      <c r="C47" s="161"/>
       <c r="D47" s="29" t="s">
         <v>29</v>
       </c>
@@ -5054,7 +4978,7 @@
         <v>28</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="C49" s="27">
         <f>IF(COUNTA(C5:C47)=1,0,IF(SUM(C18,C24:C47)-C19&lt;0,0,SUM(C18,C24:C47)-C19))</f>
@@ -5064,70 +4988,70 @@
       <c r="E49" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="170" t="s">
+      <c r="A51" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="161" t="s">
+      <c r="B51" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="163"/>
+      <c r="C51" s="159"/>
       <c r="D51" s="26" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="170"/>
-      <c r="B52" s="161"/>
-      <c r="C52" s="164"/>
+      <c r="A52" s="166"/>
+      <c r="B52" s="157"/>
+      <c r="C52" s="160"/>
       <c r="D52" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="170"/>
-      <c r="B53" s="161"/>
-      <c r="C53" s="164"/>
+      <c r="A53" s="166"/>
+      <c r="B53" s="157"/>
+      <c r="C53" s="160"/>
       <c r="D53" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="170"/>
-      <c r="B54" s="161"/>
-      <c r="C54" s="164"/>
+      <c r="A54" s="166"/>
+      <c r="B54" s="157"/>
+      <c r="C54" s="160"/>
       <c r="D54" s="24"/>
       <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="170"/>
-      <c r="B55" s="161"/>
-      <c r="C55" s="164"/>
+      <c r="A55" s="166"/>
+      <c r="B55" s="157"/>
+      <c r="C55" s="160"/>
       <c r="D55" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="170"/>
-      <c r="B56" s="161"/>
-      <c r="C56" s="164"/>
+      <c r="A56" s="166"/>
+      <c r="B56" s="157"/>
+      <c r="C56" s="160"/>
       <c r="D56" s="23" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="170"/>
-      <c r="B57" s="161"/>
-      <c r="C57" s="165"/>
+      <c r="A57" s="166"/>
+      <c r="B57" s="157"/>
+      <c r="C57" s="161"/>
       <c r="D57" s="21"/>
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="170"/>
+      <c r="A58" s="166"/>
       <c r="B58" s="7" t="s">
         <v>21</v>
       </c>
@@ -5161,14 +5085,14 @@
         <v>17</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="C62" s="13">
         <f>'Donations, Gifts, Cont (Part E)'!D30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="111" t="s">
-        <v>479</v>
+      <c r="D62" s="108" t="s">
+        <v>450</v>
       </c>
       <c r="E62" s="4"/>
     </row>
@@ -5197,7 +5121,7 @@
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="14" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="E66" s="4"/>
     </row>
@@ -5210,7 +5134,7 @@
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="14" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="E68" s="4"/>
     </row>
@@ -5219,14 +5143,14 @@
         <v>9</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="C70" s="6">
-        <f>'Individual Relief Type (Part F)'!D211</f>
+        <f>'Individual Relief Type (Part F)'!D224</f>
         <v>9000</v>
       </c>
-      <c r="D70" s="138" t="s">
-        <v>509</v>
+      <c r="D70" s="134" t="s">
+        <v>479</v>
       </c>
       <c r="E70" s="4"/>
     </row>
@@ -5242,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="E72" s="4"/>
     </row>
@@ -5277,12 +5201,12 @@
         <f>IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!C2:C21),"")</f>
         <v>Tax on the First 5,000</v>
       </c>
-      <c r="C76" s="123">
+      <c r="C76" s="120">
         <f>IF(NOT(ISNUMBER(C72)),0,IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!E2:E21),0))</f>
         <v>0</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="E76" s="4"/>
     </row>
@@ -5294,12 +5218,12 @@
         <f>_xlfn.CONCAT("Tax on the ", "Balance ", IF(C75 = 0, TEXT(C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!A2:A21),0),"#,##0_ ;-#,##0 "),TEXT(C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!A2:A21)-1,0),"#,##0_ ;-#,##0 ")))</f>
         <v xml:space="preserve">Tax on the Balance 0 </v>
       </c>
-      <c r="C77" s="123">
+      <c r="C77" s="120">
         <f>IF(NOT(ISNUMBER(C72)),0,IF(C75=0,(C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!A2:A21),0))*C75,C72-IFERROR(LOOKUP(C72,'Income Tax Rate'!A2:A21,'Income Tax Rate'!A2:A21)-1,0))*C75)</f>
         <v>0</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="E77" s="4"/>
     </row>
@@ -5316,7 +5240,7 @@
       <c r="B79" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="124">
+      <c r="C79" s="121">
         <f>IF(NOT(OR(ISNUMBER(C76),ISNUMBER(C77))),0,SUM(C76:C77))</f>
         <v>0</v>
       </c>
@@ -5324,13 +5248,13 @@
       <c r="E79" s="4"/>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D82" s="121"/>
+      <c r="D82" s="118"/>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D83" s="121"/>
+      <c r="D83" s="118"/>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D84" s="121"/>
+      <c r="D84" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5351,61 +5275,61 @@
     <mergeCell ref="A19:A23"/>
   </mergeCells>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="45" priority="25">
+    <cfRule type="expression" dxfId="40" priority="25">
       <formula>NOT(ISNUMBER($C$5))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="43" priority="23">
+    <cfRule type="expression" dxfId="38" priority="23">
       <formula>COUNTA(C5:C47)=1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="24" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="41" priority="21">
+    <cfRule type="expression" dxfId="36" priority="21">
       <formula>COUNTA(C51)=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="22" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="cellIs" dxfId="39" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="18" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75:C77">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75:C77">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="49" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5498,8 +5422,8 @@
           <xm:sqref>C62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="13" id="{00000000-000E-0000-0000-00000D000000}">
-            <xm:f>COUNTA('Individual Relief Type (Part F)'!D5:D19,'Individual Relief Type (Part F)'!D32:D64,'Individual Relief Type (Part F)'!D66:D134,'Individual Relief Type (Part F)'!D158:D209)=0</xm:f>
+          <x14:cfRule type="expression" priority="48" id="{00000000-000E-0000-0000-00000D000000}">
+            <xm:f>COUNTA('Individual Relief Type (Part F)'!D5:D21,'Individual Relief Type (Part F)'!D22:D59,'Individual Relief Type (Part F)'!D61:D133,'Individual Relief Type (Part F)'!D172:D222)=0</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5521,8 +5445,8 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5537,333 +5461,333 @@
         <v>90</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>447</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>448</v>
-      </c>
-      <c r="D1" s="72" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="70"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="115" t="s">
-        <v>405</v>
-      </c>
-      <c r="B3" s="119" t="s">
-        <v>406</v>
-      </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="122" t="s">
-        <v>499</v>
-      </c>
-      <c r="E3" s="118"/>
+      <c r="A3" s="112" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="116" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="119" t="s">
+        <v>470</v>
+      </c>
+      <c r="E3" s="115"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="47"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
-        <v>407</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>408</v>
+      <c r="A5" s="77" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>379</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="92" t="s">
-        <v>461</v>
+        <v>158</v>
+      </c>
+      <c r="D5" s="102"/>
+      <c r="E5" s="89" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="166" t="s">
-        <v>410</v>
-      </c>
-      <c r="B6" s="171" t="s">
-        <v>409</v>
-      </c>
-      <c r="C6" s="166" t="str">
+      <c r="A6" s="162" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" s="167" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="162" t="str">
         <f>IF(NOT(ISNUMBER('Compute Income Tax (Part B)'!C49)), "SUM OF E2 IS MAXIMUM OF 10% Of B4 
 (Aggregate Income) Which is RM X", "10% Of B4 
 (Aggregate Income) Which is RM " &amp; TRUNC('Compute Income Tax (Part B)'!C49*0.1))</f>
         <v>10% Of B4 
 (Aggregate Income) Which is RM 0</v>
       </c>
-      <c r="D6" s="180"/>
-      <c r="E6" s="93" t="s">
-        <v>411</v>
+      <c r="D6" s="176"/>
+      <c r="E6" s="90" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="168"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="82" t="s">
-        <v>461</v>
+      <c r="A7" s="164"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="80" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="B8" s="80" t="s">
-        <v>413</v>
-      </c>
-      <c r="C8" s="167"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="94" t="s">
-        <v>462</v>
+        <v>383</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="163"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="91" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="95" t="s">
-        <v>463</v>
+        <v>386</v>
+      </c>
+      <c r="C9" s="163"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="92" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="166" t="s">
-        <v>417</v>
-      </c>
-      <c r="B10" s="175" t="s">
-        <v>416</v>
-      </c>
-      <c r="C10" s="167"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="93" t="s">
-        <v>418</v>
+      <c r="A10" s="162" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="171" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" s="163"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="90" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="167"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="96" t="s">
-        <v>439</v>
+      <c r="A11" s="163"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="93" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="167"/>
-      <c r="B12" s="176"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="97" t="s">
-        <v>419</v>
+      <c r="A12" s="163"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="94" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="167"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="96" t="s">
-        <v>440</v>
+      <c r="A13" s="163"/>
+      <c r="B13" s="172"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="93" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="168"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="181"/>
-      <c r="E14" s="82" t="s">
+      <c r="A14" s="164"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="80" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="78" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="79" t="s">
-        <v>449</v>
-      </c>
       <c r="B15" s="55" t="s">
-        <v>502</v>
-      </c>
-      <c r="C15" s="126">
+        <v>472</v>
+      </c>
+      <c r="C15" s="123">
         <f>IF(NOT(ISNUMBER('Compute Income Tax (Part B)'!C49)), 0,'Compute Income Tax (Part B)'!C49*0.1)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="125">
+      <c r="D15" s="122">
         <f>IF(NOT(OR(ISNUMBER(D6),ISNUMBER(D8),ISNUMBER(D9),ISNUMBER(D10))),0,IF(SUM(D6:D14)&gt;C15, C15, SUM(D6:D14)))</f>
         <v>0</v>
       </c>
-      <c r="E15" s="98" t="s">
-        <v>455</v>
+      <c r="E15" s="95" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="170" t="s">
-        <v>421</v>
-      </c>
-      <c r="B16" s="161" t="s">
-        <v>422</v>
-      </c>
-      <c r="C16" s="166" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="162"/>
-      <c r="E16" s="99" t="s">
-        <v>441</v>
+      <c r="A16" s="166" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" s="157" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="162" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="158"/>
+      <c r="E16" s="96" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="170"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="82" t="s">
-        <v>423</v>
+      <c r="A17" s="166"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="80" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="170" t="s">
-        <v>428</v>
-      </c>
-      <c r="B18" s="161" t="s">
-        <v>424</v>
-      </c>
-      <c r="C18" s="178">
+      <c r="A18" s="166" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" s="157" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" s="174">
         <v>20000</v>
       </c>
-      <c r="D18" s="162"/>
-      <c r="E18" s="99" t="s">
-        <v>442</v>
+      <c r="D18" s="158"/>
+      <c r="E18" s="96" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="170"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="82" t="s">
-        <v>426</v>
+      <c r="A19" s="166"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="80" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="170" t="s">
-        <v>425</v>
-      </c>
-      <c r="B20" s="161" t="s">
-        <v>429</v>
-      </c>
-      <c r="C20" s="166" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="162"/>
-      <c r="E20" s="99" t="s">
-        <v>443</v>
+      <c r="A20" s="166" t="s">
+        <v>396</v>
+      </c>
+      <c r="B20" s="157" t="s">
+        <v>400</v>
+      </c>
+      <c r="C20" s="162" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="158"/>
+      <c r="E20" s="96" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="170"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="82" t="s">
-        <v>430</v>
+      <c r="A21" s="166"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="80" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="170" t="s">
-        <v>427</v>
-      </c>
-      <c r="B22" s="161" t="s">
-        <v>431</v>
-      </c>
-      <c r="C22" s="178">
+      <c r="A22" s="166" t="s">
+        <v>398</v>
+      </c>
+      <c r="B22" s="157" t="s">
+        <v>402</v>
+      </c>
+      <c r="C22" s="174">
         <v>20000</v>
       </c>
-      <c r="D22" s="162"/>
-      <c r="E22" s="99" t="s">
-        <v>444</v>
+      <c r="D22" s="158"/>
+      <c r="E22" s="96" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="170"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="82" t="s">
-        <v>432</v>
+      <c r="A23" s="166"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="80" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="170" t="s">
-        <v>433</v>
-      </c>
-      <c r="B24" s="161" t="s">
-        <v>434</v>
-      </c>
-      <c r="C24" s="166" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="162"/>
-      <c r="E24" s="93" t="s">
+      <c r="A24" s="166" t="s">
+        <v>404</v>
+      </c>
+      <c r="B24" s="157" t="s">
+        <v>405</v>
+      </c>
+      <c r="C24" s="162" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="158"/>
+      <c r="E24" s="90" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="166"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="80" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="166" t="s">
+        <v>408</v>
+      </c>
+      <c r="B26" s="157" t="s">
+        <v>409</v>
+      </c>
+      <c r="C26" s="162" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="175"/>
+      <c r="E26" s="96" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="166"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="97" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="166"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="98" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="170"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="82" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="170" t="s">
-        <v>437</v>
-      </c>
-      <c r="B26" s="161" t="s">
-        <v>438</v>
-      </c>
-      <c r="C26" s="166" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="179"/>
-      <c r="E26" s="99" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="170"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="100" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="170"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="101" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -5871,18 +5795,18 @@
     </row>
     <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C30" s="74"/>
+        <v>423</v>
+      </c>
+      <c r="C30" s="73"/>
       <c r="D30" s="13">
         <f>IF(COUNTA(D5:D14,D16:D28)=0,0, SUM(D5,D15:D28))</f>
         <v>0</v>
       </c>
-      <c r="E30" s="127" t="s">
-        <v>453</v>
+      <c r="E30" s="124" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -5920,21 +5844,21 @@
     <mergeCell ref="C26:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>$C$15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>NOT(OR(ISNUMBER(D6),ISNUMBER(D8),ISNUMBER(D9),ISNUMBER(D10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>COUNTA(D5:D14,D16:D28)=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6030,12 +5954,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:E225"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B44"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44:D50"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6052,2459 +5976,2566 @@
         <v>90</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>341</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="70" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="68"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="48"/>
-      <c r="E2" s="70"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="115" t="s">
-        <v>339</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>338</v>
-      </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="122" t="s">
+      <c r="A3" s="112" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="119" t="s">
+        <v>470</v>
+      </c>
+      <c r="E3" s="115"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="66"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="166" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="166" t="s">
+        <v>483</v>
+      </c>
+      <c r="C5" s="181">
+        <v>9000</v>
+      </c>
+      <c r="D5" s="192">
+        <v>9000</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="166"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="81" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="166" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" s="166" t="s">
+        <v>485</v>
+      </c>
+      <c r="C7" s="181">
+        <v>4000</v>
+      </c>
+      <c r="D7" s="241"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="166"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="81"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="187" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="188" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="187" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="191"/>
+      <c r="E9" s="24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="187"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="187"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="191"/>
+      <c r="E11" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="187"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="187"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="187"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="191"/>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="187"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="187"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="187"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="187"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="187"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="187"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="187"/>
+      <c r="B21" s="190"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="82" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="166" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="157" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" s="184"/>
+      <c r="E22" s="26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="166"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="166"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="166"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="166"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="166"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="166"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="166"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="166"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="81" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="166" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" s="157" t="s">
+        <v>286</v>
+      </c>
+      <c r="C31" s="181">
+        <v>6000</v>
+      </c>
+      <c r="D31" s="184"/>
+      <c r="E31" s="46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="166"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="166"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="81" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="166" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" s="157" t="s">
+        <v>504</v>
+      </c>
+      <c r="C34" s="166" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="184"/>
+      <c r="E34" s="26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="166"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="166"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="166"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="166"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="24" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="166"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="166"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="184"/>
+      <c r="E40" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="166"/>
+      <c r="B41" s="157"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="184"/>
+      <c r="E41" s="84" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A42" s="166" t="s">
+        <v>275</v>
+      </c>
+      <c r="B42" s="157" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" s="166" t="s">
+        <v>273</v>
+      </c>
+      <c r="D42" s="184"/>
+      <c r="E42" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="166"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="30" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="166"/>
+      <c r="B44" s="157"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="184"/>
+      <c r="E44" s="30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="166"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="81" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="166" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="157" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="184"/>
+      <c r="E46" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="166"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="184"/>
+      <c r="E47" s="30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="166"/>
+      <c r="B48" s="157"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="184"/>
+      <c r="E48" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="166"/>
+      <c r="B49" s="157"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="24"/>
+    </row>
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="166"/>
+      <c r="B50" s="157"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="184"/>
+      <c r="E50" s="30" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="166"/>
+      <c r="B51" s="157"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="184"/>
+      <c r="E51" s="30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="166"/>
+      <c r="B52" s="157"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="184"/>
+      <c r="E52" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="166"/>
+      <c r="B53" s="157"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="184"/>
+      <c r="E53" s="81" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="166" t="s">
+        <v>492</v>
+      </c>
+      <c r="B54" s="157" t="s">
+        <v>500</v>
+      </c>
+      <c r="C54" s="166" t="s">
+        <v>501</v>
+      </c>
+      <c r="D54" s="184"/>
+      <c r="E54" s="26"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="166"/>
+      <c r="B55" s="157"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="81"/>
+    </row>
+    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="166" t="s">
+        <v>493</v>
+      </c>
+      <c r="B56" s="157" t="s">
         <v>499</v>
       </c>
-      <c r="E3" s="118"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="67"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="170" t="s">
-        <v>337</v>
-      </c>
-      <c r="B5" s="170" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" s="185">
+      <c r="C56" s="166" t="s">
+        <v>498</v>
+      </c>
+      <c r="D56" s="184"/>
+      <c r="E56" s="26" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="166"/>
+      <c r="B57" s="157"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="184"/>
+      <c r="E57" s="81" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="166" t="s">
+        <v>494</v>
+      </c>
+      <c r="B58" s="157" t="s">
+        <v>502</v>
+      </c>
+      <c r="C58" s="166" t="s">
+        <v>498</v>
+      </c>
+      <c r="D58" s="184"/>
+      <c r="E58" s="26"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="166"/>
+      <c r="B59" s="157"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="184"/>
+      <c r="E59" s="81"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D60" s="13">
+        <f>IF(COUNTA(D42:D59)=0,0,IF(SUM(D42:D59) &gt; 10000, 10000, SUM(D42:D59)))</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="85" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="C61" s="162" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" s="186"/>
+      <c r="E61" s="81" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="166" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" s="185" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="163"/>
+      <c r="D62" s="186"/>
+      <c r="E62" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="166"/>
+      <c r="B63" s="185"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="186"/>
+      <c r="E63" s="81" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="166" t="s">
+        <v>253</v>
+      </c>
+      <c r="B64" s="185" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" s="163"/>
+      <c r="D64" s="186"/>
+      <c r="E64" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="166"/>
+      <c r="B65" s="185"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="186"/>
+      <c r="E65" s="81" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="166" t="s">
+        <v>250</v>
+      </c>
+      <c r="B66" s="185" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" s="163"/>
+      <c r="D66" s="186"/>
+      <c r="E66" s="26" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="166"/>
+      <c r="B67" s="185"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="186"/>
+      <c r="E67" s="30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="166"/>
+      <c r="B68" s="185"/>
+      <c r="C68" s="163"/>
+      <c r="D68" s="186"/>
+      <c r="E68" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="166"/>
+      <c r="B69" s="185"/>
+      <c r="C69" s="163"/>
+      <c r="D69" s="186"/>
+      <c r="E69" s="81" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="166" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" s="157" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" s="163"/>
+      <c r="D70" s="186"/>
+      <c r="E70" s="26" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="166"/>
+      <c r="B71" s="157"/>
+      <c r="C71" s="164"/>
+      <c r="D71" s="186"/>
+      <c r="E71" s="81" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="166" t="s">
+        <v>242</v>
+      </c>
+      <c r="B72" s="157" t="s">
+        <v>241</v>
+      </c>
+      <c r="C72" s="166" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="198"/>
+      <c r="E72" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="166"/>
+      <c r="B73" s="157"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="199"/>
+      <c r="E73" s="30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="166"/>
+      <c r="B74" s="157"/>
+      <c r="C74" s="166"/>
+      <c r="D74" s="199"/>
+      <c r="E74" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="166"/>
+      <c r="B75" s="157"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="199"/>
+      <c r="E75" s="30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="166"/>
+      <c r="B76" s="157"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="199"/>
+      <c r="E76" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="162"/>
+      <c r="B77" s="171"/>
+      <c r="C77" s="162"/>
+      <c r="D77" s="200"/>
+      <c r="E77" s="81" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="166" t="s">
+        <v>507</v>
+      </c>
+      <c r="B78" s="185" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="162" t="s">
+        <v>506</v>
+      </c>
+      <c r="D78" s="198"/>
+      <c r="E78" s="26" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="166"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="163"/>
+      <c r="D79" s="199"/>
+      <c r="E79" s="30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="166"/>
+      <c r="B80" s="185"/>
+      <c r="C80" s="163"/>
+      <c r="D80" s="199"/>
+      <c r="E80" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="166"/>
+      <c r="B81" s="185"/>
+      <c r="C81" s="164"/>
+      <c r="D81" s="200"/>
+      <c r="E81" s="81" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="166" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" s="157" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" s="166" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="184"/>
+      <c r="E82" s="46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="166"/>
+      <c r="B83" s="157"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="166"/>
+      <c r="B84" s="157"/>
+      <c r="C84" s="166"/>
+      <c r="D84" s="184"/>
+      <c r="E84" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="166"/>
+      <c r="B85" s="157"/>
+      <c r="C85" s="166"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="166"/>
+      <c r="B86" s="157"/>
+      <c r="C86" s="166"/>
+      <c r="D86" s="184"/>
+      <c r="E86" s="24"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="166"/>
+      <c r="B87" s="157"/>
+      <c r="C87" s="166"/>
+      <c r="D87" s="184"/>
+      <c r="E87" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="166"/>
+      <c r="B88" s="157"/>
+      <c r="C88" s="166"/>
+      <c r="D88" s="184"/>
+      <c r="E88" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="166"/>
+      <c r="B89" s="157"/>
+      <c r="C89" s="166"/>
+      <c r="D89" s="184"/>
+      <c r="E89" s="24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="166"/>
+      <c r="B90" s="157"/>
+      <c r="C90" s="166"/>
+      <c r="D90" s="184"/>
+      <c r="E90" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="166"/>
+      <c r="B91" s="157"/>
+      <c r="C91" s="166"/>
+      <c r="D91" s="184"/>
+      <c r="E91" s="24"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="166"/>
+      <c r="B92" s="157"/>
+      <c r="C92" s="166"/>
+      <c r="D92" s="184"/>
+      <c r="E92" s="24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="166"/>
+      <c r="B93" s="157"/>
+      <c r="C93" s="166"/>
+      <c r="D93" s="184"/>
+      <c r="E93" s="24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="166"/>
+      <c r="B94" s="157"/>
+      <c r="C94" s="166"/>
+      <c r="D94" s="184"/>
+      <c r="E94" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="166"/>
+      <c r="B95" s="157"/>
+      <c r="C95" s="166"/>
+      <c r="D95" s="184"/>
+      <c r="E95" s="81" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="B96" s="157" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" s="166" t="s">
+        <v>126</v>
+      </c>
+      <c r="D96" s="184"/>
+      <c r="E96" s="46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="166"/>
+      <c r="B97" s="157"/>
+      <c r="C97" s="166"/>
+      <c r="D97" s="184"/>
+      <c r="E97" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="166"/>
+      <c r="B98" s="157"/>
+      <c r="C98" s="166"/>
+      <c r="D98" s="184"/>
+      <c r="E98" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="166"/>
+      <c r="B99" s="157"/>
+      <c r="C99" s="166"/>
+      <c r="D99" s="184"/>
+      <c r="E99" s="24"/>
+    </row>
+    <row r="100" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="166"/>
+      <c r="B100" s="157"/>
+      <c r="C100" s="166"/>
+      <c r="D100" s="184"/>
+      <c r="E100" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="166"/>
+      <c r="B101" s="157"/>
+      <c r="C101" s="166"/>
+      <c r="D101" s="184"/>
+      <c r="E101" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="166"/>
+      <c r="B102" s="157"/>
+      <c r="C102" s="166"/>
+      <c r="D102" s="184"/>
+      <c r="E102" s="30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="166"/>
+      <c r="B103" s="157"/>
+      <c r="C103" s="166"/>
+      <c r="D103" s="184"/>
+      <c r="E103" s="24"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="166"/>
+      <c r="B104" s="157"/>
+      <c r="C104" s="166"/>
+      <c r="D104" s="184"/>
+      <c r="E104" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="166"/>
+      <c r="B105" s="157"/>
+      <c r="C105" s="166"/>
+      <c r="D105" s="184"/>
+      <c r="E105" s="24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="166"/>
+      <c r="B106" s="157"/>
+      <c r="C106" s="166"/>
+      <c r="D106" s="184"/>
+      <c r="E106" s="24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="166"/>
+      <c r="B107" s="157"/>
+      <c r="C107" s="166"/>
+      <c r="D107" s="184"/>
+      <c r="E107" s="81" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="166" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" s="157" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="166" t="s">
+        <v>207</v>
+      </c>
+      <c r="D108" s="184"/>
+      <c r="E108" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="166"/>
+      <c r="B109" s="157"/>
+      <c r="C109" s="166"/>
+      <c r="D109" s="184"/>
+      <c r="E109" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="166"/>
+      <c r="B110" s="157"/>
+      <c r="C110" s="166"/>
+      <c r="D110" s="184"/>
+      <c r="E110" s="130" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="166"/>
+      <c r="B111" s="157"/>
+      <c r="C111" s="166"/>
+      <c r="D111" s="184"/>
+      <c r="E111" s="24" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="166"/>
+      <c r="B112" s="157"/>
+      <c r="C112" s="166"/>
+      <c r="D112" s="184"/>
+      <c r="E112" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="166"/>
+      <c r="B113" s="157"/>
+      <c r="C113" s="166"/>
+      <c r="D113" s="184"/>
+      <c r="E113" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="166"/>
+      <c r="B114" s="157"/>
+      <c r="C114" s="166"/>
+      <c r="D114" s="184"/>
+      <c r="E114" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="166"/>
+      <c r="B115" s="157"/>
+      <c r="C115" s="166"/>
+      <c r="D115" s="184"/>
+      <c r="E115" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="166"/>
+      <c r="B116" s="157"/>
+      <c r="C116" s="166"/>
+      <c r="D116" s="184"/>
+      <c r="E116" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="166"/>
+      <c r="B117" s="157"/>
+      <c r="C117" s="166"/>
+      <c r="D117" s="184"/>
+      <c r="E117" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="166"/>
+      <c r="B118" s="157"/>
+      <c r="C118" s="166"/>
+      <c r="D118" s="184"/>
+      <c r="E118" s="81" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="166" t="s">
+        <v>196</v>
+      </c>
+      <c r="B119" s="157" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" s="166" t="s">
+        <v>194</v>
+      </c>
+      <c r="D119" s="179"/>
+      <c r="E119" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="166"/>
+      <c r="B120" s="157"/>
+      <c r="C120" s="166"/>
+      <c r="D120" s="180"/>
+      <c r="E120" s="86" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="166"/>
+      <c r="B121" s="157"/>
+      <c r="C121" s="166"/>
+      <c r="D121" s="180"/>
+      <c r="E121" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="166"/>
+      <c r="B122" s="157"/>
+      <c r="C122" s="166"/>
+      <c r="D122" s="180"/>
+      <c r="E122" s="86" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="166"/>
+      <c r="B123" s="157"/>
+      <c r="C123" s="166"/>
+      <c r="D123" s="180"/>
+      <c r="E123" s="24"/>
+    </row>
+    <row r="124" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="166"/>
+      <c r="B124" s="157"/>
+      <c r="C124" s="166"/>
+      <c r="D124" s="180"/>
+      <c r="E124" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="166"/>
+      <c r="B125" s="157"/>
+      <c r="C125" s="166"/>
+      <c r="D125" s="180"/>
+      <c r="E125" s="86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="166"/>
+      <c r="B126" s="157"/>
+      <c r="C126" s="166"/>
+      <c r="D126" s="180"/>
+      <c r="E126" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="166"/>
+      <c r="B127" s="157"/>
+      <c r="C127" s="166"/>
+      <c r="D127" s="180"/>
+      <c r="E127" s="86" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="166"/>
+      <c r="B128" s="157"/>
+      <c r="C128" s="166"/>
+      <c r="D128" s="180"/>
+      <c r="E128" s="24"/>
+    </row>
+    <row r="129" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="166"/>
+      <c r="B129" s="157"/>
+      <c r="C129" s="166"/>
+      <c r="D129" s="180"/>
+      <c r="E129" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="166"/>
+      <c r="B130" s="157"/>
+      <c r="C130" s="166"/>
+      <c r="D130" s="180"/>
+      <c r="E130" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="162"/>
+      <c r="B131" s="171"/>
+      <c r="C131" s="162"/>
+      <c r="D131" s="180"/>
+      <c r="E131" s="81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="166" t="s">
+        <v>182</v>
+      </c>
+      <c r="B132" s="157" t="s">
+        <v>181</v>
+      </c>
+      <c r="C132" s="181">
+        <v>5000</v>
+      </c>
+      <c r="D132" s="182"/>
+      <c r="E132" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="166"/>
+      <c r="B133" s="157"/>
+      <c r="C133" s="181"/>
+      <c r="D133" s="183"/>
+      <c r="E133" s="81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D134" s="63"/>
+      <c r="E134" s="26"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="195" t="s">
+        <v>177</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C135" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135" s="104"/>
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="196"/>
+      <c r="B136" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="C136" s="126">
+        <v>2000</v>
+      </c>
+      <c r="D136" s="194">
+        <f>IF(NOT(ISNUMBER(D135)),0,D135*C136)</f>
+        <v>0</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="197"/>
+      <c r="B137" s="157"/>
+      <c r="C137" s="129" t="s">
+        <v>475</v>
+      </c>
+      <c r="D137" s="194"/>
+      <c r="E137" s="81" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="210" t="s">
+        <v>369</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="D138" s="105"/>
+      <c r="E138" s="86"/>
+    </row>
+    <row r="139" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="211"/>
+      <c r="B139" s="167" t="s">
+        <v>172</v>
+      </c>
+      <c r="C139" s="126">
+        <v>2000</v>
+      </c>
+      <c r="D139" s="194">
+        <f>IF(NOT(ISNUMBER(D138)),0,D138*C139)</f>
+        <v>0</v>
+      </c>
+      <c r="E139" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="211"/>
+      <c r="B140" s="208"/>
+      <c r="C140" s="129" t="s">
+        <v>475</v>
+      </c>
+      <c r="D140" s="209"/>
+      <c r="E140" s="82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="B141" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C141" s="61"/>
+      <c r="D141" s="60"/>
+      <c r="E141" s="83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="212" t="s">
+        <v>370</v>
+      </c>
+      <c r="B142" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C142" s="133" t="s">
+        <v>158</v>
+      </c>
+      <c r="D142" s="106"/>
+      <c r="E142" s="87"/>
+    </row>
+    <row r="143" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="211"/>
+      <c r="B143" s="203" t="s">
+        <v>167</v>
+      </c>
+      <c r="C143" s="126"/>
+      <c r="D143" s="201">
+        <f>IF(NOT(ISNUMBER(D142)),0,D142*C144)</f>
+        <v>0</v>
+      </c>
+      <c r="E143" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="211"/>
+      <c r="B144" s="203"/>
+      <c r="C144" s="128">
+        <v>8000</v>
+      </c>
+      <c r="D144" s="201"/>
+      <c r="E144" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="211"/>
+      <c r="B145" s="203"/>
+      <c r="C145" s="128" t="s">
+        <v>475</v>
+      </c>
+      <c r="D145" s="201"/>
+      <c r="E145" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="211"/>
+      <c r="B146" s="203"/>
+      <c r="C146" s="131"/>
+      <c r="D146" s="201"/>
+      <c r="E146" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="213"/>
+      <c r="B147" s="203"/>
+      <c r="C147" s="132"/>
+      <c r="D147" s="201"/>
+      <c r="E147" s="81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="210" t="s">
+        <v>371</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D148" s="104"/>
+      <c r="E148" s="86"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="214"/>
+      <c r="B149" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="C149" s="57">
+        <v>6000</v>
+      </c>
+      <c r="D149" s="56">
+        <f>IF(NOT(ISNUMBER(D148)),0,D148*C149)</f>
+        <v>0</v>
+      </c>
+      <c r="E149" s="88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="193" t="s">
+        <v>372</v>
+      </c>
+      <c r="B150" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C150" s="127" t="str">
+        <f>IF(D148="", "Maximum of X", "Maximum of " &amp; D148)</f>
+        <v>Maximum of X</v>
+      </c>
+      <c r="D150" s="107"/>
+      <c r="E150" s="32" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="163"/>
+      <c r="B151" s="202" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" s="126"/>
+      <c r="D151" s="205">
+        <f>IF(OR(NOT(OR(ISNUMBER(D150),ISNUMBER(D148))),D148=0),0,D150*C152)</f>
+        <v>0</v>
+      </c>
+      <c r="E151" s="30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="163"/>
+      <c r="B152" s="203"/>
+      <c r="C152" s="128">
+        <v>8000</v>
+      </c>
+      <c r="D152" s="205"/>
+      <c r="E152" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="163"/>
+      <c r="B153" s="203"/>
+      <c r="C153" s="128" t="s">
+        <v>475</v>
+      </c>
+      <c r="D153" s="205"/>
+      <c r="E153" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="163"/>
+      <c r="B154" s="203"/>
+      <c r="C154" s="131"/>
+      <c r="D154" s="205"/>
+      <c r="E154" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="163"/>
+      <c r="B155" s="203"/>
+      <c r="C155" s="131"/>
+      <c r="D155" s="206"/>
+      <c r="E155" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="164"/>
+      <c r="B156" s="204"/>
+      <c r="C156" s="132"/>
+      <c r="D156" s="207"/>
+      <c r="E156" s="81" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A157" s="166" t="s">
+        <v>150</v>
+      </c>
+      <c r="B157" s="157" t="s">
+        <v>488</v>
+      </c>
+      <c r="C157" s="166" t="s">
+        <v>126</v>
+      </c>
+      <c r="D157" s="158"/>
+      <c r="E157" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="166"/>
+      <c r="B158" s="157"/>
+      <c r="C158" s="166"/>
+      <c r="D158" s="158"/>
+      <c r="E158" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="166"/>
+      <c r="B159" s="157"/>
+      <c r="C159" s="166"/>
+      <c r="D159" s="158"/>
+      <c r="E159" s="24"/>
+    </row>
+    <row r="160" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="166"/>
+      <c r="B160" s="157"/>
+      <c r="C160" s="166"/>
+      <c r="D160" s="158"/>
+      <c r="E160" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="166"/>
+      <c r="B161" s="157"/>
+      <c r="C161" s="166"/>
+      <c r="D161" s="158"/>
+      <c r="E161" s="24"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="166"/>
+      <c r="B162" s="157"/>
+      <c r="C162" s="166"/>
+      <c r="D162" s="158"/>
+      <c r="E162" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="166"/>
+      <c r="B163" s="157"/>
+      <c r="C163" s="166"/>
+      <c r="D163" s="158"/>
+      <c r="E163" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="166"/>
+      <c r="B164" s="157"/>
+      <c r="C164" s="166"/>
+      <c r="D164" s="158"/>
+      <c r="E164" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="166"/>
+      <c r="B165" s="157"/>
+      <c r="C165" s="166"/>
+      <c r="D165" s="158"/>
+      <c r="E165" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="166"/>
+      <c r="B166" s="157"/>
+      <c r="C166" s="166"/>
+      <c r="D166" s="158"/>
+      <c r="E166" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="166"/>
+      <c r="B167" s="157"/>
+      <c r="C167" s="166"/>
+      <c r="D167" s="158"/>
+      <c r="E167" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="166"/>
+      <c r="B168" s="157"/>
+      <c r="C168" s="166"/>
+      <c r="D168" s="158"/>
+      <c r="E168" s="24"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="166"/>
+      <c r="B169" s="157"/>
+      <c r="C169" s="166"/>
+      <c r="D169" s="158"/>
+      <c r="E169" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="166"/>
+      <c r="B170" s="157"/>
+      <c r="C170" s="166"/>
+      <c r="D170" s="158"/>
+      <c r="E170" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="166"/>
+      <c r="B171" s="157"/>
+      <c r="C171" s="166"/>
+      <c r="D171" s="158"/>
+      <c r="E171" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A172" s="166" t="s">
+        <v>487</v>
+      </c>
+      <c r="B172" s="157" t="s">
+        <v>489</v>
+      </c>
+      <c r="C172" s="166" t="s">
+        <v>194</v>
+      </c>
+      <c r="D172" s="158"/>
+      <c r="E172" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="166"/>
+      <c r="B173" s="157"/>
+      <c r="C173" s="166"/>
+      <c r="D173" s="158"/>
+      <c r="E173" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="166"/>
+      <c r="B174" s="157"/>
+      <c r="C174" s="166"/>
+      <c r="D174" s="158"/>
+      <c r="E174" s="24"/>
+    </row>
+    <row r="175" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A175" s="166"/>
+      <c r="B175" s="157"/>
+      <c r="C175" s="166"/>
+      <c r="D175" s="158"/>
+      <c r="E175" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="166"/>
+      <c r="B176" s="157"/>
+      <c r="C176" s="166"/>
+      <c r="D176" s="158"/>
+      <c r="E176" s="24"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="166"/>
+      <c r="B177" s="157"/>
+      <c r="C177" s="166"/>
+      <c r="D177" s="158"/>
+      <c r="E177" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="166"/>
+      <c r="B178" s="157"/>
+      <c r="C178" s="166"/>
+      <c r="D178" s="158"/>
+      <c r="E178" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="166"/>
+      <c r="B179" s="157"/>
+      <c r="C179" s="166"/>
+      <c r="D179" s="158"/>
+      <c r="E179" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="166"/>
+      <c r="B180" s="157"/>
+      <c r="C180" s="166"/>
+      <c r="D180" s="158"/>
+      <c r="E180" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="166"/>
+      <c r="B181" s="157"/>
+      <c r="C181" s="166"/>
+      <c r="D181" s="158"/>
+      <c r="E181" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A182" s="166"/>
+      <c r="B182" s="157"/>
+      <c r="C182" s="166"/>
+      <c r="D182" s="158"/>
+      <c r="E182" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="166"/>
+      <c r="B183" s="157"/>
+      <c r="C183" s="166"/>
+      <c r="D183" s="158"/>
+      <c r="E183" s="32"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="226" t="s">
+        <v>136</v>
+      </c>
+      <c r="B184" s="188" t="s">
+        <v>135</v>
+      </c>
+      <c r="C184" s="223" t="s">
+        <v>126</v>
+      </c>
+      <c r="D184" s="159"/>
+      <c r="E184" s="46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A185" s="187"/>
+      <c r="B185" s="189"/>
+      <c r="C185" s="224"/>
+      <c r="D185" s="160"/>
+      <c r="E185" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="187"/>
+      <c r="B186" s="189"/>
+      <c r="C186" s="224"/>
+      <c r="D186" s="160"/>
+      <c r="E186" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="187"/>
+      <c r="B187" s="189"/>
+      <c r="C187" s="224"/>
+      <c r="D187" s="160"/>
+      <c r="E187" s="86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="187"/>
+      <c r="B188" s="189"/>
+      <c r="C188" s="224"/>
+      <c r="D188" s="160"/>
+      <c r="E188" s="86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="227"/>
+      <c r="B189" s="218"/>
+      <c r="C189" s="225"/>
+      <c r="D189" s="161"/>
+      <c r="E189" s="81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="219" t="s">
+        <v>128</v>
+      </c>
+      <c r="B190" s="217" t="s">
+        <v>127</v>
+      </c>
+      <c r="C190" s="219" t="s">
+        <v>126</v>
+      </c>
+      <c r="D190" s="228"/>
+      <c r="E190" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="187"/>
+      <c r="B191" s="189"/>
+      <c r="C191" s="187"/>
+      <c r="D191" s="191"/>
+      <c r="E191" s="24"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="187"/>
+      <c r="B192" s="189"/>
+      <c r="C192" s="187"/>
+      <c r="D192" s="191"/>
+      <c r="E192" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="187"/>
+      <c r="B193" s="189"/>
+      <c r="C193" s="187"/>
+      <c r="D193" s="191"/>
+      <c r="E193" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="187"/>
+      <c r="B194" s="189"/>
+      <c r="C194" s="187"/>
+      <c r="D194" s="191"/>
+      <c r="E194" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="187"/>
+      <c r="B195" s="189"/>
+      <c r="C195" s="187"/>
+      <c r="D195" s="191"/>
+      <c r="E195" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="187"/>
+      <c r="B196" s="189"/>
+      <c r="C196" s="187"/>
+      <c r="D196" s="191"/>
+      <c r="E196" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="187"/>
+      <c r="B197" s="189"/>
+      <c r="C197" s="187"/>
+      <c r="D197" s="191"/>
+      <c r="E197" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="187"/>
+      <c r="B198" s="189"/>
+      <c r="C198" s="187"/>
+      <c r="D198" s="191"/>
+      <c r="E198" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A199" s="187"/>
+      <c r="B199" s="189"/>
+      <c r="C199" s="187"/>
+      <c r="D199" s="191"/>
+      <c r="E199" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A200" s="187"/>
+      <c r="B200" s="189"/>
+      <c r="C200" s="187"/>
+      <c r="D200" s="191"/>
+      <c r="E200" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A201" s="187"/>
+      <c r="B201" s="189"/>
+      <c r="C201" s="187"/>
+      <c r="D201" s="191"/>
+      <c r="E201" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A202" s="187"/>
+      <c r="B202" s="189"/>
+      <c r="C202" s="187"/>
+      <c r="D202" s="191"/>
+      <c r="E202" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="187"/>
+      <c r="B203" s="189"/>
+      <c r="C203" s="187"/>
+      <c r="D203" s="191"/>
+      <c r="E203" s="24"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="187"/>
+      <c r="B204" s="189"/>
+      <c r="C204" s="187"/>
+      <c r="D204" s="191"/>
+      <c r="E204" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="187"/>
+      <c r="B205" s="189"/>
+      <c r="C205" s="187"/>
+      <c r="D205" s="191"/>
+      <c r="E205" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="187"/>
+      <c r="B206" s="189"/>
+      <c r="C206" s="187"/>
+      <c r="D206" s="191"/>
+      <c r="E206" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="187"/>
+      <c r="B207" s="189"/>
+      <c r="C207" s="187"/>
+      <c r="D207" s="191"/>
+      <c r="E207" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="187"/>
+      <c r="B208" s="189"/>
+      <c r="C208" s="187"/>
+      <c r="D208" s="191"/>
+      <c r="E208" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="187"/>
+      <c r="B209" s="189"/>
+      <c r="C209" s="187"/>
+      <c r="D209" s="191"/>
+      <c r="E209" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="187"/>
+      <c r="B210" s="189"/>
+      <c r="C210" s="187"/>
+      <c r="D210" s="191"/>
+      <c r="E210" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="187"/>
+      <c r="B211" s="189"/>
+      <c r="C211" s="187"/>
+      <c r="D211" s="191"/>
+      <c r="E211" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="187"/>
+      <c r="B212" s="189"/>
+      <c r="C212" s="187"/>
+      <c r="D212" s="191"/>
+      <c r="E212" s="24"/>
+    </row>
+    <row r="213" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A213" s="187"/>
+      <c r="B213" s="189"/>
+      <c r="C213" s="187"/>
+      <c r="D213" s="191"/>
+      <c r="E213" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="227"/>
+      <c r="B214" s="218"/>
+      <c r="C214" s="227"/>
+      <c r="D214" s="229"/>
+      <c r="E214" s="81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A215" s="219" t="s">
+        <v>103</v>
+      </c>
+      <c r="B215" s="217" t="s">
+        <v>509</v>
+      </c>
+      <c r="C215" s="221" t="s">
+        <v>510</v>
+      </c>
+      <c r="D215" s="158"/>
+      <c r="E215" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="220"/>
+      <c r="B216" s="218"/>
+      <c r="C216" s="222"/>
+      <c r="D216" s="158"/>
+      <c r="E216" s="81"/>
+    </row>
+    <row r="217" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A217" s="219" t="s">
+        <v>99</v>
+      </c>
+      <c r="B217" s="217" t="s">
+        <v>102</v>
+      </c>
+      <c r="C217" s="221" t="s">
+        <v>490</v>
+      </c>
+      <c r="D217" s="158"/>
+      <c r="E217" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="220"/>
+      <c r="B218" s="218"/>
+      <c r="C218" s="222"/>
+      <c r="D218" s="158"/>
+      <c r="E218" s="81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="166" t="s">
+        <v>91</v>
+      </c>
+      <c r="B219" s="215" t="s">
+        <v>98</v>
+      </c>
+      <c r="C219" s="166" t="s">
+        <v>97</v>
+      </c>
+      <c r="D219" s="158"/>
+      <c r="E219" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A220" s="166"/>
+      <c r="B220" s="216"/>
+      <c r="C220" s="166"/>
+      <c r="D220" s="158"/>
+      <c r="E220" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A221" s="166"/>
+      <c r="B221" s="216"/>
+      <c r="C221" s="166"/>
+      <c r="D221" s="158"/>
+      <c r="E221" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="166"/>
+      <c r="B222" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C222" s="166"/>
+      <c r="D222" s="158"/>
+      <c r="E222" s="81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C224" s="53"/>
+      <c r="D224" s="52">
+        <f>IF(COUNTA(D5:D59,D61:D133,D135,D138,D142,D148,D150,D172:D222)=0,0,SUM(D5:D41,D60:D133,D136,D139,D143,D149,D151:D222))</f>
         <v>9000</v>
       </c>
-      <c r="D5" s="196">
-        <v>9000</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="170"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="83" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="191" t="s">
-        <v>333</v>
-      </c>
-      <c r="B7" s="192" t="s">
-        <v>332</v>
-      </c>
-      <c r="C7" s="191" t="s">
-        <v>331</v>
-      </c>
-      <c r="D7" s="195"/>
-      <c r="E7" s="24" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="191"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="191"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="191"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="191"/>
-      <c r="B11" s="193"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="191"/>
-      <c r="B12" s="193"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="191"/>
-      <c r="B13" s="193"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="30" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="191"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="195"/>
-      <c r="E14" s="24" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="191"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="195"/>
-      <c r="E15" s="24" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="191"/>
-      <c r="B16" s="193"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="191"/>
-      <c r="B17" s="193"/>
-      <c r="C17" s="191"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="24" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="191"/>
-      <c r="B18" s="193"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="191"/>
-      <c r="B19" s="194"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="195"/>
-      <c r="E19" s="84" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="128" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="85" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="197" t="s">
-        <v>319</v>
-      </c>
-      <c r="B21" s="198" t="s">
-        <v>393</v>
-      </c>
-      <c r="C21" s="199" t="s">
-        <v>395</v>
-      </c>
-      <c r="D21" s="200"/>
-      <c r="E21" s="86" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="170"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="170"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="24" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="170"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="30" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="170"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="30" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="170"/>
-      <c r="B26" s="176" t="s">
-        <v>394</v>
-      </c>
-      <c r="C26" s="166" t="s">
-        <v>395</v>
-      </c>
-      <c r="D26" s="186"/>
-      <c r="E26" s="30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="170"/>
-      <c r="B27" s="176"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="30" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="170"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="190"/>
-      <c r="E28" s="30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="170"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="190"/>
-      <c r="E29" s="30" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="170"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="83" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="170"/>
-      <c r="B31" s="74" t="s">
-        <v>396</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D31" s="6">
-        <f>IF(NOT(OR(ISNUMBER(D21),ISNUMBER(D26))),0,SUM(D21:D30))</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="88" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="170" t="s">
-        <v>308</v>
-      </c>
-      <c r="B32" s="161" t="s">
-        <v>307</v>
-      </c>
-      <c r="C32" s="170" t="s">
-        <v>263</v>
-      </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="26" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="170"/>
-      <c r="B33" s="161"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="188"/>
-      <c r="E33" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="170"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="30" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="170"/>
-      <c r="B35" s="161"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="170"/>
-      <c r="B36" s="161"/>
-      <c r="C36" s="170"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="170"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="170"/>
-      <c r="B38" s="161"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="30" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="170"/>
-      <c r="B39" s="161"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="188"/>
-      <c r="E39" s="30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="170"/>
-      <c r="B40" s="161"/>
-      <c r="C40" s="170"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="83" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="170" t="s">
-        <v>298</v>
-      </c>
-      <c r="B41" s="161" t="s">
-        <v>297</v>
-      </c>
-      <c r="C41" s="185">
-        <v>6000</v>
-      </c>
-      <c r="D41" s="188"/>
-      <c r="E41" s="46" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="170"/>
-      <c r="B42" s="161"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="170"/>
-      <c r="B43" s="161"/>
-      <c r="C43" s="185"/>
-      <c r="D43" s="188"/>
-      <c r="E43" s="83" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="170" t="s">
-        <v>293</v>
-      </c>
-      <c r="B44" s="161" t="s">
-        <v>292</v>
-      </c>
-      <c r="C44" s="170" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="188"/>
-      <c r="E44" s="26" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="170"/>
-      <c r="B45" s="161"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="188"/>
-      <c r="E45" s="24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="170"/>
-      <c r="B46" s="161"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="188"/>
-      <c r="E46" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="170"/>
-      <c r="B47" s="161"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="188"/>
-      <c r="E47" s="24" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="170"/>
-      <c r="B48" s="161"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="188"/>
-      <c r="E48" s="24"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="170"/>
-      <c r="B49" s="161"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="188"/>
-      <c r="E49" s="24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="170"/>
-      <c r="B50" s="161"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="188"/>
-      <c r="E50" s="87" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="170" t="s">
-        <v>285</v>
-      </c>
-      <c r="B51" s="161" t="s">
-        <v>284</v>
-      </c>
-      <c r="C51" s="170" t="s">
-        <v>283</v>
-      </c>
-      <c r="D51" s="188"/>
-      <c r="E51" s="26" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="170"/>
-      <c r="B52" s="161"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="30" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="170"/>
-      <c r="B53" s="161"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="188"/>
-      <c r="E53" s="30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="170"/>
-      <c r="B54" s="161"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="188"/>
-      <c r="E54" s="83" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="170" t="s">
-        <v>279</v>
-      </c>
-      <c r="B55" s="161" t="s">
-        <v>278</v>
-      </c>
-      <c r="C55" s="170" t="s">
-        <v>160</v>
-      </c>
-      <c r="D55" s="188"/>
-      <c r="E55" s="26" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="170"/>
-      <c r="B56" s="161"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="188"/>
-      <c r="E56" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="170"/>
-      <c r="B57" s="161"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="188"/>
-      <c r="E57" s="24" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="170"/>
-      <c r="B58" s="161"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="188"/>
-      <c r="E58" s="24"/>
-    </row>
-    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="170"/>
-      <c r="B59" s="161"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="188"/>
-      <c r="E59" s="30" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="170"/>
-      <c r="B60" s="161"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="188"/>
-      <c r="E60" s="30" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="170"/>
-      <c r="B61" s="161"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="188"/>
-      <c r="E61" s="30" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="170"/>
-      <c r="B62" s="161"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="188"/>
-      <c r="E62" s="83" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="170" t="s">
-        <v>270</v>
-      </c>
-      <c r="B63" s="161" t="s">
-        <v>269</v>
-      </c>
-      <c r="C63" s="170" t="s">
-        <v>268</v>
-      </c>
-      <c r="D63" s="188"/>
-      <c r="E63" s="26" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="170"/>
-      <c r="B64" s="161"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="188"/>
-      <c r="E64" s="83" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D65" s="13">
-        <f>IF(COUNTA(D51:D64)=0,0,IF(SUM(D51:D64) &gt; 6000, 6000, SUM(D51:D64)))</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="88" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="B66" s="64" t="s">
-        <v>261</v>
-      </c>
-      <c r="C66" s="166" t="s">
-        <v>260</v>
-      </c>
-      <c r="D66" s="190"/>
-      <c r="E66" s="83" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="170" t="s">
-        <v>259</v>
-      </c>
-      <c r="B67" s="189" t="s">
-        <v>258</v>
-      </c>
-      <c r="C67" s="167"/>
-      <c r="D67" s="190"/>
-      <c r="E67" s="26" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="170"/>
-      <c r="B68" s="189"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="190"/>
-      <c r="E68" s="83" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="170" t="s">
-        <v>256</v>
-      </c>
-      <c r="B69" s="189" t="s">
-        <v>255</v>
-      </c>
-      <c r="C69" s="167"/>
-      <c r="D69" s="190"/>
-      <c r="E69" s="26" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="170"/>
-      <c r="B70" s="189"/>
-      <c r="C70" s="167"/>
-      <c r="D70" s="190"/>
-      <c r="E70" s="83" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="170" t="s">
-        <v>253</v>
-      </c>
-      <c r="B71" s="189" t="s">
-        <v>252</v>
-      </c>
-      <c r="C71" s="167"/>
-      <c r="D71" s="190"/>
-      <c r="E71" s="26" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="170"/>
-      <c r="B72" s="189"/>
-      <c r="C72" s="167"/>
-      <c r="D72" s="190"/>
-      <c r="E72" s="30" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="170"/>
-      <c r="B73" s="189"/>
-      <c r="C73" s="167"/>
-      <c r="D73" s="190"/>
-      <c r="E73" s="24" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="170"/>
-      <c r="B74" s="189"/>
-      <c r="C74" s="167"/>
-      <c r="D74" s="190"/>
-      <c r="E74" s="83" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="170" t="s">
-        <v>248</v>
-      </c>
-      <c r="B75" s="161" t="s">
-        <v>247</v>
-      </c>
-      <c r="C75" s="167"/>
-      <c r="D75" s="190"/>
-      <c r="E75" s="26" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="170"/>
-      <c r="B76" s="161"/>
-      <c r="C76" s="168"/>
-      <c r="D76" s="190"/>
-      <c r="E76" s="83" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="170" t="s">
-        <v>245</v>
-      </c>
-      <c r="B77" s="161" t="s">
-        <v>244</v>
-      </c>
-      <c r="C77" s="170" t="s">
-        <v>243</v>
-      </c>
-      <c r="D77" s="205"/>
-      <c r="E77" s="26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="170"/>
-      <c r="B78" s="161"/>
-      <c r="C78" s="170"/>
-      <c r="D78" s="206"/>
-      <c r="E78" s="30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="170"/>
-      <c r="B79" s="161"/>
-      <c r="C79" s="170"/>
-      <c r="D79" s="206"/>
-      <c r="E79" s="24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="170"/>
-      <c r="B80" s="161"/>
-      <c r="C80" s="170"/>
-      <c r="D80" s="206"/>
-      <c r="E80" s="30" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="170"/>
-      <c r="B81" s="161"/>
-      <c r="C81" s="170"/>
-      <c r="D81" s="206"/>
-      <c r="E81" s="30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="166"/>
-      <c r="B82" s="175"/>
-      <c r="C82" s="166"/>
-      <c r="D82" s="207"/>
-      <c r="E82" s="83" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="170" t="s">
-        <v>237</v>
-      </c>
-      <c r="B83" s="161" t="s">
-        <v>236</v>
-      </c>
-      <c r="C83" s="170" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="188"/>
-      <c r="E83" s="46" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="170"/>
-      <c r="B84" s="161"/>
-      <c r="C84" s="170"/>
-      <c r="D84" s="188"/>
-      <c r="E84" s="24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="170"/>
-      <c r="B85" s="161"/>
-      <c r="C85" s="170"/>
-      <c r="D85" s="188"/>
-      <c r="E85" s="30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="170"/>
-      <c r="B86" s="161"/>
-      <c r="C86" s="170"/>
-      <c r="D86" s="188"/>
-      <c r="E86" s="24" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="170"/>
-      <c r="B87" s="161"/>
-      <c r="C87" s="170"/>
-      <c r="D87" s="188"/>
-      <c r="E87" s="24"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="170"/>
-      <c r="B88" s="161"/>
-      <c r="C88" s="170"/>
-      <c r="D88" s="188"/>
-      <c r="E88" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="170"/>
-      <c r="B89" s="161"/>
-      <c r="C89" s="170"/>
-      <c r="D89" s="188"/>
-      <c r="E89" s="24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="170"/>
-      <c r="B90" s="161"/>
-      <c r="C90" s="170"/>
-      <c r="D90" s="188"/>
-      <c r="E90" s="24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="170"/>
-      <c r="B91" s="161"/>
-      <c r="C91" s="170"/>
-      <c r="D91" s="188"/>
-      <c r="E91" s="24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="170"/>
-      <c r="B92" s="161"/>
-      <c r="C92" s="170"/>
-      <c r="D92" s="188"/>
-      <c r="E92" s="24"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="170"/>
-      <c r="B93" s="161"/>
-      <c r="C93" s="170"/>
-      <c r="D93" s="188"/>
-      <c r="E93" s="24" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="170"/>
-      <c r="B94" s="161"/>
-      <c r="C94" s="170"/>
-      <c r="D94" s="188"/>
-      <c r="E94" s="24" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="170"/>
-      <c r="B95" s="161"/>
-      <c r="C95" s="170"/>
-      <c r="D95" s="188"/>
-      <c r="E95" s="30" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="170"/>
-      <c r="B96" s="161"/>
-      <c r="C96" s="170"/>
-      <c r="D96" s="188"/>
-      <c r="E96" s="83" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="170" t="s">
-        <v>224</v>
-      </c>
-      <c r="B97" s="161" t="s">
-        <v>223</v>
-      </c>
-      <c r="C97" s="170" t="s">
-        <v>127</v>
-      </c>
-      <c r="D97" s="188"/>
-      <c r="E97" s="46" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="170"/>
-      <c r="B98" s="161"/>
-      <c r="C98" s="170"/>
-      <c r="D98" s="188"/>
-      <c r="E98" s="30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="170"/>
-      <c r="B99" s="161"/>
-      <c r="C99" s="170"/>
-      <c r="D99" s="188"/>
-      <c r="E99" s="24" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="170"/>
-      <c r="B100" s="161"/>
-      <c r="C100" s="170"/>
-      <c r="D100" s="188"/>
-      <c r="E100" s="24"/>
-    </row>
-    <row r="101" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="170"/>
-      <c r="B101" s="161"/>
-      <c r="C101" s="170"/>
-      <c r="D101" s="188"/>
-      <c r="E101" s="30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="170"/>
-      <c r="B102" s="161"/>
-      <c r="C102" s="170"/>
-      <c r="D102" s="188"/>
-      <c r="E102" s="30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="170"/>
-      <c r="B103" s="161"/>
-      <c r="C103" s="170"/>
-      <c r="D103" s="188"/>
-      <c r="E103" s="30" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="170"/>
-      <c r="B104" s="161"/>
-      <c r="C104" s="170"/>
-      <c r="D104" s="188"/>
-      <c r="E104" s="24"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="170"/>
-      <c r="B105" s="161"/>
-      <c r="C105" s="170"/>
-      <c r="D105" s="188"/>
-      <c r="E105" s="24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="170"/>
-      <c r="B106" s="161"/>
-      <c r="C106" s="170"/>
-      <c r="D106" s="188"/>
-      <c r="E106" s="24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="170"/>
-      <c r="B107" s="161"/>
-      <c r="C107" s="170"/>
-      <c r="D107" s="188"/>
-      <c r="E107" s="24" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="170"/>
-      <c r="B108" s="161"/>
-      <c r="C108" s="170"/>
-      <c r="D108" s="188"/>
-      <c r="E108" s="83" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="170" t="s">
-        <v>212</v>
-      </c>
-      <c r="B109" s="161" t="s">
-        <v>211</v>
-      </c>
-      <c r="C109" s="170" t="s">
-        <v>210</v>
-      </c>
-      <c r="D109" s="188"/>
-      <c r="E109" s="46" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="170"/>
-      <c r="B110" s="161"/>
-      <c r="C110" s="170"/>
-      <c r="D110" s="188"/>
-      <c r="E110" s="30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="170"/>
-      <c r="B111" s="161"/>
-      <c r="C111" s="170"/>
-      <c r="D111" s="188"/>
-      <c r="E111" s="134" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="170"/>
-      <c r="B112" s="161"/>
-      <c r="C112" s="170"/>
-      <c r="D112" s="188"/>
-      <c r="E112" s="24" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="170"/>
-      <c r="B113" s="161"/>
-      <c r="C113" s="170"/>
-      <c r="D113" s="188"/>
-      <c r="E113" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="170"/>
-      <c r="B114" s="161"/>
-      <c r="C114" s="170"/>
-      <c r="D114" s="188"/>
-      <c r="E114" s="24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="170"/>
-      <c r="B115" s="161"/>
-      <c r="C115" s="170"/>
-      <c r="D115" s="188"/>
-      <c r="E115" s="24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="170"/>
-      <c r="B116" s="161"/>
-      <c r="C116" s="170"/>
-      <c r="D116" s="188"/>
-      <c r="E116" s="24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="170"/>
-      <c r="B117" s="161"/>
-      <c r="C117" s="170"/>
-      <c r="D117" s="188"/>
-      <c r="E117" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="170"/>
-      <c r="B118" s="161"/>
-      <c r="C118" s="170"/>
-      <c r="D118" s="188"/>
-      <c r="E118" s="24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="170"/>
-      <c r="B119" s="161"/>
-      <c r="C119" s="170"/>
-      <c r="D119" s="188"/>
-      <c r="E119" s="83" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="170" t="s">
-        <v>199</v>
-      </c>
-      <c r="B120" s="161" t="s">
-        <v>198</v>
-      </c>
-      <c r="C120" s="170" t="s">
-        <v>197</v>
-      </c>
-      <c r="D120" s="183"/>
-      <c r="E120" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="170"/>
-      <c r="B121" s="161"/>
-      <c r="C121" s="170"/>
-      <c r="D121" s="184"/>
-      <c r="E121" s="89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="170"/>
-      <c r="B122" s="161"/>
-      <c r="C122" s="170"/>
-      <c r="D122" s="184"/>
-      <c r="E122" s="30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="170"/>
-      <c r="B123" s="161"/>
-      <c r="C123" s="170"/>
-      <c r="D123" s="184"/>
-      <c r="E123" s="89" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="170"/>
-      <c r="B124" s="161"/>
-      <c r="C124" s="170"/>
-      <c r="D124" s="184"/>
-      <c r="E124" s="24"/>
-    </row>
-    <row r="125" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="170"/>
-      <c r="B125" s="161"/>
-      <c r="C125" s="170"/>
-      <c r="D125" s="184"/>
-      <c r="E125" s="30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="170"/>
-      <c r="B126" s="161"/>
-      <c r="C126" s="170"/>
-      <c r="D126" s="184"/>
-      <c r="E126" s="89" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="170"/>
-      <c r="B127" s="161"/>
-      <c r="C127" s="170"/>
-      <c r="D127" s="184"/>
-      <c r="E127" s="30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="170"/>
-      <c r="B128" s="161"/>
-      <c r="C128" s="170"/>
-      <c r="D128" s="184"/>
-      <c r="E128" s="89" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="170"/>
-      <c r="B129" s="161"/>
-      <c r="C129" s="170"/>
-      <c r="D129" s="184"/>
-      <c r="E129" s="24"/>
-    </row>
-    <row r="130" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A130" s="170"/>
-      <c r="B130" s="161"/>
-      <c r="C130" s="170"/>
-      <c r="D130" s="184"/>
-      <c r="E130" s="30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="170"/>
-      <c r="B131" s="161"/>
-      <c r="C131" s="170"/>
-      <c r="D131" s="184"/>
-      <c r="E131" s="30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="166"/>
-      <c r="B132" s="175"/>
-      <c r="C132" s="166"/>
-      <c r="D132" s="184"/>
-      <c r="E132" s="83" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="170" t="s">
-        <v>185</v>
-      </c>
-      <c r="B133" s="161" t="s">
-        <v>184</v>
-      </c>
-      <c r="C133" s="185">
-        <v>3500</v>
-      </c>
-      <c r="D133" s="186"/>
-      <c r="E133" s="46" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="170"/>
-      <c r="B134" s="161"/>
-      <c r="C134" s="185"/>
-      <c r="D134" s="187"/>
-      <c r="E134" s="83" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A135" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D135" s="63"/>
-      <c r="E135" s="26"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="202" t="s">
-        <v>179</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C136" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="D136" s="107"/>
-      <c r="E136" s="5"/>
-    </row>
-    <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="203"/>
-      <c r="B137" s="161" t="s">
-        <v>177</v>
-      </c>
-      <c r="C137" s="130">
-        <v>2000</v>
-      </c>
-      <c r="D137" s="201">
-        <f>IF(NOT(ISNUMBER(D136)),0,D136*C137)</f>
-        <v>0</v>
-      </c>
-      <c r="E137" s="26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="204"/>
-      <c r="B138" s="161"/>
-      <c r="C138" s="133" t="s">
-        <v>505</v>
-      </c>
-      <c r="D138" s="201"/>
-      <c r="E138" s="83" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="217" t="s">
-        <v>398</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C139" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="D139" s="108"/>
-      <c r="E139" s="89"/>
-    </row>
-    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="218"/>
-      <c r="B140" s="171" t="s">
-        <v>174</v>
-      </c>
-      <c r="C140" s="130">
-        <v>2000</v>
-      </c>
-      <c r="D140" s="201">
-        <f>IF(NOT(ISNUMBER(D139)),0,D139*C140)</f>
-        <v>0</v>
-      </c>
-      <c r="E140" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="218"/>
-      <c r="B141" s="215"/>
-      <c r="C141" s="133" t="s">
-        <v>505</v>
-      </c>
-      <c r="D141" s="216"/>
-      <c r="E141" s="84" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="129" t="s">
-        <v>171</v>
-      </c>
-      <c r="B142" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="C142" s="61"/>
-      <c r="D142" s="60"/>
-      <c r="E142" s="85" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="219" t="s">
-        <v>399</v>
-      </c>
-      <c r="B143" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="C143" s="137" t="s">
-        <v>160</v>
-      </c>
-      <c r="D143" s="109"/>
-      <c r="E143" s="90"/>
-    </row>
-    <row r="144" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="218"/>
-      <c r="B144" s="210" t="s">
-        <v>169</v>
-      </c>
-      <c r="C144" s="130"/>
-      <c r="D144" s="208">
-        <f>IF(NOT(ISNUMBER(D143)),0,D143*C145)</f>
-        <v>0</v>
-      </c>
-      <c r="E144" s="30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="218"/>
-      <c r="B145" s="210"/>
-      <c r="C145" s="132">
-        <v>8000</v>
-      </c>
-      <c r="D145" s="208"/>
-      <c r="E145" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="218"/>
-      <c r="B146" s="210"/>
-      <c r="C146" s="132" t="s">
-        <v>505</v>
-      </c>
-      <c r="D146" s="208"/>
-      <c r="E146" s="30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="218"/>
-      <c r="B147" s="210"/>
-      <c r="C147" s="135"/>
-      <c r="D147" s="208"/>
-      <c r="E147" s="30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="220"/>
-      <c r="B148" s="210"/>
-      <c r="C148" s="136"/>
-      <c r="D148" s="208"/>
-      <c r="E148" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="217" t="s">
-        <v>400</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D149" s="107"/>
-      <c r="E149" s="89"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="221"/>
-      <c r="B150" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="C150" s="57">
-        <v>6000</v>
-      </c>
-      <c r="D150" s="56">
-        <f>IF(NOT(ISNUMBER(D149)),0,D149*C150)</f>
-        <v>0</v>
-      </c>
-      <c r="E150" s="91" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="199" t="s">
-        <v>401</v>
-      </c>
-      <c r="B151" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="C151" s="131" t="str">
-        <f>IF(D149="", "Maximum of X", "Maximum of " &amp; D149)</f>
-        <v>Maximum of X</v>
-      </c>
-      <c r="D151" s="110"/>
-      <c r="E151" s="32" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="167"/>
-      <c r="B152" s="209" t="s">
-        <v>159</v>
-      </c>
-      <c r="C152" s="130"/>
-      <c r="D152" s="212">
-        <f>IF(OR(NOT(OR(ISNUMBER(D151),ISNUMBER(D149))),D149=0),0,D151*C153)</f>
-        <v>0</v>
-      </c>
-      <c r="E152" s="30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="167"/>
-      <c r="B153" s="210"/>
-      <c r="C153" s="132">
-        <v>8000</v>
-      </c>
-      <c r="D153" s="212"/>
-      <c r="E153" s="30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="167"/>
-      <c r="B154" s="210"/>
-      <c r="C154" s="132" t="s">
-        <v>505</v>
-      </c>
-      <c r="D154" s="212"/>
-      <c r="E154" s="24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="167"/>
-      <c r="B155" s="210"/>
-      <c r="C155" s="135"/>
-      <c r="D155" s="212"/>
-      <c r="E155" s="30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="167"/>
-      <c r="B156" s="210"/>
-      <c r="C156" s="135"/>
-      <c r="D156" s="213"/>
-      <c r="E156" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="168"/>
-      <c r="B157" s="211"/>
-      <c r="C157" s="136"/>
-      <c r="D157" s="214"/>
-      <c r="E157" s="83" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="170" t="s">
-        <v>152</v>
-      </c>
-      <c r="B158" s="161" t="s">
-        <v>151</v>
-      </c>
-      <c r="C158" s="170" t="s">
-        <v>150</v>
-      </c>
-      <c r="D158" s="162"/>
-      <c r="E158" s="26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="170"/>
-      <c r="B159" s="161"/>
-      <c r="C159" s="170"/>
-      <c r="D159" s="162"/>
-      <c r="E159" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="170"/>
-      <c r="B160" s="161"/>
-      <c r="C160" s="170"/>
-      <c r="D160" s="162"/>
-      <c r="E160" s="24"/>
-    </row>
-    <row r="161" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="170"/>
-      <c r="B161" s="161"/>
-      <c r="C161" s="170"/>
-      <c r="D161" s="162"/>
-      <c r="E161" s="30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="170"/>
-      <c r="B162" s="161"/>
-      <c r="C162" s="170"/>
-      <c r="D162" s="162"/>
-      <c r="E162" s="24"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="170"/>
-      <c r="B163" s="161"/>
-      <c r="C163" s="170"/>
-      <c r="D163" s="162"/>
-      <c r="E163" s="24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="170"/>
-      <c r="B164" s="161"/>
-      <c r="C164" s="170"/>
-      <c r="D164" s="162"/>
-      <c r="E164" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="170"/>
-      <c r="B165" s="161"/>
-      <c r="C165" s="170"/>
-      <c r="D165" s="162"/>
-      <c r="E165" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="170"/>
-      <c r="B166" s="161"/>
-      <c r="C166" s="170"/>
-      <c r="D166" s="162"/>
-      <c r="E166" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="170"/>
-      <c r="B167" s="161"/>
-      <c r="C167" s="170"/>
-      <c r="D167" s="162"/>
-      <c r="E167" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A168" s="170"/>
-      <c r="B168" s="161"/>
-      <c r="C168" s="170"/>
-      <c r="D168" s="162"/>
-      <c r="E168" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="170"/>
-      <c r="B169" s="161"/>
-      <c r="C169" s="170"/>
-      <c r="D169" s="162"/>
-      <c r="E169" s="24"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="170"/>
-      <c r="B170" s="161"/>
-      <c r="C170" s="170"/>
-      <c r="D170" s="162"/>
-      <c r="E170" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="170"/>
-      <c r="B171" s="161"/>
-      <c r="C171" s="170"/>
-      <c r="D171" s="162"/>
-      <c r="E171" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="170"/>
-      <c r="B172" s="161"/>
-      <c r="C172" s="170"/>
-      <c r="D172" s="162"/>
-      <c r="E172" s="32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="233" t="s">
-        <v>137</v>
-      </c>
-      <c r="B173" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="C173" s="230" t="s">
-        <v>127</v>
-      </c>
-      <c r="D173" s="163"/>
-      <c r="E173" s="46" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="191"/>
-      <c r="B174" s="193"/>
-      <c r="C174" s="231"/>
-      <c r="D174" s="164"/>
-      <c r="E174" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="191"/>
-      <c r="B175" s="193"/>
-      <c r="C175" s="231"/>
-      <c r="D175" s="164"/>
-      <c r="E175" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="191"/>
-      <c r="B176" s="193"/>
-      <c r="C176" s="231"/>
-      <c r="D176" s="164"/>
-      <c r="E176" s="89" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="191"/>
-      <c r="B177" s="193"/>
-      <c r="C177" s="231"/>
-      <c r="D177" s="164"/>
-      <c r="E177" s="89" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="234"/>
-      <c r="B178" s="225"/>
-      <c r="C178" s="232"/>
-      <c r="D178" s="165"/>
-      <c r="E178" s="83" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="226" t="s">
-        <v>129</v>
-      </c>
-      <c r="B179" s="224" t="s">
-        <v>128</v>
-      </c>
-      <c r="C179" s="226" t="s">
-        <v>127</v>
-      </c>
-      <c r="D179" s="235"/>
-      <c r="E179" s="26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="191"/>
-      <c r="B180" s="193"/>
-      <c r="C180" s="191"/>
-      <c r="D180" s="195"/>
-      <c r="E180" s="24"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="191"/>
-      <c r="B181" s="193"/>
-      <c r="C181" s="191"/>
-      <c r="D181" s="195"/>
-      <c r="E181" s="24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="191"/>
-      <c r="B182" s="193"/>
-      <c r="C182" s="191"/>
-      <c r="D182" s="195"/>
-      <c r="E182" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="191"/>
-      <c r="B183" s="193"/>
-      <c r="C183" s="191"/>
-      <c r="D183" s="195"/>
-      <c r="E183" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="191"/>
-      <c r="B184" s="193"/>
-      <c r="C184" s="191"/>
-      <c r="D184" s="195"/>
-      <c r="E184" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="191"/>
-      <c r="B185" s="193"/>
-      <c r="C185" s="191"/>
-      <c r="D185" s="195"/>
-      <c r="E185" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="191"/>
-      <c r="B186" s="193"/>
-      <c r="C186" s="191"/>
-      <c r="D186" s="195"/>
-      <c r="E186" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="191"/>
-      <c r="B187" s="193"/>
-      <c r="C187" s="191"/>
-      <c r="D187" s="195"/>
-      <c r="E187" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="191"/>
-      <c r="B188" s="193"/>
-      <c r="C188" s="191"/>
-      <c r="D188" s="195"/>
-      <c r="E188" s="30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="191"/>
-      <c r="B189" s="193"/>
-      <c r="C189" s="191"/>
-      <c r="D189" s="195"/>
-      <c r="E189" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A190" s="191"/>
-      <c r="B190" s="193"/>
-      <c r="C190" s="191"/>
-      <c r="D190" s="195"/>
-      <c r="E190" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="191"/>
-      <c r="B191" s="193"/>
-      <c r="C191" s="191"/>
-      <c r="D191" s="195"/>
-      <c r="E191" s="30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="191"/>
-      <c r="B192" s="193"/>
-      <c r="C192" s="191"/>
-      <c r="D192" s="195"/>
-      <c r="E192" s="24"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="191"/>
-      <c r="B193" s="193"/>
-      <c r="C193" s="191"/>
-      <c r="D193" s="195"/>
-      <c r="E193" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="191"/>
-      <c r="B194" s="193"/>
-      <c r="C194" s="191"/>
-      <c r="D194" s="195"/>
-      <c r="E194" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="191"/>
-      <c r="B195" s="193"/>
-      <c r="C195" s="191"/>
-      <c r="D195" s="195"/>
-      <c r="E195" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A196" s="191"/>
-      <c r="B196" s="193"/>
-      <c r="C196" s="191"/>
-      <c r="D196" s="195"/>
-      <c r="E196" s="30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="191"/>
-      <c r="B197" s="193"/>
-      <c r="C197" s="191"/>
-      <c r="D197" s="195"/>
-      <c r="E197" s="30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A198" s="191"/>
-      <c r="B198" s="193"/>
-      <c r="C198" s="191"/>
-      <c r="D198" s="195"/>
-      <c r="E198" s="30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A199" s="191"/>
-      <c r="B199" s="193"/>
-      <c r="C199" s="191"/>
-      <c r="D199" s="195"/>
-      <c r="E199" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="191"/>
-      <c r="B200" s="193"/>
-      <c r="C200" s="191"/>
-      <c r="D200" s="195"/>
-      <c r="E200" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="191"/>
-      <c r="B201" s="193"/>
-      <c r="C201" s="191"/>
-      <c r="D201" s="195"/>
-      <c r="E201" s="24"/>
-    </row>
-    <row r="202" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A202" s="191"/>
-      <c r="B202" s="193"/>
-      <c r="C202" s="191"/>
-      <c r="D202" s="195"/>
-      <c r="E202" s="30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="234"/>
-      <c r="B203" s="225"/>
-      <c r="C203" s="234"/>
-      <c r="D203" s="236"/>
-      <c r="E203" s="83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A204" s="226" t="s">
-        <v>104</v>
-      </c>
-      <c r="B204" s="224" t="s">
-        <v>103</v>
-      </c>
-      <c r="C204" s="228" t="s">
-        <v>102</v>
-      </c>
-      <c r="D204" s="162"/>
-      <c r="E204" s="26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="227"/>
-      <c r="B205" s="225"/>
-      <c r="C205" s="229"/>
-      <c r="D205" s="162"/>
-      <c r="E205" s="83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="170" t="s">
-        <v>99</v>
-      </c>
-      <c r="B206" s="222" t="s">
-        <v>98</v>
-      </c>
-      <c r="C206" s="170" t="s">
-        <v>97</v>
-      </c>
-      <c r="D206" s="162"/>
-      <c r="E206" s="26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="170"/>
-      <c r="B207" s="223"/>
-      <c r="C207" s="170"/>
-      <c r="D207" s="162"/>
-      <c r="E207" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="170"/>
-      <c r="B208" s="223"/>
-      <c r="C208" s="170"/>
-      <c r="D208" s="162"/>
-      <c r="E208" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A209" s="170"/>
-      <c r="B209" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C209" s="170"/>
-      <c r="D209" s="162"/>
-      <c r="E209" s="83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E210" s="1"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C211" s="53"/>
-      <c r="D211" s="52">
-        <f>IF(COUNTA(D5:D19,D21:D30,D32:D64,D66:D134,D136,D139,D143,D149,D151,D158:D209)=0,0,SUM(D5:D19,D31:D50,D65:D134,D137,D140,D144,D150,D152:D209))</f>
-        <v>9000</v>
-      </c>
-      <c r="E211" s="12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212"/>
+      <c r="E224" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225"/>
     </row>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="B206:B208"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="D206:D209"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D173:D178"/>
-    <mergeCell ref="C173:C178"/>
-    <mergeCell ref="B173:B178"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="C179:C203"/>
-    <mergeCell ref="B179:B203"/>
-    <mergeCell ref="A179:A203"/>
-    <mergeCell ref="D179:D203"/>
-    <mergeCell ref="A158:A172"/>
-    <mergeCell ref="D158:D172"/>
-    <mergeCell ref="D144:D148"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="D152:D157"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="C158:C172"/>
-    <mergeCell ref="B158:B172"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A151:A157"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="D83:D96"/>
-    <mergeCell ref="A83:A96"/>
-    <mergeCell ref="B83:B96"/>
-    <mergeCell ref="C83:C96"/>
-    <mergeCell ref="B97:B108"/>
-    <mergeCell ref="C120:C132"/>
-    <mergeCell ref="B120:B132"/>
-    <mergeCell ref="A7:A19"/>
-    <mergeCell ref="B7:B19"/>
-    <mergeCell ref="C7:C19"/>
-    <mergeCell ref="D7:D19"/>
+  <mergeCells count="123">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="A157:A171"/>
+    <mergeCell ref="B157:B171"/>
+    <mergeCell ref="C157:C171"/>
+    <mergeCell ref="D157:D171"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="C219:C222"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="A219:A222"/>
+    <mergeCell ref="D219:D222"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D184:D189"/>
+    <mergeCell ref="C184:C189"/>
+    <mergeCell ref="B184:B189"/>
+    <mergeCell ref="A184:A189"/>
+    <mergeCell ref="C190:C214"/>
+    <mergeCell ref="B190:B214"/>
+    <mergeCell ref="A190:A214"/>
+    <mergeCell ref="D190:D214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="A172:A183"/>
+    <mergeCell ref="D172:D183"/>
+    <mergeCell ref="D143:D147"/>
+    <mergeCell ref="B151:B156"/>
+    <mergeCell ref="D151:D156"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="C172:C183"/>
+    <mergeCell ref="B172:B183"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A156"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="D46:D53"/>
+    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="A72:A77"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="D72:D77"/>
+    <mergeCell ref="D82:D95"/>
+    <mergeCell ref="A82:A95"/>
+    <mergeCell ref="B82:B95"/>
+    <mergeCell ref="C82:C95"/>
+    <mergeCell ref="B96:B107"/>
+    <mergeCell ref="C119:C131"/>
+    <mergeCell ref="B119:B131"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="D9:D21"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="D44:D50"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="C66:C76"/>
-    <mergeCell ref="D66:D76"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="A120:A132"/>
-    <mergeCell ref="D120:D132"/>
-    <mergeCell ref="A97:A108"/>
-    <mergeCell ref="C97:C108"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="C109:C119"/>
-    <mergeCell ref="B109:B119"/>
-    <mergeCell ref="A109:A119"/>
-    <mergeCell ref="D109:D119"/>
-    <mergeCell ref="D97:D108"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D22:D30"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="C22:C30"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="C61:C71"/>
+    <mergeCell ref="D61:D71"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A119:A131"/>
+    <mergeCell ref="D119:D131"/>
+    <mergeCell ref="A96:A107"/>
+    <mergeCell ref="C96:C107"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C108:C118"/>
+    <mergeCell ref="B108:B118"/>
+    <mergeCell ref="A108:A118"/>
+    <mergeCell ref="D108:D118"/>
+    <mergeCell ref="D96:D107"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="24" priority="26">
-      <formula>AND(OR($D$21&gt;0,$D$26&gt;0), $D$7="")</formula>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="19" priority="23">
+      <formula>COUNTA(D42:D59)=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="between">
+      <formula>0</formula>
+      <formula>5999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+      <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="23" priority="27">
-      <formula>AND($D$7&gt;0,AND($D$21="",OR($D$26="",$D$26=0)))</formula>
+  <conditionalFormatting sqref="D136:D137">
+    <cfRule type="expression" dxfId="16" priority="21" stopIfTrue="1">
+      <formula>NOT(ISNUMBER(D135))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="22">
+      <formula>ISNUMBER($D$136)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D30">
-    <cfRule type="expression" dxfId="22" priority="4">
-      <formula>AND($D$7&gt;0,AND(OR($D$21="",$D$21=0),$D$26=""))</formula>
+  <conditionalFormatting sqref="D138:D140">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>AND($D$142&gt;0,$D$138="")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="21" priority="1">
-      <formula>$D$7&gt;0</formula>
+  <conditionalFormatting sqref="D139:D140">
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>NOT(ISNUMBER(D138))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
-      <formula>NOT(OR(ISNUMBER(D21),ISNUMBER(D26)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="18" priority="23">
-      <formula>COUNTA(D51:D64)=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="between">
-      <formula>0</formula>
-      <formula>5999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
-      <formula>6000</formula>
+  <conditionalFormatting sqref="D142:D147">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>AND($D$138&gt;0,$D$142="")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D137:D138">
-    <cfRule type="expression" dxfId="15" priority="21" stopIfTrue="1">
-      <formula>NOT(ISNUMBER(D136))</formula>
+  <conditionalFormatting sqref="D143:D147">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>NOT(ISNUMBER(D142))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="22">
-      <formula>ISNUMBER($D$137)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D139:D141">
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>AND($D$143&gt;0,$D$139="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D140:D141">
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>NOT(ISNUMBER(D139))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D143:D148">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>AND($D$139&gt;0,$D$143="")</formula>
+  <conditionalFormatting sqref="D149">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>NOT(ISNUMBER(D148))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D144:D148">
-    <cfRule type="expression" dxfId="9" priority="14">
-      <formula>NOT(ISNUMBER(D143))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150">
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>NOT(ISNUMBER(D149))</formula>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>AND($D$148&lt;1,$D$150="")</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThanOrEqual">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D151:D156">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>AND($D$148&lt;1,$D$151=0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>NOT(ISNUMBER(D150))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D151">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>AND($D$149&lt;1,$D$151="")</formula>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="2" priority="50">
+      <formula>AND(OR(#REF!&gt;0,#REF!&gt;0), $D$9="")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D152:D157">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND($D$149&lt;1,$D$152=0)</formula>
+  <conditionalFormatting sqref="D224">
+    <cfRule type="expression" dxfId="1" priority="51">
+      <formula>COUNTA(D5:D21,#REF!,D22:D59,D61:D133,D135,D138,D142,D148,D150,D172:D222)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>NOT(ISNUMBER(D151))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="52" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D211">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>COUNTA(D5:D19,D21:D30,D32:D64,D66:D134,D136,D139,D143,D149,D151,D158:D209)=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations xWindow="901" yWindow="454" count="35">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J13" xr:uid="{FBBD83D9-2B7F-4586-89D7-39F738251D16}">
-      <formula1>_xlfn.FORMULATEXT(J13)</formula1>
+  <dataValidations xWindow="901" yWindow="454" count="34">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15" xr:uid="{7C5F2CC9-69A1-48F9-827C-64E5131B3870}">
+      <formula1>_xlfn.FORMULATEXT(J15)</formula1>
     </dataValidation>
-    <dataValidation type="custom" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data, Number or Ineligible" error="The input data or number is invalid, or you may be ineligible to claim this relief. _x000a__x000a_Please ensure that F14c(i) has a number first. Then input an integer from 0 until the maximum allowed number of children of Item F14c(i)." promptTitle="Item F14c(ii)" prompt="Input the number of child._x000a__x000a_Note that you will only be allowed to input when you have at least 1 or more child stated in F14c(i) and is limited to F14c(i). _x000a__x000a_Please delete this number using the DEL key if you delete the number in F14c(i) using DEL key." sqref="D151" xr:uid="{3DFA551A-8B40-4302-953A-F70FF1143966}">
-      <formula1>AND(D151&lt;=D149, INT(D151)=D151, D149 &lt;&gt; "", D151 &gt;=0)</formula1>
+    <dataValidation type="custom" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data, Number or Ineligible" error="The input data or number is invalid, or you may be ineligible to claim this relief. _x000a__x000a_Please ensure that F14c(i) has a number first. Then input an integer from 0 until the maximum allowed number of children of Item F14c(i)." promptTitle="Item F14c(ii)" prompt="Input the number of child._x000a__x000a_Note that you will only be allowed to input when you have at least 1 or more child stated in F14c(i) and is limited to F14c(i). _x000a__x000a_Please delete this number using the DEL key if you delete the number in F14c(i) using DEL key." sqref="D150" xr:uid="{3A1DFD7E-F389-40FB-885B-08AC3E3023AD}">
+      <formula1>AND(D150&lt;=D148, INT(D150)=D150, D148 &lt;&gt; "", D150 &gt;=0)</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 2500 only." promptTitle="Item F8b" prompt="Input a postive integer from 0 to 2500." sqref="D77:D82" xr:uid="{CEFFC45F-A4A7-4F38-956D-1C25C9B18D9F}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 2500 only." promptTitle="Item F8b" prompt="Input a postive integer from 0 to 2500." sqref="D72:D77" xr:uid="{A9AF56AF-3AFA-42D7-ABD8-D3FF806798BB}">
       <formula1>0</formula1>
       <formula2>2500</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Select 9000 from the dropdown list or input an amount of 9000 only._x000a_" promptTitle="Item F1" prompt="9000 is automatically granted for this relief." sqref="D5:D6" xr:uid="{544B957D-93C5-4971-812B-855CCEB2E7AA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Select 9000 from the dropdown list or input an amount of 9000 only._x000a_" promptTitle="Item F1" prompt="9000 is automatically granted for this relief." sqref="D5:D6" xr:uid="{A5B4F2B0-FCF7-4CA3-A6EA-28013BD38BA9}">
       <formula1>"9000"</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data, Number or Ineligible" error="The input data or number is invalid, or you may be ineligible to claim this relief. _x000a__x000a_Note that if you claimed the relief of Item F14b(i), you are not ineligible to claim this relief, else input a integer starting from 0." promptTitle="Item 14b(ii)" prompt="Input the number of child._x000a__x000a_By selecting this relief, you will not be eligible to claim relief of Item F14b(i)._x000a__x000a_If you have already claimed relief of Item F14b(i), you will not be eligible to claim this relief." sqref="D143" xr:uid="{7194678A-8374-4671-8CBD-7E2DCCC9F68E}">
-      <formula1>AND(OR(D139="",D139=0), D143&gt;=0, INT(D143)=D143)</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data, Number or Ineligible" error="The input data or number is invalid, or you may be ineligible to claim this relief. _x000a__x000a_Note that if you claimed the relief of Item F14b(i), you are not ineligible to claim this relief, else input a integer starting from 0." promptTitle="Item 14b(ii)" prompt="Input the number of child._x000a__x000a_By selecting this relief, you will not be eligible to claim relief of Item F14b(i)._x000a__x000a_If you have already claimed relief of Item F14b(i), you will not be eligible to claim this relief." sqref="D142" xr:uid="{B5717253-5AB1-4FFB-B228-A957B1E73A0E}">
+      <formula1>AND(OR(D138="",D138=0), D142&gt;=0, INT(D142)=D142)</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data, Number or Ineligible" error="The input data or number is invalid, or you may be ineligible to claim this relief. _x000a__x000a_Note that if you claimed the relief of Item F14b(ii), you are not ineligible to claim this relief, else input a integer from 0." promptTitle="Item 14b(i)" prompt="Input the number of child._x000a__x000a_By selecting this relief, you will not be eligible to claim relief of Item F14b(ii)._x000a__x000a_If you have already claimed relief of Item F14b(ii), you will not be eligible to claim this relief." sqref="D139" xr:uid="{E0A11A97-DA74-416C-A02E-2FE35BB98F1A}">
-      <formula1>AND(OR(D143="",D143=0), D139&gt;=0, INT(D139)=D139)</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data, Number or Ineligible" error="The input data or number is invalid, or you may be ineligible to claim this relief. _x000a__x000a_Note that if you claimed the relief of Item F14b(ii), you are not ineligible to claim this relief, else input a integer from 0." promptTitle="Item 14b(i)" prompt="Input the number of child._x000a__x000a_By selecting this relief, you will not be eligible to claim relief of Item F14b(ii)._x000a__x000a_If you have already claimed relief of Item F14b(ii), you will not be eligible to claim this relief." sqref="D138" xr:uid="{C40F2F4B-308D-4FDC-91F4-4A1E138036BE}">
+      <formula1>AND(OR(D142="",D142=0), D138&gt;=0, INT(D138)=D138)</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data, Amount or Ineligible" error="The input data or amount is invalid, or you may be ineligible to claim this relief. _x000a__x000a_Note that if you claimed the relief of Item F2b, you are not ineligible to claim this relief, else input an integer from 0 to 5000 only." promptTitle="Item F2a" prompt="Input a positve integer from 0 to 5000. _x000a__x000a_By selecting this relief, you will not be eligible to claim relief of Item F2b._x000a__x000a_If you have already claimed relief of Item F2b, you will not be eligible to claim this relief." sqref="D7:D19" xr:uid="{4FD1EE38-E35C-47CF-84EF-83080CA155FC}">
-      <formula1>AND(OR(D21="",D21=0), OR(D26="",D26=0), AND(D7&gt;=0, D7 &lt;= 5000), INT(D7)=D7)</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 250 only." promptTitle="Item F18" prompt="Input a postive integer from 0 to 250." sqref="D204:D205" xr:uid="{F493B895-EE54-4C18-BF15-C689A7FAFC5D}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 250 only." promptTitle="Item F18" prompt="Input a postive integer from 0 to 250." sqref="D215:D218" xr:uid="{6B3CA021-B44D-4555-83CC-D39A799FE2DA}">
       <formula1>0</formula1>
       <formula2>250</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Select 0 or 3500 from the dropdown list or input an amount of 0 or 3500 only." promptTitle="Item F13" prompt="Select 0 or 3500 from the dropdown list or input an amount of 0 or 3500 only." sqref="D133:D134" xr:uid="{ED8F1F12-A0A7-4473-9302-1CFD771A0763}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Select 0 or 3500 from the dropdown list or input an amount of 0 or 3500 only." promptTitle="Item F13" prompt="Select 0 or 3500 from the dropdown list or input an amount of 0 or 3500 only." sqref="D132:D133" xr:uid="{9BFD1E6F-E118-434A-B593-162257B2784C}">
       <formula1>"0,3500"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 4000 only." promptTitle="Item F12" prompt="Input a postive integer from 0 to 4000." sqref="D120:D132" xr:uid="{E3C14485-E376-4332-A09C-81A33BEB5B93}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 4000 only." promptTitle="Item F12" prompt="Input a postive integer from 0 to 4000." sqref="D119:D131" xr:uid="{1864CF51-9F7F-491C-8B7A-D47CDC8B5667}">
       <formula1>0</formula1>
       <formula2>4000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 8000 only." promptTitle="Item F11" prompt="Input a postive integer from 0 to 8000." sqref="D109:D119" xr:uid="{AC8FD631-2F8C-460A-B69B-1535366CF3BB}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 8000 only." promptTitle="Item F11" prompt="Input a postive integer from 0 to 8000." sqref="D108:D118" xr:uid="{1C9F3DC4-0E4A-4D82-A198-BEC6CE27DF85}">
       <formula1>0</formula1>
       <formula2>8000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 3000 only." promptTitle="Item F17" prompt="Input a postive integer from 0 to 3000." sqref="D179:D203" xr:uid="{1CAB1B5B-5A58-4BDF-9725-0AD4F3FF6C20}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 3000 only." promptTitle="Item F17" prompt="Input a postive integer from 0 to 3000." sqref="D190:D214" xr:uid="{7AE8EEB4-F50A-411F-95F5-720A6F5CD67E}">
       <formula1>0</formula1>
       <formula2>3000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 1000 only." promptTitle="Item F19" prompt="Input a postive integer from 0 to 1000." sqref="D206:D209" xr:uid="{54993419-B068-4CC0-A152-B808B93072A5}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 1000 only." promptTitle="Item F19" prompt="Input a postive integer from 0 to 1000." sqref="D219:D222" xr:uid="{3DDEB6F9-5C35-4D10-B212-2B1AEC941754}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 500 only." promptTitle="Item F7" prompt="Input a positve integer from 0 to 500._x000a__x000a_Note that the sum of relief of Item F6a, F6b and F6c are limited to 6000 only." sqref="D63:D64" xr:uid="{22C5BD70-3806-415B-A446-3A7E96081C51}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 500 only." promptTitle="Item F7" prompt="Input a positve integer from 0 to 500._x000a__x000a_Note that the sum of relief of Item F6a, F6b and F6c are limited to 6000 only." sqref="D54:D59" xr:uid="{EA271966-D6D2-4910-A74F-FC68B8F06897}">
       <formula1>0</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Number" error="The input data or number of children is invalid. _x000a__x000a_Please input an integer from 0 to the number of child you have." promptTitle="Item F14a" prompt="Input the number of child." sqref="D136" xr:uid="{F9BE8964-55A8-463C-B04C-87D5FC7370B3}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Number" error="The input data or number of children is invalid. _x000a__x000a_Please input an integer from 0 to the number of child you have." promptTitle="Item F14a" prompt="Input the number of child." sqref="D135" xr:uid="{44A22508-84A8-4F7F-A063-FC130B8F4C2D}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 7000 only." promptTitle="Item F15" prompt="Input a postive integer from 0 to 7000." sqref="D158:D172" xr:uid="{E39D4BA1-0729-4493-89FB-901DF37164CE}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Select 0 or 6000 from the dropdown list or input an amount of 0 or 6000 only." promptTitle="Item F4" prompt="Select 0 or 6000 from the dropdown list or input an amount of 0 or 6000 only." sqref="D31:D33" xr:uid="{EBA829F6-CE54-4CAD-98F2-E66D5BB05411}">
+      <formula1>"0,6000"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount " error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 6000 only." promptTitle="Item F3" prompt="Input a positve integer from 0 to 6000." sqref="D22:D30" xr:uid="{6D2F70B9-4CDC-421F-89C5-7A1F483DF920}">
+      <formula1>0</formula1>
+      <formula2>6000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Number" error="The input data or number is invalid, or you have not deleted the value in Item F14c(ii)._x000a__x000a_Delete the value in F14c(ii) and input an integer starting from 0, or input an integer equal/larger than F14c(ii) if value not deleted." promptTitle="Item F14c(i)" prompt="Input the number of child._x000a__x000a_By selecting this relief, you may be eligible for additional relief of Item F14c(ii) if your child(ren) satisfy the conditons._x000a__x000a_If you have deleted this number using DEL key, please delete the number in F14c(ii) using DEL key." sqref="D148" xr:uid="{66E61253-2A1F-4AB6-8891-C6CC3F4A1B19}">
+      <formula1>D150</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 7000 only." promptTitle="Item F5" prompt="Input a positve integer from 0 to 7000." sqref="D34:D41" xr:uid="{2E720DF1-B83B-40BA-A955-71EF6C7A05DB}">
       <formula1>0</formula1>
       <formula2>7000</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Select 0 or 6000 from the dropdown list or input an amount of 0 or 6000 only." promptTitle="Item F4" prompt="Select 0 or 6000 from the dropdown list or input an amount of 0 or 6000 only." sqref="D41:D43" xr:uid="{9F87DCC6-0F38-43E4-A579-90EF0FC2B2CF}">
-      <formula1>"0,6000"</formula1>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to the amount of the medical expenses." promptTitle="Item F6a" prompt="Input a positve integer from 0 to the amount of the medical expenses._x000a__x000a_Note that the sum of relief of Item F6a, F6b and F7 are limited to 6000 only." sqref="D42:D45" xr:uid="{87AC4D3D-7DEF-4A41-9F37-87320B6C78D8}">
+      <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount " error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 6000 only." promptTitle="Item F3" prompt="Input a positve integer from 0 to 6000." sqref="D32:D40" xr:uid="{17D641CA-ED3D-4984-8799-544352F49E89}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to the amount of the medical expenses." promptTitle="Item F6b" prompt="Input a positve integer from 0 to the amount of the medical expenses._x000a__x000a_Note that the sum of relief of Item F6a, F6b and F7 are limited to 6000 only." sqref="D46:D53" xr:uid="{A74C8DD6-AB5A-48F2-B833-60A69A380128}">
       <formula1>0</formula1>
-      <formula2>6000</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Number" error="The input data or number is invalid, or you have not deleted the value in Item F14c(ii)._x000a__x000a_Delete the value in F14c(ii) and input an integer starting from 0, or input an integer equal/larger than F14c(ii) if value not deleted." promptTitle="Item F14c(i)" prompt="Input the number of child._x000a__x000a_By selecting this relief, you may be eligible for additional relief of Item F14c(ii) if your child(ren) satisfy the conditons._x000a__x000a_If you have deleted this number using DEL key, please delete the number in F14c(ii) using DEL key." sqref="D149" xr:uid="{AAC9E0F0-C985-4A82-8075-C381AAC3E92B}">
-      <formula1>D151</formula1>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 2500 only." promptTitle="Item F8a (i), (ii), (iii), (iv)" prompt="Input a postive integer from 0 to 2500." sqref="D61:D71 D78" xr:uid="{08F96E9A-735B-4D76-A620-2D8202D6D4CA}">
+      <formula1>0</formula1>
+      <formula2>2500</formula2>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data, Amount or Ineligible" error="The input data or amount is invalid, or you may be ineligible to claim this relief. _x000a__x000a_Note that if you claimed the relief of Item F2a, you are not ineligible to claim this relief, else input an integer from 0 to 1500 only._x000a__x000a_" promptTitle="Item F2b for One Mother" prompt="Input a positve integer from 0 to 1500. _x000a__x000a_By selecting this relief, you will not be eligible to claim relief of Item F2a._x000a__x000a_If you have already claimed relief of Item F2a, you will not be eligible to claim this relief." sqref="D21:D25" xr:uid="{E6DF6132-55D5-4610-A524-6C5BE09D7D62}">
-      <formula1>AND(OR(D7="",D7=0), D21&gt;=0, D21 &lt;= 1500,INT(D21)=D21)</formula1>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 1000 only." promptTitle="Item F9" prompt="Input a postive integer from 0 to 1000." sqref="D82:D95" xr:uid="{5C56A47E-5963-44E4-A5FC-7CB504B2472A}">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data, Amount or Ineligible" error="The input data or amount is invalid, or you may be ineligible to claim this relief. _x000a__x000a_Note that if you claimed the relief of Item F2a, you are not ineligible to claim this relief, else input an integer from 0 to 1500 only._x000a__x000a_" promptTitle="Item F2b for One Father" prompt="Input a positve integer from 0 to 1500. _x000a__x000a_By selecting this relief, you will not be eligible to claim relief of Item F2a._x000a__x000a_If you have already claimed relief of Item F2a, you will not be eligible to claim this relief." sqref="D26:D30" xr:uid="{8FB96D39-57B0-44F7-B40E-6FD12CD5DCA4}">
-      <formula1>AND(OR(D7="",D7=0), D26&gt;=0, D26 &lt;= 1500,INT(D26)=D26)</formula1>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 3000 only." promptTitle="Item F10" prompt="Input a postive integer from 0 to 3000." sqref="D96:D107" xr:uid="{FC45883C-F552-4234-9663-41C265D4F435}">
+      <formula1>0</formula1>
+      <formula2>3000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 7000 only." promptTitle="Item F5" prompt="Input a positve integer from 0 to 7000." sqref="D44:D50" xr:uid="{4140C124-093D-4B3D-8C89-D71E7AB1FCE9}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 3000 only." promptTitle="Item F16" prompt="Input a postive integer from 0 to 3000." sqref="D184:D189" xr:uid="{6A1E2F4F-316F-45F9-AD24-B37139E7400D}">
+      <formula1>0</formula1>
+      <formula2>3000</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D224" xr:uid="{7C75AC32-1DC4-44CB-BD71-B81E361B12C5}">
+      <formula1>_xlfn.FORMULATEXT(D224)="=IF(COUNTA(D5:D54,D56:D124,D126,D129,D133,D139,D141,D163:D211)=0,0,SUM(D5:D40,D55:D124,D127,D130,D134,D140,D142:D211))"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D136:D137" xr:uid="{C26911ED-A9EA-425F-8B8E-CC9F21070EDD}">
+      <formula1>_xlfn.FORMULATEXT(D136)="=IF(NOT(ISNUMBER(D136)),0,D136*C137)"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D139:D140" xr:uid="{71F6FA30-0CC5-4C98-AA34-621D2258D9CE}">
+      <formula1>_xlfn.FORMULATEXT(D139)="=IF(NOT(ISNUMBER(D139)),0,D139*C140)"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D143:D147" xr:uid="{1AA9A535-2A9C-4D11-BEF0-AD01C8279699}">
+      <formula1>_xlfn.FORMULATEXT(D143)="=IF(NOT(ISNUMBER(D143)),0,D143*C145)"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D149" xr:uid="{FF0CF88A-C460-4195-A335-AD877568F5CB}">
+      <formula1>_xlfn.FORMULATEXT(D149)="=IF(NOT(ISNUMBER(D149)),0,D149*C150)"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D151:D156" xr:uid="{24DAD497-27C8-418C-A924-CCD279B1D34E}">
+      <formula1>_xlfn.FORMULATEXT(D151)="=IF(OR(NOT(OR(ISNUMBER(D151),ISNUMBER(D149))),D149=0),0,D151*C153)"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 7000 only." promptTitle="Item F15" prompt="Input a postive integer from 0 to 7000." sqref="D157:D183" xr:uid="{D0A0FFCB-20A9-41F9-91C3-AF35A12F006A}">
       <formula1>0</formula1>
       <formula2>7000</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to the amount of the medical expenses." promptTitle="Item F6a" prompt="Input a positve integer from 0 to the amount of the medical expenses._x000a__x000a_Note that the sum of relief of Item F6a, F6b and F7 are limited to 6000 only." sqref="D51:D54" xr:uid="{D13F5BBA-9758-4705-B1AC-0613D640B032}">
-      <formula1>0</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data, Amount or Ineligible" error="The input data or amount is invalid, or you may be ineligible to claim this relief. _x000a__x000a_Note that if you claimed the relief of Item F2b, you are not ineligible to claim this relief, else input an integer from 0 to 5000 only." promptTitle="Item F2a" prompt="Input a positve integer from 0 to 5000. _x000a__x000a_By selecting this relief, you will not be eligible to claim relief of Item F2b._x000a__x000a_If you have already claimed relief of Item F2b, you will not be eligible to claim this relief." sqref="D9:D14" xr:uid="{55EC587E-6D81-4BBD-91C8-2DC871904FD8}">
+      <formula1>AND(OR(#REF!="",#REF!=0), OR(#REF!="",#REF!=0), AND(D9&gt;=0, D9 &lt;= 5000), INT(D9)=D9)</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to the amount of the medical expenses." promptTitle="Item F6b" prompt="Input a positve integer from 0 to the amount of the medical expenses._x000a__x000a_Note that the sum of relief of Item F6a, F6b and F7 are limited to 6000 only." sqref="D55:D62" xr:uid="{B210ADBC-AEBF-464B-AB9A-11ECC4ECD328}">
-      <formula1>0</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data, Amount or Ineligible" error="The input data or amount is invalid, or you may be ineligible to claim this relief. _x000a__x000a_Note that if you claimed the relief of Item F2b, you are not ineligible to claim this relief, else input an integer from 0 to 5000 only." promptTitle="Item F2a" prompt="Input a positve integer from 0 to 5000. _x000a__x000a_By selecting this relief, you will not be eligible to claim relief of Item F2b._x000a__x000a_If you have already claimed relief of Item F2b, you will not be eligible to claim this relief." sqref="D20:D21" xr:uid="{9F1CBDA8-9768-4198-98BC-6B14B4E09AF1}">
+      <formula1>AND(OR(D22="",D22=0), OR(D27="",D27=0), AND(D20&gt;=0, D20 &lt;= 5000), INT(D20)=D20)</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 2500 only." promptTitle="Item F8a (i), (ii), (iii), (iv)" prompt="Input a postive integer from 0 to 2500." sqref="D66:D76" xr:uid="{4A121A5C-BFCC-4CCF-B843-5794914143CE}">
-      <formula1>0</formula1>
-      <formula2>2500</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 1000 only." promptTitle="Item F9" prompt="Input a postive integer from 0 to 1000." sqref="D83:D96" xr:uid="{BECD456F-90A9-4771-AFCA-CFEBC742E037}">
-      <formula1>0</formula1>
-      <formula2>1000</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 3000 only." promptTitle="Item F10" prompt="Input a postive integer from 0 to 3000." sqref="D97:D108" xr:uid="{37326073-41C1-4876-9811-5DCE4FB5E7F9}">
-      <formula1>0</formula1>
-      <formula2>3000</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 3000 only." promptTitle="Item F16" prompt="Input a postive integer from 0 to 3000." sqref="D173:D178" xr:uid="{A6C2931E-A301-45C7-B3B6-FB243882DE22}">
-      <formula1>0</formula1>
-      <formula2>3000</formula2>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D211" xr:uid="{BEB36F63-AEFD-4A25-A2F7-54B003A74EB8}">
-      <formula1>_xlfn.FORMULATEXT(D211)="=IF(COUNTA(D5:D19,D21:D30,D32:D64,D66:D134,D136,D139,D143,D149,D151,D158:D209)=0,0,SUM(D5:D19,D31:D50,D65:D134,D137,D140,D144,D150,D152:D209))"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31" xr:uid="{DF3BA554-7260-4208-A582-58B5509C230B}">
-      <formula1>_xlfn.FORMULATEXT(D31)="=IF(NOT(OR(ISNUMBER(D21),ISNUMBER(D26))),0,SUM(D21:D30))"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D137:D138" xr:uid="{FF0BECD2-7D7B-4ACB-8434-B96B40E20225}">
-      <formula1>_xlfn.FORMULATEXT(D137)="=IF(NOT(ISNUMBER(D136)),0,D136*C137)"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D140:D141" xr:uid="{19DA3A68-02E2-4B04-976B-0E0EC8FF89AF}">
-      <formula1>_xlfn.FORMULATEXT(D140)="=IF(NOT(ISNUMBER(D139)),0,D139*C140)"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D144:D148" xr:uid="{CCEB1258-595E-4439-8E23-9E12884C84FA}">
-      <formula1>_xlfn.FORMULATEXT(D144)="=IF(NOT(ISNUMBER(D143)),0,D143*C145)"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D150" xr:uid="{3817525A-9431-4C1F-A7A4-BCA81BCF21A9}">
-      <formula1>_xlfn.FORMULATEXT(D150)="=IF(NOT(ISNUMBER(D149)),0,D149*C150)"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D152:D157" xr:uid="{F84F3998-FCBE-46D6-98EA-69E172ED41C1}">
-      <formula1>_xlfn.FORMULATEXT(D152)="=IF(OR(NOT(OR(ISNUMBER(D151),ISNUMBER(D149))),D149=0),0,D151*C153)"</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data, Amount or Ineligible" error="The input data or amount is invalid, or you may be ineligible to claim this relief. _x000a__x000a_Note that if you claimed the relief of Item F2b, you are not ineligible to claim this relief, else input an integer from 0 to 5000 only." promptTitle="Item F2a" prompt="Input a positve integer from 0 to 5000. _x000a__x000a_By selecting this relief, you will not be eligible to claim relief of Item F2b._x000a__x000a_If you have already claimed relief of Item F2b, you will not be eligible to claim this relief." sqref="D15:D19" xr:uid="{DE1F6EAE-91B8-4C1E-BC44-698D2F968742}">
+      <formula1>AND(OR(#REF!="",#REF!=0), OR(D22="",D22=0), AND(D15&gt;=0, D15 &lt;= 5000), INT(D15)=D15)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E50" r:id="rId1" xr:uid="{0A00DF98-B175-4727-A964-9E786BBE279D}"/>
-    <hyperlink ref="B209" r:id="rId2" display="http://www.motac.gov.my/en/check/registered-hotel" xr:uid="{D33F6716-C630-4AC2-88D7-F118DA635543}"/>
-    <hyperlink ref="E211" location="'Compute Income Tax (Part B)'!C70" display="Click here to see the transfer amount in B11" xr:uid="{00D9F677-FAB4-4513-9081-A2FD22CDCF31}"/>
-    <hyperlink ref="E111" r:id="rId3" display="https://online.sspn.my/" xr:uid="{4767AB60-E492-420D-B142-BFB1B9FCE0BB}"/>
+    <hyperlink ref="E41" r:id="rId1" xr:uid="{0A00DF98-B175-4727-A964-9E786BBE279D}"/>
+    <hyperlink ref="B222" r:id="rId2" display="http://www.motac.gov.my/en/check/registered-hotel" xr:uid="{D33F6716-C630-4AC2-88D7-F118DA635543}"/>
+    <hyperlink ref="E224" location="'Compute Income Tax (Part B)'!C70" display="Click here to see the transfer amount in B11" xr:uid="{00D9F677-FAB4-4513-9081-A2FD22CDCF31}"/>
+    <hyperlink ref="E110" r:id="rId3" display="https://online.sspn.my/" xr:uid="{4767AB60-E492-420D-B142-BFB1B9FCE0BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -8517,7 +8548,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C5" sqref="C5:C17"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -8537,404 +8568,404 @@
       <c r="B1" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="77" t="s">
-        <v>382</v>
-      </c>
-      <c r="D1" s="77" t="s">
-        <v>381</v>
+      <c r="C1" s="76" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
-        <v>481</v>
-      </c>
-      <c r="B3" s="120" t="s">
-        <v>483</v>
-      </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
+      <c r="A3" s="109" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>454</v>
+      </c>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="240" t="s">
+      <c r="A5" s="233" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="239" t="s">
-        <v>380</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>379</v>
-      </c>
-      <c r="D5" s="237" t="s">
-        <v>360</v>
+      <c r="B5" s="232" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" s="230" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="218"/>
-      <c r="B6" s="176"/>
+      <c r="A6" s="211"/>
+      <c r="B6" s="172"/>
       <c r="C6" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="D6" s="238"/>
+        <v>353</v>
+      </c>
+      <c r="D6" s="231"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="218"/>
-      <c r="B7" s="176"/>
+      <c r="A7" s="211"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="D7" s="238"/>
+        <v>352</v>
+      </c>
+      <c r="D7" s="231"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="218"/>
-      <c r="B8" s="176"/>
+      <c r="A8" s="211"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="D8" s="238"/>
+        <v>351</v>
+      </c>
+      <c r="D8" s="231"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="218"/>
-      <c r="B9" s="176"/>
+      <c r="A9" s="211"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="D9" s="238"/>
+        <v>350</v>
+      </c>
+      <c r="D9" s="231"/>
     </row>
     <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="218"/>
-      <c r="B10" s="176"/>
+      <c r="A10" s="211"/>
+      <c r="B10" s="172"/>
       <c r="C10" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="D10" s="238"/>
+        <v>349</v>
+      </c>
+      <c r="D10" s="231"/>
     </row>
     <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="218"/>
-      <c r="B11" s="176"/>
+      <c r="A11" s="211"/>
+      <c r="B11" s="172"/>
       <c r="C11" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="D11" s="238"/>
+        <v>348</v>
+      </c>
+      <c r="D11" s="231"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="218"/>
-      <c r="B12" s="176"/>
+      <c r="A12" s="211"/>
+      <c r="B12" s="172"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="238"/>
+      <c r="D12" s="231"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="218"/>
-      <c r="B13" s="176"/>
+      <c r="A13" s="211"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="D13" s="238"/>
+        <v>347</v>
+      </c>
+      <c r="D13" s="231"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="218"/>
-      <c r="B14" s="176"/>
+      <c r="A14" s="211"/>
+      <c r="B14" s="172"/>
       <c r="C14" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="D14" s="238"/>
+        <v>346</v>
+      </c>
+      <c r="D14" s="231"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="218"/>
-      <c r="B15" s="176"/>
+      <c r="A15" s="211"/>
+      <c r="B15" s="172"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="238"/>
+      <c r="D15" s="231"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="218"/>
-      <c r="B16" s="176"/>
+      <c r="A16" s="211"/>
+      <c r="B16" s="172"/>
       <c r="C16" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="D16" s="238"/>
+        <v>345</v>
+      </c>
+      <c r="D16" s="231"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="218"/>
-      <c r="B17" s="176"/>
+      <c r="A17" s="211"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="D17" s="238"/>
+        <v>344</v>
+      </c>
+      <c r="D17" s="231"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="218"/>
-      <c r="B18" s="176"/>
+      <c r="A18" s="211"/>
+      <c r="B18" s="172"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="238"/>
+      <c r="D18" s="231"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="218"/>
-      <c r="B19" s="176"/>
+      <c r="A19" s="211"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="D19" s="238"/>
+        <v>343</v>
+      </c>
+      <c r="D19" s="231"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="218"/>
-      <c r="B20" s="176"/>
+      <c r="A20" s="211"/>
+      <c r="B20" s="172"/>
       <c r="C20" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="D20" s="238"/>
+        <v>342</v>
+      </c>
+      <c r="D20" s="231"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="218"/>
-      <c r="B21" s="176"/>
+      <c r="A21" s="211"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="238"/>
+      <c r="D21" s="231"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="218"/>
-      <c r="B22" s="176"/>
+      <c r="A22" s="211"/>
+      <c r="B22" s="172"/>
       <c r="C22" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="D22" s="238"/>
+        <v>341</v>
+      </c>
+      <c r="D22" s="231"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="218"/>
-      <c r="B23" s="176"/>
+      <c r="A23" s="211"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="D23" s="238"/>
+        <v>340</v>
+      </c>
+      <c r="D23" s="231"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="218"/>
-      <c r="B24" s="176"/>
+      <c r="A24" s="211"/>
+      <c r="B24" s="172"/>
       <c r="C24" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="D24" s="238"/>
+        <v>339</v>
+      </c>
+      <c r="D24" s="231"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="218"/>
-      <c r="B25" s="176"/>
+      <c r="A25" s="211"/>
+      <c r="B25" s="172"/>
       <c r="C25" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="D25" s="238"/>
+        <v>338</v>
+      </c>
+      <c r="D25" s="231"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="218"/>
-      <c r="B26" s="176"/>
+      <c r="A26" s="211"/>
+      <c r="B26" s="172"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="238"/>
+      <c r="D26" s="231"/>
     </row>
     <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="218"/>
-      <c r="B27" s="176"/>
-      <c r="C27" s="76" t="s">
-        <v>362</v>
-      </c>
-      <c r="D27" s="238"/>
+      <c r="A27" s="211"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="D27" s="231"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="218"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="D28" s="237" t="s">
-        <v>360</v>
+      <c r="A28" s="211"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="74" t="s">
+        <v>336</v>
+      </c>
+      <c r="D28" s="230" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="218"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="76" t="s">
-        <v>359</v>
-      </c>
-      <c r="D29" s="238"/>
+      <c r="A29" s="211"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="75" t="s">
+        <v>334</v>
+      </c>
+      <c r="D29" s="231"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="218"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="75" t="s">
-        <v>358</v>
-      </c>
-      <c r="D30" s="238"/>
+      <c r="A30" s="211"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="74" t="s">
+        <v>333</v>
+      </c>
+      <c r="D30" s="231"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="218"/>
-      <c r="B31" s="176"/>
-      <c r="C31" s="76" t="s">
-        <v>357</v>
-      </c>
-      <c r="D31" s="238"/>
+      <c r="A31" s="211"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" s="231"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="218"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="D32" s="238"/>
+      <c r="A32" s="211"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="74" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" s="231"/>
     </row>
     <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="218"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="76" t="s">
-        <v>355</v>
-      </c>
-      <c r="D33" s="238"/>
+      <c r="A33" s="211"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="D33" s="231"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="218"/>
-      <c r="B34" s="176"/>
-      <c r="C34" s="75" t="s">
-        <v>354</v>
-      </c>
-      <c r="D34" s="238"/>
+      <c r="A34" s="211"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="74" t="s">
+        <v>329</v>
+      </c>
+      <c r="D34" s="231"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="218"/>
-      <c r="B35" s="176"/>
+      <c r="A35" s="211"/>
+      <c r="B35" s="172"/>
       <c r="C35" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="D35" s="238"/>
+        <v>328</v>
+      </c>
+      <c r="D35" s="231"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="218"/>
-      <c r="B36" s="176"/>
+      <c r="A36" s="211"/>
+      <c r="B36" s="172"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="238"/>
+      <c r="D36" s="231"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="218"/>
-      <c r="B37" s="176"/>
+      <c r="A37" s="211"/>
+      <c r="B37" s="172"/>
       <c r="C37" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="D37" s="238"/>
+        <v>327</v>
+      </c>
+      <c r="D37" s="231"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="218"/>
-      <c r="B38" s="176"/>
+      <c r="A38" s="211"/>
+      <c r="B38" s="172"/>
       <c r="C38" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="D38" s="238"/>
+        <v>326</v>
+      </c>
+      <c r="D38" s="231"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="218"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="211"/>
+      <c r="B39" s="172"/>
       <c r="C39" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D39" s="238"/>
+        <v>325</v>
+      </c>
+      <c r="D39" s="231"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="218"/>
-      <c r="B40" s="176"/>
+      <c r="A40" s="211"/>
+      <c r="B40" s="172"/>
       <c r="C40" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="D40" s="238"/>
+        <v>324</v>
+      </c>
+      <c r="D40" s="231"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="218"/>
-      <c r="B41" s="176"/>
+      <c r="A41" s="211"/>
+      <c r="B41" s="172"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="238"/>
+      <c r="D41" s="231"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="218"/>
-      <c r="B42" s="176"/>
+      <c r="A42" s="211"/>
+      <c r="B42" s="172"/>
       <c r="C42" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="D42" s="238"/>
+        <v>323</v>
+      </c>
+      <c r="D42" s="231"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="218"/>
-      <c r="B43" s="176"/>
+      <c r="A43" s="211"/>
+      <c r="B43" s="172"/>
       <c r="C43" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="D43" s="238"/>
+        <v>322</v>
+      </c>
+      <c r="D43" s="231"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="218"/>
-      <c r="B44" s="176"/>
+      <c r="A44" s="211"/>
+      <c r="B44" s="172"/>
       <c r="C44" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D44" s="238"/>
+        <v>321</v>
+      </c>
+      <c r="D44" s="231"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="218"/>
-      <c r="B45" s="176"/>
+      <c r="A45" s="211"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D45" s="238"/>
+        <v>320</v>
+      </c>
+      <c r="D45" s="231"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="218"/>
-      <c r="B46" s="176"/>
+      <c r="A46" s="211"/>
+      <c r="B46" s="172"/>
       <c r="C46" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="D46" s="238"/>
+        <v>319</v>
+      </c>
+      <c r="D46" s="231"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="220"/>
-      <c r="B47" s="177"/>
+      <c r="A47" s="213"/>
+      <c r="B47" s="173"/>
       <c r="C47" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="D47" s="238"/>
+        <v>318</v>
+      </c>
+      <c r="D47" s="231"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="166" t="s">
-        <v>472</v>
-      </c>
-      <c r="B49" s="217" t="s">
-        <v>477</v>
-      </c>
-      <c r="C49" s="102" t="s">
-        <v>476</v>
-      </c>
-      <c r="D49" s="241"/>
+      <c r="A49" s="162" t="s">
+        <v>443</v>
+      </c>
+      <c r="B49" s="210" t="s">
+        <v>448</v>
+      </c>
+      <c r="C49" s="99" t="s">
+        <v>447</v>
+      </c>
+      <c r="D49" s="234"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="167"/>
-      <c r="B50" s="218"/>
+      <c r="A50" s="163"/>
+      <c r="B50" s="211"/>
       <c r="C50" s="45" t="s">
-        <v>473</v>
-      </c>
-      <c r="D50" s="242"/>
+        <v>444</v>
+      </c>
+      <c r="D50" s="235"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="167"/>
-      <c r="B51" s="218"/>
+      <c r="A51" s="163"/>
+      <c r="B51" s="211"/>
       <c r="C51" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="D51" s="242"/>
+        <v>445</v>
+      </c>
+      <c r="D51" s="235"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="167"/>
-      <c r="B52" s="218"/>
-      <c r="C52" s="114" t="s">
-        <v>475</v>
-      </c>
-      <c r="D52" s="242"/>
+      <c r="A52" s="163"/>
+      <c r="B52" s="211"/>
+      <c r="C52" s="111" t="s">
+        <v>446</v>
+      </c>
+      <c r="D52" s="235"/>
     </row>
     <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="168"/>
-      <c r="B53" s="220"/>
-      <c r="C53" s="103" t="s">
-        <v>482</v>
-      </c>
-      <c r="D53" s="243"/>
+      <c r="A53" s="164"/>
+      <c r="B53" s="213"/>
+      <c r="C53" s="100" t="s">
+        <v>453</v>
+      </c>
+      <c r="D53" s="236"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8976,310 +9007,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="246" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="140" t="s">
-        <v>391</v>
-      </c>
-      <c r="D1" s="140" t="s">
-        <v>390</v>
-      </c>
-      <c r="E1" s="139" t="s">
-        <v>389</v>
+      <c r="A1" s="239" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="240"/>
+      <c r="C1" s="136" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="136" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="135" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="141">
+      <c r="A2" s="137">
         <v>0</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="143" t="s">
-        <v>490</v>
-      </c>
-      <c r="D2" s="244">
+      <c r="B2" s="138"/>
+      <c r="C2" s="139" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2" s="237">
         <v>0</v>
       </c>
-      <c r="E2" s="158">
+      <c r="E2" s="154">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="144"/>
-      <c r="B3" s="145">
+      <c r="A3" s="140"/>
+      <c r="B3" s="141">
         <v>5000</v>
       </c>
-      <c r="C3" s="146" t="s">
-        <v>484</v>
-      </c>
-      <c r="D3" s="245"/>
-      <c r="E3" s="159"/>
+      <c r="C3" s="142" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" s="238"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="147">
+      <c r="A4" s="143">
         <v>5001</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="149" t="s">
-        <v>490</v>
-      </c>
-      <c r="D4" s="244">
+      <c r="B4" s="144"/>
+      <c r="C4" s="145" t="s">
+        <v>461</v>
+      </c>
+      <c r="D4" s="237">
         <v>0.01</v>
       </c>
-      <c r="E4" s="160">
+      <c r="E4" s="156">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="146"/>
-      <c r="B5" s="150">
+      <c r="A5" s="142"/>
+      <c r="B5" s="146">
         <v>20000</v>
       </c>
-      <c r="C5" s="146" t="s">
-        <v>388</v>
-      </c>
-      <c r="D5" s="245"/>
-      <c r="E5" s="159">
+      <c r="C5" s="142" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="238"/>
+      <c r="E5" s="155">
         <f>D4*(B5-A4+1)</f>
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="141">
+      <c r="A6" s="137">
         <v>20001</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="143" t="s">
-        <v>491</v>
-      </c>
-      <c r="D6" s="244">
+      <c r="B6" s="138"/>
+      <c r="C6" s="139" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="237">
         <v>0.03</v>
       </c>
-      <c r="E6" s="158">
+      <c r="E6" s="154">
         <f>SUM(E4:E5)</f>
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="144"/>
-      <c r="B7" s="145">
+      <c r="A7" s="140"/>
+      <c r="B7" s="141">
         <v>35000</v>
       </c>
-      <c r="C7" s="146" t="s">
-        <v>388</v>
-      </c>
-      <c r="D7" s="245"/>
-      <c r="E7" s="159">
+      <c r="C7" s="142" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" s="238"/>
+      <c r="E7" s="155">
         <f>D6*(B7-A6+1)</f>
         <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="151">
+      <c r="A8" s="147">
         <v>35001</v>
       </c>
-      <c r="B8" s="142"/>
-      <c r="C8" s="143" t="s">
-        <v>492</v>
-      </c>
-      <c r="D8" s="244">
+      <c r="B8" s="138"/>
+      <c r="C8" s="139" t="s">
+        <v>463</v>
+      </c>
+      <c r="D8" s="237">
         <v>0.06</v>
       </c>
-      <c r="E8" s="158">
+      <c r="E8" s="154">
         <f t="shared" ref="E8" si="0">SUM(E6:E7)</f>
         <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="145"/>
-      <c r="B9" s="144">
+      <c r="A9" s="141"/>
+      <c r="B9" s="140">
         <v>50000</v>
       </c>
-      <c r="C9" s="146" t="s">
-        <v>388</v>
-      </c>
-      <c r="D9" s="245"/>
-      <c r="E9" s="159">
+      <c r="C9" s="142" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="238"/>
+      <c r="E9" s="155">
         <f t="shared" ref="E9" si="1">D8*(B9-A8+1)</f>
         <v>900</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="151">
+      <c r="A10" s="147">
         <v>50001</v>
       </c>
-      <c r="B10" s="142"/>
-      <c r="C10" s="143" t="s">
-        <v>493</v>
-      </c>
-      <c r="D10" s="244">
+      <c r="B10" s="138"/>
+      <c r="C10" s="139" t="s">
+        <v>464</v>
+      </c>
+      <c r="D10" s="237">
         <v>0.11</v>
       </c>
-      <c r="E10" s="158">
+      <c r="E10" s="154">
         <f t="shared" ref="E10" si="2">SUM(E8:E9)</f>
         <v>1500</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="153"/>
-      <c r="B11" s="144">
+      <c r="A11" s="149"/>
+      <c r="B11" s="140">
         <v>70000</v>
       </c>
-      <c r="C11" s="146" t="s">
-        <v>387</v>
-      </c>
-      <c r="D11" s="245"/>
-      <c r="E11" s="159">
+      <c r="C11" s="142" t="s">
+        <v>362</v>
+      </c>
+      <c r="D11" s="238"/>
+      <c r="E11" s="155">
         <f t="shared" ref="E11" si="3">D10*(B11-A10+1)</f>
         <v>2200</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="154">
+      <c r="A12" s="150">
         <v>70001</v>
       </c>
-      <c r="B12" s="155"/>
-      <c r="C12" s="143" t="s">
-        <v>494</v>
-      </c>
-      <c r="D12" s="244">
+      <c r="B12" s="151"/>
+      <c r="C12" s="139" t="s">
+        <v>465</v>
+      </c>
+      <c r="D12" s="237">
         <v>0.19</v>
       </c>
-      <c r="E12" s="158">
+      <c r="E12" s="154">
         <f t="shared" ref="E12" si="4">SUM(E10:E11)</f>
         <v>3700</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
-      <c r="B13" s="150">
+      <c r="A13" s="143"/>
+      <c r="B13" s="146">
         <v>100000</v>
       </c>
-      <c r="C13" s="146" t="s">
-        <v>386</v>
-      </c>
-      <c r="D13" s="245"/>
-      <c r="E13" s="159">
+      <c r="C13" s="142" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" s="238"/>
+      <c r="E13" s="155">
         <f t="shared" ref="E13" si="5">D12*(B13-A12+1)</f>
         <v>5700</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="156">
+      <c r="A14" s="152">
         <v>100001</v>
       </c>
-      <c r="B14" s="155"/>
-      <c r="C14" s="143" t="s">
-        <v>495</v>
-      </c>
-      <c r="D14" s="244">
+      <c r="B14" s="151"/>
+      <c r="C14" s="139" t="s">
+        <v>466</v>
+      </c>
+      <c r="D14" s="237">
         <v>0.25</v>
       </c>
-      <c r="E14" s="158">
+      <c r="E14" s="154">
         <f t="shared" ref="E14" si="6">SUM(E12:E13)</f>
         <v>9400</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="157"/>
-      <c r="B15" s="150">
+      <c r="A15" s="153"/>
+      <c r="B15" s="146">
         <v>400000</v>
       </c>
-      <c r="C15" s="146" t="s">
-        <v>510</v>
-      </c>
-      <c r="D15" s="245"/>
-      <c r="E15" s="159">
+      <c r="C15" s="142" t="s">
+        <v>480</v>
+      </c>
+      <c r="D15" s="238"/>
+      <c r="E15" s="155">
         <f t="shared" ref="E15" si="7">D14*(B15-A14+1)</f>
         <v>75000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="151">
+      <c r="A16" s="147">
         <v>400001</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="143" t="s">
-        <v>496</v>
-      </c>
-      <c r="D16" s="244">
+      <c r="B16" s="138"/>
+      <c r="C16" s="139" t="s">
+        <v>467</v>
+      </c>
+      <c r="D16" s="237">
         <v>0.26</v>
       </c>
-      <c r="E16" s="158">
+      <c r="E16" s="154">
         <f t="shared" ref="E16" si="8">SUM(E14:E15)</f>
         <v>84400</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="145"/>
-      <c r="B17" s="144">
+      <c r="A17" s="141"/>
+      <c r="B17" s="140">
         <v>600000</v>
       </c>
-      <c r="C17" s="146" t="s">
-        <v>385</v>
-      </c>
-      <c r="D17" s="245"/>
-      <c r="E17" s="159">
+      <c r="C17" s="142" t="s">
+        <v>360</v>
+      </c>
+      <c r="D17" s="238"/>
+      <c r="E17" s="155">
         <f t="shared" ref="E17" si="9">D16*(B17-A16+1)</f>
         <v>52000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="151">
+      <c r="A18" s="147">
         <v>600001</v>
       </c>
-      <c r="B18" s="142"/>
-      <c r="C18" s="143" t="s">
-        <v>497</v>
-      </c>
-      <c r="D18" s="244">
+      <c r="B18" s="138"/>
+      <c r="C18" s="139" t="s">
+        <v>468</v>
+      </c>
+      <c r="D18" s="237">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E18" s="158">
+      <c r="E18" s="154">
         <f t="shared" ref="E18:E20" si="10">SUM(E16:E17)</f>
         <v>136400</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="145"/>
-      <c r="B19" s="144">
+      <c r="A19" s="141"/>
+      <c r="B19" s="140">
         <v>2000000</v>
       </c>
-      <c r="C19" s="146" t="s">
-        <v>511</v>
-      </c>
-      <c r="D19" s="245"/>
-      <c r="E19" s="159">
+      <c r="C19" s="142" t="s">
+        <v>481</v>
+      </c>
+      <c r="D19" s="238"/>
+      <c r="E19" s="155">
         <f t="shared" ref="E19" si="11">D18*(B19-A18+1)</f>
         <v>392000.00000000006</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="151">
+      <c r="A20" s="147">
         <v>2000001</v>
       </c>
-      <c r="B20" s="142"/>
-      <c r="C20" s="143" t="s">
-        <v>498</v>
-      </c>
-      <c r="D20" s="244">
+      <c r="B20" s="138"/>
+      <c r="C20" s="139" t="s">
+        <v>469</v>
+      </c>
+      <c r="D20" s="237">
         <v>0.3</v>
       </c>
-      <c r="E20" s="158">
+      <c r="E20" s="154">
         <f t="shared" si="10"/>
         <v>528400</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="145"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="146" t="s">
-        <v>384</v>
-      </c>
-      <c r="D21" s="245"/>
-      <c r="E21" s="152" t="s">
-        <v>383</v>
+      <c r="A21" s="141"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="142" t="s">
+        <v>359</v>
+      </c>
+      <c r="D21" s="238"/>
+      <c r="E21" s="148" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/Excel LHDN Calculator Form (Blank Form).xlsx
+++ b/Excel LHDN Calculator Form (Blank Form).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harein\Documents\GitHub\MY_TaxRelief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E5E704-4E12-4A17-B6E2-56933AF719B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A34E86-B7A2-4F8E-ABEB-58685959C22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="777" xr2:uid="{4EA980A6-4219-484D-BF26-8C30E1E17AF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="777" activeTab="3" xr2:uid="{4EA980A6-4219-484D-BF26-8C30E1E17AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Compute Income Tax (Part B)" sheetId="1" r:id="rId1"/>
@@ -3626,56 +3626,65 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3683,13 +3692,148 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3698,153 +3842,12 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3866,19 +3869,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3900,13 +3900,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4032,6 +4025,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -4081,7 +4081,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4102,7 +4102,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4494,10 +4494,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B44"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:C17"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4542,58 +4542,58 @@
       <c r="E3" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="170" t="s">
         <v>373</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="161" t="s">
         <v>375</v>
       </c>
-      <c r="C5" s="158"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="46" t="s">
         <v>82</v>
       </c>
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="163"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
+      <c r="A6" s="171"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="24" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="163"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="158"/>
+      <c r="A7" s="171"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="24" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="163"/>
-      <c r="B8" s="157"/>
-      <c r="C8" s="158"/>
+      <c r="A8" s="171"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="24" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="163"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="158"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="173"/>
       <c r="D9" s="30" t="s">
         <v>441</v>
       </c>
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="163"/>
-      <c r="B10" s="157"/>
-      <c r="C10" s="158"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="173"/>
       <c r="D10" s="30" t="s">
         <v>440</v>
       </c>
@@ -4602,9 +4602,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="163"/>
-      <c r="B11" s="157"/>
-      <c r="C11" s="158"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="173"/>
       <c r="D11" s="24" t="s">
         <v>77</v>
       </c>
@@ -4613,9 +4613,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="163"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="158"/>
+      <c r="A12" s="171"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="173"/>
       <c r="D12" s="24" t="s">
         <v>75</v>
       </c>
@@ -4624,9 +4624,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="163"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="158"/>
+      <c r="A13" s="171"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="24" t="s">
         <v>73</v>
       </c>
@@ -4635,9 +4635,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="163"/>
-      <c r="B14" s="157"/>
-      <c r="C14" s="158"/>
+      <c r="A14" s="171"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="173"/>
       <c r="D14" s="24" t="s">
         <v>71</v>
       </c>
@@ -4646,32 +4646,32 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="163"/>
-      <c r="B15" s="157"/>
-      <c r="C15" s="158"/>
+      <c r="A15" s="171"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="173"/>
       <c r="D15" s="24"/>
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="163"/>
-      <c r="B16" s="157"/>
-      <c r="C16" s="158"/>
+      <c r="A16" s="171"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="24" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="163"/>
-      <c r="B17" s="157"/>
-      <c r="C17" s="158"/>
+      <c r="A17" s="171"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="173"/>
       <c r="D17" s="29" t="s">
         <v>439</v>
       </c>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="163"/>
+      <c r="A18" s="171"/>
       <c r="B18" s="7" t="s">
         <v>458</v>
       </c>
@@ -4685,47 +4685,47 @@
       <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="162" t="s">
+      <c r="A19" s="170" t="s">
         <v>374</v>
       </c>
-      <c r="B19" s="157" t="s">
+      <c r="B19" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="159"/>
+      <c r="C19" s="157"/>
       <c r="D19" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="163"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="160"/>
+      <c r="A20" s="171"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="158"/>
       <c r="D20" s="30" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="163"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="160"/>
+      <c r="A21" s="171"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="158"/>
       <c r="D21" s="24"/>
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="163"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="160"/>
+      <c r="A22" s="171"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="158"/>
       <c r="D22" s="40" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="164"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="161"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="160"/>
       <c r="D23" s="29" t="s">
         <v>63</v>
       </c>
@@ -4745,225 +4745,225 @@
       <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="162" t="s">
+      <c r="A25" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="167" t="s">
+      <c r="B25" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="159"/>
+      <c r="C25" s="157"/>
       <c r="D25" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="163"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="160"/>
+      <c r="A26" s="171"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="158"/>
       <c r="D26" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="163"/>
-      <c r="B27" s="168"/>
-      <c r="C27" s="160"/>
+      <c r="A27" s="171"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="158"/>
       <c r="D27" s="37" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="163"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="160"/>
+      <c r="A28" s="171"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="158"/>
       <c r="D28" s="36" t="s">
         <v>54</v>
       </c>
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="163"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="160"/>
+      <c r="A29" s="171"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="158"/>
       <c r="D29" s="37" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="163"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="160"/>
+      <c r="A30" s="171"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="158"/>
       <c r="D30" s="36" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="163"/>
-      <c r="B31" s="169"/>
-      <c r="C31" s="160"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="158"/>
       <c r="D31" s="35" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="163"/>
+      <c r="A32" s="171"/>
       <c r="B32" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="160"/>
+      <c r="C32" s="158"/>
       <c r="D32" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="163"/>
-      <c r="B33" s="167" t="s">
+      <c r="A33" s="171"/>
+      <c r="B33" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="160"/>
+      <c r="C33" s="158"/>
       <c r="D33" s="33" t="s">
         <v>47</v>
       </c>
       <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="163"/>
-      <c r="B34" s="168"/>
-      <c r="C34" s="160"/>
+      <c r="A34" s="171"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="158"/>
       <c r="D34" s="24" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="163"/>
-      <c r="B35" s="168"/>
-      <c r="C35" s="160"/>
+      <c r="A35" s="171"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="158"/>
       <c r="D35" s="24" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="163"/>
-      <c r="B36" s="169"/>
-      <c r="C36" s="160"/>
+      <c r="A36" s="171"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="158"/>
       <c r="D36" s="32" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="163"/>
-      <c r="B37" s="170" t="s">
+      <c r="A37" s="171"/>
+      <c r="B37" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="160"/>
+      <c r="C37" s="158"/>
       <c r="D37" s="26" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="163"/>
-      <c r="B38" s="170"/>
-      <c r="C38" s="165"/>
+      <c r="A38" s="171"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="159"/>
       <c r="D38" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="163"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="160"/>
+      <c r="A39" s="171"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="158"/>
       <c r="D39" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="163"/>
+      <c r="A40" s="171"/>
       <c r="B40" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="160"/>
+      <c r="C40" s="158"/>
       <c r="D40" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="163"/>
+      <c r="A41" s="171"/>
       <c r="B41" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="160"/>
+      <c r="C41" s="158"/>
       <c r="D41" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="163"/>
+      <c r="A42" s="171"/>
       <c r="B42" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="160"/>
+      <c r="C42" s="158"/>
       <c r="D42" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="163"/>
-      <c r="B43" s="171" t="s">
+      <c r="A43" s="171"/>
+      <c r="B43" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="160"/>
+      <c r="C43" s="158"/>
       <c r="D43" s="26" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="163"/>
-      <c r="B44" s="172"/>
-      <c r="C44" s="160"/>
+      <c r="A44" s="171"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="158"/>
       <c r="D44" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="163"/>
-      <c r="B45" s="172"/>
-      <c r="C45" s="160"/>
+      <c r="A45" s="171"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="158"/>
       <c r="D45" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="163"/>
-      <c r="B46" s="172"/>
-      <c r="C46" s="160"/>
+      <c r="A46" s="171"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="158"/>
       <c r="D46" s="30" t="s">
         <v>438</v>
       </c>
       <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="164"/>
-      <c r="B47" s="173"/>
-      <c r="C47" s="161"/>
+      <c r="A47" s="172"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="160"/>
       <c r="D47" s="29" t="s">
         <v>29</v>
       </c>
@@ -4988,70 +4988,70 @@
       <c r="E49" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="166" t="s">
+      <c r="A51" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="157" t="s">
+      <c r="B51" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="159"/>
+      <c r="C51" s="157"/>
       <c r="D51" s="26" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="166"/>
-      <c r="B52" s="157"/>
-      <c r="C52" s="160"/>
+      <c r="A52" s="162"/>
+      <c r="B52" s="161"/>
+      <c r="C52" s="158"/>
       <c r="D52" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="166"/>
-      <c r="B53" s="157"/>
-      <c r="C53" s="160"/>
+      <c r="A53" s="162"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="158"/>
       <c r="D53" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="166"/>
-      <c r="B54" s="157"/>
-      <c r="C54" s="160"/>
+      <c r="A54" s="162"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="158"/>
       <c r="D54" s="24"/>
       <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="166"/>
-      <c r="B55" s="157"/>
-      <c r="C55" s="160"/>
+      <c r="A55" s="162"/>
+      <c r="B55" s="161"/>
+      <c r="C55" s="158"/>
       <c r="D55" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="166"/>
-      <c r="B56" s="157"/>
-      <c r="C56" s="160"/>
+      <c r="A56" s="162"/>
+      <c r="B56" s="161"/>
+      <c r="C56" s="158"/>
       <c r="D56" s="23" t="s">
         <v>437</v>
       </c>
       <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="166"/>
-      <c r="B57" s="157"/>
-      <c r="C57" s="161"/>
+      <c r="A57" s="162"/>
+      <c r="B57" s="161"/>
+      <c r="C57" s="160"/>
       <c r="D57" s="21"/>
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="166"/>
+      <c r="A58" s="162"/>
       <c r="B58" s="7" t="s">
         <v>21</v>
       </c>
@@ -5258,6 +5258,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="C5:C17"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="C25:C47"/>
     <mergeCell ref="B51:B57"/>
     <mergeCell ref="C51:C57"/>
@@ -5267,12 +5273,6 @@
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B43:B47"/>
     <mergeCell ref="A25:A47"/>
-    <mergeCell ref="B5:B17"/>
-    <mergeCell ref="C5:C17"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="40" priority="25">
@@ -5313,23 +5313,23 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="cellIs" dxfId="29" priority="49" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:C77">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="cellIs" dxfId="26" priority="49" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5446,7 +5446,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18:B19"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5516,29 +5516,29 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="170" t="s">
         <v>381</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="163" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="162" t="str">
+      <c r="C6" s="170" t="str">
         <f>IF(NOT(ISNUMBER('Compute Income Tax (Part B)'!C49)), "SUM OF E2 IS MAXIMUM OF 10% Of B4 
 (Aggregate Income) Which is RM X", "10% Of B4 
 (Aggregate Income) Which is RM " &amp; TRUNC('Compute Income Tax (Part B)'!C49*0.1))</f>
         <v>10% Of B4 
 (Aggregate Income) Which is RM 0</v>
       </c>
-      <c r="D6" s="176"/>
+      <c r="D6" s="174"/>
       <c r="E6" s="90" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="164"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="177"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="175"/>
       <c r="E7" s="80" t="s">
         <v>432</v>
       </c>
@@ -5550,7 +5550,7 @@
       <c r="B8" s="79" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="163"/>
+      <c r="C8" s="171"/>
       <c r="D8" s="103"/>
       <c r="E8" s="91" t="s">
         <v>433</v>
@@ -5563,57 +5563,57 @@
       <c r="B9" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="163"/>
+      <c r="C9" s="171"/>
       <c r="D9" s="101"/>
       <c r="E9" s="92" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="170" t="s">
         <v>388</v>
       </c>
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="167" t="s">
         <v>387</v>
       </c>
-      <c r="C10" s="163"/>
-      <c r="D10" s="176"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="174"/>
       <c r="E10" s="90" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="163"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="178"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="176"/>
       <c r="E11" s="93" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="163"/>
-      <c r="B12" s="172"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="178"/>
+      <c r="A12" s="171"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="176"/>
       <c r="E12" s="94" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="163"/>
-      <c r="B13" s="172"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="178"/>
+      <c r="A13" s="171"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="176"/>
       <c r="E13" s="93" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="164"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="177"/>
+      <c r="A14" s="172"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="175"/>
       <c r="E14" s="80" t="s">
         <v>391</v>
       </c>
@@ -5638,154 +5638,154 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="162" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="161" t="s">
         <v>393</v>
       </c>
-      <c r="C16" s="162" t="s">
+      <c r="C16" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="158"/>
+      <c r="D16" s="173"/>
       <c r="E16" s="96" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="166"/>
-      <c r="B17" s="157"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="158"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="80" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="162" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="161" t="s">
         <v>395</v>
       </c>
-      <c r="C18" s="174">
+      <c r="C18" s="177">
         <v>20000</v>
       </c>
-      <c r="D18" s="158"/>
+      <c r="D18" s="173"/>
       <c r="E18" s="96" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="166"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="158"/>
+      <c r="A19" s="162"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
       <c r="E19" s="80" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="166" t="s">
+      <c r="A20" s="162" t="s">
         <v>396</v>
       </c>
-      <c r="B20" s="157" t="s">
+      <c r="B20" s="161" t="s">
         <v>400</v>
       </c>
-      <c r="C20" s="162" t="s">
+      <c r="C20" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="158"/>
+      <c r="D20" s="173"/>
       <c r="E20" s="96" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="166"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="158"/>
+      <c r="A21" s="162"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
       <c r="E21" s="80" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="166" t="s">
+      <c r="A22" s="162" t="s">
         <v>398</v>
       </c>
-      <c r="B22" s="157" t="s">
+      <c r="B22" s="161" t="s">
         <v>402</v>
       </c>
-      <c r="C22" s="174">
+      <c r="C22" s="177">
         <v>20000</v>
       </c>
-      <c r="D22" s="158"/>
+      <c r="D22" s="173"/>
       <c r="E22" s="96" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="166"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="158"/>
+      <c r="A23" s="162"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
       <c r="E23" s="80" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="166" t="s">
+      <c r="A24" s="162" t="s">
         <v>404</v>
       </c>
-      <c r="B24" s="157" t="s">
+      <c r="B24" s="161" t="s">
         <v>405</v>
       </c>
-      <c r="C24" s="162" t="s">
+      <c r="C24" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="158"/>
+      <c r="D24" s="173"/>
       <c r="E24" s="90" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="166"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="158"/>
+      <c r="A25" s="162"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="173"/>
       <c r="E25" s="80" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="166" t="s">
+      <c r="A26" s="162" t="s">
         <v>408</v>
       </c>
-      <c r="B26" s="157" t="s">
+      <c r="B26" s="161" t="s">
         <v>409</v>
       </c>
-      <c r="C26" s="162" t="s">
+      <c r="C26" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="175"/>
+      <c r="D26" s="178"/>
       <c r="E26" s="96" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="166"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="175"/>
+      <c r="A27" s="162"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="178"/>
       <c r="E27" s="97" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="166"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="175"/>
+      <c r="A28" s="162"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="178"/>
       <c r="E28" s="98" t="s">
         <v>435</v>
       </c>
@@ -5811,6 +5811,30 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
@@ -5818,30 +5842,6 @@
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C6:C14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
@@ -5957,7 +5957,7 @@
   <dimension ref="A1:E225"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B44"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7:D8"/>
     </sheetView>
@@ -6016,16 +6016,16 @@
       <c r="E4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="162" t="s">
         <v>313</v>
       </c>
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="162" t="s">
         <v>483</v>
       </c>
-      <c r="C5" s="181">
+      <c r="C5" s="179">
         <v>9000</v>
       </c>
-      <c r="D5" s="192">
+      <c r="D5" s="224">
         <v>9000</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -6033,527 +6033,527 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="166"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="192"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="224"/>
       <c r="E6" s="81" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="162" t="s">
         <v>484</v>
       </c>
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="162" t="s">
         <v>485</v>
       </c>
-      <c r="C7" s="181">
+      <c r="C7" s="179">
         <v>4000</v>
       </c>
-      <c r="D7" s="241"/>
+      <c r="D7" s="225"/>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="166"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="241"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="225"/>
       <c r="E8" s="81"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="187" t="s">
+      <c r="A9" s="199" t="s">
         <v>310</v>
       </c>
-      <c r="B9" s="188" t="s">
+      <c r="B9" s="196" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="199" t="s">
         <v>207</v>
       </c>
-      <c r="D9" s="191"/>
+      <c r="D9" s="202"/>
       <c r="E9" s="24" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="187"/>
-      <c r="B10" s="189"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="191"/>
+      <c r="A10" s="199"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="202"/>
       <c r="E10" s="24" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="187"/>
-      <c r="B11" s="189"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="191"/>
+      <c r="A11" s="199"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="202"/>
       <c r="E11" s="24" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="187"/>
-      <c r="B12" s="189"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="191"/>
+      <c r="A12" s="199"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="202"/>
       <c r="E12" s="24" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="187"/>
-      <c r="B13" s="189"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="191"/>
+      <c r="A13" s="199"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="202"/>
       <c r="E13" s="30" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="187"/>
-      <c r="B14" s="189"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="191"/>
+      <c r="A14" s="199"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="202"/>
       <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="187"/>
-      <c r="B15" s="189"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="191"/>
+      <c r="A15" s="199"/>
+      <c r="B15" s="197"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="202"/>
       <c r="E15" s="30" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="187"/>
-      <c r="B16" s="189"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="191"/>
+      <c r="A16" s="199"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="202"/>
       <c r="E16" s="24" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="187"/>
-      <c r="B17" s="189"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="191"/>
+      <c r="A17" s="199"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="202"/>
       <c r="E17" s="24" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="187"/>
-      <c r="B18" s="189"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="191"/>
+      <c r="A18" s="199"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="202"/>
       <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="187"/>
-      <c r="B19" s="189"/>
-      <c r="C19" s="187"/>
-      <c r="D19" s="191"/>
+      <c r="A19" s="199"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="202"/>
       <c r="E19" s="24" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="187"/>
-      <c r="B20" s="189"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="191"/>
+      <c r="A20" s="199"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="202"/>
       <c r="E20" s="24" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="187"/>
-      <c r="B21" s="190"/>
-      <c r="C21" s="187"/>
-      <c r="D21" s="191"/>
+      <c r="A21" s="199"/>
+      <c r="B21" s="223"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="202"/>
       <c r="E21" s="82" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="166" t="s">
+      <c r="A22" s="162" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="157" t="s">
+      <c r="B22" s="161" t="s">
         <v>296</v>
       </c>
-      <c r="C22" s="166" t="s">
+      <c r="C22" s="162" t="s">
         <v>260</v>
       </c>
-      <c r="D22" s="184"/>
+      <c r="D22" s="180"/>
       <c r="E22" s="26" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="166"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="184"/>
+      <c r="A23" s="162"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="180"/>
       <c r="E23" s="24" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="166"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="184"/>
+      <c r="A24" s="162"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="180"/>
       <c r="E24" s="30" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="166"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="184"/>
+      <c r="A25" s="162"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="180"/>
       <c r="E25" s="24" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="166"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="184"/>
+      <c r="A26" s="162"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="180"/>
       <c r="E26" s="24" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="166"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="184"/>
+      <c r="A27" s="162"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="180"/>
       <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="166"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="184"/>
+      <c r="A28" s="162"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="180"/>
       <c r="E28" s="30" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="166"/>
-      <c r="B29" s="157"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="184"/>
+      <c r="A29" s="162"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="180"/>
       <c r="E29" s="30" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="166"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="184"/>
+      <c r="A30" s="162"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="180"/>
       <c r="E30" s="81" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="166" t="s">
+      <c r="A31" s="162" t="s">
         <v>287</v>
       </c>
-      <c r="B31" s="157" t="s">
+      <c r="B31" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="C31" s="181">
+      <c r="C31" s="179">
         <v>6000</v>
       </c>
-      <c r="D31" s="184"/>
+      <c r="D31" s="180"/>
       <c r="E31" s="46" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="166"/>
-      <c r="B32" s="157"/>
-      <c r="C32" s="181"/>
-      <c r="D32" s="184"/>
+      <c r="A32" s="162"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="180"/>
       <c r="E32" s="30" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="166"/>
-      <c r="B33" s="157"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="184"/>
+      <c r="A33" s="162"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="180"/>
       <c r="E33" s="81" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="B34" s="157" t="s">
+      <c r="B34" s="161" t="s">
         <v>504</v>
       </c>
-      <c r="C34" s="166" t="s">
+      <c r="C34" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="184"/>
+      <c r="D34" s="180"/>
       <c r="E34" s="26" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="166"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="166"/>
-      <c r="D35" s="184"/>
+      <c r="A35" s="162"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="180"/>
       <c r="E35" s="24" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="166"/>
-      <c r="B36" s="157"/>
-      <c r="C36" s="166"/>
-      <c r="D36" s="184"/>
+      <c r="A36" s="162"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="162"/>
+      <c r="D36" s="180"/>
       <c r="E36" s="30" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="166"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="166"/>
-      <c r="D37" s="184"/>
+      <c r="A37" s="162"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="162"/>
+      <c r="D37" s="180"/>
       <c r="E37" s="24" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="166"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="166"/>
-      <c r="D38" s="184"/>
+      <c r="A38" s="162"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="180"/>
       <c r="E38" s="24" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="166"/>
-      <c r="B39" s="157"/>
-      <c r="C39" s="166"/>
-      <c r="D39" s="184"/>
+      <c r="A39" s="162"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="162"/>
+      <c r="D39" s="180"/>
       <c r="E39" s="24"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="166"/>
-      <c r="B40" s="157"/>
-      <c r="C40" s="166"/>
-      <c r="D40" s="184"/>
+      <c r="A40" s="162"/>
+      <c r="B40" s="161"/>
+      <c r="C40" s="162"/>
+      <c r="D40" s="180"/>
       <c r="E40" s="24" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="166"/>
-      <c r="B41" s="157"/>
-      <c r="C41" s="166"/>
-      <c r="D41" s="184"/>
+      <c r="A41" s="162"/>
+      <c r="B41" s="161"/>
+      <c r="C41" s="162"/>
+      <c r="D41" s="180"/>
       <c r="E41" s="84" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A42" s="166" t="s">
+      <c r="A42" s="162" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="157" t="s">
+      <c r="B42" s="161" t="s">
         <v>274</v>
       </c>
-      <c r="C42" s="166" t="s">
+      <c r="C42" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="D42" s="184"/>
+      <c r="D42" s="180"/>
       <c r="E42" s="26" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="166"/>
-      <c r="B43" s="157"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="184"/>
+      <c r="A43" s="162"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="162"/>
+      <c r="D43" s="180"/>
       <c r="E43" s="30" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="166"/>
-      <c r="B44" s="157"/>
-      <c r="C44" s="166"/>
-      <c r="D44" s="184"/>
+      <c r="A44" s="162"/>
+      <c r="B44" s="161"/>
+      <c r="C44" s="162"/>
+      <c r="D44" s="180"/>
       <c r="E44" s="30" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="166"/>
-      <c r="B45" s="157"/>
-      <c r="C45" s="166"/>
-      <c r="D45" s="184"/>
+      <c r="A45" s="162"/>
+      <c r="B45" s="161"/>
+      <c r="C45" s="162"/>
+      <c r="D45" s="180"/>
       <c r="E45" s="81" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="166" t="s">
+      <c r="A46" s="162" t="s">
         <v>270</v>
       </c>
-      <c r="B46" s="157" t="s">
+      <c r="B46" s="161" t="s">
         <v>269</v>
       </c>
-      <c r="C46" s="166" t="s">
+      <c r="C46" s="162" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="184"/>
+      <c r="D46" s="180"/>
       <c r="E46" s="26" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="166"/>
-      <c r="B47" s="157"/>
-      <c r="C47" s="166"/>
-      <c r="D47" s="184"/>
+      <c r="A47" s="162"/>
+      <c r="B47" s="161"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="180"/>
       <c r="E47" s="30" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="166"/>
-      <c r="B48" s="157"/>
-      <c r="C48" s="166"/>
-      <c r="D48" s="184"/>
+      <c r="A48" s="162"/>
+      <c r="B48" s="161"/>
+      <c r="C48" s="162"/>
+      <c r="D48" s="180"/>
       <c r="E48" s="24" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="166"/>
-      <c r="B49" s="157"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="184"/>
+      <c r="A49" s="162"/>
+      <c r="B49" s="161"/>
+      <c r="C49" s="162"/>
+      <c r="D49" s="180"/>
       <c r="E49" s="24"/>
     </row>
     <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="166"/>
-      <c r="B50" s="157"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="184"/>
+      <c r="A50" s="162"/>
+      <c r="B50" s="161"/>
+      <c r="C50" s="162"/>
+      <c r="D50" s="180"/>
       <c r="E50" s="30" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="166"/>
-      <c r="B51" s="157"/>
-      <c r="C51" s="166"/>
-      <c r="D51" s="184"/>
+      <c r="A51" s="162"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="162"/>
+      <c r="D51" s="180"/>
       <c r="E51" s="30" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="166"/>
-      <c r="B52" s="157"/>
-      <c r="C52" s="166"/>
-      <c r="D52" s="184"/>
+      <c r="A52" s="162"/>
+      <c r="B52" s="161"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="180"/>
       <c r="E52" s="30" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="166"/>
-      <c r="B53" s="157"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="184"/>
+      <c r="A53" s="162"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="180"/>
       <c r="E53" s="81" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="166" t="s">
+      <c r="A54" s="162" t="s">
         <v>492</v>
       </c>
-      <c r="B54" s="157" t="s">
+      <c r="B54" s="161" t="s">
         <v>500</v>
       </c>
-      <c r="C54" s="166" t="s">
+      <c r="C54" s="162" t="s">
         <v>501</v>
       </c>
-      <c r="D54" s="184"/>
+      <c r="D54" s="180"/>
       <c r="E54" s="26"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="166"/>
-      <c r="B55" s="157"/>
-      <c r="C55" s="166"/>
-      <c r="D55" s="184"/>
+      <c r="A55" s="162"/>
+      <c r="B55" s="161"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="180"/>
       <c r="E55" s="81"/>
     </row>
     <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>493</v>
       </c>
-      <c r="B56" s="157" t="s">
+      <c r="B56" s="161" t="s">
         <v>499</v>
       </c>
-      <c r="C56" s="166" t="s">
+      <c r="C56" s="162" t="s">
         <v>498</v>
       </c>
-      <c r="D56" s="184"/>
+      <c r="D56" s="180"/>
       <c r="E56" s="26" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="166"/>
-      <c r="B57" s="157"/>
-      <c r="C57" s="166"/>
-      <c r="D57" s="184"/>
+      <c r="A57" s="162"/>
+      <c r="B57" s="161"/>
+      <c r="C57" s="162"/>
+      <c r="D57" s="180"/>
       <c r="E57" s="81" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="166" t="s">
+      <c r="A58" s="162" t="s">
         <v>494</v>
       </c>
-      <c r="B58" s="157" t="s">
+      <c r="B58" s="161" t="s">
         <v>502</v>
       </c>
-      <c r="C58" s="166" t="s">
+      <c r="C58" s="162" t="s">
         <v>498</v>
       </c>
-      <c r="D58" s="184"/>
+      <c r="D58" s="180"/>
       <c r="E58" s="26"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="166"/>
-      <c r="B59" s="157"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="184"/>
+      <c r="A59" s="162"/>
+      <c r="B59" s="161"/>
+      <c r="C59" s="162"/>
+      <c r="D59" s="180"/>
       <c r="E59" s="81"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -6581,704 +6581,704 @@
       <c r="B61" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="C61" s="162" t="s">
+      <c r="C61" s="170" t="s">
         <v>257</v>
       </c>
-      <c r="D61" s="186"/>
+      <c r="D61" s="226"/>
       <c r="E61" s="81" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="166" t="s">
+      <c r="A62" s="162" t="s">
         <v>256</v>
       </c>
-      <c r="B62" s="185" t="s">
+      <c r="B62" s="181" t="s">
         <v>255</v>
       </c>
-      <c r="C62" s="163"/>
-      <c r="D62" s="186"/>
+      <c r="C62" s="171"/>
+      <c r="D62" s="226"/>
       <c r="E62" s="26" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="166"/>
-      <c r="B63" s="185"/>
-      <c r="C63" s="163"/>
-      <c r="D63" s="186"/>
+      <c r="A63" s="162"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="171"/>
+      <c r="D63" s="226"/>
       <c r="E63" s="81" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="166" t="s">
+      <c r="A64" s="162" t="s">
         <v>253</v>
       </c>
-      <c r="B64" s="185" t="s">
+      <c r="B64" s="181" t="s">
         <v>252</v>
       </c>
-      <c r="C64" s="163"/>
-      <c r="D64" s="186"/>
+      <c r="C64" s="171"/>
+      <c r="D64" s="226"/>
       <c r="E64" s="26" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="166"/>
-      <c r="B65" s="185"/>
-      <c r="C65" s="163"/>
-      <c r="D65" s="186"/>
+      <c r="A65" s="162"/>
+      <c r="B65" s="181"/>
+      <c r="C65" s="171"/>
+      <c r="D65" s="226"/>
       <c r="E65" s="81" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="166" t="s">
+      <c r="A66" s="162" t="s">
         <v>250</v>
       </c>
-      <c r="B66" s="185" t="s">
+      <c r="B66" s="181" t="s">
         <v>249</v>
       </c>
-      <c r="C66" s="163"/>
-      <c r="D66" s="186"/>
+      <c r="C66" s="171"/>
+      <c r="D66" s="226"/>
       <c r="E66" s="26" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="166"/>
-      <c r="B67" s="185"/>
-      <c r="C67" s="163"/>
-      <c r="D67" s="186"/>
+      <c r="A67" s="162"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="171"/>
+      <c r="D67" s="226"/>
       <c r="E67" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="166"/>
-      <c r="B68" s="185"/>
-      <c r="C68" s="163"/>
-      <c r="D68" s="186"/>
+      <c r="A68" s="162"/>
+      <c r="B68" s="181"/>
+      <c r="C68" s="171"/>
+      <c r="D68" s="226"/>
       <c r="E68" s="24" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="166"/>
-      <c r="B69" s="185"/>
-      <c r="C69" s="163"/>
-      <c r="D69" s="186"/>
+      <c r="A69" s="162"/>
+      <c r="B69" s="181"/>
+      <c r="C69" s="171"/>
+      <c r="D69" s="226"/>
       <c r="E69" s="81" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="166" t="s">
+      <c r="A70" s="162" t="s">
         <v>245</v>
       </c>
-      <c r="B70" s="157" t="s">
+      <c r="B70" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="C70" s="163"/>
-      <c r="D70" s="186"/>
+      <c r="C70" s="171"/>
+      <c r="D70" s="226"/>
       <c r="E70" s="26" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="166"/>
-      <c r="B71" s="157"/>
-      <c r="C71" s="164"/>
-      <c r="D71" s="186"/>
+      <c r="A71" s="162"/>
+      <c r="B71" s="161"/>
+      <c r="C71" s="172"/>
+      <c r="D71" s="226"/>
       <c r="E71" s="81" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="166" t="s">
+      <c r="A72" s="162" t="s">
         <v>242</v>
       </c>
-      <c r="B72" s="157" t="s">
+      <c r="B72" s="161" t="s">
         <v>241</v>
       </c>
-      <c r="C72" s="166" t="s">
+      <c r="C72" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="D72" s="198"/>
+      <c r="D72" s="182"/>
       <c r="E72" s="26" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="166"/>
-      <c r="B73" s="157"/>
-      <c r="C73" s="166"/>
-      <c r="D73" s="199"/>
+      <c r="A73" s="162"/>
+      <c r="B73" s="161"/>
+      <c r="C73" s="162"/>
+      <c r="D73" s="183"/>
       <c r="E73" s="30" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="166"/>
-      <c r="B74" s="157"/>
-      <c r="C74" s="166"/>
-      <c r="D74" s="199"/>
+      <c r="A74" s="162"/>
+      <c r="B74" s="161"/>
+      <c r="C74" s="162"/>
+      <c r="D74" s="183"/>
       <c r="E74" s="24" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="166"/>
-      <c r="B75" s="157"/>
-      <c r="C75" s="166"/>
-      <c r="D75" s="199"/>
+      <c r="A75" s="162"/>
+      <c r="B75" s="161"/>
+      <c r="C75" s="162"/>
+      <c r="D75" s="183"/>
       <c r="E75" s="30" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="166"/>
-      <c r="B76" s="157"/>
-      <c r="C76" s="166"/>
-      <c r="D76" s="199"/>
+      <c r="A76" s="162"/>
+      <c r="B76" s="161"/>
+      <c r="C76" s="162"/>
+      <c r="D76" s="183"/>
       <c r="E76" s="30" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="162"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="162"/>
-      <c r="D77" s="200"/>
+      <c r="A77" s="170"/>
+      <c r="B77" s="167"/>
+      <c r="C77" s="170"/>
+      <c r="D77" s="184"/>
       <c r="E77" s="81" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>507</v>
       </c>
-      <c r="B78" s="185" t="s">
+      <c r="B78" s="181" t="s">
         <v>249</v>
       </c>
-      <c r="C78" s="162" t="s">
+      <c r="C78" s="170" t="s">
         <v>506</v>
       </c>
-      <c r="D78" s="198"/>
+      <c r="D78" s="182"/>
       <c r="E78" s="26" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="166"/>
-      <c r="B79" s="185"/>
-      <c r="C79" s="163"/>
-      <c r="D79" s="199"/>
+      <c r="A79" s="162"/>
+      <c r="B79" s="181"/>
+      <c r="C79" s="171"/>
+      <c r="D79" s="183"/>
       <c r="E79" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="166"/>
-      <c r="B80" s="185"/>
-      <c r="C80" s="163"/>
-      <c r="D80" s="199"/>
+      <c r="A80" s="162"/>
+      <c r="B80" s="181"/>
+      <c r="C80" s="171"/>
+      <c r="D80" s="183"/>
       <c r="E80" s="24" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="166"/>
-      <c r="B81" s="185"/>
-      <c r="C81" s="164"/>
-      <c r="D81" s="200"/>
+      <c r="A81" s="162"/>
+      <c r="B81" s="181"/>
+      <c r="C81" s="172"/>
+      <c r="D81" s="184"/>
       <c r="E81" s="81" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="166" t="s">
+      <c r="A82" s="162" t="s">
         <v>234</v>
       </c>
-      <c r="B82" s="157" t="s">
+      <c r="B82" s="161" t="s">
         <v>233</v>
       </c>
-      <c r="C82" s="166" t="s">
+      <c r="C82" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="D82" s="184"/>
+      <c r="D82" s="180"/>
       <c r="E82" s="46" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="166"/>
-      <c r="B83" s="157"/>
-      <c r="C83" s="166"/>
-      <c r="D83" s="184"/>
+      <c r="A83" s="162"/>
+      <c r="B83" s="161"/>
+      <c r="C83" s="162"/>
+      <c r="D83" s="180"/>
       <c r="E83" s="24" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="166"/>
-      <c r="B84" s="157"/>
-      <c r="C84" s="166"/>
-      <c r="D84" s="184"/>
+      <c r="A84" s="162"/>
+      <c r="B84" s="161"/>
+      <c r="C84" s="162"/>
+      <c r="D84" s="180"/>
       <c r="E84" s="30" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="166"/>
-      <c r="B85" s="157"/>
-      <c r="C85" s="166"/>
-      <c r="D85" s="184"/>
+      <c r="A85" s="162"/>
+      <c r="B85" s="161"/>
+      <c r="C85" s="162"/>
+      <c r="D85" s="180"/>
       <c r="E85" s="24" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="166"/>
-      <c r="B86" s="157"/>
-      <c r="C86" s="166"/>
-      <c r="D86" s="184"/>
+      <c r="A86" s="162"/>
+      <c r="B86" s="161"/>
+      <c r="C86" s="162"/>
+      <c r="D86" s="180"/>
       <c r="E86" s="24"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="166"/>
-      <c r="B87" s="157"/>
-      <c r="C87" s="166"/>
-      <c r="D87" s="184"/>
+      <c r="A87" s="162"/>
+      <c r="B87" s="161"/>
+      <c r="C87" s="162"/>
+      <c r="D87" s="180"/>
       <c r="E87" s="24" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="166"/>
-      <c r="B88" s="157"/>
-      <c r="C88" s="166"/>
-      <c r="D88" s="184"/>
+      <c r="A88" s="162"/>
+      <c r="B88" s="161"/>
+      <c r="C88" s="162"/>
+      <c r="D88" s="180"/>
       <c r="E88" s="24" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="166"/>
-      <c r="B89" s="157"/>
-      <c r="C89" s="166"/>
-      <c r="D89" s="184"/>
+      <c r="A89" s="162"/>
+      <c r="B89" s="161"/>
+      <c r="C89" s="162"/>
+      <c r="D89" s="180"/>
       <c r="E89" s="24" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="166"/>
-      <c r="B90" s="157"/>
-      <c r="C90" s="166"/>
-      <c r="D90" s="184"/>
+      <c r="A90" s="162"/>
+      <c r="B90" s="161"/>
+      <c r="C90" s="162"/>
+      <c r="D90" s="180"/>
       <c r="E90" s="24" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="166"/>
-      <c r="B91" s="157"/>
-      <c r="C91" s="166"/>
-      <c r="D91" s="184"/>
+      <c r="A91" s="162"/>
+      <c r="B91" s="161"/>
+      <c r="C91" s="162"/>
+      <c r="D91" s="180"/>
       <c r="E91" s="24"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="166"/>
-      <c r="B92" s="157"/>
-      <c r="C92" s="166"/>
-      <c r="D92" s="184"/>
+      <c r="A92" s="162"/>
+      <c r="B92" s="161"/>
+      <c r="C92" s="162"/>
+      <c r="D92" s="180"/>
       <c r="E92" s="24" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="166"/>
-      <c r="B93" s="157"/>
-      <c r="C93" s="166"/>
-      <c r="D93" s="184"/>
+      <c r="A93" s="162"/>
+      <c r="B93" s="161"/>
+      <c r="C93" s="162"/>
+      <c r="D93" s="180"/>
       <c r="E93" s="24" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="166"/>
-      <c r="B94" s="157"/>
-      <c r="C94" s="166"/>
-      <c r="D94" s="184"/>
+      <c r="A94" s="162"/>
+      <c r="B94" s="161"/>
+      <c r="C94" s="162"/>
+      <c r="D94" s="180"/>
       <c r="E94" s="30" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="166"/>
-      <c r="B95" s="157"/>
-      <c r="C95" s="166"/>
-      <c r="D95" s="184"/>
+      <c r="A95" s="162"/>
+      <c r="B95" s="161"/>
+      <c r="C95" s="162"/>
+      <c r="D95" s="180"/>
       <c r="E95" s="81" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="166" t="s">
+      <c r="A96" s="162" t="s">
         <v>221</v>
       </c>
-      <c r="B96" s="157" t="s">
+      <c r="B96" s="161" t="s">
         <v>220</v>
       </c>
-      <c r="C96" s="166" t="s">
+      <c r="C96" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="D96" s="184"/>
+      <c r="D96" s="180"/>
       <c r="E96" s="46" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="166"/>
-      <c r="B97" s="157"/>
-      <c r="C97" s="166"/>
-      <c r="D97" s="184"/>
+      <c r="A97" s="162"/>
+      <c r="B97" s="161"/>
+      <c r="C97" s="162"/>
+      <c r="D97" s="180"/>
       <c r="E97" s="30" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="166"/>
-      <c r="B98" s="157"/>
-      <c r="C98" s="166"/>
-      <c r="D98" s="184"/>
+      <c r="A98" s="162"/>
+      <c r="B98" s="161"/>
+      <c r="C98" s="162"/>
+      <c r="D98" s="180"/>
       <c r="E98" s="24" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="166"/>
-      <c r="B99" s="157"/>
-      <c r="C99" s="166"/>
-      <c r="D99" s="184"/>
+      <c r="A99" s="162"/>
+      <c r="B99" s="161"/>
+      <c r="C99" s="162"/>
+      <c r="D99" s="180"/>
       <c r="E99" s="24"/>
     </row>
     <row r="100" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="166"/>
-      <c r="B100" s="157"/>
-      <c r="C100" s="166"/>
-      <c r="D100" s="184"/>
+      <c r="A100" s="162"/>
+      <c r="B100" s="161"/>
+      <c r="C100" s="162"/>
+      <c r="D100" s="180"/>
       <c r="E100" s="30" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="166"/>
-      <c r="B101" s="157"/>
-      <c r="C101" s="166"/>
-      <c r="D101" s="184"/>
+      <c r="A101" s="162"/>
+      <c r="B101" s="161"/>
+      <c r="C101" s="162"/>
+      <c r="D101" s="180"/>
       <c r="E101" s="30" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="166"/>
-      <c r="B102" s="157"/>
-      <c r="C102" s="166"/>
-      <c r="D102" s="184"/>
+      <c r="A102" s="162"/>
+      <c r="B102" s="161"/>
+      <c r="C102" s="162"/>
+      <c r="D102" s="180"/>
       <c r="E102" s="30" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="166"/>
-      <c r="B103" s="157"/>
-      <c r="C103" s="166"/>
-      <c r="D103" s="184"/>
+      <c r="A103" s="162"/>
+      <c r="B103" s="161"/>
+      <c r="C103" s="162"/>
+      <c r="D103" s="180"/>
       <c r="E103" s="24"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="166"/>
-      <c r="B104" s="157"/>
-      <c r="C104" s="166"/>
-      <c r="D104" s="184"/>
+      <c r="A104" s="162"/>
+      <c r="B104" s="161"/>
+      <c r="C104" s="162"/>
+      <c r="D104" s="180"/>
       <c r="E104" s="24" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="166"/>
-      <c r="B105" s="157"/>
-      <c r="C105" s="166"/>
-      <c r="D105" s="184"/>
+      <c r="A105" s="162"/>
+      <c r="B105" s="161"/>
+      <c r="C105" s="162"/>
+      <c r="D105" s="180"/>
       <c r="E105" s="24" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="166"/>
-      <c r="B106" s="157"/>
-      <c r="C106" s="166"/>
-      <c r="D106" s="184"/>
+      <c r="A106" s="162"/>
+      <c r="B106" s="161"/>
+      <c r="C106" s="162"/>
+      <c r="D106" s="180"/>
       <c r="E106" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="166"/>
-      <c r="B107" s="157"/>
-      <c r="C107" s="166"/>
-      <c r="D107" s="184"/>
+      <c r="A107" s="162"/>
+      <c r="B107" s="161"/>
+      <c r="C107" s="162"/>
+      <c r="D107" s="180"/>
       <c r="E107" s="81" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="166" t="s">
+      <c r="A108" s="162" t="s">
         <v>209</v>
       </c>
-      <c r="B108" s="157" t="s">
+      <c r="B108" s="161" t="s">
         <v>208</v>
       </c>
-      <c r="C108" s="166" t="s">
+      <c r="C108" s="162" t="s">
         <v>207</v>
       </c>
-      <c r="D108" s="184"/>
+      <c r="D108" s="180"/>
       <c r="E108" s="46" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="166"/>
-      <c r="B109" s="157"/>
-      <c r="C109" s="166"/>
-      <c r="D109" s="184"/>
+      <c r="A109" s="162"/>
+      <c r="B109" s="161"/>
+      <c r="C109" s="162"/>
+      <c r="D109" s="180"/>
       <c r="E109" s="30" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="166"/>
-      <c r="B110" s="157"/>
-      <c r="C110" s="166"/>
-      <c r="D110" s="184"/>
+      <c r="A110" s="162"/>
+      <c r="B110" s="161"/>
+      <c r="C110" s="162"/>
+      <c r="D110" s="180"/>
       <c r="E110" s="130" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="166"/>
-      <c r="B111" s="157"/>
-      <c r="C111" s="166"/>
-      <c r="D111" s="184"/>
+      <c r="A111" s="162"/>
+      <c r="B111" s="161"/>
+      <c r="C111" s="162"/>
+      <c r="D111" s="180"/>
       <c r="E111" s="24" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="166"/>
-      <c r="B112" s="157"/>
-      <c r="C112" s="166"/>
-      <c r="D112" s="184"/>
+      <c r="A112" s="162"/>
+      <c r="B112" s="161"/>
+      <c r="C112" s="162"/>
+      <c r="D112" s="180"/>
       <c r="E112" s="24" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="166"/>
-      <c r="B113" s="157"/>
-      <c r="C113" s="166"/>
-      <c r="D113" s="184"/>
+      <c r="A113" s="162"/>
+      <c r="B113" s="161"/>
+      <c r="C113" s="162"/>
+      <c r="D113" s="180"/>
       <c r="E113" s="24" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="166"/>
-      <c r="B114" s="157"/>
-      <c r="C114" s="166"/>
-      <c r="D114" s="184"/>
+      <c r="A114" s="162"/>
+      <c r="B114" s="161"/>
+      <c r="C114" s="162"/>
+      <c r="D114" s="180"/>
       <c r="E114" s="24" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="166"/>
-      <c r="B115" s="157"/>
-      <c r="C115" s="166"/>
-      <c r="D115" s="184"/>
+      <c r="A115" s="162"/>
+      <c r="B115" s="161"/>
+      <c r="C115" s="162"/>
+      <c r="D115" s="180"/>
       <c r="E115" s="24" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="166"/>
-      <c r="B116" s="157"/>
-      <c r="C116" s="166"/>
-      <c r="D116" s="184"/>
+      <c r="A116" s="162"/>
+      <c r="B116" s="161"/>
+      <c r="C116" s="162"/>
+      <c r="D116" s="180"/>
       <c r="E116" s="24" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="166"/>
-      <c r="B117" s="157"/>
-      <c r="C117" s="166"/>
-      <c r="D117" s="184"/>
+      <c r="A117" s="162"/>
+      <c r="B117" s="161"/>
+      <c r="C117" s="162"/>
+      <c r="D117" s="180"/>
       <c r="E117" s="24" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="166"/>
-      <c r="B118" s="157"/>
-      <c r="C118" s="166"/>
-      <c r="D118" s="184"/>
+      <c r="A118" s="162"/>
+      <c r="B118" s="161"/>
+      <c r="C118" s="162"/>
+      <c r="D118" s="180"/>
       <c r="E118" s="81" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A119" s="166" t="s">
+      <c r="A119" s="162" t="s">
         <v>196</v>
       </c>
-      <c r="B119" s="157" t="s">
+      <c r="B119" s="161" t="s">
         <v>195</v>
       </c>
-      <c r="C119" s="166" t="s">
+      <c r="C119" s="162" t="s">
         <v>194</v>
       </c>
-      <c r="D119" s="179"/>
+      <c r="D119" s="227"/>
       <c r="E119" s="26" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="166"/>
-      <c r="B120" s="157"/>
-      <c r="C120" s="166"/>
-      <c r="D120" s="180"/>
+      <c r="A120" s="162"/>
+      <c r="B120" s="161"/>
+      <c r="C120" s="162"/>
+      <c r="D120" s="228"/>
       <c r="E120" s="86" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="166"/>
-      <c r="B121" s="157"/>
-      <c r="C121" s="166"/>
-      <c r="D121" s="180"/>
+      <c r="A121" s="162"/>
+      <c r="B121" s="161"/>
+      <c r="C121" s="162"/>
+      <c r="D121" s="228"/>
       <c r="E121" s="30" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="166"/>
-      <c r="B122" s="157"/>
-      <c r="C122" s="166"/>
-      <c r="D122" s="180"/>
+      <c r="A122" s="162"/>
+      <c r="B122" s="161"/>
+      <c r="C122" s="162"/>
+      <c r="D122" s="228"/>
       <c r="E122" s="86" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="166"/>
-      <c r="B123" s="157"/>
-      <c r="C123" s="166"/>
-      <c r="D123" s="180"/>
+      <c r="A123" s="162"/>
+      <c r="B123" s="161"/>
+      <c r="C123" s="162"/>
+      <c r="D123" s="228"/>
       <c r="E123" s="24"/>
     </row>
     <row r="124" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="166"/>
-      <c r="B124" s="157"/>
-      <c r="C124" s="166"/>
-      <c r="D124" s="180"/>
+      <c r="A124" s="162"/>
+      <c r="B124" s="161"/>
+      <c r="C124" s="162"/>
+      <c r="D124" s="228"/>
       <c r="E124" s="30" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="166"/>
-      <c r="B125" s="157"/>
-      <c r="C125" s="166"/>
-      <c r="D125" s="180"/>
+      <c r="A125" s="162"/>
+      <c r="B125" s="161"/>
+      <c r="C125" s="162"/>
+      <c r="D125" s="228"/>
       <c r="E125" s="86" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="166"/>
-      <c r="B126" s="157"/>
-      <c r="C126" s="166"/>
-      <c r="D126" s="180"/>
+      <c r="A126" s="162"/>
+      <c r="B126" s="161"/>
+      <c r="C126" s="162"/>
+      <c r="D126" s="228"/>
       <c r="E126" s="30" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="166"/>
-      <c r="B127" s="157"/>
-      <c r="C127" s="166"/>
-      <c r="D127" s="180"/>
+      <c r="A127" s="162"/>
+      <c r="B127" s="161"/>
+      <c r="C127" s="162"/>
+      <c r="D127" s="228"/>
       <c r="E127" s="86" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="166"/>
-      <c r="B128" s="157"/>
-      <c r="C128" s="166"/>
-      <c r="D128" s="180"/>
+      <c r="A128" s="162"/>
+      <c r="B128" s="161"/>
+      <c r="C128" s="162"/>
+      <c r="D128" s="228"/>
       <c r="E128" s="24"/>
     </row>
     <row r="129" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A129" s="166"/>
-      <c r="B129" s="157"/>
-      <c r="C129" s="166"/>
-      <c r="D129" s="180"/>
+      <c r="A129" s="162"/>
+      <c r="B129" s="161"/>
+      <c r="C129" s="162"/>
+      <c r="D129" s="228"/>
       <c r="E129" s="30" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="166"/>
-      <c r="B130" s="157"/>
-      <c r="C130" s="166"/>
-      <c r="D130" s="180"/>
+      <c r="A130" s="162"/>
+      <c r="B130" s="161"/>
+      <c r="C130" s="162"/>
+      <c r="D130" s="228"/>
       <c r="E130" s="30" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="162"/>
-      <c r="B131" s="171"/>
-      <c r="C131" s="162"/>
-      <c r="D131" s="180"/>
+      <c r="A131" s="170"/>
+      <c r="B131" s="167"/>
+      <c r="C131" s="170"/>
+      <c r="D131" s="228"/>
       <c r="E131" s="81" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="166" t="s">
+      <c r="A132" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="B132" s="157" t="s">
+      <c r="B132" s="161" t="s">
         <v>181</v>
       </c>
-      <c r="C132" s="181">
+      <c r="C132" s="179">
         <v>5000</v>
       </c>
-      <c r="D132" s="182"/>
+      <c r="D132" s="229"/>
       <c r="E132" s="46" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="166"/>
-      <c r="B133" s="157"/>
-      <c r="C133" s="181"/>
-      <c r="D133" s="183"/>
+      <c r="A133" s="162"/>
+      <c r="B133" s="161"/>
+      <c r="C133" s="179"/>
+      <c r="D133" s="230"/>
       <c r="E133" s="81" t="s">
         <v>180</v>
       </c>
@@ -7297,7 +7297,7 @@
       <c r="E134" s="26"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="195" t="s">
+      <c r="A135" s="220" t="s">
         <v>177</v>
       </c>
       <c r="B135" s="7" t="s">
@@ -7310,14 +7310,14 @@
       <c r="E135" s="5"/>
     </row>
     <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="196"/>
-      <c r="B136" s="157" t="s">
+      <c r="A136" s="221"/>
+      <c r="B136" s="161" t="s">
         <v>175</v>
       </c>
       <c r="C136" s="126">
         <v>2000</v>
       </c>
-      <c r="D136" s="194">
+      <c r="D136" s="212">
         <f>IF(NOT(ISNUMBER(D135)),0,D135*C136)</f>
         <v>0</v>
       </c>
@@ -7326,18 +7326,18 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="197"/>
-      <c r="B137" s="157"/>
+      <c r="A137" s="222"/>
+      <c r="B137" s="161"/>
       <c r="C137" s="129" t="s">
         <v>475</v>
       </c>
-      <c r="D137" s="194"/>
+      <c r="D137" s="212"/>
       <c r="E137" s="81" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="210" t="s">
+      <c r="A138" s="214" t="s">
         <v>369</v>
       </c>
       <c r="B138" s="7" t="s">
@@ -7350,14 +7350,14 @@
       <c r="E138" s="86"/>
     </row>
     <row r="139" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="211"/>
-      <c r="B139" s="167" t="s">
+      <c r="A139" s="215"/>
+      <c r="B139" s="163" t="s">
         <v>172</v>
       </c>
       <c r="C139" s="126">
         <v>2000</v>
       </c>
-      <c r="D139" s="194">
+      <c r="D139" s="212">
         <f>IF(NOT(ISNUMBER(D138)),0,D138*C139)</f>
         <v>0</v>
       </c>
@@ -7366,12 +7366,12 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="211"/>
-      <c r="B140" s="208"/>
+      <c r="A140" s="215"/>
+      <c r="B140" s="211"/>
       <c r="C140" s="129" t="s">
         <v>475</v>
       </c>
-      <c r="D140" s="209"/>
+      <c r="D140" s="213"/>
       <c r="E140" s="82" t="s">
         <v>170</v>
       </c>
@@ -7390,7 +7390,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="212" t="s">
+      <c r="A142" s="216" t="s">
         <v>370</v>
       </c>
       <c r="B142" s="59" t="s">
@@ -7403,12 +7403,12 @@
       <c r="E142" s="87"/>
     </row>
     <row r="143" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="211"/>
-      <c r="B143" s="203" t="s">
+      <c r="A143" s="215"/>
+      <c r="B143" s="206" t="s">
         <v>167</v>
       </c>
       <c r="C143" s="126"/>
-      <c r="D143" s="201">
+      <c r="D143" s="204">
         <f>IF(NOT(ISNUMBER(D142)),0,D142*C144)</f>
         <v>0</v>
       </c>
@@ -7417,47 +7417,47 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="211"/>
-      <c r="B144" s="203"/>
+      <c r="A144" s="215"/>
+      <c r="B144" s="206"/>
       <c r="C144" s="128">
         <v>8000</v>
       </c>
-      <c r="D144" s="201"/>
+      <c r="D144" s="204"/>
       <c r="E144" s="30" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="211"/>
-      <c r="B145" s="203"/>
+      <c r="A145" s="215"/>
+      <c r="B145" s="206"/>
       <c r="C145" s="128" t="s">
         <v>475</v>
       </c>
-      <c r="D145" s="201"/>
+      <c r="D145" s="204"/>
       <c r="E145" s="30" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="211"/>
-      <c r="B146" s="203"/>
+      <c r="A146" s="215"/>
+      <c r="B146" s="206"/>
       <c r="C146" s="131"/>
-      <c r="D146" s="201"/>
+      <c r="D146" s="204"/>
       <c r="E146" s="30" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="213"/>
-      <c r="B147" s="203"/>
+      <c r="A147" s="217"/>
+      <c r="B147" s="206"/>
       <c r="C147" s="132"/>
-      <c r="D147" s="201"/>
+      <c r="D147" s="204"/>
       <c r="E147" s="81" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="210" t="s">
+      <c r="A148" s="214" t="s">
         <v>371</v>
       </c>
       <c r="B148" s="7" t="s">
@@ -7470,7 +7470,7 @@
       <c r="E148" s="86"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="214"/>
+      <c r="A149" s="218"/>
       <c r="B149" s="58" t="s">
         <v>161</v>
       </c>
@@ -7486,7 +7486,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="193" t="s">
+      <c r="A150" s="219" t="s">
         <v>372</v>
       </c>
       <c r="B150" s="55" t="s">
@@ -7502,12 +7502,12 @@
       </c>
     </row>
     <row r="151" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="163"/>
-      <c r="B151" s="202" t="s">
+      <c r="A151" s="171"/>
+      <c r="B151" s="205" t="s">
         <v>157</v>
       </c>
       <c r="C151" s="126"/>
-      <c r="D151" s="205">
+      <c r="D151" s="208">
         <f>IF(OR(NOT(OR(ISNUMBER(D150),ISNUMBER(D148))),D148=0),0,D150*C152)</f>
         <v>0</v>
       </c>
@@ -7516,668 +7516,668 @@
       </c>
     </row>
     <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="163"/>
-      <c r="B152" s="203"/>
+      <c r="A152" s="171"/>
+      <c r="B152" s="206"/>
       <c r="C152" s="128">
         <v>8000</v>
       </c>
-      <c r="D152" s="205"/>
+      <c r="D152" s="208"/>
       <c r="E152" s="30" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="163"/>
-      <c r="B153" s="203"/>
+      <c r="A153" s="171"/>
+      <c r="B153" s="206"/>
       <c r="C153" s="128" t="s">
         <v>475</v>
       </c>
-      <c r="D153" s="205"/>
+      <c r="D153" s="208"/>
       <c r="E153" s="24" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="163"/>
-      <c r="B154" s="203"/>
+      <c r="A154" s="171"/>
+      <c r="B154" s="206"/>
       <c r="C154" s="131"/>
-      <c r="D154" s="205"/>
+      <c r="D154" s="208"/>
       <c r="E154" s="30" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="163"/>
-      <c r="B155" s="203"/>
+      <c r="A155" s="171"/>
+      <c r="B155" s="206"/>
       <c r="C155" s="131"/>
-      <c r="D155" s="206"/>
+      <c r="D155" s="209"/>
       <c r="E155" s="24" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="164"/>
-      <c r="B156" s="204"/>
+      <c r="A156" s="172"/>
+      <c r="B156" s="207"/>
       <c r="C156" s="132"/>
-      <c r="D156" s="207"/>
+      <c r="D156" s="210"/>
       <c r="E156" s="81" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A157" s="166" t="s">
+      <c r="A157" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="B157" s="157" t="s">
+      <c r="B157" s="161" t="s">
         <v>488</v>
       </c>
-      <c r="C157" s="166" t="s">
+      <c r="C157" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="D157" s="158"/>
+      <c r="D157" s="173"/>
       <c r="E157" s="26" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="166"/>
-      <c r="B158" s="157"/>
-      <c r="C158" s="166"/>
-      <c r="D158" s="158"/>
+      <c r="A158" s="162"/>
+      <c r="B158" s="161"/>
+      <c r="C158" s="162"/>
+      <c r="D158" s="173"/>
       <c r="E158" s="24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="166"/>
-      <c r="B159" s="157"/>
-      <c r="C159" s="166"/>
-      <c r="D159" s="158"/>
+      <c r="A159" s="162"/>
+      <c r="B159" s="161"/>
+      <c r="C159" s="162"/>
+      <c r="D159" s="173"/>
       <c r="E159" s="24"/>
     </row>
     <row r="160" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A160" s="166"/>
-      <c r="B160" s="157"/>
-      <c r="C160" s="166"/>
-      <c r="D160" s="158"/>
+      <c r="A160" s="162"/>
+      <c r="B160" s="161"/>
+      <c r="C160" s="162"/>
+      <c r="D160" s="173"/>
       <c r="E160" s="30" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="166"/>
-      <c r="B161" s="157"/>
-      <c r="C161" s="166"/>
-      <c r="D161" s="158"/>
+      <c r="A161" s="162"/>
+      <c r="B161" s="161"/>
+      <c r="C161" s="162"/>
+      <c r="D161" s="173"/>
       <c r="E161" s="24"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="166"/>
-      <c r="B162" s="157"/>
-      <c r="C162" s="166"/>
-      <c r="D162" s="158"/>
+      <c r="A162" s="162"/>
+      <c r="B162" s="161"/>
+      <c r="C162" s="162"/>
+      <c r="D162" s="173"/>
       <c r="E162" s="24" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="166"/>
-      <c r="B163" s="157"/>
-      <c r="C163" s="166"/>
-      <c r="D163" s="158"/>
+      <c r="A163" s="162"/>
+      <c r="B163" s="161"/>
+      <c r="C163" s="162"/>
+      <c r="D163" s="173"/>
       <c r="E163" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="166"/>
-      <c r="B164" s="157"/>
-      <c r="C164" s="166"/>
-      <c r="D164" s="158"/>
+      <c r="A164" s="162"/>
+      <c r="B164" s="161"/>
+      <c r="C164" s="162"/>
+      <c r="D164" s="173"/>
       <c r="E164" s="24" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="166"/>
-      <c r="B165" s="157"/>
-      <c r="C165" s="166"/>
-      <c r="D165" s="158"/>
+      <c r="A165" s="162"/>
+      <c r="B165" s="161"/>
+      <c r="C165" s="162"/>
+      <c r="D165" s="173"/>
       <c r="E165" s="24" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A166" s="166"/>
-      <c r="B166" s="157"/>
-      <c r="C166" s="166"/>
-      <c r="D166" s="158"/>
+      <c r="A166" s="162"/>
+      <c r="B166" s="161"/>
+      <c r="C166" s="162"/>
+      <c r="D166" s="173"/>
       <c r="E166" s="30" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="166"/>
-      <c r="B167" s="157"/>
-      <c r="C167" s="166"/>
-      <c r="D167" s="158"/>
+      <c r="A167" s="162"/>
+      <c r="B167" s="161"/>
+      <c r="C167" s="162"/>
+      <c r="D167" s="173"/>
       <c r="E167" s="30" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="166"/>
-      <c r="B168" s="157"/>
-      <c r="C168" s="166"/>
-      <c r="D168" s="158"/>
+      <c r="A168" s="162"/>
+      <c r="B168" s="161"/>
+      <c r="C168" s="162"/>
+      <c r="D168" s="173"/>
       <c r="E168" s="24"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="166"/>
-      <c r="B169" s="157"/>
-      <c r="C169" s="166"/>
-      <c r="D169" s="158"/>
+      <c r="A169" s="162"/>
+      <c r="B169" s="161"/>
+      <c r="C169" s="162"/>
+      <c r="D169" s="173"/>
       <c r="E169" s="24" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="166"/>
-      <c r="B170" s="157"/>
-      <c r="C170" s="166"/>
-      <c r="D170" s="158"/>
+      <c r="A170" s="162"/>
+      <c r="B170" s="161"/>
+      <c r="C170" s="162"/>
+      <c r="D170" s="173"/>
       <c r="E170" s="24" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="166"/>
-      <c r="B171" s="157"/>
-      <c r="C171" s="166"/>
-      <c r="D171" s="158"/>
+      <c r="A171" s="162"/>
+      <c r="B171" s="161"/>
+      <c r="C171" s="162"/>
+      <c r="D171" s="173"/>
       <c r="E171" s="32" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A172" s="166" t="s">
+      <c r="A172" s="162" t="s">
         <v>487</v>
       </c>
-      <c r="B172" s="157" t="s">
+      <c r="B172" s="161" t="s">
         <v>489</v>
       </c>
-      <c r="C172" s="166" t="s">
+      <c r="C172" s="162" t="s">
         <v>194</v>
       </c>
-      <c r="D172" s="158"/>
+      <c r="D172" s="173"/>
       <c r="E172" s="26" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="166"/>
-      <c r="B173" s="157"/>
-      <c r="C173" s="166"/>
-      <c r="D173" s="158"/>
+      <c r="A173" s="162"/>
+      <c r="B173" s="161"/>
+      <c r="C173" s="162"/>
+      <c r="D173" s="173"/>
       <c r="E173" s="24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="166"/>
-      <c r="B174" s="157"/>
-      <c r="C174" s="166"/>
-      <c r="D174" s="158"/>
+      <c r="A174" s="162"/>
+      <c r="B174" s="161"/>
+      <c r="C174" s="162"/>
+      <c r="D174" s="173"/>
       <c r="E174" s="24"/>
     </row>
     <row r="175" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A175" s="166"/>
-      <c r="B175" s="157"/>
-      <c r="C175" s="166"/>
-      <c r="D175" s="158"/>
+      <c r="A175" s="162"/>
+      <c r="B175" s="161"/>
+      <c r="C175" s="162"/>
+      <c r="D175" s="173"/>
       <c r="E175" s="30" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="166"/>
-      <c r="B176" s="157"/>
-      <c r="C176" s="166"/>
-      <c r="D176" s="158"/>
+      <c r="A176" s="162"/>
+      <c r="B176" s="161"/>
+      <c r="C176" s="162"/>
+      <c r="D176" s="173"/>
       <c r="E176" s="24"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="166"/>
-      <c r="B177" s="157"/>
-      <c r="C177" s="166"/>
-      <c r="D177" s="158"/>
+      <c r="A177" s="162"/>
+      <c r="B177" s="161"/>
+      <c r="C177" s="162"/>
+      <c r="D177" s="173"/>
       <c r="E177" s="24" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="166"/>
-      <c r="B178" s="157"/>
-      <c r="C178" s="166"/>
-      <c r="D178" s="158"/>
+      <c r="A178" s="162"/>
+      <c r="B178" s="161"/>
+      <c r="C178" s="162"/>
+      <c r="D178" s="173"/>
       <c r="E178" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="166"/>
-      <c r="B179" s="157"/>
-      <c r="C179" s="166"/>
-      <c r="D179" s="158"/>
+      <c r="A179" s="162"/>
+      <c r="B179" s="161"/>
+      <c r="C179" s="162"/>
+      <c r="D179" s="173"/>
       <c r="E179" s="24" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="166"/>
-      <c r="B180" s="157"/>
-      <c r="C180" s="166"/>
-      <c r="D180" s="158"/>
+      <c r="A180" s="162"/>
+      <c r="B180" s="161"/>
+      <c r="C180" s="162"/>
+      <c r="D180" s="173"/>
       <c r="E180" s="24" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A181" s="166"/>
-      <c r="B181" s="157"/>
-      <c r="C181" s="166"/>
-      <c r="D181" s="158"/>
+      <c r="A181" s="162"/>
+      <c r="B181" s="161"/>
+      <c r="C181" s="162"/>
+      <c r="D181" s="173"/>
       <c r="E181" s="30" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A182" s="166"/>
-      <c r="B182" s="157"/>
-      <c r="C182" s="166"/>
-      <c r="D182" s="158"/>
+      <c r="A182" s="162"/>
+      <c r="B182" s="161"/>
+      <c r="C182" s="162"/>
+      <c r="D182" s="173"/>
       <c r="E182" s="30" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="166"/>
-      <c r="B183" s="157"/>
-      <c r="C183" s="166"/>
-      <c r="D183" s="158"/>
+      <c r="A183" s="162"/>
+      <c r="B183" s="161"/>
+      <c r="C183" s="162"/>
+      <c r="D183" s="173"/>
       <c r="E183" s="32"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="226" t="s">
+      <c r="A184" s="198" t="s">
         <v>136</v>
       </c>
-      <c r="B184" s="188" t="s">
+      <c r="B184" s="196" t="s">
         <v>135</v>
       </c>
-      <c r="C184" s="223" t="s">
+      <c r="C184" s="193" t="s">
         <v>126</v>
       </c>
-      <c r="D184" s="159"/>
+      <c r="D184" s="157"/>
       <c r="E184" s="46" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A185" s="187"/>
-      <c r="B185" s="189"/>
-      <c r="C185" s="224"/>
-      <c r="D185" s="160"/>
+      <c r="A185" s="199"/>
+      <c r="B185" s="197"/>
+      <c r="C185" s="194"/>
+      <c r="D185" s="158"/>
       <c r="E185" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A186" s="187"/>
-      <c r="B186" s="189"/>
-      <c r="C186" s="224"/>
-      <c r="D186" s="160"/>
+      <c r="A186" s="199"/>
+      <c r="B186" s="197"/>
+      <c r="C186" s="194"/>
+      <c r="D186" s="158"/>
       <c r="E186" s="30" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="187"/>
-      <c r="B187" s="189"/>
-      <c r="C187" s="224"/>
-      <c r="D187" s="160"/>
+      <c r="A187" s="199"/>
+      <c r="B187" s="197"/>
+      <c r="C187" s="194"/>
+      <c r="D187" s="158"/>
       <c r="E187" s="86" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="187"/>
-      <c r="B188" s="189"/>
-      <c r="C188" s="224"/>
-      <c r="D188" s="160"/>
+      <c r="A188" s="199"/>
+      <c r="B188" s="197"/>
+      <c r="C188" s="194"/>
+      <c r="D188" s="158"/>
       <c r="E188" s="86" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="227"/>
-      <c r="B189" s="218"/>
-      <c r="C189" s="225"/>
-      <c r="D189" s="161"/>
+      <c r="A189" s="200"/>
+      <c r="B189" s="188"/>
+      <c r="C189" s="195"/>
+      <c r="D189" s="160"/>
       <c r="E189" s="81" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="219" t="s">
+      <c r="A190" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="B190" s="217" t="s">
+      <c r="B190" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="C190" s="219" t="s">
+      <c r="C190" s="189" t="s">
         <v>126</v>
       </c>
-      <c r="D190" s="228"/>
+      <c r="D190" s="201"/>
       <c r="E190" s="26" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="187"/>
-      <c r="B191" s="189"/>
-      <c r="C191" s="187"/>
-      <c r="D191" s="191"/>
+      <c r="A191" s="199"/>
+      <c r="B191" s="197"/>
+      <c r="C191" s="199"/>
+      <c r="D191" s="202"/>
       <c r="E191" s="24"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="187"/>
-      <c r="B192" s="189"/>
-      <c r="C192" s="187"/>
-      <c r="D192" s="191"/>
+      <c r="A192" s="199"/>
+      <c r="B192" s="197"/>
+      <c r="C192" s="199"/>
+      <c r="D192" s="202"/>
       <c r="E192" s="24" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="187"/>
-      <c r="B193" s="189"/>
-      <c r="C193" s="187"/>
-      <c r="D193" s="191"/>
+      <c r="A193" s="199"/>
+      <c r="B193" s="197"/>
+      <c r="C193" s="199"/>
+      <c r="D193" s="202"/>
       <c r="E193" s="24" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="187"/>
-      <c r="B194" s="189"/>
-      <c r="C194" s="187"/>
-      <c r="D194" s="191"/>
+      <c r="A194" s="199"/>
+      <c r="B194" s="197"/>
+      <c r="C194" s="199"/>
+      <c r="D194" s="202"/>
       <c r="E194" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="187"/>
-      <c r="B195" s="189"/>
-      <c r="C195" s="187"/>
-      <c r="D195" s="191"/>
+      <c r="A195" s="199"/>
+      <c r="B195" s="197"/>
+      <c r="C195" s="199"/>
+      <c r="D195" s="202"/>
       <c r="E195" s="24" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="187"/>
-      <c r="B196" s="189"/>
-      <c r="C196" s="187"/>
-      <c r="D196" s="191"/>
+      <c r="A196" s="199"/>
+      <c r="B196" s="197"/>
+      <c r="C196" s="199"/>
+      <c r="D196" s="202"/>
       <c r="E196" s="24" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="187"/>
-      <c r="B197" s="189"/>
-      <c r="C197" s="187"/>
-      <c r="D197" s="191"/>
+      <c r="A197" s="199"/>
+      <c r="B197" s="197"/>
+      <c r="C197" s="199"/>
+      <c r="D197" s="202"/>
       <c r="E197" s="24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="187"/>
-      <c r="B198" s="189"/>
-      <c r="C198" s="187"/>
-      <c r="D198" s="191"/>
+      <c r="A198" s="199"/>
+      <c r="B198" s="197"/>
+      <c r="C198" s="199"/>
+      <c r="D198" s="202"/>
       <c r="E198" s="24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A199" s="187"/>
-      <c r="B199" s="189"/>
-      <c r="C199" s="187"/>
-      <c r="D199" s="191"/>
+      <c r="A199" s="199"/>
+      <c r="B199" s="197"/>
+      <c r="C199" s="199"/>
+      <c r="D199" s="202"/>
       <c r="E199" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A200" s="187"/>
-      <c r="B200" s="189"/>
-      <c r="C200" s="187"/>
-      <c r="D200" s="191"/>
+      <c r="A200" s="199"/>
+      <c r="B200" s="197"/>
+      <c r="C200" s="199"/>
+      <c r="D200" s="202"/>
       <c r="E200" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="187"/>
-      <c r="B201" s="189"/>
-      <c r="C201" s="187"/>
-      <c r="D201" s="191"/>
+      <c r="A201" s="199"/>
+      <c r="B201" s="197"/>
+      <c r="C201" s="199"/>
+      <c r="D201" s="202"/>
       <c r="E201" s="30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A202" s="187"/>
-      <c r="B202" s="189"/>
-      <c r="C202" s="187"/>
-      <c r="D202" s="191"/>
+      <c r="A202" s="199"/>
+      <c r="B202" s="197"/>
+      <c r="C202" s="199"/>
+      <c r="D202" s="202"/>
       <c r="E202" s="30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="187"/>
-      <c r="B203" s="189"/>
-      <c r="C203" s="187"/>
-      <c r="D203" s="191"/>
+      <c r="A203" s="199"/>
+      <c r="B203" s="197"/>
+      <c r="C203" s="199"/>
+      <c r="D203" s="202"/>
       <c r="E203" s="24"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="187"/>
-      <c r="B204" s="189"/>
-      <c r="C204" s="187"/>
-      <c r="D204" s="191"/>
+      <c r="A204" s="199"/>
+      <c r="B204" s="197"/>
+      <c r="C204" s="199"/>
+      <c r="D204" s="202"/>
       <c r="E204" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="187"/>
-      <c r="B205" s="189"/>
-      <c r="C205" s="187"/>
-      <c r="D205" s="191"/>
+      <c r="A205" s="199"/>
+      <c r="B205" s="197"/>
+      <c r="C205" s="199"/>
+      <c r="D205" s="202"/>
       <c r="E205" s="24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="187"/>
-      <c r="B206" s="189"/>
-      <c r="C206" s="187"/>
-      <c r="D206" s="191"/>
+      <c r="A206" s="199"/>
+      <c r="B206" s="197"/>
+      <c r="C206" s="199"/>
+      <c r="D206" s="202"/>
       <c r="E206" s="24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="187"/>
-      <c r="B207" s="189"/>
-      <c r="C207" s="187"/>
-      <c r="D207" s="191"/>
+      <c r="A207" s="199"/>
+      <c r="B207" s="197"/>
+      <c r="C207" s="199"/>
+      <c r="D207" s="202"/>
       <c r="E207" s="30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="187"/>
-      <c r="B208" s="189"/>
-      <c r="C208" s="187"/>
-      <c r="D208" s="191"/>
+      <c r="A208" s="199"/>
+      <c r="B208" s="197"/>
+      <c r="C208" s="199"/>
+      <c r="D208" s="202"/>
       <c r="E208" s="30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A209" s="187"/>
-      <c r="B209" s="189"/>
-      <c r="C209" s="187"/>
-      <c r="D209" s="191"/>
+      <c r="A209" s="199"/>
+      <c r="B209" s="197"/>
+      <c r="C209" s="199"/>
+      <c r="D209" s="202"/>
       <c r="E209" s="30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="187"/>
-      <c r="B210" s="189"/>
-      <c r="C210" s="187"/>
-      <c r="D210" s="191"/>
+      <c r="A210" s="199"/>
+      <c r="B210" s="197"/>
+      <c r="C210" s="199"/>
+      <c r="D210" s="202"/>
       <c r="E210" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="187"/>
-      <c r="B211" s="189"/>
-      <c r="C211" s="187"/>
-      <c r="D211" s="191"/>
+      <c r="A211" s="199"/>
+      <c r="B211" s="197"/>
+      <c r="C211" s="199"/>
+      <c r="D211" s="202"/>
       <c r="E211" s="24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="187"/>
-      <c r="B212" s="189"/>
-      <c r="C212" s="187"/>
-      <c r="D212" s="191"/>
+      <c r="A212" s="199"/>
+      <c r="B212" s="197"/>
+      <c r="C212" s="199"/>
+      <c r="D212" s="202"/>
       <c r="E212" s="24"/>
     </row>
     <row r="213" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="187"/>
-      <c r="B213" s="189"/>
-      <c r="C213" s="187"/>
-      <c r="D213" s="191"/>
+      <c r="A213" s="199"/>
+      <c r="B213" s="197"/>
+      <c r="C213" s="199"/>
+      <c r="D213" s="202"/>
       <c r="E213" s="30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="227"/>
-      <c r="B214" s="218"/>
-      <c r="C214" s="227"/>
-      <c r="D214" s="229"/>
+      <c r="A214" s="200"/>
+      <c r="B214" s="188"/>
+      <c r="C214" s="200"/>
+      <c r="D214" s="203"/>
       <c r="E214" s="81" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A215" s="219" t="s">
+      <c r="A215" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="B215" s="217" t="s">
+      <c r="B215" s="187" t="s">
         <v>509</v>
       </c>
-      <c r="C215" s="221" t="s">
+      <c r="C215" s="191" t="s">
         <v>510</v>
       </c>
-      <c r="D215" s="158"/>
+      <c r="D215" s="173"/>
       <c r="E215" s="26" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="220"/>
-      <c r="B216" s="218"/>
-      <c r="C216" s="222"/>
-      <c r="D216" s="158"/>
+      <c r="A216" s="190"/>
+      <c r="B216" s="188"/>
+      <c r="C216" s="192"/>
+      <c r="D216" s="173"/>
       <c r="E216" s="81"/>
     </row>
     <row r="217" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A217" s="219" t="s">
+      <c r="A217" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="B217" s="217" t="s">
+      <c r="B217" s="187" t="s">
         <v>102</v>
       </c>
-      <c r="C217" s="221" t="s">
+      <c r="C217" s="191" t="s">
         <v>490</v>
       </c>
-      <c r="D217" s="158"/>
+      <c r="D217" s="173"/>
       <c r="E217" s="26" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="220"/>
-      <c r="B218" s="218"/>
-      <c r="C218" s="222"/>
-      <c r="D218" s="158"/>
+      <c r="A218" s="190"/>
+      <c r="B218" s="188"/>
+      <c r="C218" s="192"/>
+      <c r="D218" s="173"/>
       <c r="E218" s="81" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A219" s="166" t="s">
+      <c r="A219" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="B219" s="215" t="s">
+      <c r="B219" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="C219" s="166" t="s">
+      <c r="C219" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="D219" s="158"/>
+      <c r="D219" s="173"/>
       <c r="E219" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A220" s="166"/>
-      <c r="B220" s="216"/>
-      <c r="C220" s="166"/>
-      <c r="D220" s="158"/>
+      <c r="A220" s="162"/>
+      <c r="B220" s="186"/>
+      <c r="C220" s="162"/>
+      <c r="D220" s="173"/>
       <c r="E220" s="30" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A221" s="166"/>
-      <c r="B221" s="216"/>
-      <c r="C221" s="166"/>
-      <c r="D221" s="158"/>
+      <c r="A221" s="162"/>
+      <c r="B221" s="186"/>
+      <c r="C221" s="162"/>
+      <c r="D221" s="173"/>
       <c r="E221" s="30" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="166"/>
+      <c r="A222" s="162"/>
       <c r="B222" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C222" s="166"/>
-      <c r="D222" s="158"/>
+      <c r="C222" s="162"/>
+      <c r="D222" s="173"/>
       <c r="E222" s="81" t="s">
         <v>92</v>
       </c>
@@ -8206,92 +8206,11 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="A157:A171"/>
-    <mergeCell ref="B157:B171"/>
-    <mergeCell ref="C157:C171"/>
-    <mergeCell ref="D157:D171"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="C219:C222"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="A219:A222"/>
-    <mergeCell ref="D219:D222"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D184:D189"/>
-    <mergeCell ref="C184:C189"/>
-    <mergeCell ref="B184:B189"/>
-    <mergeCell ref="A184:A189"/>
-    <mergeCell ref="C190:C214"/>
-    <mergeCell ref="B190:B214"/>
-    <mergeCell ref="A190:A214"/>
-    <mergeCell ref="D190:D214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="A172:A183"/>
-    <mergeCell ref="D172:D183"/>
-    <mergeCell ref="D143:D147"/>
-    <mergeCell ref="B151:B156"/>
-    <mergeCell ref="D151:D156"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="C172:C183"/>
-    <mergeCell ref="B172:B183"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A156"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="D46:D53"/>
-    <mergeCell ref="C46:C53"/>
-    <mergeCell ref="A72:A77"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="D72:D77"/>
-    <mergeCell ref="D82:D95"/>
-    <mergeCell ref="A82:A95"/>
-    <mergeCell ref="B82:B95"/>
-    <mergeCell ref="C82:C95"/>
-    <mergeCell ref="B96:B107"/>
-    <mergeCell ref="C119:C131"/>
-    <mergeCell ref="B119:B131"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="D9:D21"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C108:C118"/>
+    <mergeCell ref="B108:B118"/>
+    <mergeCell ref="A108:A118"/>
+    <mergeCell ref="D108:D118"/>
+    <mergeCell ref="D96:D107"/>
     <mergeCell ref="D22:D30"/>
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="B22:B30"/>
@@ -8316,6 +8235,34 @@
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="B46:B53"/>
     <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="D9:D21"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="D46:D53"/>
+    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="A72:A77"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="D72:D77"/>
+    <mergeCell ref="D82:D95"/>
+    <mergeCell ref="A82:A95"/>
+    <mergeCell ref="B82:B95"/>
+    <mergeCell ref="C82:C95"/>
+    <mergeCell ref="B96:B107"/>
+    <mergeCell ref="C119:C131"/>
+    <mergeCell ref="B119:B131"/>
     <mergeCell ref="A119:A131"/>
     <mergeCell ref="D119:D131"/>
     <mergeCell ref="A96:A107"/>
@@ -8324,85 +8271,138 @@
     <mergeCell ref="B132:B133"/>
     <mergeCell ref="C132:C133"/>
     <mergeCell ref="D132:D133"/>
-    <mergeCell ref="C108:C118"/>
-    <mergeCell ref="B108:B118"/>
-    <mergeCell ref="A108:A118"/>
-    <mergeCell ref="D108:D118"/>
-    <mergeCell ref="D96:D107"/>
+    <mergeCell ref="A172:A183"/>
+    <mergeCell ref="D172:D183"/>
+    <mergeCell ref="D143:D147"/>
+    <mergeCell ref="B151:B156"/>
+    <mergeCell ref="D151:D156"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="C172:C183"/>
+    <mergeCell ref="B172:B183"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A156"/>
+    <mergeCell ref="C219:C222"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="A219:A222"/>
+    <mergeCell ref="D219:D222"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D184:D189"/>
+    <mergeCell ref="C184:C189"/>
+    <mergeCell ref="B184:B189"/>
+    <mergeCell ref="A184:A189"/>
+    <mergeCell ref="C190:C214"/>
+    <mergeCell ref="B190:B214"/>
+    <mergeCell ref="A190:A214"/>
+    <mergeCell ref="D190:D214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="A157:A171"/>
+    <mergeCell ref="B157:B171"/>
+    <mergeCell ref="C157:C171"/>
+    <mergeCell ref="D157:D171"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
   </mergeCells>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="19" priority="50">
+      <formula>AND(OR(#REF!&gt;0,#REF!&gt;0), $D$9="")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="18" priority="23">
       <formula>COUNTA(D42:D59)=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="between">
       <formula>0</formula>
       <formula>5999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136:D137">
-    <cfRule type="expression" dxfId="16" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="21" stopIfTrue="1">
       <formula>NOT(ISNUMBER(D135))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="22">
+    <cfRule type="expression" dxfId="14" priority="22">
       <formula>ISNUMBER($D$136)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D138:D140">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>AND($D$142&gt;0,$D$138="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D139:D140">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>NOT(ISNUMBER(D138))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D142:D147">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>AND($D$138&gt;0,$D$142="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D143:D147">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>NOT(ISNUMBER(D142))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>NOT(ISNUMBER(D148))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND($D$148&lt;1,$D$150="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D151:D156">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND($D$148&lt;1,$D$151=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>NOT(ISNUMBER(D150))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThanOrEqual">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="2" priority="50">
-      <formula>AND(OR(#REF!&gt;0,#REF!&gt;0), $D$9="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D224">
@@ -8413,7 +8413,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="901" yWindow="454" count="34">
+  <dataValidations xWindow="901" yWindow="454" count="35">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15" xr:uid="{7C5F2CC9-69A1-48F9-827C-64E5131B3870}">
       <formula1>_xlfn.FORMULATEXT(J15)</formula1>
     </dataValidation>
@@ -8456,7 +8456,7 @@
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 500 only." promptTitle="Item F7" prompt="Input a positve integer from 0 to 500._x000a__x000a_Note that the sum of relief of Item F6a, F6b and F6c are limited to 6000 only." sqref="D54:D59" xr:uid="{EA271966-D6D2-4910-A74F-FC68B8F06897}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 500 only." promptTitle="Item F7" prompt="Input a positve integer from 0 to 500._x000a__x000a_Note that the sum of relief of Item F6a, F6b and F6c are limited to 6000 only." sqref="D54:D55" xr:uid="{EA271966-D6D2-4910-A74F-FC68B8F06897}">
       <formula1>0</formula1>
       <formula2>500</formula2>
     </dataValidation>
@@ -8530,6 +8530,10 @@
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data, Amount or Ineligible" error="The input data or amount is invalid, or you may be ineligible to claim this relief. _x000a__x000a_Note that if you claimed the relief of Item F2b, you are not ineligible to claim this relief, else input an integer from 0 to 5000 only." promptTitle="Item F2a" prompt="Input a positve integer from 0 to 5000. _x000a__x000a_By selecting this relief, you will not be eligible to claim relief of Item F2b._x000a__x000a_If you have already claimed relief of Item F2b, you will not be eligible to claim this relief." sqref="D15:D19" xr:uid="{DE1F6EAE-91B8-4C1E-BC44-698D2F968742}">
       <formula1>AND(OR(#REF!="",#REF!=0), OR(D22="",D22=0), AND(D15&gt;=0, D15 &lt;= 5000), INT(D15)=D15)</formula1>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 500 only." promptTitle="Item F7" prompt="Input a positve integer from 0 to 1000._x000a__x000a_Note that the sum of relief of Item F6a, F6b, F6c, F7a, F7b, F7c are limited to 6000 only." sqref="D56:D59" xr:uid="{B08E487B-6483-4F92-B478-913B7FAFDD5F}">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E41" r:id="rId1" xr:uid="{0A00DF98-B175-4727-A964-9E786BBE279D}"/>
@@ -8547,8 +8551,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C5" sqref="C5:C17"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -8586,386 +8590,386 @@
       <c r="D3" s="117"/>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="233" t="s">
+      <c r="A5" s="234" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="232" t="s">
+      <c r="B5" s="233" t="s">
         <v>355</v>
       </c>
       <c r="C5" s="74" t="s">
         <v>354</v>
       </c>
-      <c r="D5" s="230" t="s">
+      <c r="D5" s="231" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="211"/>
-      <c r="B6" s="172"/>
+      <c r="A6" s="215"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="D6" s="231"/>
+      <c r="D6" s="232"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="211"/>
-      <c r="B7" s="172"/>
+      <c r="A7" s="215"/>
+      <c r="B7" s="168"/>
       <c r="C7" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="231"/>
+      <c r="D7" s="232"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="211"/>
-      <c r="B8" s="172"/>
+      <c r="A8" s="215"/>
+      <c r="B8" s="168"/>
       <c r="C8" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="231"/>
+      <c r="D8" s="232"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="211"/>
-      <c r="B9" s="172"/>
+      <c r="A9" s="215"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="231"/>
+      <c r="D9" s="232"/>
     </row>
     <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="211"/>
-      <c r="B10" s="172"/>
+      <c r="A10" s="215"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="D10" s="231"/>
+      <c r="D10" s="232"/>
     </row>
     <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="211"/>
-      <c r="B11" s="172"/>
+      <c r="A11" s="215"/>
+      <c r="B11" s="168"/>
       <c r="C11" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="D11" s="231"/>
+      <c r="D11" s="232"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="211"/>
-      <c r="B12" s="172"/>
+      <c r="A12" s="215"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="231"/>
+      <c r="D12" s="232"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="211"/>
-      <c r="B13" s="172"/>
+      <c r="A13" s="215"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="D13" s="231"/>
+      <c r="D13" s="232"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="211"/>
-      <c r="B14" s="172"/>
+      <c r="A14" s="215"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="D14" s="231"/>
+      <c r="D14" s="232"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="211"/>
-      <c r="B15" s="172"/>
+      <c r="A15" s="215"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="231"/>
+      <c r="D15" s="232"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="211"/>
-      <c r="B16" s="172"/>
+      <c r="A16" s="215"/>
+      <c r="B16" s="168"/>
       <c r="C16" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="D16" s="231"/>
+      <c r="D16" s="232"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="211"/>
-      <c r="B17" s="172"/>
+      <c r="A17" s="215"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="D17" s="231"/>
+      <c r="D17" s="232"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="211"/>
-      <c r="B18" s="172"/>
+      <c r="A18" s="215"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="231"/>
+      <c r="D18" s="232"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="211"/>
-      <c r="B19" s="172"/>
+      <c r="A19" s="215"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="D19" s="231"/>
+      <c r="D19" s="232"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="211"/>
-      <c r="B20" s="172"/>
+      <c r="A20" s="215"/>
+      <c r="B20" s="168"/>
       <c r="C20" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="D20" s="231"/>
+      <c r="D20" s="232"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="211"/>
-      <c r="B21" s="172"/>
+      <c r="A21" s="215"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="231"/>
+      <c r="D21" s="232"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="211"/>
-      <c r="B22" s="172"/>
+      <c r="A22" s="215"/>
+      <c r="B22" s="168"/>
       <c r="C22" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="D22" s="231"/>
+      <c r="D22" s="232"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="211"/>
-      <c r="B23" s="172"/>
+      <c r="A23" s="215"/>
+      <c r="B23" s="168"/>
       <c r="C23" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="D23" s="231"/>
+      <c r="D23" s="232"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="211"/>
-      <c r="B24" s="172"/>
+      <c r="A24" s="215"/>
+      <c r="B24" s="168"/>
       <c r="C24" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="D24" s="231"/>
+      <c r="D24" s="232"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="211"/>
-      <c r="B25" s="172"/>
+      <c r="A25" s="215"/>
+      <c r="B25" s="168"/>
       <c r="C25" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="D25" s="231"/>
+      <c r="D25" s="232"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="211"/>
-      <c r="B26" s="172"/>
+      <c r="A26" s="215"/>
+      <c r="B26" s="168"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="231"/>
+      <c r="D26" s="232"/>
     </row>
     <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="211"/>
-      <c r="B27" s="172"/>
+      <c r="A27" s="215"/>
+      <c r="B27" s="168"/>
       <c r="C27" s="75" t="s">
         <v>337</v>
       </c>
-      <c r="D27" s="231"/>
+      <c r="D27" s="232"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="211"/>
-      <c r="B28" s="172"/>
+      <c r="A28" s="215"/>
+      <c r="B28" s="168"/>
       <c r="C28" s="74" t="s">
         <v>336</v>
       </c>
-      <c r="D28" s="230" t="s">
+      <c r="D28" s="231" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="211"/>
-      <c r="B29" s="172"/>
+      <c r="A29" s="215"/>
+      <c r="B29" s="168"/>
       <c r="C29" s="75" t="s">
         <v>334</v>
       </c>
-      <c r="D29" s="231"/>
+      <c r="D29" s="232"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="211"/>
-      <c r="B30" s="172"/>
+      <c r="A30" s="215"/>
+      <c r="B30" s="168"/>
       <c r="C30" s="74" t="s">
         <v>333</v>
       </c>
-      <c r="D30" s="231"/>
+      <c r="D30" s="232"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="211"/>
-      <c r="B31" s="172"/>
+      <c r="A31" s="215"/>
+      <c r="B31" s="168"/>
       <c r="C31" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="D31" s="231"/>
+      <c r="D31" s="232"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="211"/>
-      <c r="B32" s="172"/>
+      <c r="A32" s="215"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="D32" s="231"/>
+      <c r="D32" s="232"/>
     </row>
     <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="211"/>
-      <c r="B33" s="172"/>
+      <c r="A33" s="215"/>
+      <c r="B33" s="168"/>
       <c r="C33" s="75" t="s">
         <v>330</v>
       </c>
-      <c r="D33" s="231"/>
+      <c r="D33" s="232"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="211"/>
-      <c r="B34" s="172"/>
+      <c r="A34" s="215"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="74" t="s">
         <v>329</v>
       </c>
-      <c r="D34" s="231"/>
+      <c r="D34" s="232"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="211"/>
-      <c r="B35" s="172"/>
+      <c r="A35" s="215"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="D35" s="231"/>
+      <c r="D35" s="232"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="211"/>
-      <c r="B36" s="172"/>
+      <c r="A36" s="215"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="231"/>
+      <c r="D36" s="232"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="211"/>
-      <c r="B37" s="172"/>
+      <c r="A37" s="215"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="D37" s="231"/>
+      <c r="D37" s="232"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="211"/>
-      <c r="B38" s="172"/>
+      <c r="A38" s="215"/>
+      <c r="B38" s="168"/>
       <c r="C38" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="D38" s="231"/>
+      <c r="D38" s="232"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="211"/>
-      <c r="B39" s="172"/>
+      <c r="A39" s="215"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="D39" s="231"/>
+      <c r="D39" s="232"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="211"/>
-      <c r="B40" s="172"/>
+      <c r="A40" s="215"/>
+      <c r="B40" s="168"/>
       <c r="C40" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="D40" s="231"/>
+      <c r="D40" s="232"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="211"/>
-      <c r="B41" s="172"/>
+      <c r="A41" s="215"/>
+      <c r="B41" s="168"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="231"/>
+      <c r="D41" s="232"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="211"/>
-      <c r="B42" s="172"/>
+      <c r="A42" s="215"/>
+      <c r="B42" s="168"/>
       <c r="C42" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="D42" s="231"/>
+      <c r="D42" s="232"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="211"/>
-      <c r="B43" s="172"/>
+      <c r="A43" s="215"/>
+      <c r="B43" s="168"/>
       <c r="C43" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="D43" s="231"/>
+      <c r="D43" s="232"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="211"/>
-      <c r="B44" s="172"/>
+      <c r="A44" s="215"/>
+      <c r="B44" s="168"/>
       <c r="C44" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="D44" s="231"/>
+      <c r="D44" s="232"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="211"/>
-      <c r="B45" s="172"/>
+      <c r="A45" s="215"/>
+      <c r="B45" s="168"/>
       <c r="C45" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="D45" s="231"/>
+      <c r="D45" s="232"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="211"/>
-      <c r="B46" s="172"/>
+      <c r="A46" s="215"/>
+      <c r="B46" s="168"/>
       <c r="C46" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="D46" s="231"/>
+      <c r="D46" s="232"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="213"/>
-      <c r="B47" s="173"/>
+      <c r="A47" s="217"/>
+      <c r="B47" s="169"/>
       <c r="C47" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="D47" s="231"/>
+      <c r="D47" s="232"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="162" t="s">
+      <c r="A49" s="170" t="s">
         <v>443</v>
       </c>
-      <c r="B49" s="210" t="s">
+      <c r="B49" s="214" t="s">
         <v>448</v>
       </c>
       <c r="C49" s="99" t="s">
         <v>447</v>
       </c>
-      <c r="D49" s="234"/>
+      <c r="D49" s="235"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="163"/>
-      <c r="B50" s="211"/>
+      <c r="A50" s="171"/>
+      <c r="B50" s="215"/>
       <c r="C50" s="45" t="s">
         <v>444</v>
       </c>
-      <c r="D50" s="235"/>
+      <c r="D50" s="236"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="163"/>
-      <c r="B51" s="211"/>
+      <c r="A51" s="171"/>
+      <c r="B51" s="215"/>
       <c r="C51" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="D51" s="235"/>
+      <c r="D51" s="236"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="163"/>
-      <c r="B52" s="211"/>
+      <c r="A52" s="171"/>
+      <c r="B52" s="215"/>
       <c r="C52" s="111" t="s">
         <v>446</v>
       </c>
-      <c r="D52" s="235"/>
+      <c r="D52" s="236"/>
     </row>
     <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="164"/>
-      <c r="B53" s="213"/>
+      <c r="A53" s="172"/>
+      <c r="B53" s="217"/>
       <c r="C53" s="100" t="s">
         <v>453</v>
       </c>
-      <c r="D53" s="236"/>
+      <c r="D53" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9007,10 +9011,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="238" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="240"/>
+      <c r="B1" s="239"/>
       <c r="C1" s="136" t="s">
         <v>366</v>
       </c>
@@ -9029,7 +9033,7 @@
       <c r="C2" s="139" t="s">
         <v>461</v>
       </c>
-      <c r="D2" s="237">
+      <c r="D2" s="240">
         <v>0</v>
       </c>
       <c r="E2" s="154">
@@ -9044,7 +9048,7 @@
       <c r="C3" s="142" t="s">
         <v>455</v>
       </c>
-      <c r="D3" s="238"/>
+      <c r="D3" s="241"/>
       <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -9055,7 +9059,7 @@
       <c r="C4" s="145" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="237">
+      <c r="D4" s="240">
         <v>0.01</v>
       </c>
       <c r="E4" s="156">
@@ -9070,7 +9074,7 @@
       <c r="C5" s="142" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="238"/>
+      <c r="D5" s="241"/>
       <c r="E5" s="155">
         <f>D4*(B5-A4+1)</f>
         <v>150</v>
@@ -9084,7 +9088,7 @@
       <c r="C6" s="139" t="s">
         <v>462</v>
       </c>
-      <c r="D6" s="237">
+      <c r="D6" s="240">
         <v>0.03</v>
       </c>
       <c r="E6" s="154">
@@ -9100,7 +9104,7 @@
       <c r="C7" s="142" t="s">
         <v>363</v>
       </c>
-      <c r="D7" s="238"/>
+      <c r="D7" s="241"/>
       <c r="E7" s="155">
         <f>D6*(B7-A6+1)</f>
         <v>450</v>
@@ -9114,7 +9118,7 @@
       <c r="C8" s="139" t="s">
         <v>463</v>
       </c>
-      <c r="D8" s="237">
+      <c r="D8" s="240">
         <v>0.06</v>
       </c>
       <c r="E8" s="154">
@@ -9130,7 +9134,7 @@
       <c r="C9" s="142" t="s">
         <v>363</v>
       </c>
-      <c r="D9" s="238"/>
+      <c r="D9" s="241"/>
       <c r="E9" s="155">
         <f t="shared" ref="E9" si="1">D8*(B9-A8+1)</f>
         <v>900</v>
@@ -9144,7 +9148,7 @@
       <c r="C10" s="139" t="s">
         <v>464</v>
       </c>
-      <c r="D10" s="237">
+      <c r="D10" s="240">
         <v>0.11</v>
       </c>
       <c r="E10" s="154">
@@ -9160,7 +9164,7 @@
       <c r="C11" s="142" t="s">
         <v>362</v>
       </c>
-      <c r="D11" s="238"/>
+      <c r="D11" s="241"/>
       <c r="E11" s="155">
         <f t="shared" ref="E11" si="3">D10*(B11-A10+1)</f>
         <v>2200</v>
@@ -9174,7 +9178,7 @@
       <c r="C12" s="139" t="s">
         <v>465</v>
       </c>
-      <c r="D12" s="237">
+      <c r="D12" s="240">
         <v>0.19</v>
       </c>
       <c r="E12" s="154">
@@ -9190,7 +9194,7 @@
       <c r="C13" s="142" t="s">
         <v>361</v>
       </c>
-      <c r="D13" s="238"/>
+      <c r="D13" s="241"/>
       <c r="E13" s="155">
         <f t="shared" ref="E13" si="5">D12*(B13-A12+1)</f>
         <v>5700</v>
@@ -9204,7 +9208,7 @@
       <c r="C14" s="139" t="s">
         <v>466</v>
       </c>
-      <c r="D14" s="237">
+      <c r="D14" s="240">
         <v>0.25</v>
       </c>
       <c r="E14" s="154">
@@ -9220,7 +9224,7 @@
       <c r="C15" s="142" t="s">
         <v>480</v>
       </c>
-      <c r="D15" s="238"/>
+      <c r="D15" s="241"/>
       <c r="E15" s="155">
         <f t="shared" ref="E15" si="7">D14*(B15-A14+1)</f>
         <v>75000</v>
@@ -9234,7 +9238,7 @@
       <c r="C16" s="139" t="s">
         <v>467</v>
       </c>
-      <c r="D16" s="237">
+      <c r="D16" s="240">
         <v>0.26</v>
       </c>
       <c r="E16" s="154">
@@ -9250,7 +9254,7 @@
       <c r="C17" s="142" t="s">
         <v>360</v>
       </c>
-      <c r="D17" s="238"/>
+      <c r="D17" s="241"/>
       <c r="E17" s="155">
         <f t="shared" ref="E17" si="9">D16*(B17-A16+1)</f>
         <v>52000</v>
@@ -9264,7 +9268,7 @@
       <c r="C18" s="139" t="s">
         <v>468</v>
       </c>
-      <c r="D18" s="237">
+      <c r="D18" s="240">
         <v>0.28000000000000003</v>
       </c>
       <c r="E18" s="154">
@@ -9280,7 +9284,7 @@
       <c r="C19" s="142" t="s">
         <v>481</v>
       </c>
-      <c r="D19" s="238"/>
+      <c r="D19" s="241"/>
       <c r="E19" s="155">
         <f t="shared" ref="E19" si="11">D18*(B19-A18+1)</f>
         <v>392000.00000000006</v>
@@ -9294,7 +9298,7 @@
       <c r="C20" s="139" t="s">
         <v>469</v>
       </c>
-      <c r="D20" s="237">
+      <c r="D20" s="240">
         <v>0.3</v>
       </c>
       <c r="E20" s="154">
@@ -9308,7 +9312,7 @@
       <c r="C21" s="142" t="s">
         <v>359</v>
       </c>
-      <c r="D21" s="238"/>
+      <c r="D21" s="241"/>
       <c r="E21" s="148" t="s">
         <v>358</v>
       </c>

--- a/Excel LHDN Calculator Form (Blank Form).xlsx
+++ b/Excel LHDN Calculator Form (Blank Form).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harein\Documents\GitHub\MY_TaxRelief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A34E86-B7A2-4F8E-ABEB-58685959C22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BBBCEE-D2A3-4EA7-81AD-EA7989F5A2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="777" activeTab="3" xr2:uid="{4EA980A6-4219-484D-BF26-8C30E1E17AF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="777" xr2:uid="{4EA980A6-4219-484D-BF26-8C30E1E17AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Compute Income Tax (Part B)" sheetId="1" r:id="rId1"/>
@@ -4494,10 +4494,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B44"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51:C57"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5445,8 +5445,8 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5957,9 +5957,9 @@
   <dimension ref="A1:E225"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B44"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7:D8"/>
+      <selection pane="bottomLeft" activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8413,7 +8413,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="901" yWindow="454" count="35">
+  <dataValidations xWindow="901" yWindow="454" count="36">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15" xr:uid="{7C5F2CC9-69A1-48F9-827C-64E5131B3870}">
       <formula1>_xlfn.FORMULATEXT(J15)</formula1>
     </dataValidation>
@@ -8433,7 +8433,7 @@
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data, Number or Ineligible" error="The input data or number is invalid, or you may be ineligible to claim this relief. _x000a__x000a_Note that if you claimed the relief of Item F14b(ii), you are not ineligible to claim this relief, else input a integer from 0." promptTitle="Item 14b(i)" prompt="Input the number of child._x000a__x000a_By selecting this relief, you will not be eligible to claim relief of Item F14b(ii)._x000a__x000a_If you have already claimed relief of Item F14b(ii), you will not be eligible to claim this relief." sqref="D138" xr:uid="{C40F2F4B-308D-4FDC-91F4-4A1E138036BE}">
       <formula1>AND(OR(D142="",D142=0), D138&gt;=0, INT(D138)=D138)</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 250 only." promptTitle="Item F18" prompt="Input a postive integer from 0 to 250." sqref="D215:D218" xr:uid="{6B3CA021-B44D-4555-83CC-D39A799FE2DA}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 250 only." promptTitle="Item F18" prompt="Input a postive integer from 0 to 250." sqref="D215:D216" xr:uid="{6B3CA021-B44D-4555-83CC-D39A799FE2DA}">
       <formula1>0</formula1>
       <formula2>250</formula2>
     </dataValidation>
@@ -8534,6 +8534,10 @@
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data or Amount" error="The input data or amount is invalid. _x000a__x000a_Please input an integer from 0 to 250 only." promptTitle="Item F18" prompt="Input a postive integer from 0 to 350." sqref="D217:D218" xr:uid="{03F5E266-46A0-4AC6-A144-04FE17B05583}">
+      <formula1>0</formula1>
+      <formula2>350</formula2>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E41" r:id="rId1" xr:uid="{0A00DF98-B175-4727-A964-9E786BBE279D}"/>
@@ -8551,10 +8555,10 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C5" sqref="C5:C17"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
